--- a/Excel/SoulRingAttrConfig.xlsx
+++ b/Excel/SoulRingAttrConfig.xlsx
@@ -1102,8 +1102,8 @@
   <sheetPr/>
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="J17">
         <f>J16*2</f>
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="J18">
         <f>J16*3</f>
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="J19">
         <f>J16*4</f>
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="J20">
         <f>J16*5</f>
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="J21">
         <f>J16*6</f>
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="J22">
         <f>J16*7</f>
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="J23">
         <f>J16*8</f>
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="J24">
         <f>J16*9</f>
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="J25">
         <f>J16*10</f>
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="J27">
         <f>J26*2</f>
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="J28">
         <f>J26*3</f>
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="J29">
         <f>J26*4</f>
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="J30">
         <f>J26*5</f>
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="J31">
         <f>J26*6</f>
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="J32">
         <f>J26*7</f>
-        <v>42000</v>
+        <v>21000</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="J33">
         <f>J26*8</f>
-        <v>48000</v>
+        <v>24000</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="J34">
         <f>J26*9</f>
-        <v>54000</v>
+        <v>27000</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="J35">
         <f>J26*10</f>
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="J37">
         <f>J36*2</f>
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="J38">
         <f>J36*3</f>
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="J39">
         <f>J36*4</f>
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="J40">
         <f>J36*5</f>
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="J41">
         <f>J36*6</f>
-        <v>60000</v>
+        <v>24000</v>
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="J42">
         <f>J36*7</f>
-        <v>70000</v>
+        <v>28000</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="J43">
         <f>J36*8</f>
-        <v>80000</v>
+        <v>32000</v>
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="J44">
         <f>J36*9</f>
-        <v>90000</v>
+        <v>36000</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="J45">
         <f>J36*10</f>
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>

--- a/Excel/SoulRingAttrConfig.xlsx
+++ b/Excel/SoulRingAttrConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -1102,8 +1102,8 @@
   <sheetPr/>
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="J17">
         <f>J16*2</f>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="J18">
         <f>J16*3</f>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="J19">
         <f>J16*4</f>
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="J20">
         <f>J16*5</f>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="J21">
         <f>J16*6</f>
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="J22">
         <f>J16*7</f>
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="J23">
         <f>J16*8</f>
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="J24">
         <f>J16*9</f>
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="J25">
         <f>J16*10</f>
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="J27">
         <f>J26*2</f>
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="J28">
         <f>J26*3</f>
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="J29">
         <f>J26*4</f>
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="J30">
         <f>J26*5</f>
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="J31">
         <f>J26*6</f>
-        <v>18000</v>
+        <v>36000</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="J32">
         <f>J26*7</f>
-        <v>21000</v>
+        <v>42000</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="J33">
         <f>J26*8</f>
-        <v>24000</v>
+        <v>48000</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="J34">
         <f>J26*9</f>
-        <v>27000</v>
+        <v>54000</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="J35">
         <f>J26*10</f>
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="J37">
         <f>J36*2</f>
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="J38">
         <f>J36*3</f>
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="J39">
         <f>J36*4</f>
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="J40">
         <f>J36*5</f>
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="J41">
         <f>J36*6</f>
-        <v>24000</v>
+        <v>60000</v>
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="J42">
         <f>J36*7</f>
-        <v>28000</v>
+        <v>70000</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="J43">
         <f>J36*8</f>
-        <v>32000</v>
+        <v>80000</v>
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="J44">
         <f>J36*9</f>
-        <v>36000</v>
+        <v>90000</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="J45">
         <f>J36*10</f>
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>

--- a/Excel/SoulRingAttrConfig.xlsx
+++ b/Excel/SoulRingAttrConfig.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -129,6 +129,39 @@
   </si>
   <si>
     <t>14,15,16,13,24</t>
+  </si>
+  <si>
+    <t>14,15,16,7,26</t>
+  </si>
+  <si>
+    <t>15,15,15,1,15</t>
+  </si>
+  <si>
+    <t>17,17,17,2,17</t>
+  </si>
+  <si>
+    <t>19,19,19,3,19</t>
+  </si>
+  <si>
+    <t>21,21,21,4,21</t>
+  </si>
+  <si>
+    <t>23,23,23,5,23</t>
+  </si>
+  <si>
+    <t>25,25,25,6,25</t>
+  </si>
+  <si>
+    <t>27,27,27,7,27</t>
+  </si>
+  <si>
+    <t>29,29,29,8,29</t>
+  </si>
+  <si>
+    <t>31,31,31,9,31</t>
+  </si>
+  <si>
+    <t>33,33,33,10,33</t>
   </si>
 </sst>
 </file>
@@ -1100,10 +1133,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="B39" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1113,7 +1146,7 @@
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="5" width="12.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="2" customWidth="1"/>
     <col min="8" max="8" width="14.375" style="2" customWidth="1"/>
     <col min="9" max="10" width="11.375" style="2" customWidth="1"/>
     <col min="11" max="12" width="30.125" style="1" customWidth="1"/>
@@ -2398,23 +2431,294 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="3:3">
-      <c r="C46"/>
-    </row>
-    <row r="47" spans="3:3">
-      <c r="C47"/>
-    </row>
-    <row r="48" spans="3:3">
-      <c r="C48"/>
-    </row>
-    <row r="49" spans="3:3">
-      <c r="C49"/>
-    </row>
-    <row r="50" spans="3:3">
-      <c r="C50"/>
-    </row>
-    <row r="51" spans="3:3">
-      <c r="C51"/>
+    <row r="46" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C46">
+        <v>501</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>50000</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C47">
+        <v>502</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f>J46*2</f>
+        <v>100000</v>
+      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C48">
+        <v>503</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <f>J46*3</f>
+        <v>150000</v>
+      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C49">
+        <v>504</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <f>J46*4</f>
+        <v>200000</v>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C50">
+        <v>505</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <f>J46*5</f>
+        <v>250000</v>
+      </c>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C51">
+        <v>506</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>6</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <f>J46*6</f>
+        <v>300000</v>
+      </c>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C52">
+        <v>507</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>7</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <f>J46*7</f>
+        <v>350000</v>
+      </c>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C53">
+        <v>508</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>8</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <f>J46*8</f>
+        <v>400000</v>
+      </c>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C54">
+        <v>509</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>9</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <f>J46*9</f>
+        <v>450000</v>
+      </c>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C55">
+        <v>510</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>10</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55">
+        <v>5</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <f>J46*10</f>
+        <v>500000</v>
+      </c>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/SoulRingAttrConfig.xlsx
+++ b/Excel/SoulRingAttrConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -120,6 +120,21 @@
   </si>
   <si>
     <t>19,19,19,14,28</t>
+  </si>
+  <si>
+    <t>21,21,21,15,32</t>
+  </si>
+  <si>
+    <t>23,23,23,16,36</t>
+  </si>
+  <si>
+    <t>25,25,25,17,40</t>
+  </si>
+  <si>
+    <t>27,27,27,18,44</t>
+  </si>
+  <si>
+    <t>29,29,29,19,48</t>
   </si>
   <si>
     <t>14,15,16,10,11</t>
@@ -1133,10 +1148,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B39" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1566,192 +1581,163 @@
     </row>
     <row r="16" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C16">
-        <v>201</v>
+        <v>111</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16">
+        <v>11</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16">
         <v>1</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16">
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C17">
-        <v>202</v>
+        <v>112</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17">
-        <f>J16*2</f>
-        <v>6000</v>
+        <v>30000</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C18">
-        <v>203</v>
+        <v>113</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J18">
-        <f>J16*3</f>
-        <v>9000</v>
+        <v>40000</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C19">
-        <v>204</v>
+        <v>114</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J19">
-        <f>J16*4</f>
-        <v>12000</v>
+        <v>50000</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C20">
-        <v>205</v>
+        <v>115</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J20">
-        <f>J16*5</f>
-        <v>15000</v>
+        <v>60000</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C21">
-        <v>206</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>6</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <f>J16*6</f>
-        <v>18000</v>
-      </c>
+    <row r="21" customFormat="1" ht="27" customHeight="1" spans="11:12">
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C22">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1760,27 +1746,26 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <f>J16*7</f>
-        <v>21000</v>
+        <v>3000</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C23">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1789,27 +1774,27 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <f>J16*8</f>
-        <v>24000</v>
+        <f>J22*2</f>
+        <v>6000</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C24">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1818,56 +1803,56 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <f>J16*9</f>
-        <v>27000</v>
+        <f>J22*3</f>
+        <v>9000</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C25">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <f>J16*10</f>
-        <v>30000</v>
+        <f>J22*4</f>
+        <v>12000</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C26">
-        <v>301</v>
+        <v>205</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1876,26 +1861,27 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>6000</v>
+        <f>J22*5</f>
+        <v>15000</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C27">
-        <v>302</v>
+        <v>206</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1904,27 +1890,27 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <f>J26*2</f>
-        <v>12000</v>
+        <f>J22*6</f>
+        <v>18000</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C28">
-        <v>303</v>
+        <v>207</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1933,27 +1919,27 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <f>J26*3</f>
-        <v>18000</v>
+        <f>J22*7</f>
+        <v>21000</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C29">
-        <v>304</v>
+        <v>208</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1962,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <f>J26*4</f>
+        <f>J22*8</f>
         <v>24000</v>
       </c>
       <c r="K29" s="1"/>
@@ -1970,19 +1956,19 @@
     </row>
     <row r="30" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C30">
-        <v>305</v>
+        <v>209</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1991,229 +1977,200 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <f>J26*5</f>
-        <v>30000</v>
+        <f>J22*9</f>
+        <v>27000</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C31">
-        <v>306</v>
+        <v>210</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <f>J26*6</f>
-        <v>36000</v>
+        <f>J22*10</f>
+        <v>30000</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
     <row r="32" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C32">
-        <v>307</v>
+        <v>211</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32">
-        <f>J26*7</f>
-        <v>42000</v>
+        <v>60000</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
     <row r="33" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C33">
-        <v>308</v>
+        <v>212</v>
       </c>
       <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>12</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
         <v>3</v>
       </c>
-      <c r="E33">
-        <v>8</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
       <c r="J33">
-        <f>J26*8</f>
-        <v>48000</v>
+        <v>90000</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
     <row r="34" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C34">
-        <v>309</v>
+        <v>213</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J34">
-        <f>J26*9</f>
-        <v>54000</v>
+        <v>120000</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
     <row r="35" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C35">
-        <v>310</v>
+        <v>214</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J35">
-        <f>J26*10</f>
-        <v>60000</v>
+        <v>150000</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
     <row r="36" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C36">
-        <v>401</v>
+        <v>215</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J36">
-        <v>10000</v>
+        <v>180000</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C37">
-        <v>402</v>
-      </c>
-      <c r="D37">
-        <v>4</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <f>J36*2</f>
-        <v>20000</v>
-      </c>
+    <row r="37" customFormat="1" ht="27" customHeight="1" spans="11:12">
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
     <row r="38" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C38">
-        <v>403</v>
+        <v>301</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2222,27 +2179,26 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <f>J36*3</f>
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
     <row r="39" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C39">
-        <v>404</v>
+        <v>302</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2251,27 +2207,27 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <f>J36*4</f>
-        <v>40000</v>
+        <f>J38*2</f>
+        <v>12000</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
     <row r="40" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C40">
-        <v>405</v>
+        <v>303</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2280,27 +2236,27 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <f>J36*5</f>
-        <v>50000</v>
+        <f>J38*3</f>
+        <v>18000</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
     <row r="41" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C41">
-        <v>406</v>
+        <v>304</v>
       </c>
       <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
         <v>4</v>
       </c>
-      <c r="E41">
-        <v>6</v>
-      </c>
       <c r="F41" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2309,27 +2265,27 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <f>J36*6</f>
-        <v>60000</v>
+        <f>J38*4</f>
+        <v>24000</v>
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
     <row r="42" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C42">
-        <v>407</v>
+        <v>305</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E42">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2338,27 +2294,27 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <f>J36*7</f>
-        <v>70000</v>
+        <f>J38*5</f>
+        <v>30000</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
     <row r="43" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C43">
-        <v>408</v>
+        <v>306</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E43">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2367,27 +2323,27 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <f>J36*8</f>
-        <v>80000</v>
+        <f>J38*6</f>
+        <v>36000</v>
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
     </row>
     <row r="44" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C44">
-        <v>409</v>
+        <v>307</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E44">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2396,56 +2352,56 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <f>J36*9</f>
-        <v>90000</v>
+        <f>J38*7</f>
+        <v>42000</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
     <row r="45" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C45">
-        <v>410</v>
+        <v>308</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E45">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <f>J36*10</f>
-        <v>100000</v>
+        <f>J38*8</f>
+        <v>48000</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
     <row r="46" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C46">
-        <v>501</v>
+        <v>309</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2454,84 +2410,60 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>50000</v>
+        <f>J38*9</f>
+        <v>54000</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
     <row r="47" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C47">
-        <v>502</v>
+        <v>310</v>
       </c>
       <c r="D47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47">
-        <f>J46*2</f>
-        <v>100000</v>
+        <f>J38*10</f>
+        <v>60000</v>
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C48">
-        <v>503</v>
-      </c>
-      <c r="D48">
-        <v>5</v>
-      </c>
-      <c r="E48">
-        <v>3</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <f>J46*3</f>
-        <v>150000</v>
-      </c>
+    <row r="48" customFormat="1" ht="27" customHeight="1" spans="11:12">
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
     </row>
     <row r="49" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C49">
-        <v>504</v>
+        <v>401</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -2540,27 +2472,26 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <f>J46*4</f>
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
     </row>
     <row r="50" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C50">
-        <v>505</v>
+        <v>402</v>
       </c>
       <c r="D50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E50">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -2569,27 +2500,27 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <f>J46*5</f>
-        <v>250000</v>
+        <f>J49*2</f>
+        <v>20000</v>
       </c>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
     </row>
     <row r="51" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C51">
-        <v>506</v>
+        <v>403</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E51">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -2598,27 +2529,27 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <f>J46*6</f>
-        <v>300000</v>
+        <f>J49*3</f>
+        <v>30000</v>
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
     </row>
     <row r="52" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C52">
-        <v>507</v>
+        <v>404</v>
       </c>
       <c r="D52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E52">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -2627,27 +2558,27 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <f>J46*7</f>
-        <v>350000</v>
+        <f>J49*4</f>
+        <v>40000</v>
       </c>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
     </row>
     <row r="53" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C53">
-        <v>508</v>
+        <v>405</v>
       </c>
       <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
         <v>5</v>
       </c>
-      <c r="E53">
-        <v>8</v>
-      </c>
       <c r="F53" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -2656,27 +2587,27 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <f>J46*8</f>
-        <v>400000</v>
+        <f>J49*5</f>
+        <v>50000</v>
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
     </row>
     <row r="54" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C54">
-        <v>509</v>
+        <v>406</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E54">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -2685,40 +2616,424 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <f>J46*9</f>
-        <v>450000</v>
+        <f>J49*6</f>
+        <v>60000</v>
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
     </row>
     <row r="55" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C55">
-        <v>510</v>
+        <v>407</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E55">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H55">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <f>J46*10</f>
-        <v>500000</v>
+        <f>J49*7</f>
+        <v>70000</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
+    </row>
+    <row r="56" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C56">
+        <v>408</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>8</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <f>J49*8</f>
+        <v>80000</v>
+      </c>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C57">
+        <v>409</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>9</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <f>J49*9</f>
+        <v>90000</v>
+      </c>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C58">
+        <v>410</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>10</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H58">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <f>J49*10</f>
+        <v>100000</v>
+      </c>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" customFormat="1" ht="27" customHeight="1" spans="11:12">
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" customFormat="1" ht="27" customHeight="1" spans="11:12">
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C61">
+        <v>501</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>20000</v>
+      </c>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C62">
+        <v>502</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <f>J61*2</f>
+        <v>40000</v>
+      </c>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C63">
+        <v>503</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <f>J61*3</f>
+        <v>60000</v>
+      </c>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C64">
+        <v>504</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <f>J61*4</f>
+        <v>80000</v>
+      </c>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C65">
+        <v>505</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <f>J61*5</f>
+        <v>100000</v>
+      </c>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C66">
+        <v>506</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>6</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <f>J61*6</f>
+        <v>120000</v>
+      </c>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C67">
+        <v>507</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67">
+        <v>7</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <f>J61*7</f>
+        <v>140000</v>
+      </c>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C68">
+        <v>508</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68">
+        <v>8</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <f>J61*8</f>
+        <v>160000</v>
+      </c>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C69">
+        <v>509</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+      <c r="E69">
+        <v>9</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <f>J61*9</f>
+        <v>180000</v>
+      </c>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+    </row>
+    <row r="70" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C70">
+        <v>510</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70">
+        <v>10</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H70">
+        <v>5</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <f>J61*10</f>
+        <v>200000</v>
+      </c>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/SoulRingAttrConfig.xlsx
+++ b/Excel/SoulRingAttrConfig.xlsx
@@ -43,12 +43,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="L4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+-1 没有
+0 随机
+&gt;0 对应模型</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="80">
   <si>
     <t>ID</t>
   </si>
@@ -74,7 +98,10 @@
     <t>Fee</t>
   </si>
   <si>
-    <t>#des</t>
+    <t>LockMemo</t>
+  </si>
+  <si>
+    <t>AurasMemo</t>
   </si>
   <si>
     <t>Id</t>
@@ -89,12 +116,18 @@
     <t>long[]</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>14,15,16,8,9</t>
   </si>
   <si>
     <t>10,10,10,5,10</t>
   </si>
   <si>
+    <t>10级解锁守护光环</t>
+  </si>
+  <si>
     <t>11,11,11,6,12</t>
   </si>
   <si>
@@ -122,36 +155,132 @@
     <t>19,19,19,14,28</t>
   </si>
   <si>
+    <t>守护光环Lv1</t>
+  </si>
+  <si>
+    <t>友方所受伤害减少10%</t>
+  </si>
+  <si>
     <t>21,21,21,15,32</t>
   </si>
   <si>
+    <t>守护光环Lv2</t>
+  </si>
+  <si>
+    <t>友方所受伤害减少11%</t>
+  </si>
+  <si>
     <t>23,23,23,16,36</t>
   </si>
   <si>
+    <t>守护光环Lv3</t>
+  </si>
+  <si>
+    <t>友方所受伤害减少12%</t>
+  </si>
+  <si>
     <t>25,25,25,17,40</t>
   </si>
   <si>
+    <t>守护光环Lv4</t>
+  </si>
+  <si>
+    <t>友方所受伤害减少13%</t>
+  </si>
+  <si>
     <t>27,27,27,18,44</t>
   </si>
   <si>
+    <t>守护光环Lv5</t>
+  </si>
+  <si>
+    <t>友方所受伤害减少14%</t>
+  </si>
+  <si>
     <t>29,29,29,19,48</t>
   </si>
   <si>
+    <t>守护光环Lv6</t>
+  </si>
+  <si>
+    <t>友方所受伤害减少15%</t>
+  </si>
+  <si>
     <t>14,15,16,10,11</t>
   </si>
   <si>
+    <t>10级解锁强击光环</t>
+  </si>
+  <si>
+    <t>强击光环Lv1</t>
+  </si>
+  <si>
+    <t>友方最终伤害增加10%</t>
+  </si>
+  <si>
+    <t>强击光环Lv2</t>
+  </si>
+  <si>
+    <t>友方最终伤害增加11%</t>
+  </si>
+  <si>
+    <t>强击光环Lv3</t>
+  </si>
+  <si>
+    <t>友方最终伤害增加12%</t>
+  </si>
+  <si>
+    <t>强击光环Lv4</t>
+  </si>
+  <si>
+    <t>友方最终伤害增加13%</t>
+  </si>
+  <si>
+    <t>强击光环Lv5</t>
+  </si>
+  <si>
+    <t>友方最终伤害增加14%</t>
+  </si>
+  <si>
+    <t>强击光环Lv6</t>
+  </si>
+  <si>
+    <t>友方最终伤害增加15%</t>
+  </si>
+  <si>
     <t>14,15,16,12,19</t>
   </si>
   <si>
+    <t>10级解锁暴击光环</t>
+  </si>
+  <si>
+    <t>暴击光环Lv1</t>
+  </si>
+  <si>
+    <t>友方暴击概率增加10%</t>
+  </si>
+  <si>
     <t>14,15,16,13,24</t>
   </si>
   <si>
+    <t>10级解锁爆伤光环</t>
+  </si>
+  <si>
+    <t>爆伤光环Lv1</t>
+  </si>
+  <si>
+    <t>友方暴击伤害增加30%</t>
+  </si>
+  <si>
     <t>14,15,16,7,26</t>
   </si>
   <si>
     <t>15,15,15,1,15</t>
   </si>
   <si>
+    <t>10级解锁祝福光环</t>
+  </si>
+  <si>
     <t>17,17,17,2,17</t>
   </si>
   <si>
@@ -177,6 +306,12 @@
   </si>
   <si>
     <t>33,33,33,10,33</t>
+  </si>
+  <si>
+    <t>祝福光环Lv1</t>
+  </si>
+  <si>
+    <t>友方最终攻击增加10%</t>
   </si>
 </sst>
 </file>
@@ -355,12 +490,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1150,8 +1285,8 @@
   <sheetPr/>
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="B56" workbookViewId="0">
+      <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1222,7 +1357,9 @@
       <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="4"/>
+      <c r="L3" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
@@ -1230,7 +1367,7 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -1253,8 +1390,12 @@
       <c r="J4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
@@ -1262,31 +1403,35 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
@@ -1301,10 +1446,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1315,7 +1460,9 @@
       <c r="J6">
         <v>1000</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
       <c r="L6" s="1"/>
     </row>
     <row r="7" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -1329,10 +1476,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1344,7 +1491,9 @@
         <f>J6*2</f>
         <v>2000</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -1358,10 +1507,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1373,7 +1522,9 @@
         <f>J6*3</f>
         <v>3000</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
       <c r="L8" s="1"/>
     </row>
     <row r="9" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -1387,10 +1538,10 @@
         <v>4</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1402,7 +1553,9 @@
         <f>J6*4</f>
         <v>4000</v>
       </c>
-      <c r="K9" s="1"/>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
       <c r="L9" s="1"/>
     </row>
     <row r="10" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -1416,10 +1569,10 @@
         <v>5</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1431,7 +1584,9 @@
         <f>J6*5</f>
         <v>5000</v>
       </c>
-      <c r="K10" s="1"/>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
       <c r="L10" s="1"/>
     </row>
     <row r="11" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -1445,10 +1600,10 @@
         <v>6</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1460,7 +1615,9 @@
         <f>J6*6</f>
         <v>6000</v>
       </c>
-      <c r="K11" s="1"/>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
       <c r="L11" s="1"/>
     </row>
     <row r="12" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -1474,10 +1631,10 @@
         <v>7</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1489,7 +1646,9 @@
         <f>J6*7</f>
         <v>7000</v>
       </c>
-      <c r="K12" s="1"/>
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
       <c r="L12" s="1"/>
     </row>
     <row r="13" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -1503,10 +1662,10 @@
         <v>8</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1518,7 +1677,9 @@
         <f>J6*8</f>
         <v>8000</v>
       </c>
-      <c r="K13" s="1"/>
+      <c r="K13" t="s">
+        <v>17</v>
+      </c>
       <c r="L13" s="1"/>
     </row>
     <row r="14" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -1532,10 +1693,10 @@
         <v>9</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1547,7 +1708,9 @@
         <f>J6*9</f>
         <v>9000</v>
       </c>
-      <c r="K14" s="1"/>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
       <c r="L14" s="1"/>
     </row>
     <row r="15" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -1561,10 +1724,10 @@
         <v>10</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1576,24 +1739,28 @@
         <f>J6*10</f>
         <v>10000</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C16">
         <v>111</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>11</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1604,24 +1771,28 @@
       <c r="J16">
         <v>20000</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="K16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C17">
         <v>112</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>12</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1632,24 +1803,28 @@
       <c r="J17">
         <v>30000</v>
       </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="K17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C18">
         <v>113</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>13</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1660,24 +1835,28 @@
       <c r="J18">
         <v>40000</v>
       </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="K18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="19" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C19">
         <v>114</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>14</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1688,24 +1867,28 @@
       <c r="J19">
         <v>50000</v>
       </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="K19" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="20" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C20">
         <v>115</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>15</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1716,8 +1899,12 @@
       <c r="J20">
         <v>60000</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="K20" t="s">
+        <v>42</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="21" customFormat="1" ht="27" customHeight="1" spans="11:12">
       <c r="K21" s="1"/>
@@ -1734,10 +1921,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1748,7 +1935,9 @@
       <c r="J22">
         <v>3000</v>
       </c>
-      <c r="K22" s="1"/>
+      <c r="K22" t="s">
+        <v>45</v>
+      </c>
       <c r="L22" s="1"/>
     </row>
     <row r="23" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -1762,10 +1951,10 @@
         <v>2</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1777,7 +1966,9 @@
         <f>J22*2</f>
         <v>6000</v>
       </c>
-      <c r="K23" s="1"/>
+      <c r="K23" t="s">
+        <v>45</v>
+      </c>
       <c r="L23" s="1"/>
     </row>
     <row r="24" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -1791,10 +1982,10 @@
         <v>3</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1806,7 +1997,9 @@
         <f>J22*3</f>
         <v>9000</v>
       </c>
-      <c r="K24" s="1"/>
+      <c r="K24" t="s">
+        <v>45</v>
+      </c>
       <c r="L24" s="1"/>
     </row>
     <row r="25" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -1820,10 +2013,10 @@
         <v>4</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1835,7 +2028,9 @@
         <f>J22*4</f>
         <v>12000</v>
       </c>
-      <c r="K25" s="1"/>
+      <c r="K25" t="s">
+        <v>45</v>
+      </c>
       <c r="L25" s="1"/>
     </row>
     <row r="26" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -1849,10 +2044,10 @@
         <v>5</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1864,7 +2059,9 @@
         <f>J22*5</f>
         <v>15000</v>
       </c>
-      <c r="K26" s="1"/>
+      <c r="K26" t="s">
+        <v>45</v>
+      </c>
       <c r="L26" s="1"/>
     </row>
     <row r="27" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -1878,10 +2075,10 @@
         <v>6</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1893,7 +2090,9 @@
         <f>J22*6</f>
         <v>18000</v>
       </c>
-      <c r="K27" s="1"/>
+      <c r="K27" t="s">
+        <v>45</v>
+      </c>
       <c r="L27" s="1"/>
     </row>
     <row r="28" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -1907,10 +2106,10 @@
         <v>7</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1922,7 +2121,9 @@
         <f>J22*7</f>
         <v>21000</v>
       </c>
-      <c r="K28" s="1"/>
+      <c r="K28" t="s">
+        <v>45</v>
+      </c>
       <c r="L28" s="1"/>
     </row>
     <row r="29" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -1936,10 +2137,10 @@
         <v>8</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1951,7 +2152,9 @@
         <f>J22*8</f>
         <v>24000</v>
       </c>
-      <c r="K29" s="1"/>
+      <c r="K29" t="s">
+        <v>45</v>
+      </c>
       <c r="L29" s="1"/>
     </row>
     <row r="30" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -1965,10 +2168,10 @@
         <v>9</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1980,7 +2183,9 @@
         <f>J22*9</f>
         <v>27000</v>
       </c>
-      <c r="K30" s="1"/>
+      <c r="K30" t="s">
+        <v>45</v>
+      </c>
       <c r="L30" s="1"/>
     </row>
     <row r="31" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -1994,10 +2199,10 @@
         <v>10</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -2009,8 +2214,12 @@
         <f>J22*10</f>
         <v>30000</v>
       </c>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="K31" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="32" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C32">
@@ -2023,10 +2232,10 @@
         <v>11</v>
       </c>
       <c r="F32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -2037,8 +2246,12 @@
       <c r="J32">
         <v>60000</v>
       </c>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="K32" t="s">
+        <v>48</v>
+      </c>
+      <c r="L32" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="33" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C33">
@@ -2051,10 +2264,10 @@
         <v>12</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -2065,8 +2278,12 @@
       <c r="J33">
         <v>90000</v>
       </c>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
+      <c r="K33" t="s">
+        <v>50</v>
+      </c>
+      <c r="L33" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="34" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C34">
@@ -2079,10 +2296,10 @@
         <v>13</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -2093,8 +2310,12 @@
       <c r="J34">
         <v>120000</v>
       </c>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
+      <c r="K34" t="s">
+        <v>52</v>
+      </c>
+      <c r="L34" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="35" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C35">
@@ -2107,10 +2328,10 @@
         <v>14</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -2121,8 +2342,12 @@
       <c r="J35">
         <v>150000</v>
       </c>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
+      <c r="K35" t="s">
+        <v>54</v>
+      </c>
+      <c r="L35" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="36" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C36">
@@ -2135,10 +2360,10 @@
         <v>15</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -2149,8 +2374,12 @@
       <c r="J36">
         <v>180000</v>
       </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
+      <c r="K36" t="s">
+        <v>56</v>
+      </c>
+      <c r="L36" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="37" customFormat="1" ht="27" customHeight="1" spans="11:12">
       <c r="K37" s="1"/>
@@ -2167,10 +2396,10 @@
         <v>1</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2181,7 +2410,9 @@
       <c r="J38">
         <v>6000</v>
       </c>
-      <c r="K38" s="1"/>
+      <c r="K38" t="s">
+        <v>59</v>
+      </c>
       <c r="L38" s="1"/>
     </row>
     <row r="39" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -2195,10 +2426,10 @@
         <v>2</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2210,7 +2441,9 @@
         <f>J38*2</f>
         <v>12000</v>
       </c>
-      <c r="K39" s="1"/>
+      <c r="K39" t="s">
+        <v>59</v>
+      </c>
       <c r="L39" s="1"/>
     </row>
     <row r="40" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -2224,10 +2457,10 @@
         <v>3</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2239,7 +2472,9 @@
         <f>J38*3</f>
         <v>18000</v>
       </c>
-      <c r="K40" s="1"/>
+      <c r="K40" t="s">
+        <v>59</v>
+      </c>
       <c r="L40" s="1"/>
     </row>
     <row r="41" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -2253,10 +2488,10 @@
         <v>4</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2268,7 +2503,9 @@
         <f>J38*4</f>
         <v>24000</v>
       </c>
-      <c r="K41" s="1"/>
+      <c r="K41" t="s">
+        <v>59</v>
+      </c>
       <c r="L41" s="1"/>
     </row>
     <row r="42" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -2282,10 +2519,10 @@
         <v>5</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2297,7 +2534,9 @@
         <f>J38*5</f>
         <v>30000</v>
       </c>
-      <c r="K42" s="1"/>
+      <c r="K42" t="s">
+        <v>59</v>
+      </c>
       <c r="L42" s="1"/>
     </row>
     <row r="43" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -2311,10 +2550,10 @@
         <v>6</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2326,7 +2565,9 @@
         <f>J38*6</f>
         <v>36000</v>
       </c>
-      <c r="K43" s="1"/>
+      <c r="K43" t="s">
+        <v>59</v>
+      </c>
       <c r="L43" s="1"/>
     </row>
     <row r="44" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -2340,10 +2581,10 @@
         <v>7</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2355,7 +2596,9 @@
         <f>J38*7</f>
         <v>42000</v>
       </c>
-      <c r="K44" s="1"/>
+      <c r="K44" t="s">
+        <v>59</v>
+      </c>
       <c r="L44" s="1"/>
     </row>
     <row r="45" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -2369,10 +2612,10 @@
         <v>8</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2384,7 +2627,9 @@
         <f>J38*8</f>
         <v>48000</v>
       </c>
-      <c r="K45" s="1"/>
+      <c r="K45" t="s">
+        <v>59</v>
+      </c>
       <c r="L45" s="1"/>
     </row>
     <row r="46" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -2398,10 +2643,10 @@
         <v>9</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2413,7 +2658,9 @@
         <f>J38*9</f>
         <v>54000</v>
       </c>
-      <c r="K46" s="1"/>
+      <c r="K46" t="s">
+        <v>59</v>
+      </c>
       <c r="L46" s="1"/>
     </row>
     <row r="47" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -2427,10 +2674,10 @@
         <v>10</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H47">
         <v>3</v>
@@ -2442,8 +2689,12 @@
         <f>J38*10</f>
         <v>60000</v>
       </c>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
+      <c r="K47" t="s">
+        <v>60</v>
+      </c>
+      <c r="L47" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="48" customFormat="1" ht="27" customHeight="1" spans="11:12">
       <c r="K48" s="1"/>
@@ -2460,10 +2711,10 @@
         <v>1</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -2474,7 +2725,9 @@
       <c r="J49">
         <v>10000</v>
       </c>
-      <c r="K49" s="1"/>
+      <c r="K49" t="s">
+        <v>63</v>
+      </c>
       <c r="L49" s="1"/>
     </row>
     <row r="50" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -2488,10 +2741,10 @@
         <v>2</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -2503,7 +2756,9 @@
         <f>J49*2</f>
         <v>20000</v>
       </c>
-      <c r="K50" s="1"/>
+      <c r="K50" t="s">
+        <v>63</v>
+      </c>
       <c r="L50" s="1"/>
     </row>
     <row r="51" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -2517,10 +2772,10 @@
         <v>3</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -2532,7 +2787,9 @@
         <f>J49*3</f>
         <v>30000</v>
       </c>
-      <c r="K51" s="1"/>
+      <c r="K51" t="s">
+        <v>63</v>
+      </c>
       <c r="L51" s="1"/>
     </row>
     <row r="52" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -2546,10 +2803,10 @@
         <v>4</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -2561,7 +2818,9 @@
         <f>J49*4</f>
         <v>40000</v>
       </c>
-      <c r="K52" s="1"/>
+      <c r="K52" t="s">
+        <v>63</v>
+      </c>
       <c r="L52" s="1"/>
     </row>
     <row r="53" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -2575,10 +2834,10 @@
         <v>5</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -2590,7 +2849,9 @@
         <f>J49*5</f>
         <v>50000</v>
       </c>
-      <c r="K53" s="1"/>
+      <c r="K53" t="s">
+        <v>63</v>
+      </c>
       <c r="L53" s="1"/>
     </row>
     <row r="54" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -2604,10 +2865,10 @@
         <v>6</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -2619,7 +2880,9 @@
         <f>J49*6</f>
         <v>60000</v>
       </c>
-      <c r="K54" s="1"/>
+      <c r="K54" t="s">
+        <v>63</v>
+      </c>
       <c r="L54" s="1"/>
     </row>
     <row r="55" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -2633,10 +2896,10 @@
         <v>7</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -2648,7 +2911,9 @@
         <f>J49*7</f>
         <v>70000</v>
       </c>
-      <c r="K55" s="1"/>
+      <c r="K55" t="s">
+        <v>63</v>
+      </c>
       <c r="L55" s="1"/>
     </row>
     <row r="56" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -2662,10 +2927,10 @@
         <v>8</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -2677,7 +2942,9 @@
         <f>J49*8</f>
         <v>80000</v>
       </c>
-      <c r="K56" s="1"/>
+      <c r="K56" t="s">
+        <v>63</v>
+      </c>
       <c r="L56" s="1"/>
     </row>
     <row r="57" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -2691,10 +2958,10 @@
         <v>9</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -2706,7 +2973,9 @@
         <f>J49*9</f>
         <v>90000</v>
       </c>
-      <c r="K57" s="1"/>
+      <c r="K57" t="s">
+        <v>63</v>
+      </c>
       <c r="L57" s="1"/>
     </row>
     <row r="58" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -2720,10 +2989,10 @@
         <v>10</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H58">
         <v>4</v>
@@ -2735,8 +3004,12 @@
         <f>J49*10</f>
         <v>100000</v>
       </c>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
+      <c r="K58" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L58" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="59" customFormat="1" ht="27" customHeight="1" spans="11:12">
       <c r="K59" s="1"/>
@@ -2757,10 +3030,10 @@
         <v>1</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -2771,7 +3044,9 @@
       <c r="J61">
         <v>20000</v>
       </c>
-      <c r="K61" s="1"/>
+      <c r="K61" t="s">
+        <v>68</v>
+      </c>
       <c r="L61" s="1"/>
     </row>
     <row r="62" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -2785,10 +3060,10 @@
         <v>2</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -2800,7 +3075,9 @@
         <f>J61*2</f>
         <v>40000</v>
       </c>
-      <c r="K62" s="1"/>
+      <c r="K62" t="s">
+        <v>68</v>
+      </c>
       <c r="L62" s="1"/>
     </row>
     <row r="63" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -2814,10 +3091,10 @@
         <v>3</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -2829,7 +3106,9 @@
         <f>J61*3</f>
         <v>60000</v>
       </c>
-      <c r="K63" s="1"/>
+      <c r="K63" t="s">
+        <v>68</v>
+      </c>
       <c r="L63" s="1"/>
     </row>
     <row r="64" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -2843,10 +3122,10 @@
         <v>4</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -2858,7 +3137,9 @@
         <f>J61*4</f>
         <v>80000</v>
       </c>
-      <c r="K64" s="1"/>
+      <c r="K64" t="s">
+        <v>68</v>
+      </c>
       <c r="L64" s="1"/>
     </row>
     <row r="65" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -2872,10 +3153,10 @@
         <v>5</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -2887,7 +3168,9 @@
         <f>J61*5</f>
         <v>100000</v>
       </c>
-      <c r="K65" s="1"/>
+      <c r="K65" t="s">
+        <v>68</v>
+      </c>
       <c r="L65" s="1"/>
     </row>
     <row r="66" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -2901,10 +3184,10 @@
         <v>6</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -2916,7 +3199,9 @@
         <f>J61*6</f>
         <v>120000</v>
       </c>
-      <c r="K66" s="1"/>
+      <c r="K66" t="s">
+        <v>68</v>
+      </c>
       <c r="L66" s="1"/>
     </row>
     <row r="67" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -2930,10 +3215,10 @@
         <v>7</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -2945,7 +3230,9 @@
         <f>J61*7</f>
         <v>140000</v>
       </c>
-      <c r="K67" s="1"/>
+      <c r="K67" t="s">
+        <v>68</v>
+      </c>
       <c r="L67" s="1"/>
     </row>
     <row r="68" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -2959,10 +3246,10 @@
         <v>8</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -2974,7 +3261,9 @@
         <f>J61*8</f>
         <v>160000</v>
       </c>
-      <c r="K68" s="1"/>
+      <c r="K68" t="s">
+        <v>68</v>
+      </c>
       <c r="L68" s="1"/>
     </row>
     <row r="69" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -2988,10 +3277,10 @@
         <v>9</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -3003,7 +3292,9 @@
         <f>J61*9</f>
         <v>180000</v>
       </c>
-      <c r="K69" s="1"/>
+      <c r="K69" t="s">
+        <v>68</v>
+      </c>
       <c r="L69" s="1"/>
     </row>
     <row r="70" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -3017,10 +3308,10 @@
         <v>10</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="H70">
         <v>5</v>
@@ -3032,8 +3323,12 @@
         <f>J61*10</f>
         <v>200000</v>
       </c>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
+      <c r="K70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L70" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/SoulRingAttrConfig.xlsx
+++ b/Excel/SoulRingAttrConfig.xlsx
@@ -955,7 +955,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -963,6 +963,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1285,8 +1286,8 @@
   <sheetPr/>
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B56" workbookViewId="0">
-      <selection activeCell="K77" sqref="K77"/>
+    <sheetView tabSelected="1" topLeftCell="B57" workbookViewId="0">
+      <selection activeCell="K75" sqref="K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1445,10 +1446,10 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H6">
@@ -1475,10 +1476,10 @@
       <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H7">
@@ -1506,10 +1507,10 @@
       <c r="E8">
         <v>3</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H8">
@@ -1537,10 +1538,10 @@
       <c r="E9">
         <v>4</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="H9">
@@ -1568,10 +1569,10 @@
       <c r="E10">
         <v>5</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="H10">
@@ -1599,10 +1600,10 @@
       <c r="E11">
         <v>6</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H11">
@@ -1630,10 +1631,10 @@
       <c r="E12">
         <v>7</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
       <c r="H12">
@@ -1661,10 +1662,10 @@
       <c r="E13">
         <v>8</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="6" t="s">
         <v>24</v>
       </c>
       <c r="H13">
@@ -1692,10 +1693,10 @@
       <c r="E14">
         <v>9</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H14">
@@ -1723,10 +1724,10 @@
       <c r="E15">
         <v>10</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H15">
@@ -1756,10 +1757,10 @@
       <c r="E16">
         <v>11</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="H16">
@@ -1788,10 +1789,10 @@
       <c r="E17">
         <v>12</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H17">
@@ -1820,10 +1821,10 @@
       <c r="E18">
         <v>13</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="6" t="s">
         <v>35</v>
       </c>
       <c r="H18">
@@ -1852,10 +1853,10 @@
       <c r="E19">
         <v>14</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="6" t="s">
         <v>38</v>
       </c>
       <c r="H19">
@@ -1884,10 +1885,10 @@
       <c r="E20">
         <v>15</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="6" t="s">
         <v>41</v>
       </c>
       <c r="H20">
@@ -1920,10 +1921,10 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H22">
@@ -1950,10 +1951,10 @@
       <c r="E23">
         <v>2</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H23">
@@ -1981,10 +1982,10 @@
       <c r="E24">
         <v>3</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H24">
@@ -2012,10 +2013,10 @@
       <c r="E25">
         <v>4</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="6" t="s">
         <v>20</v>
       </c>
       <c r="H25">
@@ -2043,10 +2044,10 @@
       <c r="E26">
         <v>5</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="6" t="s">
         <v>21</v>
       </c>
       <c r="H26">
@@ -2074,10 +2075,10 @@
       <c r="E27">
         <v>6</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H27">
@@ -2105,10 +2106,10 @@
       <c r="E28">
         <v>7</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="6" t="s">
         <v>23</v>
       </c>
       <c r="H28">
@@ -2136,10 +2137,10 @@
       <c r="E29">
         <v>8</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="6" t="s">
         <v>24</v>
       </c>
       <c r="H29">
@@ -2167,10 +2168,10 @@
       <c r="E30">
         <v>9</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H30">
@@ -2198,10 +2199,10 @@
       <c r="E31">
         <v>10</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H31">
@@ -2231,10 +2232,10 @@
       <c r="E32">
         <v>11</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="6" t="s">
         <v>29</v>
       </c>
       <c r="H32">
@@ -2263,10 +2264,10 @@
       <c r="E33">
         <v>12</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H33">
@@ -2295,10 +2296,10 @@
       <c r="E34">
         <v>13</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="6" t="s">
         <v>35</v>
       </c>
       <c r="H34">
@@ -2327,10 +2328,10 @@
       <c r="E35">
         <v>14</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="6" t="s">
         <v>38</v>
       </c>
       <c r="H35">
@@ -2359,10 +2360,10 @@
       <c r="E36">
         <v>15</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="6" t="s">
         <v>41</v>
       </c>
       <c r="H36">
@@ -2395,10 +2396,10 @@
       <c r="E38">
         <v>1</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H38">
@@ -2425,10 +2426,10 @@
       <c r="E39">
         <v>2</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H39">
@@ -2456,10 +2457,10 @@
       <c r="E40">
         <v>3</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H40">
@@ -2487,10 +2488,10 @@
       <c r="E41">
         <v>4</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="6" t="s">
         <v>20</v>
       </c>
       <c r="H41">
@@ -2518,10 +2519,10 @@
       <c r="E42">
         <v>5</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="6" t="s">
         <v>21</v>
       </c>
       <c r="H42">
@@ -2549,10 +2550,10 @@
       <c r="E43">
         <v>6</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H43">
@@ -2580,10 +2581,10 @@
       <c r="E44">
         <v>7</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="6" t="s">
         <v>23</v>
       </c>
       <c r="H44">
@@ -2611,10 +2612,10 @@
       <c r="E45">
         <v>8</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="6" t="s">
         <v>24</v>
       </c>
       <c r="H45">
@@ -2642,10 +2643,10 @@
       <c r="E46">
         <v>9</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H46">
@@ -2673,10 +2674,10 @@
       <c r="E47">
         <v>10</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H47">
@@ -2710,10 +2711,10 @@
       <c r="E49">
         <v>1</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H49">
@@ -2740,10 +2741,10 @@
       <c r="E50">
         <v>2</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H50">
@@ -2771,10 +2772,10 @@
       <c r="E51">
         <v>3</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H51">
@@ -2802,10 +2803,10 @@
       <c r="E52">
         <v>4</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="6" t="s">
         <v>20</v>
       </c>
       <c r="H52">
@@ -2833,10 +2834,10 @@
       <c r="E53">
         <v>5</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G53" s="6" t="s">
         <v>21</v>
       </c>
       <c r="H53">
@@ -2864,10 +2865,10 @@
       <c r="E54">
         <v>6</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H54">
@@ -2895,10 +2896,10 @@
       <c r="E55">
         <v>7</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G55" s="6" t="s">
         <v>23</v>
       </c>
       <c r="H55">
@@ -2926,10 +2927,10 @@
       <c r="E56">
         <v>8</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="6" t="s">
         <v>24</v>
       </c>
       <c r="H56">
@@ -2957,10 +2958,10 @@
       <c r="E57">
         <v>9</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G57" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H57">
@@ -2988,10 +2989,10 @@
       <c r="E58">
         <v>10</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G58" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H58">
@@ -3029,10 +3030,10 @@
       <c r="E61">
         <v>1</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="G61" s="6" t="s">
         <v>67</v>
       </c>
       <c r="H61">
@@ -3059,10 +3060,10 @@
       <c r="E62">
         <v>2</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="G62" s="6" t="s">
         <v>69</v>
       </c>
       <c r="H62">
@@ -3090,10 +3091,10 @@
       <c r="E63">
         <v>3</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="G63" s="6" t="s">
         <v>70</v>
       </c>
       <c r="H63">
@@ -3121,10 +3122,10 @@
       <c r="E64">
         <v>4</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="G64" s="6" t="s">
         <v>71</v>
       </c>
       <c r="H64">
@@ -3152,10 +3153,10 @@
       <c r="E65">
         <v>5</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="G65" s="6" t="s">
         <v>72</v>
       </c>
       <c r="H65">
@@ -3183,10 +3184,10 @@
       <c r="E66">
         <v>6</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="G66" s="6" t="s">
         <v>73</v>
       </c>
       <c r="H66">
@@ -3214,10 +3215,10 @@
       <c r="E67">
         <v>7</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F67" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G67" s="5" t="s">
+      <c r="G67" s="6" t="s">
         <v>74</v>
       </c>
       <c r="H67">
@@ -3245,10 +3246,10 @@
       <c r="E68">
         <v>8</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F68" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="G68" s="6" t="s">
         <v>75</v>
       </c>
       <c r="H68">
@@ -3276,10 +3277,10 @@
       <c r="E69">
         <v>9</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F69" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G69" s="5" t="s">
+      <c r="G69" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H69">
@@ -3307,10 +3308,10 @@
       <c r="E70">
         <v>10</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F70" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="G70" s="6" t="s">
         <v>77</v>
       </c>
       <c r="H70">
@@ -3323,7 +3324,7 @@
         <f>J61*10</f>
         <v>200000</v>
       </c>
-      <c r="K70" s="1" t="s">
+      <c r="K70" s="5" t="s">
         <v>78</v>
       </c>
       <c r="L70" t="s">

--- a/Excel/SoulRingAttrConfig.xlsx
+++ b/Excel/SoulRingAttrConfig.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="95">
   <si>
     <t>ID</t>
   </si>
@@ -260,6 +260,36 @@
     <t>友方暴击概率增加10%</t>
   </si>
   <si>
+    <t>暴击光环Lv2</t>
+  </si>
+  <si>
+    <t>友方暴击概率增加11%</t>
+  </si>
+  <si>
+    <t>暴击光环Lv3</t>
+  </si>
+  <si>
+    <t>友方暴击概率增加12%</t>
+  </si>
+  <si>
+    <t>暴击光环Lv4</t>
+  </si>
+  <si>
+    <t>友方暴击概率增加13%</t>
+  </si>
+  <si>
+    <t>暴击光环Lv5</t>
+  </si>
+  <si>
+    <t>友方暴击概率增加14%</t>
+  </si>
+  <si>
+    <t>暴击光环Lv6</t>
+  </si>
+  <si>
+    <t>友方暴击概率增加15%</t>
+  </si>
+  <si>
     <t>14,15,16,13,24</t>
   </si>
   <si>
@@ -270,6 +300,21 @@
   </si>
   <si>
     <t>友方暴击伤害增加30%</t>
+  </si>
+  <si>
+    <t>友方暴击伤害增加33%</t>
+  </si>
+  <si>
+    <t>友方暴击伤害增加36%</t>
+  </si>
+  <si>
+    <t>友方暴击伤害增加39%</t>
+  </si>
+  <si>
+    <t>友方暴击伤害增加42%</t>
+  </si>
+  <si>
+    <t>友方暴击伤害增加45%</t>
   </si>
   <si>
     <t>14,15,16,7,26</t>
@@ -490,12 +535,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1284,10 +1329,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B57" workbookViewId="0">
-      <selection activeCell="K75" sqref="K75"/>
+    <sheetView tabSelected="1" topLeftCell="B59" workbookViewId="0">
+      <selection activeCell="L69" sqref="L69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2687,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="J47">
-        <f>J38*10</f>
+        <f t="shared" ref="J47:J52" si="0">J38*10</f>
         <v>60000</v>
       </c>
       <c r="K47" t="s">
@@ -2697,179 +2742,190 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" customFormat="1" ht="27" customHeight="1" spans="11:12">
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
+    <row r="48" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C48">
+        <v>311</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>11</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="K48" t="s">
+        <v>62</v>
+      </c>
+      <c r="L48" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="49" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C49">
-        <v>401</v>
+        <v>312</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J49">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>180000</v>
       </c>
       <c r="K49" t="s">
-        <v>63</v>
-      </c>
-      <c r="L49" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="L49" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="50" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C50">
-        <v>402</v>
+        <v>313</v>
       </c>
       <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>13</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
         <v>4</v>
       </c>
-      <c r="E50">
-        <v>2</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
       <c r="J50">
-        <f>J49*2</f>
-        <v>20000</v>
+        <f t="shared" si="0"/>
+        <v>240000</v>
       </c>
       <c r="K50" t="s">
-        <v>63</v>
-      </c>
-      <c r="L50" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="L50" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="51" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C51">
-        <v>403</v>
+        <v>314</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E51">
+        <v>14</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H51">
         <v>3</v>
       </c>
-      <c r="F51" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
       <c r="I51">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J51">
-        <f>J49*3</f>
-        <v>30000</v>
+        <f t="shared" si="0"/>
+        <v>300000</v>
       </c>
       <c r="K51" t="s">
-        <v>63</v>
-      </c>
-      <c r="L51" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="L51" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="52" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C52">
-        <v>404</v>
+        <v>315</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E52">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J52">
-        <f>J49*4</f>
-        <v>40000</v>
+        <f t="shared" si="0"/>
+        <v>360000</v>
       </c>
       <c r="K52" t="s">
-        <v>63</v>
-      </c>
-      <c r="L52" s="1"/>
-    </row>
-    <row r="53" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C53">
-        <v>405</v>
-      </c>
-      <c r="D53">
-        <v>4</v>
-      </c>
-      <c r="E53">
-        <v>5</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <f>J49*5</f>
-        <v>50000</v>
-      </c>
-      <c r="K53" t="s">
-        <v>63</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="L52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" ht="27" customHeight="1" spans="11:12">
+      <c r="K53" s="1"/>
       <c r="L53" s="1"/>
     </row>
     <row r="54" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C54">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D54">
         <v>4</v>
       </c>
       <c r="E54">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -2878,29 +2934,28 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <f>J49*6</f>
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="K54" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="L54" s="1"/>
     </row>
     <row r="55" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C55">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D55">
         <v>4</v>
       </c>
       <c r="E55">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -2909,29 +2964,29 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <f>J49*7</f>
-        <v>70000</v>
+        <f>J54*2</f>
+        <v>20000</v>
       </c>
       <c r="K55" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="L55" s="1"/>
     </row>
     <row r="56" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C56">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D56">
         <v>4</v>
       </c>
       <c r="E56">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -2940,29 +2995,29 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <f>J49*8</f>
-        <v>80000</v>
+        <f>J54*3</f>
+        <v>30000</v>
       </c>
       <c r="K56" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="L56" s="1"/>
     </row>
     <row r="57" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C57">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D57">
         <v>4</v>
       </c>
       <c r="E57">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -2971,70 +3026,122 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <f>J49*9</f>
-        <v>90000</v>
+        <f>J54*4</f>
+        <v>40000</v>
       </c>
       <c r="K57" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="L57" s="1"/>
     </row>
     <row r="58" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C58">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D58">
         <v>4</v>
       </c>
       <c r="E58">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <f>J54*5</f>
+        <v>50000</v>
+      </c>
+      <c r="K58" t="s">
+        <v>73</v>
+      </c>
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C59">
+        <v>406</v>
+      </c>
+      <c r="D59">
         <v>4</v>
       </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58">
-        <f>J49*10</f>
-        <v>100000</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L58" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" customFormat="1" ht="27" customHeight="1" spans="11:12">
-      <c r="K59" s="1"/>
+      <c r="E59">
+        <v>6</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <f>J54*6</f>
+        <v>60000</v>
+      </c>
+      <c r="K59" t="s">
+        <v>73</v>
+      </c>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" customFormat="1" ht="27" customHeight="1" spans="11:12">
-      <c r="K60" s="1"/>
+    <row r="60" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C60">
+        <v>407</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <v>7</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <f>J54*7</f>
+        <v>70000</v>
+      </c>
+      <c r="K60" t="s">
+        <v>73</v>
+      </c>
       <c r="L60" s="1"/>
     </row>
     <row r="61" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C61">
-        <v>501</v>
+        <v>408</v>
       </c>
       <c r="D61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -3043,28 +3150,29 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>20000</v>
+        <f>J54*8</f>
+        <v>80000</v>
       </c>
       <c r="K61" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="L61" s="1"/>
     </row>
     <row r="62" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C62">
-        <v>502</v>
+        <v>409</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -3073,262 +3181,525 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <f>J61*2</f>
-        <v>40000</v>
+        <f>J54*9</f>
+        <v>90000</v>
       </c>
       <c r="K62" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="L62" s="1"/>
     </row>
     <row r="63" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C63">
-        <v>503</v>
+        <v>410</v>
       </c>
       <c r="D63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E63">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63">
-        <f>J61*3</f>
-        <v>60000</v>
-      </c>
-      <c r="K63" t="s">
-        <v>68</v>
-      </c>
-      <c r="L63" s="1"/>
+        <f t="shared" ref="J63:J68" si="1">J54*10</f>
+        <v>100000</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L63" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="64" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C64">
-        <v>504</v>
+        <v>411</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E64">
+        <v>11</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64">
         <v>4</v>
       </c>
-      <c r="F64" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64">
-        <f>J61*4</f>
-        <v>80000</v>
-      </c>
-      <c r="K64" t="s">
-        <v>68</v>
-      </c>
-      <c r="L64" s="1"/>
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L64" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="65" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C65">
-        <v>505</v>
+        <v>412</v>
       </c>
       <c r="D65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E65">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65">
-        <f>J61*5</f>
-        <v>100000</v>
-      </c>
-      <c r="K65" t="s">
-        <v>68</v>
-      </c>
-      <c r="L65" s="1"/>
+        <f t="shared" si="1"/>
+        <v>300000</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L65" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="66" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C66">
-        <v>506</v>
+        <v>413</v>
       </c>
       <c r="D66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E66">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66">
-        <f>J61*6</f>
-        <v>120000</v>
-      </c>
-      <c r="K66" t="s">
-        <v>68</v>
-      </c>
-      <c r="L66" s="1"/>
+        <f t="shared" si="1"/>
+        <v>400000</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L66" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="67" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C67">
-        <v>507</v>
+        <v>414</v>
       </c>
       <c r="D67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E67">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G67" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H67">
+        <v>4</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="1"/>
+        <v>500000</v>
+      </c>
+      <c r="K67" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <f>J61*7</f>
-        <v>140000</v>
-      </c>
-      <c r="K67" t="s">
-        <v>68</v>
-      </c>
-      <c r="L67" s="1"/>
+      <c r="L67" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="68" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C68">
-        <v>508</v>
+        <v>415</v>
       </c>
       <c r="D68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E68">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68">
-        <f>J61*8</f>
-        <v>160000</v>
-      </c>
-      <c r="K68" t="s">
-        <v>68</v>
-      </c>
-      <c r="L68" s="1"/>
-    </row>
-    <row r="69" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C69">
-        <v>509</v>
-      </c>
-      <c r="D69">
-        <v>5</v>
-      </c>
-      <c r="E69">
-        <v>9</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <f>J61*9</f>
-        <v>180000</v>
-      </c>
-      <c r="K69" t="s">
-        <v>68</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>600000</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L68" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" ht="27" customHeight="1" spans="11:12">
+      <c r="K69" s="1"/>
       <c r="L69" s="1"/>
     </row>
     <row r="70" customFormat="1" ht="27" customHeight="1" spans="3:12">
       <c r="C70">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="D70">
         <v>5</v>
       </c>
       <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>20000</v>
+      </c>
+      <c r="K70" t="s">
+        <v>83</v>
+      </c>
+      <c r="L70" s="1"/>
+    </row>
+    <row r="71" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C71">
+        <v>502</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <f>J70*2</f>
+        <v>40000</v>
+      </c>
+      <c r="K71" t="s">
+        <v>83</v>
+      </c>
+      <c r="L71" s="1"/>
+    </row>
+    <row r="72" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C72">
+        <v>503</v>
+      </c>
+      <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <f>J70*3</f>
+        <v>60000</v>
+      </c>
+      <c r="K72" t="s">
+        <v>83</v>
+      </c>
+      <c r="L72" s="1"/>
+    </row>
+    <row r="73" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C73">
+        <v>504</v>
+      </c>
+      <c r="D73">
+        <v>5</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <f>J70*4</f>
+        <v>80000</v>
+      </c>
+      <c r="K73" t="s">
+        <v>83</v>
+      </c>
+      <c r="L73" s="1"/>
+    </row>
+    <row r="74" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C74">
+        <v>505</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <v>5</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <f>J70*5</f>
+        <v>100000</v>
+      </c>
+      <c r="K74" t="s">
+        <v>83</v>
+      </c>
+      <c r="L74" s="1"/>
+    </row>
+    <row r="75" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C75">
+        <v>506</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75">
+        <v>6</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <f>J70*6</f>
+        <v>120000</v>
+      </c>
+      <c r="K75" t="s">
+        <v>83</v>
+      </c>
+      <c r="L75" s="1"/>
+    </row>
+    <row r="76" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C76">
+        <v>507</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76">
+        <v>7</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <f>J70*7</f>
+        <v>140000</v>
+      </c>
+      <c r="K76" t="s">
+        <v>83</v>
+      </c>
+      <c r="L76" s="1"/>
+    </row>
+    <row r="77" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C77">
+        <v>508</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77">
+        <v>8</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <f>J70*8</f>
+        <v>160000</v>
+      </c>
+      <c r="K77" t="s">
+        <v>83</v>
+      </c>
+      <c r="L77" s="1"/>
+    </row>
+    <row r="78" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C78">
+        <v>509</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+      <c r="E78">
+        <v>9</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <f>J70*9</f>
+        <v>180000</v>
+      </c>
+      <c r="K78" t="s">
+        <v>83</v>
+      </c>
+      <c r="L78" s="1"/>
+    </row>
+    <row r="79" customFormat="1" ht="27" customHeight="1" spans="3:12">
+      <c r="C79">
+        <v>510</v>
+      </c>
+      <c r="D79">
+        <v>5</v>
+      </c>
+      <c r="E79">
         <v>10</v>
       </c>
-      <c r="F70" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H70">
+      <c r="F79" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H79">
         <v>5</v>
       </c>
-      <c r="I70">
+      <c r="I79">
         <v>1</v>
       </c>
-      <c r="J70">
-        <f>J61*10</f>
+      <c r="J79">
+        <f>J70*10</f>
         <v>200000</v>
       </c>
-      <c r="K70" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="L70" t="s">
-        <v>79</v>
+      <c r="K79" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L79" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/SoulRingAttrConfig.xlsx
+++ b/Excel/SoulRingAttrConfig.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="100">
   <si>
     <t>ID</t>
   </si>
@@ -302,16 +302,31 @@
     <t>友方暴击伤害增加30%</t>
   </si>
   <si>
+    <t>爆伤光环Lv2</t>
+  </si>
+  <si>
     <t>友方暴击伤害增加33%</t>
   </si>
   <si>
+    <t>爆伤光环Lv3</t>
+  </si>
+  <si>
     <t>友方暴击伤害增加36%</t>
   </si>
   <si>
+    <t>爆伤光环Lv4</t>
+  </si>
+  <si>
     <t>友方暴击伤害增加39%</t>
   </si>
   <si>
+    <t>爆伤光环Lv5</t>
+  </si>
+  <si>
     <t>友方暴击伤害增加42%</t>
+  </si>
+  <si>
+    <t>爆伤光环Lv6</t>
   </si>
   <si>
     <t>友方暴击伤害增加45%</t>
@@ -380,15 +395,17 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1003,13 +1020,13 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1331,164 +1348,165 @@
   <sheetPr/>
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B59" workbookViewId="0">
-      <selection activeCell="L69" sqref="L69"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
+    <col min="1" max="1" width="6.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9" style="3"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="5" width="12.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="2" customWidth="1"/>
-    <col min="9" max="10" width="11.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="3" customWidth="1"/>
+    <col min="9" max="10" width="11.375" style="3" customWidth="1"/>
     <col min="11" max="12" width="30.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.625" style="2" customWidth="1"/>
-    <col min="15" max="16376" width="9" style="2"/>
+    <col min="13" max="13" width="8.125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.625" style="3" customWidth="1"/>
+    <col min="15" max="16376" width="9" style="3"/>
+    <col min="16377" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:14">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:14">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:14">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:14">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:14">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C6">
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C6" s="2">
         <v>101</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -1497,28 +1515,28 @@
       <c r="G6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
         <v>1000</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C7">
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C7" s="2">
         <v>102</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>2</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -1527,29 +1545,29 @@
       <c r="G7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
         <f>J6*2</f>
         <v>2000</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C8">
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C8" s="2">
         <v>103</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>3</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -1558,29 +1576,29 @@
       <c r="G8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
         <f>J6*3</f>
         <v>3000</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C9">
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C9" s="2">
         <v>104</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>4</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -1589,29 +1607,29 @@
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
         <f>J6*4</f>
         <v>4000</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C10">
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C10" s="2">
         <v>105</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>5</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -1620,29 +1638,29 @@
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
         <f>J6*5</f>
         <v>5000</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C11">
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C11" s="2">
         <v>106</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>6</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -1651,29 +1669,29 @@
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
         <f>J6*6</f>
         <v>6000</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C12">
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C12" s="2">
         <v>107</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>7</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -1682,29 +1700,29 @@
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
         <f>J6*7</f>
         <v>7000</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C13">
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C13" s="2">
         <v>108</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>8</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -1713,29 +1731,29 @@
       <c r="G13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
         <f>J6*8</f>
         <v>8000</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C14">
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C14" s="2">
         <v>109</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>9</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -1744,29 +1762,29 @@
       <c r="G14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
         <f>J6*9</f>
         <v>9000</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C15">
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C15" s="2">
         <v>110</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>1</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>10</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -1775,31 +1793,31 @@
       <c r="G15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <v>1</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <v>1</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="2">
         <f>J6*10</f>
         <v>10000</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C16">
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C16" s="2">
         <v>111</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>1</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>11</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -1808,30 +1826,30 @@
       <c r="G16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <v>1</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <v>2</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="2">
         <v>20000</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C17">
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C17" s="2">
         <v>112</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>1</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>12</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -1840,30 +1858,30 @@
       <c r="G17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="2">
         <v>1</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
         <v>3</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="2">
         <v>30000</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C18">
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C18" s="2">
         <v>113</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>1</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>13</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -1872,30 +1890,30 @@
       <c r="G18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="2">
         <v>1</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <v>4</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="2">
         <v>40000</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C19">
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C19" s="2">
         <v>114</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>1</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>14</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -1904,30 +1922,30 @@
       <c r="G19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="2">
         <v>1</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <v>5</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="2">
         <v>50000</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="1" t="s">
         <v>39</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C20">
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C20" s="2">
         <v>115</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>1</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>15</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -1936,34 +1954,34 @@
       <c r="G20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="2">
         <v>1</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="2">
         <v>6</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="2">
         <v>60000</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="1" t="s">
         <v>42</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" customFormat="1" ht="27" customHeight="1" spans="11:12">
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="11:12">
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C22">
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C22" s="2">
         <v>201</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>2</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>1</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -1972,28 +1990,28 @@
       <c r="G22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
         <v>3000</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="1" t="s">
         <v>45</v>
       </c>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C23">
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C23" s="2">
         <v>202</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>2</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>2</v>
       </c>
       <c r="F23" s="6" t="s">
@@ -2002,29 +2020,29 @@
       <c r="G23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
         <f>J22*2</f>
         <v>6000</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="1" t="s">
         <v>45</v>
       </c>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C24">
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C24" s="2">
         <v>203</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>2</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>3</v>
       </c>
       <c r="F24" s="6" t="s">
@@ -2033,29 +2051,29 @@
       <c r="G24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
         <f>J22*3</f>
         <v>9000</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="1" t="s">
         <v>45</v>
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C25">
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C25" s="2">
         <v>204</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>2</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>4</v>
       </c>
       <c r="F25" s="6" t="s">
@@ -2064,29 +2082,29 @@
       <c r="G25" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
         <f>J22*4</f>
         <v>12000</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="1" t="s">
         <v>45</v>
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C26">
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C26" s="2">
         <v>205</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>2</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>5</v>
       </c>
       <c r="F26" s="6" t="s">
@@ -2095,29 +2113,29 @@
       <c r="G26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
         <f>J22*5</f>
         <v>15000</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="1" t="s">
         <v>45</v>
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C27">
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C27" s="2">
         <v>206</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>2</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>6</v>
       </c>
       <c r="F27" s="6" t="s">
@@ -2126,29 +2144,29 @@
       <c r="G27" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
         <f>J22*6</f>
         <v>18000</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="1" t="s">
         <v>45</v>
       </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C28">
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C28" s="2">
         <v>207</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>2</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>7</v>
       </c>
       <c r="F28" s="6" t="s">
@@ -2157,29 +2175,29 @@
       <c r="G28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
         <f>J22*7</f>
         <v>21000</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="1" t="s">
         <v>45</v>
       </c>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C29">
+    <row r="29" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C29" s="2">
         <v>208</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>2</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>8</v>
       </c>
       <c r="F29" s="6" t="s">
@@ -2188,29 +2206,29 @@
       <c r="G29" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
         <f>J22*8</f>
         <v>24000</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="1" t="s">
         <v>45</v>
       </c>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C30">
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C30" s="2">
         <v>209</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>2</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>9</v>
       </c>
       <c r="F30" s="6" t="s">
@@ -2219,29 +2237,29 @@
       <c r="G30" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
         <f>J22*9</f>
         <v>27000</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="1" t="s">
         <v>45</v>
       </c>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C31">
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C31" s="2">
         <v>210</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>2</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>10</v>
       </c>
       <c r="F31" s="6" t="s">
@@ -2250,31 +2268,31 @@
       <c r="G31" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="2">
         <v>2</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="2">
         <v>1</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="2">
         <f>J22*10</f>
         <v>30000</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C32">
+    <row r="32" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C32" s="2">
         <v>211</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>2</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>11</v>
       </c>
       <c r="F32" s="6" t="s">
@@ -2283,30 +2301,30 @@
       <c r="G32" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="2">
         <v>2</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="2">
         <v>2</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="2">
         <v>60000</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C33">
+    <row r="33" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C33" s="2">
         <v>212</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>2</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>12</v>
       </c>
       <c r="F33" s="6" t="s">
@@ -2315,30 +2333,30 @@
       <c r="G33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="2">
         <v>2</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="2">
         <v>3</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="2">
         <v>90000</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C34">
+    <row r="34" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C34" s="2">
         <v>213</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>2</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>13</v>
       </c>
       <c r="F34" s="6" t="s">
@@ -2347,30 +2365,30 @@
       <c r="G34" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="2">
         <v>2</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="2">
         <v>4</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="2">
         <v>120000</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C35">
+    <row r="35" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C35" s="2">
         <v>214</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>2</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>14</v>
       </c>
       <c r="F35" s="6" t="s">
@@ -2379,30 +2397,30 @@
       <c r="G35" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="2">
         <v>2</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="2">
         <v>5</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="2">
         <v>150000</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="36" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C36">
+    <row r="36" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C36" s="2">
         <v>215</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>2</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>15</v>
       </c>
       <c r="F36" s="6" t="s">
@@ -2411,34 +2429,34 @@
       <c r="G36" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="2">
         <v>2</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="2">
         <v>6</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="2">
         <v>180000</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L36" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" customFormat="1" ht="27" customHeight="1" spans="11:12">
+    <row r="37" s="2" customFormat="1" customHeight="1" spans="11:12">
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C38">
+    <row r="38" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C38" s="2">
         <v>301</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>3</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>1</v>
       </c>
       <c r="F38" s="6" t="s">
@@ -2447,28 +2465,28 @@
       <c r="G38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
         <v>6000</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="1" t="s">
         <v>59</v>
       </c>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C39">
+    <row r="39" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C39" s="2">
         <v>302</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>3</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>2</v>
       </c>
       <c r="F39" s="6" t="s">
@@ -2477,29 +2495,29 @@
       <c r="G39" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
         <f>J38*2</f>
         <v>12000</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" s="1" t="s">
         <v>59</v>
       </c>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C40">
+    <row r="40" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C40" s="2">
         <v>303</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>3</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>3</v>
       </c>
       <c r="F40" s="6" t="s">
@@ -2508,29 +2526,29 @@
       <c r="G40" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
         <f>J38*3</f>
         <v>18000</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40" s="1" t="s">
         <v>59</v>
       </c>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C41">
+    <row r="41" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C41" s="2">
         <v>304</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>3</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>4</v>
       </c>
       <c r="F41" s="6" t="s">
@@ -2539,29 +2557,29 @@
       <c r="G41" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
         <f>J38*4</f>
         <v>24000</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="1" t="s">
         <v>59</v>
       </c>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C42">
+    <row r="42" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C42" s="2">
         <v>305</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>3</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>5</v>
       </c>
       <c r="F42" s="6" t="s">
@@ -2570,29 +2588,29 @@
       <c r="G42" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
         <f>J38*5</f>
         <v>30000</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K42" s="1" t="s">
         <v>59</v>
       </c>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C43">
+    <row r="43" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C43" s="2">
         <v>306</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="2">
         <v>3</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="2">
         <v>6</v>
       </c>
       <c r="F43" s="6" t="s">
@@ -2601,29 +2619,29 @@
       <c r="G43" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
         <f>J38*6</f>
         <v>36000</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" s="1" t="s">
         <v>59</v>
       </c>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C44">
+    <row r="44" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C44" s="2">
         <v>307</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="2">
         <v>3</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="2">
         <v>7</v>
       </c>
       <c r="F44" s="6" t="s">
@@ -2632,29 +2650,29 @@
       <c r="G44" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
         <f>J38*7</f>
         <v>42000</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="1" t="s">
         <v>59</v>
       </c>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C45">
+    <row r="45" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C45" s="2">
         <v>308</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="2">
         <v>3</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="2">
         <v>8</v>
       </c>
       <c r="F45" s="6" t="s">
@@ -2663,29 +2681,29 @@
       <c r="G45" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
         <f>J38*8</f>
         <v>48000</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="1" t="s">
         <v>59</v>
       </c>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C46">
+    <row r="46" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C46" s="2">
         <v>309</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="2">
         <v>3</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="2">
         <v>9</v>
       </c>
       <c r="F46" s="6" t="s">
@@ -2694,29 +2712,29 @@
       <c r="G46" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
         <f>J38*9</f>
         <v>54000</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" s="1" t="s">
         <v>59</v>
       </c>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C47">
+    <row r="47" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C47" s="2">
         <v>310</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="2">
         <v>3</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="2">
         <v>10</v>
       </c>
       <c r="F47" s="6" t="s">
@@ -2725,31 +2743,31 @@
       <c r="G47" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="2">
         <v>3</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="2">
         <v>1</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="2">
         <f t="shared" ref="J47:J52" si="0">J38*10</f>
         <v>60000</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L47" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C48">
+    <row r="48" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C48" s="2">
         <v>311</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="2">
         <v>3</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="2">
         <v>11</v>
       </c>
       <c r="F48" s="6" t="s">
@@ -2758,31 +2776,31 @@
       <c r="G48" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="2">
         <v>3</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="2">
         <v>2</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="2">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L48" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="49" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C49">
+    <row r="49" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C49" s="2">
         <v>312</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="2">
         <v>3</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="2">
         <v>12</v>
       </c>
       <c r="F49" s="6" t="s">
@@ -2791,31 +2809,31 @@
       <c r="G49" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="2">
         <v>3</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="2">
         <v>3</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="2">
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L49" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="50" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C50">
+    <row r="50" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C50" s="2">
         <v>313</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="2">
         <v>3</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
         <v>13</v>
       </c>
       <c r="F50" s="6" t="s">
@@ -2824,31 +2842,31 @@
       <c r="G50" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="2">
         <v>3</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="2">
         <v>4</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="2">
         <f t="shared" si="0"/>
         <v>240000</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K50" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L50" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="51" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C51">
+    <row r="51" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C51" s="2">
         <v>314</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="2">
         <v>3</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="2">
         <v>14</v>
       </c>
       <c r="F51" s="6" t="s">
@@ -2857,31 +2875,31 @@
       <c r="G51" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="2">
         <v>3</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="2">
         <v>5</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="2">
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L51" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="52" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C52">
+    <row r="52" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C52" s="2">
         <v>315</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="2">
         <v>3</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="2">
         <v>15</v>
       </c>
       <c r="F52" s="6" t="s">
@@ -2890,35 +2908,35 @@
       <c r="G52" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="2">
         <v>3</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="2">
         <v>6</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="2">
         <f t="shared" si="0"/>
         <v>360000</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L52" t="s">
+      <c r="L52" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="53" customFormat="1" ht="27" customHeight="1" spans="11:12">
+    <row r="53" s="2" customFormat="1" customHeight="1" spans="11:12">
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C54">
+    <row r="54" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C54" s="2">
         <v>401</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="2">
         <v>4</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="2">
         <v>1</v>
       </c>
       <c r="F54" s="6" t="s">
@@ -2927,28 +2945,28 @@
       <c r="G54" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2">
         <v>10000</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54" s="1" t="s">
         <v>73</v>
       </c>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C55">
+    <row r="55" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C55" s="2">
         <v>402</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="2">
         <v>4</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="2">
         <v>2</v>
       </c>
       <c r="F55" s="6" t="s">
@@ -2957,29 +2975,29 @@
       <c r="G55" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2">
         <f>J54*2</f>
         <v>20000</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55" s="1" t="s">
         <v>73</v>
       </c>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C56">
+    <row r="56" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C56" s="2">
         <v>403</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="2">
         <v>4</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="2">
         <v>3</v>
       </c>
       <c r="F56" s="6" t="s">
@@ -2988,29 +3006,29 @@
       <c r="G56" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
         <f>J54*3</f>
         <v>30000</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K56" s="1" t="s">
         <v>73</v>
       </c>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C57">
+    <row r="57" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C57" s="2">
         <v>404</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="2">
         <v>4</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="2">
         <v>4</v>
       </c>
       <c r="F57" s="6" t="s">
@@ -3019,29 +3037,29 @@
       <c r="G57" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2">
         <f>J54*4</f>
         <v>40000</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K57" s="1" t="s">
         <v>73</v>
       </c>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C58">
+    <row r="58" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C58" s="2">
         <v>405</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="2">
         <v>4</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="2">
         <v>5</v>
       </c>
       <c r="F58" s="6" t="s">
@@ -3050,29 +3068,29 @@
       <c r="G58" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2">
         <f>J54*5</f>
         <v>50000</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K58" s="1" t="s">
         <v>73</v>
       </c>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C59">
+    <row r="59" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C59" s="2">
         <v>406</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="2">
         <v>4</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="2">
         <v>6</v>
       </c>
       <c r="F59" s="6" t="s">
@@ -3081,29 +3099,29 @@
       <c r="G59" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2">
         <f>J54*6</f>
         <v>60000</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K59" s="1" t="s">
         <v>73</v>
       </c>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C60">
+    <row r="60" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C60" s="2">
         <v>407</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="2">
         <v>4</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="2">
         <v>7</v>
       </c>
       <c r="F60" s="6" t="s">
@@ -3112,29 +3130,29 @@
       <c r="G60" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+      <c r="J60" s="2">
         <f>J54*7</f>
         <v>70000</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K60" s="1" t="s">
         <v>73</v>
       </c>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C61">
+    <row r="61" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C61" s="2">
         <v>408</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="2">
         <v>4</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="2">
         <v>8</v>
       </c>
       <c r="F61" s="6" t="s">
@@ -3143,29 +3161,29 @@
       <c r="G61" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2">
         <f>J54*8</f>
         <v>80000</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K61" s="1" t="s">
         <v>73</v>
       </c>
       <c r="L61" s="1"/>
     </row>
-    <row r="62" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C62">
+    <row r="62" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C62" s="2">
         <v>409</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="2">
         <v>4</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="2">
         <v>9</v>
       </c>
       <c r="F62" s="6" t="s">
@@ -3174,29 +3192,29 @@
       <c r="G62" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2">
         <f>J54*9</f>
         <v>90000</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K62" s="1" t="s">
         <v>73</v>
       </c>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C63">
+    <row r="63" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C63" s="2">
         <v>410</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="2">
         <v>4</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="2">
         <v>10</v>
       </c>
       <c r="F63" s="6" t="s">
@@ -3205,31 +3223,31 @@
       <c r="G63" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="2">
         <v>4</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="2">
         <v>1</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="2">
         <f t="shared" ref="J63:J68" si="1">J54*10</f>
         <v>100000</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L63" t="s">
+      <c r="L63" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="64" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C64">
+    <row r="64" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C64" s="2">
         <v>411</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="2">
         <v>4</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="2">
         <v>11</v>
       </c>
       <c r="F64" s="6" t="s">
@@ -3238,31 +3256,31 @@
       <c r="G64" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="2">
         <v>4</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="2">
         <v>1</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="2">
         <f t="shared" si="1"/>
         <v>200000</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L64" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="65" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C65">
+      <c r="L64" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C65" s="2">
         <v>412</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="2">
         <v>4</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="2">
         <v>12</v>
       </c>
       <c r="F65" s="6" t="s">
@@ -3271,31 +3289,31 @@
       <c r="G65" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="2">
         <v>4</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="2">
         <v>1</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="2">
         <f t="shared" si="1"/>
         <v>300000</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C66">
+        <v>78</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C66" s="2">
         <v>413</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="2">
         <v>4</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="2">
         <v>13</v>
       </c>
       <c r="F66" s="6" t="s">
@@ -3304,31 +3322,31 @@
       <c r="G66" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="2">
         <v>4</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="2">
         <v>1</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="2">
         <f t="shared" si="1"/>
         <v>400000</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C67">
+        <v>80</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C67" s="2">
         <v>414</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="2">
         <v>4</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="2">
         <v>14</v>
       </c>
       <c r="F67" s="6" t="s">
@@ -3337,31 +3355,31 @@
       <c r="G67" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="2">
         <v>4</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="2">
         <v>1</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="2">
         <f t="shared" si="1"/>
         <v>500000</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C68">
+        <v>82</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C68" s="2">
         <v>415</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="2">
         <v>4</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="2">
         <v>15</v>
       </c>
       <c r="F68" s="6" t="s">
@@ -3370,336 +3388,336 @@
       <c r="G68" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="2">
         <v>4</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="2">
         <v>1</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="2">
         <f t="shared" si="1"/>
         <v>600000</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" customFormat="1" ht="27" customHeight="1" spans="11:12">
+        <v>84</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" s="2" customFormat="1" customHeight="1" spans="11:12">
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
     </row>
-    <row r="70" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C70">
+    <row r="70" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C70" s="2">
         <v>501</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="2">
         <v>5</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="2">
         <v>1</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
+        <v>87</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
+      <c r="I70" s="2">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2">
         <v>20000</v>
       </c>
-      <c r="K70" t="s">
-        <v>83</v>
+      <c r="K70" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="L70" s="1"/>
     </row>
-    <row r="71" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C71">
+    <row r="71" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C71" s="2">
         <v>502</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="2">
         <v>5</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="2">
         <v>2</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
+        <v>89</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0</v>
+      </c>
+      <c r="I71" s="2">
+        <v>0</v>
+      </c>
+      <c r="J71" s="2">
         <f>J70*2</f>
         <v>40000</v>
       </c>
-      <c r="K71" t="s">
-        <v>83</v>
+      <c r="K71" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="L71" s="1"/>
     </row>
-    <row r="72" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C72">
+    <row r="72" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C72" s="2">
         <v>503</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="2">
         <v>5</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="2">
         <v>3</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
+        <v>90</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0</v>
+      </c>
+      <c r="I72" s="2">
+        <v>0</v>
+      </c>
+      <c r="J72" s="2">
         <f>J70*3</f>
         <v>60000</v>
       </c>
-      <c r="K72" t="s">
-        <v>83</v>
+      <c r="K72" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="L72" s="1"/>
     </row>
-    <row r="73" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C73">
+    <row r="73" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C73" s="2">
         <v>504</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="2">
         <v>5</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="2">
         <v>4</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
+        <v>91</v>
+      </c>
+      <c r="H73" s="2">
+        <v>0</v>
+      </c>
+      <c r="I73" s="2">
+        <v>0</v>
+      </c>
+      <c r="J73" s="2">
         <f>J70*4</f>
         <v>80000</v>
       </c>
-      <c r="K73" t="s">
-        <v>83</v>
+      <c r="K73" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="L73" s="1"/>
     </row>
-    <row r="74" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C74">
+    <row r="74" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C74" s="2">
         <v>505</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="2">
         <v>5</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="2">
         <v>5</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
+        <v>92</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0</v>
+      </c>
+      <c r="I74" s="2">
+        <v>0</v>
+      </c>
+      <c r="J74" s="2">
         <f>J70*5</f>
         <v>100000</v>
       </c>
-      <c r="K74" t="s">
-        <v>83</v>
+      <c r="K74" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="L74" s="1"/>
     </row>
-    <row r="75" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C75">
+    <row r="75" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C75" s="2">
         <v>506</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="2">
         <v>5</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="2">
         <v>6</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
+        <v>93</v>
+      </c>
+      <c r="H75" s="2">
+        <v>0</v>
+      </c>
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
+      <c r="J75" s="2">
         <f>J70*6</f>
         <v>120000</v>
       </c>
-      <c r="K75" t="s">
-        <v>83</v>
+      <c r="K75" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="L75" s="1"/>
     </row>
-    <row r="76" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C76">
+    <row r="76" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C76" s="2">
         <v>507</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="2">
         <v>5</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="2">
         <v>7</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
+        <v>94</v>
+      </c>
+      <c r="H76" s="2">
+        <v>0</v>
+      </c>
+      <c r="I76" s="2">
+        <v>0</v>
+      </c>
+      <c r="J76" s="2">
         <f>J70*7</f>
         <v>140000</v>
       </c>
-      <c r="K76" t="s">
-        <v>83</v>
+      <c r="K76" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="L76" s="1"/>
     </row>
-    <row r="77" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C77">
+    <row r="77" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C77" s="2">
         <v>508</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="2">
         <v>5</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="2">
         <v>8</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
+        <v>95</v>
+      </c>
+      <c r="H77" s="2">
+        <v>0</v>
+      </c>
+      <c r="I77" s="2">
+        <v>0</v>
+      </c>
+      <c r="J77" s="2">
         <f>J70*8</f>
         <v>160000</v>
       </c>
-      <c r="K77" t="s">
-        <v>83</v>
+      <c r="K77" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="L77" s="1"/>
     </row>
-    <row r="78" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C78">
+    <row r="78" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C78" s="2">
         <v>509</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="2">
         <v>5</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="2">
         <v>9</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
+        <v>96</v>
+      </c>
+      <c r="H78" s="2">
+        <v>0</v>
+      </c>
+      <c r="I78" s="2">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2">
         <f>J70*9</f>
         <v>180000</v>
       </c>
-      <c r="K78" t="s">
-        <v>83</v>
+      <c r="K78" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="L78" s="1"/>
     </row>
-    <row r="79" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C79">
+    <row r="79" s="2" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C79" s="2">
         <v>510</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="2">
         <v>5</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="2">
         <v>10</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H79">
+        <v>97</v>
+      </c>
+      <c r="H79" s="2">
         <v>5</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="2">
         <v>1</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="2">
         <f>J70*10</f>
         <v>200000</v>
       </c>
-      <c r="K79" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L79" t="s">
-        <v>94</v>
+      <c r="K79" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/SoulRingAttrConfig.xlsx
+++ b/Excel/SoulRingAttrConfig.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -72,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="163">
   <si>
     <t>ID</t>
   </si>
@@ -552,12 +565,21 @@
   </si>
   <si>
     <t>友方最终攻击增加15%</t>
+  </si>
+  <si>
+    <t>10级解锁闪避光环</t>
+  </si>
+  <si>
+    <t>闪避光环Lv1</t>
+  </si>
+  <si>
+    <t>友方闪避概率增加10%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -732,12 +754,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1525,10 +1547,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84:G88"/>
+    <sheetView tabSelected="1" topLeftCell="B85" workbookViewId="0">
+      <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -4678,6 +4700,308 @@
       </c>
     </row>
     <row r="105" s="1" customFormat="1" customHeight="1"/>
+    <row r="106" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C106" s="1">
+        <v>601</v>
+      </c>
+      <c r="D106" s="1">
+        <v>6</v>
+      </c>
+      <c r="E106" s="1">
+        <v>1</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0</v>
+      </c>
+      <c r="J106" s="1">
+        <v>40000</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="107" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C107" s="1">
+        <v>602</v>
+      </c>
+      <c r="D107" s="1">
+        <v>6</v>
+      </c>
+      <c r="E107" s="1">
+        <v>2</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0</v>
+      </c>
+      <c r="J107" s="1">
+        <f>J106*2</f>
+        <v>80000</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="108" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C108" s="1">
+        <v>603</v>
+      </c>
+      <c r="D108" s="1">
+        <v>6</v>
+      </c>
+      <c r="E108" s="1">
+        <v>3</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0</v>
+      </c>
+      <c r="J108" s="1">
+        <f>J106*3</f>
+        <v>120000</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C109" s="1">
+        <v>604</v>
+      </c>
+      <c r="D109" s="1">
+        <v>6</v>
+      </c>
+      <c r="E109" s="1">
+        <v>4</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0</v>
+      </c>
+      <c r="I109" s="1">
+        <v>0</v>
+      </c>
+      <c r="J109" s="1">
+        <f>J106*4</f>
+        <v>160000</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="110" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C110" s="1">
+        <v>605</v>
+      </c>
+      <c r="D110" s="1">
+        <v>6</v>
+      </c>
+      <c r="E110" s="1">
+        <v>5</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0</v>
+      </c>
+      <c r="I110" s="1">
+        <v>0</v>
+      </c>
+      <c r="J110" s="1">
+        <f>J106*5</f>
+        <v>200000</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="111" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C111" s="1">
+        <v>606</v>
+      </c>
+      <c r="D111" s="1">
+        <v>6</v>
+      </c>
+      <c r="E111" s="1">
+        <v>6</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0</v>
+      </c>
+      <c r="I111" s="1">
+        <v>0</v>
+      </c>
+      <c r="J111" s="1">
+        <f>J106*6</f>
+        <v>240000</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C112" s="1">
+        <v>607</v>
+      </c>
+      <c r="D112" s="1">
+        <v>6</v>
+      </c>
+      <c r="E112" s="1">
+        <v>7</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0</v>
+      </c>
+      <c r="J112" s="1">
+        <f>J106*7</f>
+        <v>280000</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C113" s="1">
+        <v>608</v>
+      </c>
+      <c r="D113" s="1">
+        <v>6</v>
+      </c>
+      <c r="E113" s="1">
+        <v>8</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0</v>
+      </c>
+      <c r="I113" s="1">
+        <v>0</v>
+      </c>
+      <c r="J113" s="1">
+        <f>J106*8</f>
+        <v>320000</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="114" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C114" s="1">
+        <v>609</v>
+      </c>
+      <c r="D114" s="1">
+        <v>6</v>
+      </c>
+      <c r="E114" s="1">
+        <v>9</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0</v>
+      </c>
+      <c r="J114" s="1">
+        <f>J106*9</f>
+        <v>360000</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="115" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C115" s="1">
+        <v>610</v>
+      </c>
+      <c r="D115" s="1">
+        <v>6</v>
+      </c>
+      <c r="E115" s="1">
+        <v>10</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H115" s="1">
+        <v>6</v>
+      </c>
+      <c r="I115" s="1">
+        <v>1</v>
+      </c>
+      <c r="J115" s="1">
+        <f>J106*10</f>
+        <v>400000</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 J3 D4 E4 F4 G4 H4 I4 J4 D5 E5 F5 G5 H5 I5 J5 C3:C5" errorStyle="warning">

--- a/Excel/SoulRingAttrConfig.xlsx
+++ b/Excel/SoulRingAttrConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -1549,8 +1549,8 @@
   <sheetPr/>
   <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B85" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>

--- a/Excel/SoulRingAttrConfig.xlsx
+++ b/Excel/SoulRingAttrConfig.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -85,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="304">
   <si>
     <t>ID</t>
   </si>
@@ -264,6 +265,51 @@
     <t>友方所受伤害减少20%</t>
   </si>
   <si>
+    <t>41,41,41,26,72</t>
+  </si>
+  <si>
+    <t>守护光环Lv12</t>
+  </si>
+  <si>
+    <t>友方所受伤害减少21%</t>
+  </si>
+  <si>
+    <t>43,43,43,28,76</t>
+  </si>
+  <si>
+    <t>守护光环Lv13</t>
+  </si>
+  <si>
+    <t>友方所受伤害减少22%</t>
+  </si>
+  <si>
+    <t>45,45,45,30,80</t>
+  </si>
+  <si>
+    <t>守护光环Lv14</t>
+  </si>
+  <si>
+    <t>友方所受伤害减少23%</t>
+  </si>
+  <si>
+    <t>47,47,47,32,84</t>
+  </si>
+  <si>
+    <t>守护光环Lv15</t>
+  </si>
+  <si>
+    <t>友方所受伤害减少24%</t>
+  </si>
+  <si>
+    <t>49,49,49,34,88</t>
+  </si>
+  <si>
+    <t>守护光环Lv16</t>
+  </si>
+  <si>
+    <t>友方所受伤害减少25%</t>
+  </si>
+  <si>
     <t>14,15,16,10,11</t>
   </si>
   <si>
@@ -336,6 +382,36 @@
     <t>友方最终伤害增加20%</t>
   </si>
   <si>
+    <t>强击光环Lv12</t>
+  </si>
+  <si>
+    <t>友方最终伤害增加21%</t>
+  </si>
+  <si>
+    <t>强击光环Lv13</t>
+  </si>
+  <si>
+    <t>友方最终伤害增加22%</t>
+  </si>
+  <si>
+    <t>强击光环Lv14</t>
+  </si>
+  <si>
+    <t>友方最终伤害增加23%</t>
+  </si>
+  <si>
+    <t>强击光环Lv15</t>
+  </si>
+  <si>
+    <t>友方最终伤害增加24%</t>
+  </si>
+  <si>
+    <t>强击光环Lv16</t>
+  </si>
+  <si>
+    <t>友方最终伤害增加25%</t>
+  </si>
+  <si>
     <t>14,15,16,12,19</t>
   </si>
   <si>
@@ -408,6 +484,36 @@
     <t>友方暴击概率增加20%</t>
   </si>
   <si>
+    <t>暴击光环Lv12</t>
+  </si>
+  <si>
+    <t>友方暴击概率增加21%</t>
+  </si>
+  <si>
+    <t>暴击光环Lv13</t>
+  </si>
+  <si>
+    <t>友方暴击概率增加22%</t>
+  </si>
+  <si>
+    <t>暴击光环Lv14</t>
+  </si>
+  <si>
+    <t>友方暴击概率增加23%</t>
+  </si>
+  <si>
+    <t>暴击光环Lv15</t>
+  </si>
+  <si>
+    <t>友方暴击概率增加24%</t>
+  </si>
+  <si>
+    <t>暴击光环Lv16</t>
+  </si>
+  <si>
+    <t>友方暴击概率增加25%</t>
+  </si>
+  <si>
     <t>14,15,16,13,24</t>
   </si>
   <si>
@@ -480,6 +586,36 @@
     <t>友方暴击伤害增加60%</t>
   </si>
   <si>
+    <t>爆伤光环Lv12</t>
+  </si>
+  <si>
+    <t>友方暴击伤害增加63%</t>
+  </si>
+  <si>
+    <t>爆伤光环Lv13</t>
+  </si>
+  <si>
+    <t>友方暴击伤害增加66%</t>
+  </si>
+  <si>
+    <t>爆伤光环Lv14</t>
+  </si>
+  <si>
+    <t>友方暴击伤害增加69%</t>
+  </si>
+  <si>
+    <t>爆伤光环Lv15</t>
+  </si>
+  <si>
+    <t>友方暴击伤害增加72%</t>
+  </si>
+  <si>
+    <t>爆伤光环Lv16</t>
+  </si>
+  <si>
+    <t>友方暴击伤害增加75%</t>
+  </si>
+  <si>
     <t>14,15,16,7,26</t>
   </si>
   <si>
@@ -567,13 +703,301 @@
     <t>友方最终攻击增加15%</t>
   </si>
   <si>
+    <t>45,45,45,16,45</t>
+  </si>
+  <si>
+    <t>祝福光环Lv7</t>
+  </si>
+  <si>
+    <t>友方最终攻击增加16%</t>
+  </si>
+  <si>
+    <t>47,47,47,17,47</t>
+  </si>
+  <si>
+    <t>祝福光环Lv8</t>
+  </si>
+  <si>
+    <t>友方最终攻击增加17%</t>
+  </si>
+  <si>
+    <t>49,49,49,18,49</t>
+  </si>
+  <si>
+    <t>祝福光环Lv9</t>
+  </si>
+  <si>
+    <t>友方最终攻击增加18%</t>
+  </si>
+  <si>
+    <t>51,51,51,19,51</t>
+  </si>
+  <si>
+    <t>祝福光环Lv10</t>
+  </si>
+  <si>
+    <t>友方最终攻击增加19%</t>
+  </si>
+  <si>
+    <t>53,53,53,20,53</t>
+  </si>
+  <si>
+    <t>祝福光环Lv11</t>
+  </si>
+  <si>
+    <t>友方最终攻击增加20%</t>
+  </si>
+  <si>
+    <t>55,55,55,21,55</t>
+  </si>
+  <si>
+    <t>祝福光环Lv12</t>
+  </si>
+  <si>
+    <t>友方最终攻击增加21%</t>
+  </si>
+  <si>
+    <t>57,57,57,22,57</t>
+  </si>
+  <si>
+    <t>祝福光环Lv13</t>
+  </si>
+  <si>
+    <t>友方最终攻击增加22%</t>
+  </si>
+  <si>
+    <t>59,59,59,23,59</t>
+  </si>
+  <si>
+    <t>祝福光环Lv14</t>
+  </si>
+  <si>
+    <t>友方最终攻击增加23%</t>
+  </si>
+  <si>
+    <t>61,61,61,24,61</t>
+  </si>
+  <si>
+    <t>祝福光环Lv15</t>
+  </si>
+  <si>
+    <t>友方最终攻击增加24%</t>
+  </si>
+  <si>
+    <t>63,63,63,25,63</t>
+  </si>
+  <si>
+    <t>祝福光环Lv16</t>
+  </si>
+  <si>
+    <t>友方最终攻击增加25%</t>
+  </si>
+  <si>
+    <t>14,15,16,27,28</t>
+  </si>
+  <si>
+    <t>15,15,15,15,15</t>
+  </si>
+  <si>
     <t>10级解锁闪避光环</t>
   </si>
   <si>
+    <t>17,17,17,17,17</t>
+  </si>
+  <si>
+    <t>19,19,19,19,19</t>
+  </si>
+  <si>
+    <t>21,21,21,21,21</t>
+  </si>
+  <si>
+    <t>23,23,23,23,23</t>
+  </si>
+  <si>
+    <t>25,25,25,25,25</t>
+  </si>
+  <si>
+    <t>27,27,27,27,27</t>
+  </si>
+  <si>
+    <t>29,29,29,29,29</t>
+  </si>
+  <si>
+    <t>31,31,31,31,31</t>
+  </si>
+  <si>
+    <t>33,33,33,33,33</t>
+  </si>
+  <si>
     <t>闪避光环Lv1</t>
   </si>
   <si>
     <t>友方闪避概率增加10%</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>35,35,35,35,35</t>
+  </si>
+  <si>
+    <t>37,37,37,37,37</t>
+  </si>
+  <si>
+    <t>39,39,39,39,39</t>
+  </si>
+  <si>
+    <t>41,41,41,41,41</t>
+  </si>
+  <si>
+    <t>43,43,43,43,43</t>
+  </si>
+  <si>
+    <t>45,45,45,45,45</t>
+  </si>
+  <si>
+    <t>47,47,47,47,47</t>
+  </si>
+  <si>
+    <t>49,49,49,49,49</t>
+  </si>
+  <si>
+    <t>51,51,51,51,51</t>
+  </si>
+  <si>
+    <t>53,53,53,53,53</t>
+  </si>
+  <si>
+    <t>55,55,55,55,55</t>
+  </si>
+  <si>
+    <t>57,57,57,57,57</t>
+  </si>
+  <si>
+    <t>59,59,59,59,59</t>
+  </si>
+  <si>
+    <t>61,61,61,61,61</t>
+  </si>
+  <si>
+    <t>63,63,63,63,63</t>
+  </si>
+  <si>
+    <t>51,51,51,36,92</t>
+  </si>
+  <si>
+    <t>65,65,65,26,65</t>
+  </si>
+  <si>
+    <t>65,65,65,65,65</t>
+  </si>
+  <si>
+    <t>53,53,53,38,96</t>
+  </si>
+  <si>
+    <t>67,67,67,27,67</t>
+  </si>
+  <si>
+    <t>67,67,67,67,67</t>
+  </si>
+  <si>
+    <t>55,55,55,40,100</t>
+  </si>
+  <si>
+    <t>69,69,69,28,69</t>
+  </si>
+  <si>
+    <t>69,69,69,69,69</t>
+  </si>
+  <si>
+    <t>57,57,57,42,104</t>
+  </si>
+  <si>
+    <t>71,71,71,29,71</t>
+  </si>
+  <si>
+    <t>71,71,71,71,71</t>
+  </si>
+  <si>
+    <t>59,59,59,44,108</t>
+  </si>
+  <si>
+    <t>73,73,73,30,73</t>
+  </si>
+  <si>
+    <t>73,73,73,73,73</t>
+  </si>
+  <si>
+    <t>61,61,61,46,112</t>
+  </si>
+  <si>
+    <t>75,75,75,31,75</t>
+  </si>
+  <si>
+    <t>63,63,63,48,116</t>
+  </si>
+  <si>
+    <t>77,77,77,32,77</t>
+  </si>
+  <si>
+    <t>65,65,65,50,120</t>
+  </si>
+  <si>
+    <t>79,79,79,33,79</t>
+  </si>
+  <si>
+    <t>67,67,67,52,124</t>
+  </si>
+  <si>
+    <t>81,81,81,34,81</t>
+  </si>
+  <si>
+    <t>69,69,69,54,128</t>
+  </si>
+  <si>
+    <t>83,83,83,35,83</t>
+  </si>
+  <si>
+    <t>71,71,71,56,132</t>
+  </si>
+  <si>
+    <t>85,85,85,36,85</t>
+  </si>
+  <si>
+    <t>73,73,73,58,136</t>
+  </si>
+  <si>
+    <t>87,87,87,37,87</t>
+  </si>
+  <si>
+    <t>75,75,75,60,140</t>
+  </si>
+  <si>
+    <t>89,89,89,38,89</t>
+  </si>
+  <si>
+    <t>77,77,77,62,144</t>
+  </si>
+  <si>
+    <t>91,91,91,39,91</t>
+  </si>
+  <si>
+    <t>79,79,79,64,148</t>
+  </si>
+  <si>
+    <t>93,93,93,40,93</t>
+  </si>
+  <si>
+    <t>81,81,81,66,152</t>
+  </si>
+  <si>
+    <t>95,95,95,41,95</t>
+  </si>
+  <si>
+    <t>83,83,83,68,156</t>
+  </si>
+  <si>
+    <t>97,97,97,42,97</t>
   </si>
 </sst>
 </file>
@@ -1219,8 +1643,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1547,158 +1972,158 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N115"/>
+  <dimension ref="A1:N146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="B118" workbookViewId="0">
+      <selection activeCell="J150" sqref="J150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
+    <col min="1" max="1" width="6.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9" style="3"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="5" width="12.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="2" customWidth="1"/>
-    <col min="9" max="10" width="11.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="3" customWidth="1"/>
+    <col min="9" max="10" width="11.375" style="3" customWidth="1"/>
     <col min="11" max="12" width="30.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.625" style="2" customWidth="1"/>
-    <col min="15" max="16376" width="9" style="2"/>
+    <col min="13" max="13" width="8.125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.625" style="3" customWidth="1"/>
+    <col min="15" max="16376" width="9" style="3"/>
     <col min="16377" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C6" s="1">
@@ -1710,10 +2135,10 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="1">
@@ -1739,10 +2164,10 @@
       <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="1">
@@ -1769,10 +2194,10 @@
       <c r="E8" s="1">
         <v>3</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="1">
@@ -1799,10 +2224,10 @@
       <c r="E9" s="1">
         <v>4</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="1">
@@ -1829,10 +2254,10 @@
       <c r="E10" s="1">
         <v>5</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="1">
@@ -1859,10 +2284,10 @@
       <c r="E11" s="1">
         <v>6</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="1">
@@ -1889,10 +2314,10 @@
       <c r="E12" s="1">
         <v>7</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="1">
@@ -1919,10 +2344,10 @@
       <c r="E13" s="1">
         <v>8</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="6" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="1">
@@ -1949,10 +2374,10 @@
       <c r="E14" s="1">
         <v>9</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H14" s="1">
@@ -1979,10 +2404,10 @@
       <c r="E15" s="1">
         <v>10</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H15" s="1">
@@ -2012,10 +2437,10 @@
       <c r="E16" s="1">
         <v>11</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="H16" s="1">
@@ -2045,10 +2470,10 @@
       <c r="E17" s="1">
         <v>12</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H17" s="1">
@@ -2078,10 +2503,10 @@
       <c r="E18" s="1">
         <v>13</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="6" t="s">
         <v>35</v>
       </c>
       <c r="H18" s="1">
@@ -2111,10 +2536,10 @@
       <c r="E19" s="1">
         <v>14</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="6" t="s">
         <v>38</v>
       </c>
       <c r="H19" s="1">
@@ -2144,10 +2569,10 @@
       <c r="E20" s="1">
         <v>15</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="6" t="s">
         <v>41</v>
       </c>
       <c r="H20" s="1">
@@ -2177,10 +2602,10 @@
       <c r="E21" s="1">
         <v>16</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="6" t="s">
         <v>44</v>
       </c>
       <c r="H21" s="1">
@@ -2210,10 +2635,10 @@
       <c r="E22" s="1">
         <v>17</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="6" t="s">
         <v>47</v>
       </c>
       <c r="H22" s="1">
@@ -2243,10 +2668,10 @@
       <c r="E23" s="1">
         <v>18</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="6" t="s">
         <v>50</v>
       </c>
       <c r="H23" s="1">
@@ -2276,10 +2701,10 @@
       <c r="E24" s="1">
         <v>19</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="6" t="s">
         <v>53</v>
       </c>
       <c r="H24" s="1">
@@ -2309,10 +2734,10 @@
       <c r="E25" s="1">
         <v>20</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H25" s="1">
@@ -2322,7 +2747,7 @@
         <v>11</v>
       </c>
       <c r="J25" s="1">
-        <f>J24+20000</f>
+        <f t="shared" ref="J25:J30" si="1">J24+20000</f>
         <v>120000</v>
       </c>
       <c r="K25" s="1" t="s">
@@ -2332,171 +2757,187 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" customHeight="1"/>
-    <row r="27" s="1" customFormat="1" customHeight="1" spans="3:11">
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C26" s="1">
+        <v>121</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>21</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>12</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="1"/>
+        <v>140000</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C27" s="1">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="D27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1">
+        <v>22</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="1">
         <v>1</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="5" t="s">
+      <c r="I27" s="1">
+        <v>13</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="1"/>
+        <v>160000</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C28" s="1">
+        <v>123</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>23</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>14</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="1"/>
+        <v>180000</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C29" s="1">
+        <v>124</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>24</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>15</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C30" s="1">
+        <v>125</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>25</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
         <v>16</v>
       </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1">
-        <v>3000</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C28" s="1">
-        <v>202</v>
-      </c>
-      <c r="D28" s="1">
-        <v>2</v>
-      </c>
-      <c r="E28" s="1">
-        <v>2</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1">
-        <f>J27*2</f>
-        <v>6000</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C29" s="1">
-        <v>203</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2</v>
-      </c>
-      <c r="E29" s="1">
-        <v>3</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1">
-        <f>J27*3</f>
-        <v>9000</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C30" s="1">
-        <v>204</v>
-      </c>
-      <c r="D30" s="1">
-        <v>2</v>
-      </c>
-      <c r="E30" s="1">
-        <v>4</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
       <c r="J30" s="1">
-        <f>J27*4</f>
-        <v>12000</v>
+        <f t="shared" si="1"/>
+        <v>220000</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C31" s="1">
-        <v>205</v>
-      </c>
-      <c r="D31" s="1">
-        <v>2</v>
-      </c>
-      <c r="E31" s="1">
-        <v>5</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31" s="1">
-        <f>J27*5</f>
-        <v>15000</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
+        <v>72</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" customHeight="1"/>
     <row r="32" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C32" s="1">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D32" s="1">
         <v>2</v>
       </c>
       <c r="E32" s="1">
-        <v>6</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
@@ -2505,28 +2946,27 @@
         <v>0</v>
       </c>
       <c r="J32" s="1">
-        <f>J27*6</f>
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C33" s="1">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D33" s="1">
         <v>2</v>
       </c>
       <c r="E33" s="1">
-        <v>7</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="H33" s="1">
         <v>0</v>
@@ -2535,28 +2975,28 @@
         <v>0</v>
       </c>
       <c r="J33" s="1">
-        <f>J27*7</f>
-        <v>21000</v>
+        <f>J32*2</f>
+        <v>6000</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C34" s="1">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D34" s="1">
         <v>2</v>
       </c>
       <c r="E34" s="1">
-        <v>8</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
@@ -2565,28 +3005,28 @@
         <v>0</v>
       </c>
       <c r="J34" s="1">
-        <f>J27*8</f>
-        <v>24000</v>
+        <f>J32*3</f>
+        <v>9000</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C35" s="1">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D35" s="1">
         <v>2</v>
       </c>
       <c r="E35" s="1">
-        <v>9</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>25</v>
+        <v>4</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H35" s="1">
         <v>0</v>
@@ -2595,1658 +3035,1684 @@
         <v>0</v>
       </c>
       <c r="J35" s="1">
-        <f>J27*9</f>
-        <v>27000</v>
+        <f>J32*4</f>
+        <v>12000</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C36" s="1">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D36" s="1">
         <v>2</v>
       </c>
       <c r="E36" s="1">
-        <v>10</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="H36" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="1">
-        <f>J27*10</f>
-        <v>30000</v>
+        <f>J32*5</f>
+        <v>15000</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C37" s="1">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D37" s="1">
         <v>2</v>
       </c>
       <c r="E37" s="1">
-        <v>11</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>29</v>
+        <v>6</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="H37" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" ref="J37:J45" si="1">J36+30000</f>
-        <v>60000</v>
+        <f>J32*6</f>
+        <v>18000</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C38" s="1">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
       </c>
       <c r="E38" s="1">
-        <v>12</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>32</v>
+        <v>7</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="H38" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="1"/>
-        <v>90000</v>
+        <f>J32*7</f>
+        <v>21000</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C39" s="1">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D39" s="1">
         <v>2</v>
       </c>
       <c r="E39" s="1">
-        <v>13</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>35</v>
+        <v>8</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="H39" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" si="1"/>
-        <v>120000</v>
+        <f>J32*8</f>
+        <v>24000</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C40" s="1">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D40" s="1">
         <v>2</v>
       </c>
       <c r="E40" s="1">
-        <v>14</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>38</v>
+        <v>9</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="H40" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="1"/>
-        <v>150000</v>
+        <f>J32*9</f>
+        <v>27000</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C41" s="1">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
       </c>
       <c r="E41" s="1">
-        <v>15</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="H41" s="1">
         <v>2</v>
       </c>
       <c r="I41" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" si="1"/>
-        <v>180000</v>
+        <f>J32*10</f>
+        <v>30000</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C42" s="1">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D42" s="1">
         <v>2</v>
       </c>
       <c r="E42" s="1">
-        <v>16</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>44</v>
+        <v>11</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="H42" s="1">
         <v>2</v>
       </c>
       <c r="I42" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" si="1"/>
-        <v>210000</v>
+        <f t="shared" ref="J42:J50" si="2">J41+30000</f>
+        <v>60000</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C43" s="1">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D43" s="1">
         <v>2</v>
       </c>
       <c r="E43" s="1">
-        <v>17</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>47</v>
+        <v>12</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="H43" s="1">
         <v>2</v>
       </c>
       <c r="I43" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J43" s="1">
-        <f t="shared" si="1"/>
-        <v>240000</v>
+        <f t="shared" si="2"/>
+        <v>90000</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C44" s="1">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D44" s="1">
         <v>2</v>
       </c>
       <c r="E44" s="1">
-        <v>18</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>50</v>
+        <v>13</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="H44" s="1">
         <v>2</v>
       </c>
       <c r="I44" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" si="1"/>
-        <v>270000</v>
+        <f t="shared" si="2"/>
+        <v>120000</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C45" s="1">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D45" s="1">
         <v>2</v>
       </c>
       <c r="E45" s="1">
-        <v>19</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>53</v>
+        <v>14</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="H45" s="1">
         <v>2</v>
       </c>
       <c r="I45" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" si="1"/>
-        <v>300000</v>
+        <f t="shared" si="2"/>
+        <v>150000</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C46" s="1">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D46" s="1">
         <v>2</v>
       </c>
       <c r="E46" s="1">
-        <v>20</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H46" s="1">
         <v>2</v>
       </c>
       <c r="I46" s="1">
+        <v>6</v>
+      </c>
+      <c r="J46" s="1">
+        <f t="shared" si="2"/>
+        <v>180000</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C47" s="1">
+        <v>216</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1">
+        <v>16</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H47" s="1">
+        <v>2</v>
+      </c>
+      <c r="I47" s="1">
+        <v>7</v>
+      </c>
+      <c r="J47" s="1">
+        <f t="shared" si="2"/>
+        <v>210000</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C48" s="1">
+        <v>217</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2</v>
+      </c>
+      <c r="E48" s="1">
+        <v>17</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H48" s="1">
+        <v>2</v>
+      </c>
+      <c r="I48" s="1">
+        <v>8</v>
+      </c>
+      <c r="J48" s="1">
+        <f t="shared" si="2"/>
+        <v>240000</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C49" s="1">
+        <v>218</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>18</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H49" s="1">
+        <v>2</v>
+      </c>
+      <c r="I49" s="1">
+        <v>9</v>
+      </c>
+      <c r="J49" s="1">
+        <f t="shared" si="2"/>
+        <v>270000</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C50" s="1">
+        <v>219</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2</v>
+      </c>
+      <c r="E50" s="1">
+        <v>19</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50" s="1">
+        <v>2</v>
+      </c>
+      <c r="I50" s="1">
+        <v>10</v>
+      </c>
+      <c r="J50" s="1">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C51" s="1">
+        <v>220</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2</v>
+      </c>
+      <c r="E51" s="1">
+        <v>20</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51" s="1">
+        <v>2</v>
+      </c>
+      <c r="I51" s="1">
         <v>11</v>
       </c>
-      <c r="J46" s="1">
-        <f>J45+50000</f>
+      <c r="J51" s="1">
+        <f t="shared" ref="J51:J56" si="3">J50+50000</f>
         <v>350000</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="1" customHeight="1"/>
-    <row r="48" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C48" s="1">
+      <c r="K51" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C52" s="1">
+        <v>221</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2</v>
+      </c>
+      <c r="E52" s="1">
+        <v>21</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H52" s="1">
+        <v>2</v>
+      </c>
+      <c r="I52" s="1">
+        <v>12</v>
+      </c>
+      <c r="J52" s="1">
+        <f t="shared" si="3"/>
+        <v>400000</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C53" s="1">
+        <v>222</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2</v>
+      </c>
+      <c r="E53" s="1">
+        <v>22</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H53" s="1">
+        <v>2</v>
+      </c>
+      <c r="I53" s="1">
+        <v>13</v>
+      </c>
+      <c r="J53" s="1">
+        <f t="shared" si="3"/>
+        <v>450000</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C54" s="1">
+        <v>223</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2</v>
+      </c>
+      <c r="E54" s="1">
+        <v>23</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H54" s="1">
+        <v>2</v>
+      </c>
+      <c r="I54" s="1">
+        <v>14</v>
+      </c>
+      <c r="J54" s="1">
+        <f t="shared" si="3"/>
+        <v>500000</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C55" s="1">
+        <v>224</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2</v>
+      </c>
+      <c r="E55" s="1">
+        <v>24</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H55" s="1">
+        <v>2</v>
+      </c>
+      <c r="I55" s="1">
+        <v>15</v>
+      </c>
+      <c r="J55" s="1">
+        <f t="shared" si="3"/>
+        <v>550000</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C56" s="1">
+        <v>225</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2</v>
+      </c>
+      <c r="E56" s="1">
+        <v>25</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H56" s="1">
+        <v>2</v>
+      </c>
+      <c r="I56" s="1">
+        <v>16</v>
+      </c>
+      <c r="J56" s="1">
+        <f t="shared" si="3"/>
+        <v>600000</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" customHeight="1"/>
+    <row r="58" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C58" s="1">
         <v>301</v>
-      </c>
-      <c r="D48" s="1">
-        <v>3</v>
-      </c>
-      <c r="E48" s="1">
-        <v>1</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48" s="1">
-        <v>0</v>
-      </c>
-      <c r="I48" s="1">
-        <v>0</v>
-      </c>
-      <c r="J48" s="1">
-        <v>6000</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C49" s="1">
-        <v>302</v>
-      </c>
-      <c r="D49" s="1">
-        <v>3</v>
-      </c>
-      <c r="E49" s="1">
-        <v>2</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" s="1">
-        <v>0</v>
-      </c>
-      <c r="I49" s="1">
-        <v>0</v>
-      </c>
-      <c r="J49" s="1">
-        <f>J48*2</f>
-        <v>12000</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C50" s="1">
-        <v>303</v>
-      </c>
-      <c r="D50" s="1">
-        <v>3</v>
-      </c>
-      <c r="E50" s="1">
-        <v>3</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H50" s="1">
-        <v>0</v>
-      </c>
-      <c r="I50" s="1">
-        <v>0</v>
-      </c>
-      <c r="J50" s="1">
-        <f>J48*3</f>
-        <v>18000</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C51" s="1">
-        <v>304</v>
-      </c>
-      <c r="D51" s="1">
-        <v>3</v>
-      </c>
-      <c r="E51" s="1">
-        <v>4</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H51" s="1">
-        <v>0</v>
-      </c>
-      <c r="I51" s="1">
-        <v>0</v>
-      </c>
-      <c r="J51" s="1">
-        <f>J48*4</f>
-        <v>24000</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C52" s="1">
-        <v>305</v>
-      </c>
-      <c r="D52" s="1">
-        <v>3</v>
-      </c>
-      <c r="E52" s="1">
-        <v>5</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H52" s="1">
-        <v>0</v>
-      </c>
-      <c r="I52" s="1">
-        <v>0</v>
-      </c>
-      <c r="J52" s="1">
-        <f>J48*5</f>
-        <v>30000</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C53" s="1">
-        <v>306</v>
-      </c>
-      <c r="D53" s="1">
-        <v>3</v>
-      </c>
-      <c r="E53" s="1">
-        <v>6</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H53" s="1">
-        <v>0</v>
-      </c>
-      <c r="I53" s="1">
-        <v>0</v>
-      </c>
-      <c r="J53" s="1">
-        <f>J48*6</f>
-        <v>36000</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C54" s="1">
-        <v>307</v>
-      </c>
-      <c r="D54" s="1">
-        <v>3</v>
-      </c>
-      <c r="E54" s="1">
-        <v>7</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H54" s="1">
-        <v>0</v>
-      </c>
-      <c r="I54" s="1">
-        <v>0</v>
-      </c>
-      <c r="J54" s="1">
-        <f>J48*7</f>
-        <v>42000</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C55" s="1">
-        <v>308</v>
-      </c>
-      <c r="D55" s="1">
-        <v>3</v>
-      </c>
-      <c r="E55" s="1">
-        <v>8</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H55" s="1">
-        <v>0</v>
-      </c>
-      <c r="I55" s="1">
-        <v>0</v>
-      </c>
-      <c r="J55" s="1">
-        <f>J48*8</f>
-        <v>48000</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C56" s="1">
-        <v>309</v>
-      </c>
-      <c r="D56" s="1">
-        <v>3</v>
-      </c>
-      <c r="E56" s="1">
-        <v>9</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H56" s="1">
-        <v>0</v>
-      </c>
-      <c r="I56" s="1">
-        <v>0</v>
-      </c>
-      <c r="J56" s="1">
-        <f>J48*9</f>
-        <v>54000</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C57" s="1">
-        <v>310</v>
-      </c>
-      <c r="D57" s="1">
-        <v>3</v>
-      </c>
-      <c r="E57" s="1">
-        <v>10</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H57" s="1">
-        <v>3</v>
-      </c>
-      <c r="I57" s="1">
-        <v>1</v>
-      </c>
-      <c r="J57" s="1">
-        <f>J48*10</f>
-        <v>60000</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C58" s="1">
-        <v>311</v>
       </c>
       <c r="D58" s="1">
         <v>3</v>
       </c>
       <c r="E58" s="1">
-        <v>11</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>29</v>
+        <v>1</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="H58" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" s="1">
-        <f t="shared" ref="J58:J66" si="2">J57+50000</f>
-        <v>110000</v>
+        <v>6000</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C59" s="1">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="D59" s="1">
         <v>3</v>
       </c>
       <c r="E59" s="1">
-        <v>12</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="H59" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J59" s="1">
-        <f t="shared" si="2"/>
-        <v>160000</v>
+        <f>J58*2</f>
+        <v>12000</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C60" s="1">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="D60" s="1">
         <v>3</v>
       </c>
       <c r="E60" s="1">
-        <v>13</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="H60" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J60" s="1">
-        <f t="shared" si="2"/>
-        <v>210000</v>
+        <f>J58*3</f>
+        <v>18000</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C61" s="1">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="D61" s="1">
         <v>3</v>
       </c>
       <c r="E61" s="1">
-        <v>14</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>38</v>
+        <v>4</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H61" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J61" s="1">
-        <f t="shared" si="2"/>
-        <v>260000</v>
+        <f>J58*4</f>
+        <v>24000</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C62" s="1">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="D62" s="1">
         <v>3</v>
       </c>
       <c r="E62" s="1">
-        <v>15</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>41</v>
+        <v>5</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="H62" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J62" s="1">
-        <f t="shared" si="2"/>
-        <v>310000</v>
+        <f>J58*5</f>
+        <v>30000</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C63" s="1">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D63" s="1">
         <v>3</v>
       </c>
       <c r="E63" s="1">
-        <v>16</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>44</v>
+        <v>6</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="H63" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J63" s="1">
-        <f t="shared" si="2"/>
-        <v>360000</v>
+        <f>J58*6</f>
+        <v>36000</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C64" s="1">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="D64" s="1">
         <v>3</v>
       </c>
       <c r="E64" s="1">
-        <v>17</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>47</v>
+        <v>7</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="H64" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J64" s="1">
-        <f t="shared" si="2"/>
-        <v>410000</v>
+        <f>J58*7</f>
+        <v>42000</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C65" s="1">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D65" s="1">
         <v>3</v>
       </c>
       <c r="E65" s="1">
-        <v>18</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>50</v>
+        <v>8</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="H65" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J65" s="1">
-        <f t="shared" si="2"/>
-        <v>460000</v>
+        <f>J58*8</f>
+        <v>48000</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="66" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C66" s="1">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D66" s="1">
         <v>3</v>
       </c>
       <c r="E66" s="1">
-        <v>19</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>53</v>
+        <v>9</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="H66" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J66" s="1">
-        <f t="shared" si="2"/>
-        <v>510000</v>
+        <f>J58*9</f>
+        <v>54000</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C67" s="1">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D67" s="1">
         <v>3</v>
       </c>
       <c r="E67" s="1">
-        <v>20</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>56</v>
+        <v>10</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="H67" s="1">
         <v>3</v>
       </c>
       <c r="I67" s="1">
+        <v>1</v>
+      </c>
+      <c r="J67" s="1">
+        <f>J58*10</f>
+        <v>60000</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C68" s="1">
+        <v>311</v>
+      </c>
+      <c r="D68" s="1">
+        <v>3</v>
+      </c>
+      <c r="E68" s="1">
         <v>11</v>
       </c>
-      <c r="J67" s="1">
-        <f>J66+80000</f>
+      <c r="F68" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" s="1">
+        <v>3</v>
+      </c>
+      <c r="I68" s="1">
+        <v>2</v>
+      </c>
+      <c r="J68" s="1">
+        <f t="shared" ref="J68:J76" si="4">J67+50000</f>
+        <v>110000</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C69" s="1">
+        <v>312</v>
+      </c>
+      <c r="D69" s="1">
+        <v>3</v>
+      </c>
+      <c r="E69" s="1">
+        <v>12</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H69" s="1">
+        <v>3</v>
+      </c>
+      <c r="I69" s="1">
+        <v>3</v>
+      </c>
+      <c r="J69" s="1">
+        <f t="shared" si="4"/>
+        <v>160000</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C70" s="1">
+        <v>313</v>
+      </c>
+      <c r="D70" s="1">
+        <v>3</v>
+      </c>
+      <c r="E70" s="1">
+        <v>13</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H70" s="1">
+        <v>3</v>
+      </c>
+      <c r="I70" s="1">
+        <v>4</v>
+      </c>
+      <c r="J70" s="1">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C71" s="1">
+        <v>314</v>
+      </c>
+      <c r="D71" s="1">
+        <v>3</v>
+      </c>
+      <c r="E71" s="1">
+        <v>14</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H71" s="1">
+        <v>3</v>
+      </c>
+      <c r="I71" s="1">
+        <v>5</v>
+      </c>
+      <c r="J71" s="1">
+        <f t="shared" si="4"/>
+        <v>260000</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C72" s="1">
+        <v>315</v>
+      </c>
+      <c r="D72" s="1">
+        <v>3</v>
+      </c>
+      <c r="E72" s="1">
+        <v>15</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H72" s="1">
+        <v>3</v>
+      </c>
+      <c r="I72" s="1">
+        <v>6</v>
+      </c>
+      <c r="J72" s="1">
+        <f t="shared" si="4"/>
+        <v>310000</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C73" s="1">
+        <v>316</v>
+      </c>
+      <c r="D73" s="1">
+        <v>3</v>
+      </c>
+      <c r="E73" s="1">
+        <v>16</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H73" s="1">
+        <v>3</v>
+      </c>
+      <c r="I73" s="1">
+        <v>7</v>
+      </c>
+      <c r="J73" s="1">
+        <f t="shared" si="4"/>
+        <v>360000</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C74" s="1">
+        <v>317</v>
+      </c>
+      <c r="D74" s="1">
+        <v>3</v>
+      </c>
+      <c r="E74" s="1">
+        <v>17</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H74" s="1">
+        <v>3</v>
+      </c>
+      <c r="I74" s="1">
+        <v>8</v>
+      </c>
+      <c r="J74" s="1">
+        <f t="shared" si="4"/>
+        <v>410000</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C75" s="1">
+        <v>318</v>
+      </c>
+      <c r="D75" s="1">
+        <v>3</v>
+      </c>
+      <c r="E75" s="1">
+        <v>18</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H75" s="1">
+        <v>3</v>
+      </c>
+      <c r="I75" s="1">
+        <v>9</v>
+      </c>
+      <c r="J75" s="1">
+        <f t="shared" si="4"/>
+        <v>460000</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C76" s="1">
+        <v>319</v>
+      </c>
+      <c r="D76" s="1">
+        <v>3</v>
+      </c>
+      <c r="E76" s="1">
+        <v>19</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H76" s="1">
+        <v>3</v>
+      </c>
+      <c r="I76" s="1">
+        <v>10</v>
+      </c>
+      <c r="J76" s="1">
+        <f t="shared" si="4"/>
+        <v>510000</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C77" s="1">
+        <v>320</v>
+      </c>
+      <c r="D77" s="1">
+        <v>3</v>
+      </c>
+      <c r="E77" s="1">
+        <v>20</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H77" s="1">
+        <v>3</v>
+      </c>
+      <c r="I77" s="1">
+        <v>11</v>
+      </c>
+      <c r="J77" s="1">
+        <f t="shared" ref="J77:J82" si="5">J76+80000</f>
         <v>590000</v>
       </c>
-      <c r="K67" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" s="1" customFormat="1" customHeight="1"/>
-    <row r="69" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C69" s="1">
-        <v>401</v>
-      </c>
-      <c r="D69" s="1">
-        <v>4</v>
-      </c>
-      <c r="E69" s="1">
-        <v>1</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H69" s="1">
-        <v>0</v>
-      </c>
-      <c r="I69" s="1">
-        <v>0</v>
-      </c>
-      <c r="J69" s="1">
-        <v>10000</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="70" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C70" s="1">
-        <v>402</v>
-      </c>
-      <c r="D70" s="1">
-        <v>4</v>
-      </c>
-      <c r="E70" s="1">
-        <v>2</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H70" s="1">
-        <v>0</v>
-      </c>
-      <c r="I70" s="1">
-        <v>0</v>
-      </c>
-      <c r="J70" s="1">
-        <f>J69*2</f>
-        <v>20000</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="71" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C71" s="1">
-        <v>403</v>
-      </c>
-      <c r="D71" s="1">
-        <v>4</v>
-      </c>
-      <c r="E71" s="1">
-        <v>3</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H71" s="1">
-        <v>0</v>
-      </c>
-      <c r="I71" s="1">
-        <v>0</v>
-      </c>
-      <c r="J71" s="1">
-        <f>J69*3</f>
-        <v>30000</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C72" s="1">
-        <v>404</v>
-      </c>
-      <c r="D72" s="1">
-        <v>4</v>
-      </c>
-      <c r="E72" s="1">
-        <v>4</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H72" s="1">
-        <v>0</v>
-      </c>
-      <c r="I72" s="1">
-        <v>0</v>
-      </c>
-      <c r="J72" s="1">
-        <f>J69*4</f>
-        <v>40000</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="73" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C73" s="1">
-        <v>405</v>
-      </c>
-      <c r="D73" s="1">
-        <v>4</v>
-      </c>
-      <c r="E73" s="1">
-        <v>5</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H73" s="1">
-        <v>0</v>
-      </c>
-      <c r="I73" s="1">
-        <v>0</v>
-      </c>
-      <c r="J73" s="1">
-        <f>J69*5</f>
-        <v>50000</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="74" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C74" s="1">
-        <v>406</v>
-      </c>
-      <c r="D74" s="1">
-        <v>4</v>
-      </c>
-      <c r="E74" s="1">
-        <v>6</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H74" s="1">
-        <v>0</v>
-      </c>
-      <c r="I74" s="1">
-        <v>0</v>
-      </c>
-      <c r="J74" s="1">
-        <f>J69*6</f>
-        <v>60000</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C75" s="1">
-        <v>407</v>
-      </c>
-      <c r="D75" s="1">
-        <v>4</v>
-      </c>
-      <c r="E75" s="1">
-        <v>7</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H75" s="1">
-        <v>0</v>
-      </c>
-      <c r="I75" s="1">
-        <v>0</v>
-      </c>
-      <c r="J75" s="1">
-        <f>J69*7</f>
-        <v>70000</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C76" s="1">
-        <v>408</v>
-      </c>
-      <c r="D76" s="1">
-        <v>4</v>
-      </c>
-      <c r="E76" s="1">
-        <v>8</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H76" s="1">
-        <v>0</v>
-      </c>
-      <c r="I76" s="1">
-        <v>0</v>
-      </c>
-      <c r="J76" s="1">
-        <f>J69*8</f>
-        <v>80000</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C77" s="1">
-        <v>409</v>
-      </c>
-      <c r="D77" s="1">
-        <v>4</v>
-      </c>
-      <c r="E77" s="1">
-        <v>9</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H77" s="1">
-        <v>0</v>
-      </c>
-      <c r="I77" s="1">
-        <v>0</v>
-      </c>
-      <c r="J77" s="1">
-        <f>J69*9</f>
-        <v>90000</v>
-      </c>
       <c r="K77" s="1" t="s">
-        <v>108</v>
+        <v>130</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C78" s="1">
-        <v>410</v>
+        <v>321</v>
       </c>
       <c r="D78" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E78" s="1">
-        <v>10</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="H78" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I78" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J78" s="1">
-        <f>J69*10</f>
-        <v>100000</v>
+        <f t="shared" si="5"/>
+        <v>670000</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C79" s="1">
-        <v>411</v>
+        <v>322</v>
       </c>
       <c r="D79" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E79" s="1">
-        <v>11</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="H79" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I79" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J79" s="1">
-        <f t="shared" ref="J79:J87" si="3">J78+80000</f>
-        <v>180000</v>
+        <f t="shared" si="5"/>
+        <v>750000</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C80" s="1">
-        <v>412</v>
+        <v>323</v>
       </c>
       <c r="D80" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E80" s="1">
-        <v>12</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>32</v>
+        <v>23</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="H80" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I80" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J80" s="1">
-        <f t="shared" si="3"/>
-        <v>260000</v>
+        <f t="shared" si="5"/>
+        <v>830000</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C81" s="1">
-        <v>413</v>
+        <v>324</v>
       </c>
       <c r="D81" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E81" s="1">
-        <v>13</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>35</v>
+        <v>24</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="H81" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I81" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J81" s="1">
-        <f t="shared" si="3"/>
-        <v>340000</v>
+        <f t="shared" si="5"/>
+        <v>910000</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C82" s="1">
-        <v>414</v>
+        <v>325</v>
       </c>
       <c r="D82" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E82" s="1">
-        <v>14</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="H82" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I82" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J82" s="1">
-        <f t="shared" si="3"/>
-        <v>420000</v>
+        <f t="shared" si="5"/>
+        <v>990000</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="83" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C83" s="1">
-        <v>415</v>
-      </c>
-      <c r="D83" s="1">
-        <v>4</v>
-      </c>
-      <c r="E83" s="1">
-        <v>15</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H83" s="1">
-        <v>4</v>
-      </c>
-      <c r="I83" s="1">
-        <v>6</v>
-      </c>
-      <c r="J83" s="1">
-        <f t="shared" si="3"/>
-        <v>500000</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="84" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" s="1" customFormat="1" customHeight="1"/>
+    <row r="84" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C84" s="1">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="D84" s="1">
         <v>4</v>
       </c>
       <c r="E84" s="1">
+        <v>1</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G84" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F84" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="H84" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I84" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J84" s="1">
-        <f t="shared" si="3"/>
-        <v>580000</v>
+        <v>10000</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="85" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="85" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C85" s="1">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="D85" s="1">
         <v>4</v>
       </c>
       <c r="E85" s="1">
-        <v>17</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>47</v>
+        <v>2</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="H85" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I85" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J85" s="1">
-        <f t="shared" si="3"/>
-        <v>660000</v>
+        <f>J84*2</f>
+        <v>20000</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="86" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="86" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C86" s="1">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="D86" s="1">
         <v>4</v>
       </c>
       <c r="E86" s="1">
-        <v>18</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>50</v>
+        <v>3</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="H86" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I86" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J86" s="1">
-        <f t="shared" si="3"/>
-        <v>740000</v>
+        <f>J84*3</f>
+        <v>30000</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="87" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C87" s="1">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="D87" s="1">
         <v>4</v>
       </c>
       <c r="E87" s="1">
-        <v>19</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>53</v>
+        <v>4</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H87" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I87" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J87" s="1">
-        <f t="shared" si="3"/>
-        <v>820000</v>
+        <f>J84*4</f>
+        <v>40000</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="88" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C88" s="1">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="D88" s="1">
         <v>4</v>
       </c>
       <c r="E88" s="1">
-        <v>20</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>56</v>
+        <v>5</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="H88" s="1">
+        <v>0</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0</v>
+      </c>
+      <c r="J88" s="1">
+        <f>J84*5</f>
+        <v>50000</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="89" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C89" s="1">
+        <v>406</v>
+      </c>
+      <c r="D89" s="1">
         <v>4</v>
       </c>
-      <c r="I88" s="1">
-        <v>11</v>
-      </c>
-      <c r="J88" s="1">
-        <f>J87+150000</f>
-        <v>970000</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L88" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="89" s="1" customFormat="1" customHeight="1"/>
+      <c r="E89" s="1">
+        <v>6</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0</v>
+      </c>
+      <c r="J89" s="1">
+        <f>J84*6</f>
+        <v>60000</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
     <row r="90" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C90" s="1">
-        <v>501</v>
+        <v>407</v>
       </c>
       <c r="D90" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E90" s="1">
-        <v>1</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>132</v>
+        <v>7</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="H90" s="1">
         <v>0</v>
@@ -4255,27 +4721,28 @@
         <v>0</v>
       </c>
       <c r="J90" s="1">
-        <v>20000</v>
+        <f>J84*7</f>
+        <v>70000</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C91" s="1">
-        <v>502</v>
+        <v>408</v>
       </c>
       <c r="D91" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E91" s="1">
-        <v>2</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>134</v>
+        <v>8</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="H91" s="1">
         <v>0</v>
@@ -4284,556 +4751,587 @@
         <v>0</v>
       </c>
       <c r="J91" s="1">
-        <f>J90*2</f>
-        <v>40000</v>
+        <f>J84*8</f>
+        <v>80000</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C92" s="1">
-        <v>503</v>
+        <v>409</v>
       </c>
       <c r="D92" s="1">
+        <v>4</v>
+      </c>
+      <c r="E92" s="1">
+        <v>9</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0</v>
+      </c>
+      <c r="J92" s="1">
+        <f>J84*9</f>
+        <v>90000</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="93" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C93" s="1">
+        <v>410</v>
+      </c>
+      <c r="D93" s="1">
+        <v>4</v>
+      </c>
+      <c r="E93" s="1">
+        <v>10</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H93" s="1">
+        <v>4</v>
+      </c>
+      <c r="I93" s="1">
+        <v>1</v>
+      </c>
+      <c r="J93" s="1">
+        <f>J84*10</f>
+        <v>100000</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="94" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C94" s="1">
+        <v>411</v>
+      </c>
+      <c r="D94" s="1">
+        <v>4</v>
+      </c>
+      <c r="E94" s="1">
+        <v>11</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H94" s="1">
+        <v>4</v>
+      </c>
+      <c r="I94" s="1">
+        <v>2</v>
+      </c>
+      <c r="J94" s="1">
+        <f t="shared" ref="J94:J102" si="6">J93+80000</f>
+        <v>180000</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="95" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C95" s="1">
+        <v>412</v>
+      </c>
+      <c r="D95" s="1">
+        <v>4</v>
+      </c>
+      <c r="E95" s="1">
+        <v>12</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H95" s="1">
+        <v>4</v>
+      </c>
+      <c r="I95" s="1">
+        <v>3</v>
+      </c>
+      <c r="J95" s="1">
+        <f t="shared" si="6"/>
+        <v>260000</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="96" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C96" s="1">
+        <v>413</v>
+      </c>
+      <c r="D96" s="1">
+        <v>4</v>
+      </c>
+      <c r="E96" s="1">
+        <v>13</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H96" s="1">
+        <v>4</v>
+      </c>
+      <c r="I96" s="1">
+        <v>4</v>
+      </c>
+      <c r="J96" s="1">
+        <f t="shared" si="6"/>
+        <v>340000</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="97" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C97" s="1">
+        <v>414</v>
+      </c>
+      <c r="D97" s="1">
+        <v>4</v>
+      </c>
+      <c r="E97" s="1">
+        <v>14</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H97" s="1">
+        <v>4</v>
+      </c>
+      <c r="I97" s="1">
         <v>5</v>
       </c>
-      <c r="E92" s="1">
-        <v>3</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H92" s="1">
-        <v>0</v>
-      </c>
-      <c r="I92" s="1">
-        <v>0</v>
-      </c>
-      <c r="J92" s="1">
-        <f>J90*3</f>
-        <v>60000</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="93" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C93" s="1">
-        <v>504</v>
-      </c>
-      <c r="D93" s="1">
-        <v>5</v>
-      </c>
-      <c r="E93" s="1">
+      <c r="J97" s="1">
+        <f t="shared" si="6"/>
+        <v>420000</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="98" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C98" s="1">
+        <v>415</v>
+      </c>
+      <c r="D98" s="1">
         <v>4</v>
       </c>
-      <c r="F93" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="H93" s="1">
-        <v>0</v>
-      </c>
-      <c r="I93" s="1">
-        <v>0</v>
-      </c>
-      <c r="J93" s="1">
-        <f>J90*4</f>
-        <v>80000</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="94" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C94" s="1">
-        <v>505</v>
-      </c>
-      <c r="D94" s="1">
-        <v>5</v>
-      </c>
-      <c r="E94" s="1">
-        <v>5</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="H94" s="1">
-        <v>0</v>
-      </c>
-      <c r="I94" s="1">
-        <v>0</v>
-      </c>
-      <c r="J94" s="1">
-        <f>J90*5</f>
-        <v>100000</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="95" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C95" s="1">
-        <v>506</v>
-      </c>
-      <c r="D95" s="1">
-        <v>5</v>
-      </c>
-      <c r="E95" s="1">
+      <c r="E98" s="1">
+        <v>15</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H98" s="1">
+        <v>4</v>
+      </c>
+      <c r="I98" s="1">
         <v>6</v>
       </c>
-      <c r="F95" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H95" s="1">
-        <v>0</v>
-      </c>
-      <c r="I95" s="1">
-        <v>0</v>
-      </c>
-      <c r="J95" s="1">
-        <f>J90*6</f>
-        <v>120000</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="96" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C96" s="1">
-        <v>507</v>
-      </c>
-      <c r="D96" s="1">
-        <v>5</v>
-      </c>
-      <c r="E96" s="1">
-        <v>7</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="H96" s="1">
-        <v>0</v>
-      </c>
-      <c r="I96" s="1">
-        <v>0</v>
-      </c>
-      <c r="J96" s="1">
-        <f>J90*7</f>
-        <v>140000</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="97" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C97" s="1">
-        <v>508</v>
-      </c>
-      <c r="D97" s="1">
-        <v>5</v>
-      </c>
-      <c r="E97" s="1">
-        <v>8</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="H97" s="1">
-        <v>0</v>
-      </c>
-      <c r="I97" s="1">
-        <v>0</v>
-      </c>
-      <c r="J97" s="1">
-        <f>J90*8</f>
-        <v>160000</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="98" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C98" s="1">
-        <v>509</v>
-      </c>
-      <c r="D98" s="1">
-        <v>5</v>
-      </c>
-      <c r="E98" s="1">
-        <v>9</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H98" s="1">
-        <v>0</v>
-      </c>
-      <c r="I98" s="1">
-        <v>0</v>
-      </c>
       <c r="J98" s="1">
-        <f>J90*9</f>
-        <v>180000</v>
+        <f t="shared" si="6"/>
+        <v>500000</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>133</v>
+        <v>154</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C99" s="1">
-        <v>510</v>
+        <v>416</v>
       </c>
       <c r="D99" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E99" s="1">
-        <v>10</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G99" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F99" s="6" t="s">
         <v>142</v>
       </c>
+      <c r="G99" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="H99" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I99" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J99" s="1">
-        <f>J90*10</f>
-        <v>200000</v>
+        <f t="shared" si="6"/>
+        <v>580000</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C100" s="1">
-        <v>511</v>
+        <v>417</v>
       </c>
       <c r="D100" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E100" s="1">
-        <v>11</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>145</v>
+        <v>17</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="H100" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I100" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J100" s="1">
-        <f t="shared" ref="J100:J104" si="4">J99+150000</f>
-        <v>350000</v>
+        <f t="shared" si="6"/>
+        <v>660000</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C101" s="1">
-        <v>512</v>
+        <v>418</v>
       </c>
       <c r="D101" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E101" s="1">
-        <v>12</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>148</v>
+        <v>18</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="H101" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I101" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J101" s="1">
-        <f t="shared" si="4"/>
-        <v>500000</v>
+        <f t="shared" si="6"/>
+        <v>740000</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C102" s="1">
-        <v>513</v>
+        <v>419</v>
       </c>
       <c r="D102" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E102" s="1">
-        <v>13</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G102" s="5" t="s">
-        <v>151</v>
+        <v>19</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="H102" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I102" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J102" s="1">
-        <f t="shared" si="4"/>
-        <v>650000</v>
+        <f t="shared" si="6"/>
+        <v>820000</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C103" s="1">
-        <v>514</v>
+        <v>420</v>
       </c>
       <c r="D103" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E103" s="1">
-        <v>14</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G103" s="5" t="s">
-        <v>154</v>
+        <v>20</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="H103" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I103" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J103" s="1">
-        <f t="shared" si="4"/>
-        <v>800000</v>
+        <f t="shared" ref="J103:J108" si="7">J102+150000</f>
+        <v>970000</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C104" s="1">
-        <v>515</v>
+        <v>421</v>
       </c>
       <c r="D104" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E104" s="1">
+        <v>21</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H104" s="1">
+        <v>4</v>
+      </c>
+      <c r="I104" s="1">
+        <v>12</v>
+      </c>
+      <c r="J104" s="1">
+        <f t="shared" si="7"/>
+        <v>1120000</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="105" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C105" s="1">
+        <v>422</v>
+      </c>
+      <c r="D105" s="1">
+        <v>4</v>
+      </c>
+      <c r="E105" s="1">
+        <v>22</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H105" s="1">
+        <v>4</v>
+      </c>
+      <c r="I105" s="1">
+        <v>13</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="7"/>
+        <v>1270000</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="106" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C106" s="1">
+        <v>423</v>
+      </c>
+      <c r="D106" s="1">
+        <v>4</v>
+      </c>
+      <c r="E106" s="1">
+        <v>23</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H106" s="1">
+        <v>4</v>
+      </c>
+      <c r="I106" s="1">
+        <v>14</v>
+      </c>
+      <c r="J106" s="1">
+        <f t="shared" si="7"/>
+        <v>1420000</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="107" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C107" s="1">
+        <v>424</v>
+      </c>
+      <c r="D107" s="1">
+        <v>4</v>
+      </c>
+      <c r="E107" s="1">
+        <v>24</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H107" s="1">
+        <v>4</v>
+      </c>
+      <c r="I107" s="1">
         <v>15</v>
       </c>
-      <c r="F104" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G104" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H104" s="1">
-        <v>5</v>
-      </c>
-      <c r="I104" s="1">
-        <v>6</v>
-      </c>
-      <c r="J104" s="1">
-        <f t="shared" si="4"/>
-        <v>950000</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="105" s="1" customFormat="1" customHeight="1"/>
-    <row r="106" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C106" s="1">
-        <v>601</v>
-      </c>
-      <c r="D106" s="1">
-        <v>6</v>
-      </c>
-      <c r="E106" s="1">
-        <v>1</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G106" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H106" s="1">
-        <v>0</v>
-      </c>
-      <c r="I106" s="1">
-        <v>0</v>
-      </c>
-      <c r="J106" s="1">
-        <v>40000</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="107" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C107" s="1">
-        <v>602</v>
-      </c>
-      <c r="D107" s="1">
-        <v>6</v>
-      </c>
-      <c r="E107" s="1">
-        <v>2</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H107" s="1">
-        <v>0</v>
-      </c>
-      <c r="I107" s="1">
-        <v>0</v>
-      </c>
       <c r="J107" s="1">
-        <f>J106*2</f>
-        <v>80000</v>
+        <f t="shared" si="7"/>
+        <v>1570000</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="108" s="1" customFormat="1" customHeight="1" spans="3:11">
+        <v>172</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="108" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C108" s="1">
-        <v>603</v>
+        <v>425</v>
       </c>
       <c r="D108" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E108" s="1">
-        <v>3</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>135</v>
+        <v>25</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="H108" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I108" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J108" s="1">
-        <f>J106*3</f>
-        <v>120000</v>
+        <f t="shared" si="7"/>
+        <v>1720000</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="109" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C109" s="1">
-        <v>604</v>
-      </c>
-      <c r="D109" s="1">
-        <v>6</v>
-      </c>
-      <c r="E109" s="1">
-        <v>4</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="H109" s="1">
-        <v>0</v>
-      </c>
-      <c r="I109" s="1">
-        <v>0</v>
-      </c>
-      <c r="J109" s="1">
-        <f>J106*4</f>
-        <v>160000</v>
-      </c>
-      <c r="K109" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
+        <v>174</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="109" s="1" customFormat="1" customHeight="1"/>
     <row r="110" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C110" s="1">
-        <v>605</v>
+        <v>501</v>
       </c>
       <c r="D110" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E110" s="1">
-        <v>5</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>137</v>
+        <v>1</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="H110" s="1">
         <v>0</v>
@@ -4842,28 +5340,27 @@
         <v>0</v>
       </c>
       <c r="J110" s="1">
-        <f>J106*5</f>
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="111" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C111" s="1">
-        <v>606</v>
+        <v>502</v>
       </c>
       <c r="D111" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E111" s="1">
-        <v>6</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>138</v>
+        <v>2</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="H111" s="1">
         <v>0</v>
@@ -4872,28 +5369,28 @@
         <v>0</v>
       </c>
       <c r="J111" s="1">
-        <f>J106*6</f>
-        <v>240000</v>
+        <f>J110*2</f>
+        <v>40000</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="112" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C112" s="1">
-        <v>607</v>
+        <v>503</v>
       </c>
       <c r="D112" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E112" s="1">
-        <v>7</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>139</v>
+        <v>3</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="H112" s="1">
         <v>0</v>
@@ -4902,28 +5399,28 @@
         <v>0</v>
       </c>
       <c r="J112" s="1">
-        <f>J106*7</f>
-        <v>280000</v>
+        <f>J110*3</f>
+        <v>60000</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="113" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C113" s="1">
-        <v>608</v>
+        <v>504</v>
       </c>
       <c r="D113" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E113" s="1">
-        <v>8</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>140</v>
+        <v>4</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="H113" s="1">
         <v>0</v>
@@ -4932,74 +5429,993 @@
         <v>0</v>
       </c>
       <c r="J113" s="1">
-        <f>J106*8</f>
-        <v>320000</v>
+        <f>J110*4</f>
+        <v>80000</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="114" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C114" s="1">
+        <v>505</v>
+      </c>
+      <c r="D114" s="1">
+        <v>5</v>
+      </c>
+      <c r="E114" s="1">
+        <v>5</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0</v>
+      </c>
+      <c r="J114" s="1">
+        <f>J110*5</f>
+        <v>100000</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="115" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C115" s="1">
+        <v>506</v>
+      </c>
+      <c r="D115" s="1">
+        <v>5</v>
+      </c>
+      <c r="E115" s="1">
+        <v>6</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="H115" s="1">
+        <v>0</v>
+      </c>
+      <c r="I115" s="1">
+        <v>0</v>
+      </c>
+      <c r="J115" s="1">
+        <f>J110*6</f>
+        <v>120000</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="116" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C116" s="1">
+        <v>507</v>
+      </c>
+      <c r="D116" s="1">
+        <v>5</v>
+      </c>
+      <c r="E116" s="1">
+        <v>7</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="H116" s="1">
+        <v>0</v>
+      </c>
+      <c r="I116" s="1">
+        <v>0</v>
+      </c>
+      <c r="J116" s="1">
+        <f>J110*7</f>
+        <v>140000</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="117" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C117" s="1">
+        <v>508</v>
+      </c>
+      <c r="D117" s="1">
+        <v>5</v>
+      </c>
+      <c r="E117" s="1">
+        <v>8</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H117" s="1">
+        <v>0</v>
+      </c>
+      <c r="I117" s="1">
+        <v>0</v>
+      </c>
+      <c r="J117" s="1">
+        <f>J110*8</f>
+        <v>160000</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="118" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C118" s="1">
+        <v>509</v>
+      </c>
+      <c r="D118" s="1">
+        <v>5</v>
+      </c>
+      <c r="E118" s="1">
+        <v>9</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H118" s="1">
+        <v>0</v>
+      </c>
+      <c r="I118" s="1">
+        <v>0</v>
+      </c>
+      <c r="J118" s="1">
+        <f>J110*9</f>
+        <v>180000</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="119" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C119" s="1">
+        <v>510</v>
+      </c>
+      <c r="D119" s="1">
+        <v>5</v>
+      </c>
+      <c r="E119" s="1">
+        <v>10</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="H119" s="1">
+        <v>5</v>
+      </c>
+      <c r="I119" s="1">
+        <v>1</v>
+      </c>
+      <c r="J119" s="1">
+        <f>J110*10</f>
+        <v>200000</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="120" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C120" s="1">
+        <v>511</v>
+      </c>
+      <c r="D120" s="1">
+        <v>5</v>
+      </c>
+      <c r="E120" s="1">
+        <v>11</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H120" s="1">
+        <v>5</v>
+      </c>
+      <c r="I120" s="1">
+        <v>2</v>
+      </c>
+      <c r="J120" s="1">
+        <f t="shared" ref="J120:J129" si="8">J119+150000</f>
+        <v>350000</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="121" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C121" s="1">
+        <v>512</v>
+      </c>
+      <c r="D121" s="1">
+        <v>5</v>
+      </c>
+      <c r="E121" s="1">
+        <v>12</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H121" s="1">
+        <v>5</v>
+      </c>
+      <c r="I121" s="1">
+        <v>3</v>
+      </c>
+      <c r="J121" s="1">
+        <f t="shared" si="8"/>
+        <v>500000</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="122" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C122" s="1">
+        <v>513</v>
+      </c>
+      <c r="D122" s="1">
+        <v>5</v>
+      </c>
+      <c r="E122" s="1">
+        <v>13</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H122" s="1">
+        <v>5</v>
+      </c>
+      <c r="I122" s="1">
+        <v>4</v>
+      </c>
+      <c r="J122" s="1">
+        <f t="shared" si="8"/>
+        <v>650000</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="123" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C123" s="1">
+        <v>514</v>
+      </c>
+      <c r="D123" s="1">
+        <v>5</v>
+      </c>
+      <c r="E123" s="1">
+        <v>14</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="H123" s="1">
+        <v>5</v>
+      </c>
+      <c r="I123" s="1">
+        <v>5</v>
+      </c>
+      <c r="J123" s="1">
+        <f t="shared" si="8"/>
+        <v>800000</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="124" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C124" s="1">
+        <v>515</v>
+      </c>
+      <c r="D124" s="1">
+        <v>5</v>
+      </c>
+      <c r="E124" s="1">
+        <v>15</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="H124" s="1">
+        <v>5</v>
+      </c>
+      <c r="I124" s="1">
+        <v>6</v>
+      </c>
+      <c r="J124" s="1">
+        <f t="shared" si="8"/>
+        <v>950000</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="125" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C125" s="1">
+        <v>516</v>
+      </c>
+      <c r="D125" s="1">
+        <v>5</v>
+      </c>
+      <c r="E125" s="1">
+        <v>16</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H125" s="1">
+        <v>5</v>
+      </c>
+      <c r="I125" s="1">
+        <v>7</v>
+      </c>
+      <c r="J125" s="1">
+        <f t="shared" si="8"/>
+        <v>1100000</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="126" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C126" s="1">
+        <v>517</v>
+      </c>
+      <c r="D126" s="1">
+        <v>5</v>
+      </c>
+      <c r="E126" s="1">
+        <v>17</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="H126" s="1">
+        <v>5</v>
+      </c>
+      <c r="I126" s="1">
+        <v>8</v>
+      </c>
+      <c r="J126" s="1">
+        <f t="shared" si="8"/>
+        <v>1250000</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="127" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C127" s="1">
+        <v>518</v>
+      </c>
+      <c r="D127" s="1">
+        <v>5</v>
+      </c>
+      <c r="E127" s="1">
+        <v>18</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H127" s="1">
+        <v>5</v>
+      </c>
+      <c r="I127" s="1">
+        <v>9</v>
+      </c>
+      <c r="J127" s="1">
+        <f t="shared" si="8"/>
+        <v>1400000</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="128" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C128" s="1">
+        <v>519</v>
+      </c>
+      <c r="D128" s="1">
+        <v>5</v>
+      </c>
+      <c r="E128" s="1">
+        <v>19</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H128" s="1">
+        <v>5</v>
+      </c>
+      <c r="I128" s="1">
+        <v>10</v>
+      </c>
+      <c r="J128" s="1">
+        <f t="shared" si="8"/>
+        <v>1550000</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="129" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C129" s="1">
+        <v>520</v>
+      </c>
+      <c r="D129" s="1">
+        <v>5</v>
+      </c>
+      <c r="E129" s="1">
+        <v>20</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H129" s="1">
+        <v>5</v>
+      </c>
+      <c r="I129" s="1">
+        <v>11</v>
+      </c>
+      <c r="J129" s="1">
+        <f t="shared" ref="J129:J134" si="9">J128+250000</f>
+        <v>1800000</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="130" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C130" s="1">
+        <v>521</v>
+      </c>
+      <c r="D130" s="1">
+        <v>5</v>
+      </c>
+      <c r="E130" s="1">
+        <v>21</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H130" s="1">
+        <v>5</v>
+      </c>
+      <c r="I130" s="1">
+        <v>12</v>
+      </c>
+      <c r="J130" s="1">
+        <f t="shared" si="9"/>
+        <v>2050000</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="131" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C131" s="1">
+        <v>522</v>
+      </c>
+      <c r="D131" s="1">
+        <v>5</v>
+      </c>
+      <c r="E131" s="1">
+        <v>22</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="H131" s="1">
+        <v>5</v>
+      </c>
+      <c r="I131" s="1">
+        <v>13</v>
+      </c>
+      <c r="J131" s="1">
+        <f t="shared" si="9"/>
+        <v>2300000</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="132" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C132" s="1">
+        <v>523</v>
+      </c>
+      <c r="D132" s="1">
+        <v>5</v>
+      </c>
+      <c r="E132" s="1">
+        <v>23</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="H132" s="1">
+        <v>5</v>
+      </c>
+      <c r="I132" s="1">
+        <v>14</v>
+      </c>
+      <c r="J132" s="1">
+        <f t="shared" si="9"/>
+        <v>2550000</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="133" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C133" s="1">
+        <v>524</v>
+      </c>
+      <c r="D133" s="1">
+        <v>5</v>
+      </c>
+      <c r="E133" s="1">
+        <v>24</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H133" s="1">
+        <v>5</v>
+      </c>
+      <c r="I133" s="1">
+        <v>15</v>
+      </c>
+      <c r="J133" s="1">
+        <f t="shared" si="9"/>
+        <v>2800000</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="134" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C134" s="1">
+        <v>525</v>
+      </c>
+      <c r="D134" s="1">
+        <v>5</v>
+      </c>
+      <c r="E134" s="1">
+        <v>25</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H134" s="1">
+        <v>5</v>
+      </c>
+      <c r="I134" s="1">
+        <v>16</v>
+      </c>
+      <c r="J134" s="1">
+        <f t="shared" si="9"/>
+        <v>3050000</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="135" s="1" customFormat="1" customHeight="1"/>
+    <row r="136" s="1" customFormat="1" customHeight="1"/>
+    <row r="137" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C137" s="1">
+        <v>601</v>
+      </c>
+      <c r="D137" s="1">
+        <v>6</v>
+      </c>
+      <c r="E137" s="1">
+        <v>1</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H137" s="1">
+        <v>0</v>
+      </c>
+      <c r="I137" s="1">
+        <v>0</v>
+      </c>
+      <c r="J137" s="1">
+        <v>40000</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="138" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C138" s="1">
+        <v>602</v>
+      </c>
+      <c r="D138" s="1">
+        <v>6</v>
+      </c>
+      <c r="E138" s="1">
+        <v>2</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="H138" s="1">
+        <v>0</v>
+      </c>
+      <c r="I138" s="1">
+        <v>0</v>
+      </c>
+      <c r="J138" s="1">
+        <f>J137*2</f>
+        <v>80000</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="139" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C139" s="1">
+        <v>603</v>
+      </c>
+      <c r="D139" s="1">
+        <v>6</v>
+      </c>
+      <c r="E139" s="1">
+        <v>3</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="H139" s="1">
+        <v>0</v>
+      </c>
+      <c r="I139" s="1">
+        <v>0</v>
+      </c>
+      <c r="J139" s="1">
+        <f>J137*3</f>
+        <v>120000</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="140" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C140" s="1">
+        <v>604</v>
+      </c>
+      <c r="D140" s="1">
+        <v>6</v>
+      </c>
+      <c r="E140" s="1">
+        <v>4</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="H140" s="1">
+        <v>0</v>
+      </c>
+      <c r="I140" s="1">
+        <v>0</v>
+      </c>
+      <c r="J140" s="1">
+        <f>J137*4</f>
+        <v>160000</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="141" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C141" s="1">
+        <v>605</v>
+      </c>
+      <c r="D141" s="1">
+        <v>6</v>
+      </c>
+      <c r="E141" s="1">
+        <v>5</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="H141" s="1">
+        <v>0</v>
+      </c>
+      <c r="I141" s="1">
+        <v>0</v>
+      </c>
+      <c r="J141" s="1">
+        <f>J137*5</f>
+        <v>200000</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="142" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C142" s="1">
+        <v>606</v>
+      </c>
+      <c r="D142" s="1">
+        <v>6</v>
+      </c>
+      <c r="E142" s="1">
+        <v>6</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H142" s="1">
+        <v>0</v>
+      </c>
+      <c r="I142" s="1">
+        <v>0</v>
+      </c>
+      <c r="J142" s="1">
+        <f>J137*6</f>
+        <v>240000</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="143" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C143" s="1">
+        <v>607</v>
+      </c>
+      <c r="D143" s="1">
+        <v>6</v>
+      </c>
+      <c r="E143" s="1">
+        <v>7</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G143" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H143" s="1">
+        <v>0</v>
+      </c>
+      <c r="I143" s="1">
+        <v>0</v>
+      </c>
+      <c r="J143" s="1">
+        <f>J137*7</f>
+        <v>280000</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="144" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C144" s="1">
+        <v>608</v>
+      </c>
+      <c r="D144" s="1">
+        <v>6</v>
+      </c>
+      <c r="E144" s="1">
+        <v>8</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G144" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H144" s="1">
+        <v>0</v>
+      </c>
+      <c r="I144" s="1">
+        <v>0</v>
+      </c>
+      <c r="J144" s="1">
+        <f>J137*8</f>
+        <v>320000</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="145" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C145" s="1">
         <v>609</v>
       </c>
-      <c r="D114" s="1">
+      <c r="D145" s="1">
         <v>6</v>
       </c>
-      <c r="E114" s="1">
+      <c r="E145" s="1">
         <v>9</v>
       </c>
-      <c r="F114" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G114" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H114" s="1">
-        <v>0</v>
-      </c>
-      <c r="I114" s="1">
-        <v>0</v>
-      </c>
-      <c r="J114" s="1">
-        <f>J106*9</f>
+      <c r="F145" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G145" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H145" s="1">
+        <v>0</v>
+      </c>
+      <c r="I145" s="1">
+        <v>0</v>
+      </c>
+      <c r="J145" s="1">
+        <f>J137*9</f>
         <v>360000</v>
       </c>
-      <c r="K114" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="115" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C115" s="1">
+      <c r="K145" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="146" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C146" s="1">
         <v>610</v>
       </c>
-      <c r="D115" s="1">
+      <c r="D146" s="1">
         <v>6</v>
       </c>
-      <c r="E115" s="1">
+      <c r="E146" s="1">
         <v>10</v>
       </c>
-      <c r="F115" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="H115" s="1">
+      <c r="F146" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G146" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H146" s="1">
         <v>6</v>
       </c>
-      <c r="I115" s="1">
+      <c r="I146" s="1">
         <v>1</v>
       </c>
-      <c r="J115" s="1">
-        <f>J106*10</f>
+      <c r="J146" s="1">
+        <f>J137*10</f>
         <v>400000</v>
       </c>
-      <c r="K115" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="L115" s="1" t="s">
-        <v>162</v>
+      <c r="K146" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -5012,4 +6428,518 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Excel/SoulRingAttrConfig.xlsx
+++ b/Excel/SoulRingAttrConfig.xlsx
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="380">
   <si>
     <t>ID</t>
   </si>
@@ -310,6 +310,51 @@
     <t>友方所受伤害减少25%</t>
   </si>
   <si>
+    <t>51,51,51,36,92</t>
+  </si>
+  <si>
+    <t>守护光环Lv17</t>
+  </si>
+  <si>
+    <t>友方所受伤害减少26%</t>
+  </si>
+  <si>
+    <t>53,53,53,38,96</t>
+  </si>
+  <si>
+    <t>守护光环Lv18</t>
+  </si>
+  <si>
+    <t>友方所受伤害减少27%</t>
+  </si>
+  <si>
+    <t>55,55,55,40,100</t>
+  </si>
+  <si>
+    <t>守护光环Lv19</t>
+  </si>
+  <si>
+    <t>友方所受伤害减少28%</t>
+  </si>
+  <si>
+    <t>57,57,57,42,104</t>
+  </si>
+  <si>
+    <t>守护光环Lv20</t>
+  </si>
+  <si>
+    <t>友方所受伤害减少29%</t>
+  </si>
+  <si>
+    <t>60,60,60,45,110</t>
+  </si>
+  <si>
+    <t>守护光环Lv21</t>
+  </si>
+  <si>
+    <t>友方所受伤害减少30%</t>
+  </si>
+  <si>
     <t>14,15,16,10,11</t>
   </si>
   <si>
@@ -412,6 +457,36 @@
     <t>友方最终伤害增加25%</t>
   </si>
   <si>
+    <t>强击光环Lv17</t>
+  </si>
+  <si>
+    <t>友方最终伤害增加26%</t>
+  </si>
+  <si>
+    <t>强击光环Lv18</t>
+  </si>
+  <si>
+    <t>友方最终伤害增加27%</t>
+  </si>
+  <si>
+    <t>强击光环Lv19</t>
+  </si>
+  <si>
+    <t>友方最终伤害增加28%</t>
+  </si>
+  <si>
+    <t>强击光环Lv20</t>
+  </si>
+  <si>
+    <t>友方最终伤害增加29%</t>
+  </si>
+  <si>
+    <t>强击光环Lv21</t>
+  </si>
+  <si>
+    <t>友方最终伤害增加30%</t>
+  </si>
+  <si>
     <t>14,15,16,12,19</t>
   </si>
   <si>
@@ -514,6 +589,36 @@
     <t>友方暴击概率增加25%</t>
   </si>
   <si>
+    <t>暴击光环Lv17</t>
+  </si>
+  <si>
+    <t>友方暴击概率增加26%</t>
+  </si>
+  <si>
+    <t>暴击光环Lv18</t>
+  </si>
+  <si>
+    <t>友方暴击概率增加27%</t>
+  </si>
+  <si>
+    <t>暴击光环Lv19</t>
+  </si>
+  <si>
+    <t>友方暴击概率增加28%</t>
+  </si>
+  <si>
+    <t>暴击光环Lv20</t>
+  </si>
+  <si>
+    <t>友方暴击概率增加29%</t>
+  </si>
+  <si>
+    <t>暴击光环Lv21</t>
+  </si>
+  <si>
+    <t>友方暴击概率增加30%</t>
+  </si>
+  <si>
     <t>14,15,16,13,24</t>
   </si>
   <si>
@@ -616,6 +721,36 @@
     <t>友方暴击伤害增加75%</t>
   </si>
   <si>
+    <t>爆伤光环Lv17</t>
+  </si>
+  <si>
+    <t>友方暴击伤害增加78%</t>
+  </si>
+  <si>
+    <t>爆伤光环Lv18</t>
+  </si>
+  <si>
+    <t>友方暴击伤害增加81%</t>
+  </si>
+  <si>
+    <t>爆伤光环Lv19</t>
+  </si>
+  <si>
+    <t>友方暴击伤害增加84%</t>
+  </si>
+  <si>
+    <t>爆伤光环Lv20</t>
+  </si>
+  <si>
+    <t>友方暴击伤害增加77%</t>
+  </si>
+  <si>
+    <t>爆伤光环Lv21</t>
+  </si>
+  <si>
+    <t>友方暴击伤害增加90%</t>
+  </si>
+  <si>
     <t>14,15,16,7,26</t>
   </si>
   <si>
@@ -793,6 +928,51 @@
     <t>友方最终攻击增加25%</t>
   </si>
   <si>
+    <t>66,66,66,26,66</t>
+  </si>
+  <si>
+    <t>祝福光环Lv17</t>
+  </si>
+  <si>
+    <t>友方最终攻击增加26%</t>
+  </si>
+  <si>
+    <t>69,69,69,27,69</t>
+  </si>
+  <si>
+    <t>祝福光环Lv18</t>
+  </si>
+  <si>
+    <t>友方最终攻击增加27%</t>
+  </si>
+  <si>
+    <t>72,72,72,28,72</t>
+  </si>
+  <si>
+    <t>祝福光环Lv19</t>
+  </si>
+  <si>
+    <t>友方最终攻击增加28%</t>
+  </si>
+  <si>
+    <t>75,75,75,29,75</t>
+  </si>
+  <si>
+    <t>祝福光环Lv20</t>
+  </si>
+  <si>
+    <t>友方最终攻击增加29%</t>
+  </si>
+  <si>
+    <t>78,78,78,30,78</t>
+  </si>
+  <si>
+    <t>祝福光环Lv21</t>
+  </si>
+  <si>
+    <t>友方最终攻击增加30%</t>
+  </si>
+  <si>
     <t>14,15,16,27,28</t>
   </si>
   <si>
@@ -835,39 +1015,99 @@
     <t>友方闪避概率增加10%</t>
   </si>
   <si>
+    <t>35,35,35,35,35</t>
+  </si>
+  <si>
+    <t>闪避光环Lv2</t>
+  </si>
+  <si>
+    <t>友方闪避概率增加11%</t>
+  </si>
+  <si>
+    <t>37,37,37,37,37</t>
+  </si>
+  <si>
+    <t>闪避光环Lv3</t>
+  </si>
+  <si>
+    <t>友方闪避概率增加12%</t>
+  </si>
+  <si>
+    <t>39,39,39,39,39</t>
+  </si>
+  <si>
+    <t>闪避光环Lv4</t>
+  </si>
+  <si>
+    <t>友方闪避概率增加13%</t>
+  </si>
+  <si>
+    <t>41,41,41,41,41</t>
+  </si>
+  <si>
+    <t>闪避光环Lv5</t>
+  </si>
+  <si>
+    <t>友方闪避概率增加14%</t>
+  </si>
+  <si>
+    <t>43,43,43,43,43</t>
+  </si>
+  <si>
+    <t>闪避光环Lv6</t>
+  </si>
+  <si>
+    <t>友方闪避概率增加15%</t>
+  </si>
+  <si>
     <t>#</t>
   </si>
   <si>
-    <t>35,35,35,35,35</t>
-  </si>
-  <si>
-    <t>37,37,37,37,37</t>
-  </si>
-  <si>
-    <t>39,39,39,39,39</t>
-  </si>
-  <si>
-    <t>41,41,41,41,41</t>
-  </si>
-  <si>
-    <t>43,43,43,43,43</t>
-  </si>
-  <si>
     <t>45,45,45,45,45</t>
   </si>
   <si>
+    <t>闪避光环Lv7</t>
+  </si>
+  <si>
+    <t>友方闪避概率增加16%</t>
+  </si>
+  <si>
     <t>47,47,47,47,47</t>
   </si>
   <si>
+    <t>闪避光环Lv8</t>
+  </si>
+  <si>
+    <t>友方闪避概率增加17%</t>
+  </si>
+  <si>
     <t>49,49,49,49,49</t>
   </si>
   <si>
+    <t>闪避光环Lv9</t>
+  </si>
+  <si>
+    <t>友方闪避概率增加18%</t>
+  </si>
+  <si>
     <t>51,51,51,51,51</t>
   </si>
   <si>
+    <t>闪避光环Lv10</t>
+  </si>
+  <si>
+    <t>友方闪避概率增加19%</t>
+  </si>
+  <si>
     <t>53,53,53,53,53</t>
   </si>
   <si>
+    <t>闪避光环Lv11</t>
+  </si>
+  <si>
+    <t>友方闪避概率增加20%</t>
+  </si>
+  <si>
     <t>55,55,55,55,55</t>
   </si>
   <si>
@@ -883,34 +1123,22 @@
     <t>63,63,63,63,63</t>
   </si>
   <si>
-    <t>51,51,51,36,92</t>
-  </si>
-  <si>
     <t>65,65,65,26,65</t>
   </si>
   <si>
     <t>65,65,65,65,65</t>
   </si>
   <si>
-    <t>53,53,53,38,96</t>
-  </si>
-  <si>
     <t>67,67,67,27,67</t>
   </si>
   <si>
     <t>67,67,67,67,67</t>
   </si>
   <si>
-    <t>55,55,55,40,100</t>
-  </si>
-  <si>
     <t>69,69,69,28,69</t>
   </si>
   <si>
     <t>69,69,69,69,69</t>
-  </si>
-  <si>
-    <t>57,57,57,42,104</t>
   </si>
   <si>
     <t>71,71,71,29,71</t>
@@ -1178,12 +1406,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1643,9 +1871,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1972,158 +2199,158 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N146"/>
+  <dimension ref="A1:N180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B118" workbookViewId="0">
-      <selection activeCell="J150" sqref="J150"/>
+    <sheetView tabSelected="1" topLeftCell="B97" workbookViewId="0">
+      <selection activeCell="L124" sqref="L124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9" style="3"/>
+    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="5" width="12.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.25" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="3" customWidth="1"/>
-    <col min="9" max="10" width="11.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="2" customWidth="1"/>
+    <col min="9" max="10" width="11.375" style="2" customWidth="1"/>
     <col min="11" max="12" width="30.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="9.625" style="3" customWidth="1"/>
-    <col min="15" max="16376" width="9" style="3"/>
+    <col min="13" max="13" width="8.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.625" style="2" customWidth="1"/>
+    <col min="15" max="16376" width="9" style="2"/>
     <col min="16377" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C6" s="1">
@@ -2135,10 +2362,10 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="1">
@@ -2164,10 +2391,10 @@
       <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="1">
@@ -2194,10 +2421,10 @@
       <c r="E8" s="1">
         <v>3</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="1">
@@ -2224,10 +2451,10 @@
       <c r="E9" s="1">
         <v>4</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="1">
@@ -2254,10 +2481,10 @@
       <c r="E10" s="1">
         <v>5</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="1">
@@ -2284,10 +2511,10 @@
       <c r="E11" s="1">
         <v>6</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="1">
@@ -2314,10 +2541,10 @@
       <c r="E12" s="1">
         <v>7</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="1">
@@ -2344,10 +2571,10 @@
       <c r="E13" s="1">
         <v>8</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="1">
@@ -2374,10 +2601,10 @@
       <c r="E14" s="1">
         <v>9</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H14" s="1">
@@ -2404,10 +2631,10 @@
       <c r="E15" s="1">
         <v>10</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H15" s="1">
@@ -2437,10 +2664,10 @@
       <c r="E16" s="1">
         <v>11</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H16" s="1">
@@ -2470,10 +2697,10 @@
       <c r="E17" s="1">
         <v>12</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H17" s="1">
@@ -2503,10 +2730,10 @@
       <c r="E18" s="1">
         <v>13</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>35</v>
       </c>
       <c r="H18" s="1">
@@ -2536,10 +2763,10 @@
       <c r="E19" s="1">
         <v>14</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="5" t="s">
         <v>38</v>
       </c>
       <c r="H19" s="1">
@@ -2569,10 +2796,10 @@
       <c r="E20" s="1">
         <v>15</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="5" t="s">
         <v>41</v>
       </c>
       <c r="H20" s="1">
@@ -2602,10 +2829,10 @@
       <c r="E21" s="1">
         <v>16</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="5" t="s">
         <v>44</v>
       </c>
       <c r="H21" s="1">
@@ -2635,10 +2862,10 @@
       <c r="E22" s="1">
         <v>17</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H22" s="1">
@@ -2668,10 +2895,10 @@
       <c r="E23" s="1">
         <v>18</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="5" t="s">
         <v>50</v>
       </c>
       <c r="H23" s="1">
@@ -2701,10 +2928,10 @@
       <c r="E24" s="1">
         <v>19</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="5" t="s">
         <v>53</v>
       </c>
       <c r="H24" s="1">
@@ -2734,10 +2961,10 @@
       <c r="E25" s="1">
         <v>20</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>56</v>
       </c>
       <c r="H25" s="1">
@@ -2747,7 +2974,7 @@
         <v>11</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" ref="J25:J30" si="1">J24+20000</f>
+        <f t="shared" ref="J25:J35" si="1">J24+20000</f>
         <v>120000</v>
       </c>
       <c r="K25" s="1" t="s">
@@ -2767,10 +2994,10 @@
       <c r="E26" s="1">
         <v>21</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>59</v>
       </c>
       <c r="H26" s="1">
@@ -2800,10 +3027,10 @@
       <c r="E27" s="1">
         <v>22</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="5" t="s">
         <v>62</v>
       </c>
       <c r="H27" s="1">
@@ -2833,10 +3060,10 @@
       <c r="E28" s="1">
         <v>23</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
         <v>65</v>
       </c>
       <c r="H28" s="1">
@@ -2866,10 +3093,10 @@
       <c r="E29" s="1">
         <v>24</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="5" t="s">
         <v>68</v>
       </c>
       <c r="H29" s="1">
@@ -2899,10 +3126,10 @@
       <c r="E30" s="1">
         <v>25</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="5" t="s">
         <v>71</v>
       </c>
       <c r="H30" s="1">
@@ -2922,171 +3149,187 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" customHeight="1"/>
-    <row r="32" s="1" customFormat="1" customHeight="1" spans="3:11">
+    <row r="31" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C31" s="1">
+        <v>126</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>26</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>17</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="1"/>
+        <v>240000</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C32" s="1">
-        <v>201</v>
+        <v>127</v>
       </c>
       <c r="D32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1">
+        <v>27</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" s="1">
         <v>1</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
       <c r="I32" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J32" s="1">
-        <v>3000</v>
+        <f t="shared" si="1"/>
+        <v>260000</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" customHeight="1" spans="3:11">
+        <v>78</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C33" s="1">
-        <v>202</v>
+        <v>128</v>
       </c>
       <c r="D33" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1">
-        <v>2</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>18</v>
+        <v>28</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="H33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J33" s="1">
-        <f>J32*2</f>
-        <v>6000</v>
+        <f t="shared" si="1"/>
+        <v>280000</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" customHeight="1" spans="3:11">
+        <v>81</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C34" s="1">
-        <v>203</v>
+        <v>129</v>
       </c>
       <c r="D34" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>3</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="H34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J34" s="1">
-        <f>J32*3</f>
-        <v>9000</v>
+        <f t="shared" si="1"/>
+        <v>300000</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" customHeight="1" spans="3:11">
+        <v>84</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C35" s="1">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="D35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>4</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="H35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J35" s="1">
-        <f>J32*4</f>
-        <v>12000</v>
+        <f>J34+40000</f>
+        <v>340000</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C36" s="1">
-        <v>205</v>
-      </c>
-      <c r="D36" s="1">
-        <v>2</v>
-      </c>
-      <c r="E36" s="1">
-        <v>5</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0</v>
-      </c>
-      <c r="J36" s="1">
-        <f>J32*5</f>
-        <v>15000</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
+        <v>87</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" customHeight="1"/>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C37" s="1">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D37" s="1">
         <v>2</v>
       </c>
       <c r="E37" s="1">
-        <v>6</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="H37" s="1">
         <v>0</v>
@@ -3095,28 +3338,27 @@
         <v>0</v>
       </c>
       <c r="J37" s="1">
-        <f>J32*6</f>
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C38" s="1">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
       </c>
       <c r="E38" s="1">
-        <v>7</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
@@ -3125,28 +3367,28 @@
         <v>0</v>
       </c>
       <c r="J38" s="1">
-        <f>J32*7</f>
-        <v>21000</v>
+        <f>J37*2</f>
+        <v>6000</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C39" s="1">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D39" s="1">
         <v>2</v>
       </c>
       <c r="E39" s="1">
-        <v>8</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="H39" s="1">
         <v>0</v>
@@ -3155,28 +3397,28 @@
         <v>0</v>
       </c>
       <c r="J39" s="1">
-        <f>J32*8</f>
-        <v>24000</v>
+        <f>J37*3</f>
+        <v>9000</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C40" s="1">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D40" s="1">
         <v>2</v>
       </c>
       <c r="E40" s="1">
-        <v>9</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>25</v>
+        <v>4</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="H40" s="1">
         <v>0</v>
@@ -3185,3237 +3427,4391 @@
         <v>0</v>
       </c>
       <c r="J40" s="1">
-        <f>J32*9</f>
-        <v>27000</v>
+        <f>J37*4</f>
+        <v>12000</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C41" s="1">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
       </c>
       <c r="E41" s="1">
-        <v>10</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="H41" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" s="1">
-        <f>J32*10</f>
-        <v>30000</v>
+        <f>J37*5</f>
+        <v>15000</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C42" s="1">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D42" s="1">
         <v>2</v>
       </c>
       <c r="E42" s="1">
-        <v>11</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>29</v>
+        <v>6</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="H42" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" ref="J42:J50" si="2">J41+30000</f>
-        <v>60000</v>
+        <f>J37*6</f>
+        <v>18000</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C43" s="1">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D43" s="1">
         <v>2</v>
       </c>
       <c r="E43" s="1">
+        <v>7</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <f>J37*7</f>
+        <v>21000</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C44" s="1">
+        <v>208</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>8</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <f>J37*8</f>
+        <v>24000</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C45" s="1">
+        <v>209</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1">
+        <v>9</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <f>J37*9</f>
+        <v>27000</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C46" s="1">
+        <v>210</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2</v>
+      </c>
+      <c r="E46" s="1">
+        <v>10</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" s="1">
+        <v>2</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1">
+        <f>J37*10</f>
+        <v>30000</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C47" s="1">
+        <v>211</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1">
+        <v>11</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="1">
+        <v>2</v>
+      </c>
+      <c r="I47" s="1">
+        <v>2</v>
+      </c>
+      <c r="J47" s="1">
+        <f t="shared" ref="J47:J55" si="2">J46+30000</f>
+        <v>60000</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C48" s="1">
+        <v>212</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2</v>
+      </c>
+      <c r="E48" s="1">
         <v>12</v>
       </c>
-      <c r="F43" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G43" s="6" t="s">
+      <c r="F48" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H48" s="1">
         <v>2</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I48" s="1">
         <v>3</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J48" s="1">
         <f t="shared" si="2"/>
         <v>90000</v>
       </c>
-      <c r="K43" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C44" s="1">
+      <c r="K48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C49" s="1">
         <v>213</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D49" s="1">
         <v>2</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E49" s="1">
         <v>13</v>
       </c>
-      <c r="F44" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G44" s="6" t="s">
+      <c r="F49" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G49" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H49" s="1">
         <v>2</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I49" s="1">
         <v>4</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J49" s="1">
         <f t="shared" si="2"/>
         <v>120000</v>
       </c>
-      <c r="K44" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C45" s="1">
+      <c r="K49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C50" s="1">
         <v>214</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D50" s="1">
         <v>2</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E50" s="1">
         <v>14</v>
       </c>
-      <c r="F45" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G45" s="6" t="s">
+      <c r="F50" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G50" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H50" s="1">
         <v>2</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I50" s="1">
         <v>5</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J50" s="1">
         <f t="shared" si="2"/>
         <v>150000</v>
       </c>
-      <c r="K45" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C46" s="1">
+      <c r="K50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C51" s="1">
         <v>215</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D51" s="1">
         <v>2</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E51" s="1">
         <v>15</v>
       </c>
-      <c r="F46" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G46" s="6" t="s">
+      <c r="F51" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G51" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H51" s="1">
         <v>2</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I51" s="1">
         <v>6</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J51" s="1">
         <f t="shared" si="2"/>
         <v>180000</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C47" s="1">
+      <c r="K51" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C52" s="1">
         <v>216</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D52" s="1">
         <v>2</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E52" s="1">
         <v>16</v>
       </c>
-      <c r="F47" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G47" s="6" t="s">
+      <c r="F52" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G52" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H52" s="1">
         <v>2</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I52" s="1">
         <v>7</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J52" s="1">
         <f t="shared" si="2"/>
         <v>210000</v>
       </c>
-      <c r="K47" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L47" s="1" t="s">
+      <c r="K52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C53" s="1">
+        <v>217</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2</v>
+      </c>
+      <c r="E53" s="1">
+        <v>17</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="48" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C48" s="1">
-        <v>217</v>
-      </c>
-      <c r="D48" s="1">
+      <c r="G53" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H53" s="1">
         <v>2</v>
       </c>
-      <c r="E48" s="1">
-        <v>17</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H48" s="1">
-        <v>2</v>
-      </c>
-      <c r="I48" s="1">
+      <c r="I53" s="1">
         <v>8</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J53" s="1">
         <f t="shared" si="2"/>
         <v>240000</v>
       </c>
-      <c r="K48" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C49" s="1">
+      <c r="K53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C54" s="1">
         <v>218</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D54" s="1">
         <v>2</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E54" s="1">
         <v>18</v>
       </c>
-      <c r="F49" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G49" s="6" t="s">
+      <c r="F54" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G54" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H54" s="1">
         <v>2</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I54" s="1">
         <v>9</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J54" s="1">
         <f t="shared" si="2"/>
         <v>270000</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C50" s="1">
+      <c r="K54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C55" s="1">
         <v>219</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D55" s="1">
         <v>2</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E55" s="1">
         <v>19</v>
       </c>
-      <c r="F50" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G50" s="6" t="s">
+      <c r="F55" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G55" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H55" s="1">
         <v>2</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I55" s="1">
         <v>10</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J55" s="1">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="K50" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C51" s="1">
+      <c r="K55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C56" s="1">
         <v>220</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D56" s="1">
         <v>2</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E56" s="1">
         <v>20</v>
       </c>
-      <c r="F51" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G51" s="6" t="s">
+      <c r="F56" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G56" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H56" s="1">
         <v>2</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I56" s="1">
         <v>11</v>
       </c>
-      <c r="J51" s="1">
-        <f t="shared" ref="J51:J56" si="3">J50+50000</f>
+      <c r="J56" s="1">
+        <f t="shared" ref="J56:J66" si="3">J55+50000</f>
         <v>350000</v>
       </c>
-      <c r="K51" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C52" s="1">
+      <c r="K56" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C57" s="1">
         <v>221</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D57" s="1">
         <v>2</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E57" s="1">
         <v>21</v>
       </c>
-      <c r="F52" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G52" s="6" t="s">
+      <c r="F57" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G57" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H57" s="1">
         <v>2</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I57" s="1">
         <v>12</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J57" s="1">
         <f t="shared" si="3"/>
         <v>400000</v>
       </c>
-      <c r="K52" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C53" s="1">
+      <c r="K57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C58" s="1">
         <v>222</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D58" s="1">
         <v>2</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E58" s="1">
         <v>22</v>
       </c>
-      <c r="F53" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G53" s="6" t="s">
+      <c r="F58" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G58" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H58" s="1">
         <v>2</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I58" s="1">
         <v>13</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J58" s="1">
         <f t="shared" si="3"/>
         <v>450000</v>
       </c>
-      <c r="K53" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C54" s="1">
+      <c r="K58" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C59" s="1">
         <v>223</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D59" s="1">
         <v>2</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E59" s="1">
         <v>23</v>
       </c>
-      <c r="F54" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G54" s="6" t="s">
+      <c r="F59" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G59" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H59" s="1">
         <v>2</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I59" s="1">
         <v>14</v>
       </c>
-      <c r="J54" s="1">
+      <c r="J59" s="1">
         <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-      <c r="K54" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C55" s="1">
+      <c r="K59" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C60" s="1">
         <v>224</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D60" s="1">
         <v>2</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E60" s="1">
         <v>24</v>
       </c>
-      <c r="F55" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G55" s="6" t="s">
+      <c r="F60" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G60" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H60" s="1">
         <v>2</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I60" s="1">
         <v>15</v>
       </c>
-      <c r="J55" s="1">
+      <c r="J60" s="1">
         <f t="shared" si="3"/>
         <v>550000</v>
       </c>
-      <c r="K55" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C56" s="1">
+      <c r="K60" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C61" s="1">
         <v>225</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D61" s="1">
         <v>2</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E61" s="1">
         <v>25</v>
       </c>
-      <c r="F56" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G56" s="6" t="s">
+      <c r="F61" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G61" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H61" s="1">
         <v>2</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I61" s="1">
         <v>16</v>
       </c>
-      <c r="J56" s="1">
+      <c r="J61" s="1">
         <f t="shared" si="3"/>
         <v>600000</v>
       </c>
-      <c r="K56" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" s="1" customFormat="1" customHeight="1"/>
-    <row r="58" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C58" s="1">
+      <c r="K61" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C62" s="1">
+        <v>226</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2</v>
+      </c>
+      <c r="E62" s="1">
+        <v>26</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H62" s="1">
+        <v>2</v>
+      </c>
+      <c r="I62" s="1">
+        <v>17</v>
+      </c>
+      <c r="J62" s="1">
+        <f t="shared" si="3"/>
+        <v>650000</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C63" s="1">
+        <v>227</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1">
+        <v>27</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H63" s="1">
+        <v>2</v>
+      </c>
+      <c r="I63" s="1">
+        <v>18</v>
+      </c>
+      <c r="J63" s="1">
+        <f t="shared" si="3"/>
+        <v>700000</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C64" s="1">
+        <v>228</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2</v>
+      </c>
+      <c r="E64" s="1">
+        <v>28</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H64" s="1">
+        <v>2</v>
+      </c>
+      <c r="I64" s="1">
+        <v>19</v>
+      </c>
+      <c r="J64" s="1">
+        <f t="shared" si="3"/>
+        <v>750000</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C65" s="1">
+        <v>229</v>
+      </c>
+      <c r="D65" s="1">
+        <v>2</v>
+      </c>
+      <c r="E65" s="1">
+        <v>29</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H65" s="1">
+        <v>2</v>
+      </c>
+      <c r="I65" s="1">
+        <v>20</v>
+      </c>
+      <c r="J65" s="1">
+        <f t="shared" si="3"/>
+        <v>800000</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C66" s="1">
+        <v>230</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2</v>
+      </c>
+      <c r="E66" s="1">
+        <v>30</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H66" s="1">
+        <v>2</v>
+      </c>
+      <c r="I66" s="1">
+        <v>21</v>
+      </c>
+      <c r="J66" s="1">
+        <f>J65+100000</f>
+        <v>900000</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" customHeight="1"/>
+    <row r="68" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C68" s="1">
         <v>301</v>
-      </c>
-      <c r="D58" s="1">
-        <v>3</v>
-      </c>
-      <c r="E58" s="1">
-        <v>1</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H58" s="1">
-        <v>0</v>
-      </c>
-      <c r="I58" s="1">
-        <v>0</v>
-      </c>
-      <c r="J58" s="1">
-        <v>6000</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C59" s="1">
-        <v>302</v>
-      </c>
-      <c r="D59" s="1">
-        <v>3</v>
-      </c>
-      <c r="E59" s="1">
-        <v>2</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H59" s="1">
-        <v>0</v>
-      </c>
-      <c r="I59" s="1">
-        <v>0</v>
-      </c>
-      <c r="J59" s="1">
-        <f>J58*2</f>
-        <v>12000</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C60" s="1">
-        <v>303</v>
-      </c>
-      <c r="D60" s="1">
-        <v>3</v>
-      </c>
-      <c r="E60" s="1">
-        <v>3</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H60" s="1">
-        <v>0</v>
-      </c>
-      <c r="I60" s="1">
-        <v>0</v>
-      </c>
-      <c r="J60" s="1">
-        <f>J58*3</f>
-        <v>18000</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C61" s="1">
-        <v>304</v>
-      </c>
-      <c r="D61" s="1">
-        <v>3</v>
-      </c>
-      <c r="E61" s="1">
-        <v>4</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H61" s="1">
-        <v>0</v>
-      </c>
-      <c r="I61" s="1">
-        <v>0</v>
-      </c>
-      <c r="J61" s="1">
-        <f>J58*4</f>
-        <v>24000</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C62" s="1">
-        <v>305</v>
-      </c>
-      <c r="D62" s="1">
-        <v>3</v>
-      </c>
-      <c r="E62" s="1">
-        <v>5</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H62" s="1">
-        <v>0</v>
-      </c>
-      <c r="I62" s="1">
-        <v>0</v>
-      </c>
-      <c r="J62" s="1">
-        <f>J58*5</f>
-        <v>30000</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C63" s="1">
-        <v>306</v>
-      </c>
-      <c r="D63" s="1">
-        <v>3</v>
-      </c>
-      <c r="E63" s="1">
-        <v>6</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H63" s="1">
-        <v>0</v>
-      </c>
-      <c r="I63" s="1">
-        <v>0</v>
-      </c>
-      <c r="J63" s="1">
-        <f>J58*6</f>
-        <v>36000</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C64" s="1">
-        <v>307</v>
-      </c>
-      <c r="D64" s="1">
-        <v>3</v>
-      </c>
-      <c r="E64" s="1">
-        <v>7</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H64" s="1">
-        <v>0</v>
-      </c>
-      <c r="I64" s="1">
-        <v>0</v>
-      </c>
-      <c r="J64" s="1">
-        <f>J58*7</f>
-        <v>42000</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="65" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C65" s="1">
-        <v>308</v>
-      </c>
-      <c r="D65" s="1">
-        <v>3</v>
-      </c>
-      <c r="E65" s="1">
-        <v>8</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H65" s="1">
-        <v>0</v>
-      </c>
-      <c r="I65" s="1">
-        <v>0</v>
-      </c>
-      <c r="J65" s="1">
-        <f>J58*8</f>
-        <v>48000</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="66" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C66" s="1">
-        <v>309</v>
-      </c>
-      <c r="D66" s="1">
-        <v>3</v>
-      </c>
-      <c r="E66" s="1">
-        <v>9</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H66" s="1">
-        <v>0</v>
-      </c>
-      <c r="I66" s="1">
-        <v>0</v>
-      </c>
-      <c r="J66" s="1">
-        <f>J58*9</f>
-        <v>54000</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="67" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C67" s="1">
-        <v>310</v>
-      </c>
-      <c r="D67" s="1">
-        <v>3</v>
-      </c>
-      <c r="E67" s="1">
-        <v>10</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H67" s="1">
-        <v>3</v>
-      </c>
-      <c r="I67" s="1">
-        <v>1</v>
-      </c>
-      <c r="J67" s="1">
-        <f>J58*10</f>
-        <v>60000</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="68" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C68" s="1">
-        <v>311</v>
       </c>
       <c r="D68" s="1">
         <v>3</v>
       </c>
       <c r="E68" s="1">
-        <v>11</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>29</v>
+        <v>1</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="H68" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" s="1">
-        <f t="shared" ref="J68:J76" si="4">J67+50000</f>
-        <v>110000</v>
+        <v>6000</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="69" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C69" s="1">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="D69" s="1">
         <v>3</v>
       </c>
       <c r="E69" s="1">
+        <v>2</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1">
+        <f>J68*2</f>
+        <v>12000</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C70" s="1">
+        <v>303</v>
+      </c>
+      <c r="D70" s="1">
+        <v>3</v>
+      </c>
+      <c r="E70" s="1">
+        <v>3</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1">
+        <f>J68*3</f>
+        <v>18000</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C71" s="1">
+        <v>304</v>
+      </c>
+      <c r="D71" s="1">
+        <v>3</v>
+      </c>
+      <c r="E71" s="1">
+        <v>4</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1">
+        <f>J68*4</f>
+        <v>24000</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C72" s="1">
+        <v>305</v>
+      </c>
+      <c r="D72" s="1">
+        <v>3</v>
+      </c>
+      <c r="E72" s="1">
+        <v>5</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1">
+        <f>J68*5</f>
+        <v>30000</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C73" s="1">
+        <v>306</v>
+      </c>
+      <c r="D73" s="1">
+        <v>3</v>
+      </c>
+      <c r="E73" s="1">
+        <v>6</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1">
+        <f>J68*6</f>
+        <v>36000</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C74" s="1">
+        <v>307</v>
+      </c>
+      <c r="D74" s="1">
+        <v>3</v>
+      </c>
+      <c r="E74" s="1">
+        <v>7</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0</v>
+      </c>
+      <c r="J74" s="1">
+        <f>J68*7</f>
+        <v>42000</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C75" s="1">
+        <v>308</v>
+      </c>
+      <c r="D75" s="1">
+        <v>3</v>
+      </c>
+      <c r="E75" s="1">
+        <v>8</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1">
+        <f>J68*8</f>
+        <v>48000</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C76" s="1">
+        <v>309</v>
+      </c>
+      <c r="D76" s="1">
+        <v>3</v>
+      </c>
+      <c r="E76" s="1">
+        <v>9</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1">
+        <f>J68*9</f>
+        <v>54000</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C77" s="1">
+        <v>310</v>
+      </c>
+      <c r="D77" s="1">
+        <v>3</v>
+      </c>
+      <c r="E77" s="1">
+        <v>10</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H77" s="1">
+        <v>3</v>
+      </c>
+      <c r="I77" s="1">
+        <v>1</v>
+      </c>
+      <c r="J77" s="1">
+        <f>J68*10</f>
+        <v>60000</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C78" s="1">
+        <v>311</v>
+      </c>
+      <c r="D78" s="1">
+        <v>3</v>
+      </c>
+      <c r="E78" s="1">
+        <v>11</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H78" s="1">
+        <v>3</v>
+      </c>
+      <c r="I78" s="1">
+        <v>2</v>
+      </c>
+      <c r="J78" s="1">
+        <f t="shared" ref="J78:J86" si="4">J77+50000</f>
+        <v>110000</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C79" s="1">
+        <v>312</v>
+      </c>
+      <c r="D79" s="1">
+        <v>3</v>
+      </c>
+      <c r="E79" s="1">
         <v>12</v>
       </c>
-      <c r="F69" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G69" s="6" t="s">
+      <c r="F79" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G79" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H69" s="1">
+      <c r="H79" s="1">
         <v>3</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I79" s="1">
         <v>3</v>
       </c>
-      <c r="J69" s="1">
+      <c r="J79" s="1">
         <f t="shared" si="4"/>
         <v>160000</v>
       </c>
-      <c r="K69" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="70" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C70" s="1">
+      <c r="K79" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C80" s="1">
         <v>313</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D80" s="1">
         <v>3</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E80" s="1">
         <v>13</v>
       </c>
-      <c r="F70" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G70" s="6" t="s">
+      <c r="F80" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G80" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H70" s="1">
+      <c r="H80" s="1">
         <v>3</v>
       </c>
-      <c r="I70" s="1">
+      <c r="I80" s="1">
         <v>4</v>
       </c>
-      <c r="J70" s="1">
+      <c r="J80" s="1">
         <f t="shared" si="4"/>
         <v>210000</v>
       </c>
-      <c r="K70" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="71" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C71" s="1">
+      <c r="K80" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C81" s="1">
         <v>314</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D81" s="1">
         <v>3</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E81" s="1">
         <v>14</v>
       </c>
-      <c r="F71" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G71" s="6" t="s">
+      <c r="F81" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G81" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H81" s="1">
         <v>3</v>
       </c>
-      <c r="I71" s="1">
+      <c r="I81" s="1">
         <v>5</v>
       </c>
-      <c r="J71" s="1">
+      <c r="J81" s="1">
         <f t="shared" si="4"/>
         <v>260000</v>
       </c>
-      <c r="K71" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="72" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C72" s="1">
+      <c r="K81" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C82" s="1">
         <v>315</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D82" s="1">
         <v>3</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E82" s="1">
         <v>15</v>
       </c>
-      <c r="F72" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G72" s="6" t="s">
+      <c r="F82" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G82" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H72" s="1">
+      <c r="H82" s="1">
         <v>3</v>
       </c>
-      <c r="I72" s="1">
+      <c r="I82" s="1">
         <v>6</v>
       </c>
-      <c r="J72" s="1">
+      <c r="J82" s="1">
         <f t="shared" si="4"/>
         <v>310000</v>
       </c>
-      <c r="K72" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="73" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C73" s="1">
+      <c r="K82" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C83" s="1">
         <v>316</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D83" s="1">
         <v>3</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E83" s="1">
         <v>16</v>
       </c>
-      <c r="F73" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G73" s="6" t="s">
+      <c r="F83" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G83" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H83" s="1">
         <v>3</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I83" s="1">
         <v>7</v>
       </c>
-      <c r="J73" s="1">
+      <c r="J83" s="1">
         <f t="shared" si="4"/>
         <v>360000</v>
       </c>
-      <c r="K73" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="74" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C74" s="1">
+      <c r="K83" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="84" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C84" s="1">
         <v>317</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D84" s="1">
         <v>3</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E84" s="1">
         <v>17</v>
       </c>
-      <c r="F74" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G74" s="6" t="s">
+      <c r="F84" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G84" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H74" s="1">
+      <c r="H84" s="1">
         <v>3</v>
       </c>
-      <c r="I74" s="1">
+      <c r="I84" s="1">
         <v>8</v>
       </c>
-      <c r="J74" s="1">
+      <c r="J84" s="1">
         <f t="shared" si="4"/>
         <v>410000</v>
       </c>
-      <c r="K74" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="75" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C75" s="1">
+      <c r="K84" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="85" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C85" s="1">
         <v>318</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D85" s="1">
         <v>3</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E85" s="1">
         <v>18</v>
       </c>
-      <c r="F75" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G75" s="6" t="s">
+      <c r="F85" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G85" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H75" s="1">
+      <c r="H85" s="1">
         <v>3</v>
       </c>
-      <c r="I75" s="1">
+      <c r="I85" s="1">
         <v>9</v>
       </c>
-      <c r="J75" s="1">
+      <c r="J85" s="1">
         <f t="shared" si="4"/>
         <v>460000</v>
       </c>
-      <c r="K75" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="76" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C76" s="1">
+      <c r="K85" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="86" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C86" s="1">
         <v>319</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D86" s="1">
         <v>3</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E86" s="1">
         <v>19</v>
       </c>
-      <c r="F76" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G76" s="6" t="s">
+      <c r="F86" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G86" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H76" s="1">
+      <c r="H86" s="1">
         <v>3</v>
       </c>
-      <c r="I76" s="1">
+      <c r="I86" s="1">
         <v>10</v>
       </c>
-      <c r="J76" s="1">
+      <c r="J86" s="1">
         <f t="shared" si="4"/>
         <v>510000</v>
       </c>
-      <c r="K76" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="77" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C77" s="1">
+      <c r="K86" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="87" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C87" s="1">
         <v>320</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D87" s="1">
         <v>3</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E87" s="1">
         <v>20</v>
       </c>
-      <c r="F77" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G77" s="6" t="s">
+      <c r="F87" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G87" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H77" s="1">
+      <c r="H87" s="1">
         <v>3</v>
       </c>
-      <c r="I77" s="1">
+      <c r="I87" s="1">
         <v>11</v>
       </c>
-      <c r="J77" s="1">
-        <f t="shared" ref="J77:J82" si="5">J76+80000</f>
+      <c r="J87" s="1">
+        <f t="shared" ref="J87:J97" si="5">J86+80000</f>
         <v>590000</v>
       </c>
-      <c r="K77" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="78" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C78" s="1">
+      <c r="K87" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="88" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C88" s="1">
         <v>321</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D88" s="1">
         <v>3</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E88" s="1">
         <v>21</v>
       </c>
-      <c r="F78" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G78" s="6" t="s">
+      <c r="F88" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G88" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H78" s="1">
+      <c r="H88" s="1">
         <v>3</v>
       </c>
-      <c r="I78" s="1">
+      <c r="I88" s="1">
         <v>12</v>
       </c>
-      <c r="J78" s="1">
+      <c r="J88" s="1">
         <f t="shared" si="5"/>
         <v>670000</v>
       </c>
-      <c r="K78" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L78" s="1" t="s">
+      <c r="K88" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="89" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C89" s="1">
+        <v>322</v>
+      </c>
+      <c r="D89" s="1">
+        <v>3</v>
+      </c>
+      <c r="E89" s="1">
+        <v>22</v>
+      </c>
+      <c r="F89" s="5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="79" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C79" s="1">
-        <v>322</v>
-      </c>
-      <c r="D79" s="1">
+      <c r="G89" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H89" s="1">
         <v>3</v>
       </c>
-      <c r="E79" s="1">
-        <v>22</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H79" s="1">
-        <v>3</v>
-      </c>
-      <c r="I79" s="1">
+      <c r="I89" s="1">
         <v>13</v>
       </c>
-      <c r="J79" s="1">
+      <c r="J89" s="1">
         <f t="shared" si="5"/>
         <v>750000</v>
       </c>
-      <c r="K79" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="80" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C80" s="1">
+      <c r="K89" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="90" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C90" s="1">
         <v>323</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D90" s="1">
         <v>3</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E90" s="1">
         <v>23</v>
       </c>
-      <c r="F80" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G80" s="6" t="s">
+      <c r="F90" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G90" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H80" s="1">
+      <c r="H90" s="1">
         <v>3</v>
       </c>
-      <c r="I80" s="1">
+      <c r="I90" s="1">
         <v>14</v>
       </c>
-      <c r="J80" s="1">
+      <c r="J90" s="1">
         <f t="shared" si="5"/>
         <v>830000</v>
       </c>
-      <c r="K80" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="81" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C81" s="1">
+      <c r="K90" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="91" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C91" s="1">
         <v>324</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D91" s="1">
         <v>3</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E91" s="1">
         <v>24</v>
       </c>
-      <c r="F81" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G81" s="6" t="s">
+      <c r="F91" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G91" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H81" s="1">
+      <c r="H91" s="1">
         <v>3</v>
       </c>
-      <c r="I81" s="1">
+      <c r="I91" s="1">
         <v>15</v>
       </c>
-      <c r="J81" s="1">
+      <c r="J91" s="1">
         <f t="shared" si="5"/>
         <v>910000</v>
       </c>
-      <c r="K81" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="82" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C82" s="1">
+      <c r="K91" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="92" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C92" s="1">
         <v>325</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D92" s="1">
         <v>3</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E92" s="1">
         <v>25</v>
       </c>
-      <c r="F82" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G82" s="6" t="s">
+      <c r="F92" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G92" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H82" s="1">
+      <c r="H92" s="1">
         <v>3</v>
       </c>
-      <c r="I82" s="1">
+      <c r="I92" s="1">
         <v>16</v>
       </c>
-      <c r="J82" s="1">
+      <c r="J92" s="1">
         <f t="shared" si="5"/>
         <v>990000</v>
       </c>
-      <c r="K82" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="83" s="1" customFormat="1" customHeight="1"/>
-    <row r="84" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C84" s="1">
-        <v>401</v>
-      </c>
-      <c r="D84" s="1">
-        <v>4</v>
-      </c>
-      <c r="E84" s="1">
-        <v>1</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H84" s="1">
-        <v>0</v>
-      </c>
-      <c r="I84" s="1">
-        <v>0</v>
-      </c>
-      <c r="J84" s="1">
-        <v>10000</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="85" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C85" s="1">
-        <v>402</v>
-      </c>
-      <c r="D85" s="1">
-        <v>4</v>
-      </c>
-      <c r="E85" s="1">
-        <v>2</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H85" s="1">
-        <v>0</v>
-      </c>
-      <c r="I85" s="1">
-        <v>0</v>
-      </c>
-      <c r="J85" s="1">
-        <f>J84*2</f>
-        <v>20000</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="86" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C86" s="1">
-        <v>403</v>
-      </c>
-      <c r="D86" s="1">
-        <v>4</v>
-      </c>
-      <c r="E86" s="1">
-        <v>3</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H86" s="1">
-        <v>0</v>
-      </c>
-      <c r="I86" s="1">
-        <v>0</v>
-      </c>
-      <c r="J86" s="1">
-        <f>J84*3</f>
-        <v>30000</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="87" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C87" s="1">
-        <v>404</v>
-      </c>
-      <c r="D87" s="1">
-        <v>4</v>
-      </c>
-      <c r="E87" s="1">
-        <v>4</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H87" s="1">
-        <v>0</v>
-      </c>
-      <c r="I87" s="1">
-        <v>0</v>
-      </c>
-      <c r="J87" s="1">
-        <f>J84*4</f>
-        <v>40000</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="88" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C88" s="1">
-        <v>405</v>
-      </c>
-      <c r="D88" s="1">
-        <v>4</v>
-      </c>
-      <c r="E88" s="1">
-        <v>5</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H88" s="1">
-        <v>0</v>
-      </c>
-      <c r="I88" s="1">
-        <v>0</v>
-      </c>
-      <c r="J88" s="1">
-        <f>J84*5</f>
-        <v>50000</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="89" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C89" s="1">
-        <v>406</v>
-      </c>
-      <c r="D89" s="1">
-        <v>4</v>
-      </c>
-      <c r="E89" s="1">
-        <v>6</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H89" s="1">
-        <v>0</v>
-      </c>
-      <c r="I89" s="1">
-        <v>0</v>
-      </c>
-      <c r="J89" s="1">
-        <f>J84*6</f>
-        <v>60000</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="90" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C90" s="1">
-        <v>407</v>
-      </c>
-      <c r="D90" s="1">
-        <v>4</v>
-      </c>
-      <c r="E90" s="1">
-        <v>7</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H90" s="1">
-        <v>0</v>
-      </c>
-      <c r="I90" s="1">
-        <v>0</v>
-      </c>
-      <c r="J90" s="1">
-        <f>J84*7</f>
-        <v>70000</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="91" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C91" s="1">
-        <v>408</v>
-      </c>
-      <c r="D91" s="1">
-        <v>4</v>
-      </c>
-      <c r="E91" s="1">
-        <v>8</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H91" s="1">
-        <v>0</v>
-      </c>
-      <c r="I91" s="1">
-        <v>0</v>
-      </c>
-      <c r="J91" s="1">
-        <f>J84*8</f>
-        <v>80000</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="92" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C92" s="1">
-        <v>409</v>
-      </c>
-      <c r="D92" s="1">
-        <v>4</v>
-      </c>
-      <c r="E92" s="1">
-        <v>9</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H92" s="1">
-        <v>0</v>
-      </c>
-      <c r="I92" s="1">
-        <v>0</v>
-      </c>
-      <c r="J92" s="1">
-        <f>J84*9</f>
-        <v>90000</v>
-      </c>
       <c r="K92" s="1" t="s">
-        <v>143</v>
+        <v>165</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="93" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C93" s="1">
-        <v>410</v>
+        <v>326</v>
       </c>
       <c r="D93" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E93" s="1">
-        <v>10</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G93" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="F93" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="H93" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I93" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J93" s="1">
-        <f>J84*10</f>
-        <v>100000</v>
+        <f t="shared" si="5"/>
+        <v>1070000</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
     </row>
     <row r="94" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C94" s="1">
-        <v>411</v>
+        <v>327</v>
       </c>
       <c r="D94" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E94" s="1">
-        <v>11</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="H94" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I94" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J94" s="1">
-        <f t="shared" ref="J94:J102" si="6">J93+80000</f>
-        <v>180000</v>
+        <f t="shared" si="5"/>
+        <v>1150000</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C95" s="1">
+        <v>328</v>
+      </c>
+      <c r="D95" s="1">
+        <v>3</v>
+      </c>
+      <c r="E95" s="1">
+        <v>28</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H95" s="1">
+        <v>3</v>
+      </c>
+      <c r="I95" s="1">
+        <v>19</v>
+      </c>
+      <c r="J95" s="1">
+        <f t="shared" si="5"/>
+        <v>1230000</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="96" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C96" s="1">
+        <v>329</v>
+      </c>
+      <c r="D96" s="1">
+        <v>3</v>
+      </c>
+      <c r="E96" s="1">
+        <v>29</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H96" s="1">
+        <v>3</v>
+      </c>
+      <c r="I96" s="1">
+        <v>20</v>
+      </c>
+      <c r="J96" s="1">
+        <f t="shared" si="5"/>
+        <v>1310000</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="97" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C97" s="1">
+        <v>330</v>
+      </c>
+      <c r="D97" s="1">
+        <v>3</v>
+      </c>
+      <c r="E97" s="1">
+        <v>30</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H97" s="1">
+        <v>3</v>
+      </c>
+      <c r="I97" s="1">
+        <v>21</v>
+      </c>
+      <c r="J97" s="1">
+        <f>J96+160000</f>
+        <v>1470000</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="98" s="1" customFormat="1" customHeight="1"/>
+    <row r="99" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C99" s="1">
+        <v>401</v>
+      </c>
+      <c r="D99" s="1">
+        <v>4</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0</v>
+      </c>
+      <c r="I99" s="1">
+        <v>0</v>
+      </c>
+      <c r="J99" s="1">
+        <v>10000</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="100" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C100" s="1">
+        <v>402</v>
+      </c>
+      <c r="D100" s="1">
+        <v>4</v>
+      </c>
+      <c r="E100" s="1">
+        <v>2</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0</v>
+      </c>
+      <c r="J100" s="1">
+        <f>J99*2</f>
+        <v>20000</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="101" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C101" s="1">
+        <v>403</v>
+      </c>
+      <c r="D101" s="1">
+        <v>4</v>
+      </c>
+      <c r="E101" s="1">
+        <v>3</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0</v>
+      </c>
+      <c r="I101" s="1">
+        <v>0</v>
+      </c>
+      <c r="J101" s="1">
+        <f>J99*3</f>
+        <v>30000</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="102" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C102" s="1">
+        <v>404</v>
+      </c>
+      <c r="D102" s="1">
+        <v>4</v>
+      </c>
+      <c r="E102" s="1">
+        <v>4</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0</v>
+      </c>
+      <c r="I102" s="1">
+        <v>0</v>
+      </c>
+      <c r="J102" s="1">
+        <f>J99*4</f>
+        <v>40000</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="103" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C103" s="1">
+        <v>405</v>
+      </c>
+      <c r="D103" s="1">
+        <v>4</v>
+      </c>
+      <c r="E103" s="1">
+        <v>5</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0</v>
+      </c>
+      <c r="I103" s="1">
+        <v>0</v>
+      </c>
+      <c r="J103" s="1">
+        <f>J99*5</f>
+        <v>50000</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="104" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C104" s="1">
+        <v>406</v>
+      </c>
+      <c r="D104" s="1">
+        <v>4</v>
+      </c>
+      <c r="E104" s="1">
+        <v>6</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0</v>
+      </c>
+      <c r="I104" s="1">
+        <v>0</v>
+      </c>
+      <c r="J104" s="1">
+        <f>J99*6</f>
+        <v>60000</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="105" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C105" s="1">
+        <v>407</v>
+      </c>
+      <c r="D105" s="1">
+        <v>4</v>
+      </c>
+      <c r="E105" s="1">
+        <v>7</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0</v>
+      </c>
+      <c r="I105" s="1">
+        <v>0</v>
+      </c>
+      <c r="J105" s="1">
+        <f>J99*7</f>
+        <v>70000</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="106" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C106" s="1">
+        <v>408</v>
+      </c>
+      <c r="D106" s="1">
+        <v>4</v>
+      </c>
+      <c r="E106" s="1">
+        <v>8</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0</v>
+      </c>
+      <c r="J106" s="1">
+        <f>J99*8</f>
+        <v>80000</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="107" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C107" s="1">
+        <v>409</v>
+      </c>
+      <c r="D107" s="1">
+        <v>4</v>
+      </c>
+      <c r="E107" s="1">
+        <v>9</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0</v>
+      </c>
+      <c r="J107" s="1">
+        <f>J99*9</f>
+        <v>90000</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="108" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C108" s="1">
+        <v>410</v>
+      </c>
+      <c r="D108" s="1">
+        <v>4</v>
+      </c>
+      <c r="E108" s="1">
+        <v>10</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H108" s="1">
+        <v>4</v>
+      </c>
+      <c r="I108" s="1">
+        <v>1</v>
+      </c>
+      <c r="J108" s="1">
+        <f>J99*10</f>
+        <v>100000</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="109" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C109" s="1">
+        <v>411</v>
+      </c>
+      <c r="D109" s="1">
+        <v>4</v>
+      </c>
+      <c r="E109" s="1">
+        <v>11</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H109" s="1">
+        <v>4</v>
+      </c>
+      <c r="I109" s="1">
+        <v>2</v>
+      </c>
+      <c r="J109" s="1">
+        <f t="shared" ref="J109:J117" si="6">J108+80000</f>
+        <v>180000</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="110" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C110" s="1">
         <v>412</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D110" s="1">
         <v>4</v>
       </c>
-      <c r="E95" s="1">
+      <c r="E110" s="1">
         <v>12</v>
       </c>
-      <c r="F95" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G95" s="6" t="s">
+      <c r="F110" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G110" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H95" s="1">
+      <c r="H110" s="1">
         <v>4</v>
       </c>
-      <c r="I95" s="1">
+      <c r="I110" s="1">
         <v>3</v>
       </c>
-      <c r="J95" s="1">
+      <c r="J110" s="1">
         <f t="shared" si="6"/>
         <v>260000</v>
       </c>
-      <c r="K95" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="L95" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="96" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C96" s="1">
+      <c r="K110" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="111" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C111" s="1">
         <v>413</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D111" s="1">
         <v>4</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E111" s="1">
         <v>13</v>
       </c>
-      <c r="F96" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G96" s="6" t="s">
+      <c r="F111" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G111" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H96" s="1">
+      <c r="H111" s="1">
         <v>4</v>
       </c>
-      <c r="I96" s="1">
+      <c r="I111" s="1">
         <v>4</v>
       </c>
-      <c r="J96" s="1">
+      <c r="J111" s="1">
         <f t="shared" si="6"/>
         <v>340000</v>
       </c>
-      <c r="K96" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="97" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C97" s="1">
+      <c r="K111" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="112" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C112" s="1">
         <v>414</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D112" s="1">
         <v>4</v>
       </c>
-      <c r="E97" s="1">
+      <c r="E112" s="1">
         <v>14</v>
       </c>
-      <c r="F97" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G97" s="6" t="s">
+      <c r="F112" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G112" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H97" s="1">
+      <c r="H112" s="1">
         <v>4</v>
       </c>
-      <c r="I97" s="1">
+      <c r="I112" s="1">
         <v>5</v>
       </c>
-      <c r="J97" s="1">
+      <c r="J112" s="1">
         <f t="shared" si="6"/>
         <v>420000</v>
       </c>
-      <c r="K97" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="98" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C98" s="1">
+      <c r="K112" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="113" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C113" s="1">
         <v>415</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D113" s="1">
         <v>4</v>
       </c>
-      <c r="E98" s="1">
+      <c r="E113" s="1">
         <v>15</v>
       </c>
-      <c r="F98" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G98" s="6" t="s">
+      <c r="F113" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G113" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H98" s="1">
+      <c r="H113" s="1">
         <v>4</v>
       </c>
-      <c r="I98" s="1">
+      <c r="I113" s="1">
         <v>6</v>
       </c>
-      <c r="J98" s="1">
+      <c r="J113" s="1">
         <f t="shared" si="6"/>
         <v>500000</v>
       </c>
-      <c r="K98" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L98" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="99" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C99" s="1">
+      <c r="K113" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="114" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C114" s="1">
         <v>416</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D114" s="1">
         <v>4</v>
       </c>
-      <c r="E99" s="1">
+      <c r="E114" s="1">
         <v>16</v>
       </c>
-      <c r="F99" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G99" s="6" t="s">
+      <c r="F114" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G114" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H99" s="1">
+      <c r="H114" s="1">
         <v>4</v>
       </c>
-      <c r="I99" s="1">
+      <c r="I114" s="1">
         <v>7</v>
       </c>
-      <c r="J99" s="1">
+      <c r="J114" s="1">
         <f t="shared" si="6"/>
         <v>580000</v>
       </c>
-      <c r="K99" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L99" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="100" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C100" s="1">
+      <c r="K114" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="115" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C115" s="1">
         <v>417</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D115" s="1">
         <v>4</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E115" s="1">
         <v>17</v>
       </c>
-      <c r="F100" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G100" s="6" t="s">
+      <c r="F115" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G115" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H100" s="1">
+      <c r="H115" s="1">
         <v>4</v>
       </c>
-      <c r="I100" s="1">
+      <c r="I115" s="1">
         <v>8</v>
       </c>
-      <c r="J100" s="1">
+      <c r="J115" s="1">
         <f t="shared" si="6"/>
         <v>660000</v>
       </c>
-      <c r="K100" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="101" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C101" s="1">
+      <c r="K115" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="116" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C116" s="1">
         <v>418</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D116" s="1">
         <v>4</v>
       </c>
-      <c r="E101" s="1">
+      <c r="E116" s="1">
         <v>18</v>
       </c>
-      <c r="F101" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G101" s="6" t="s">
+      <c r="F116" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G116" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H101" s="1">
+      <c r="H116" s="1">
         <v>4</v>
       </c>
-      <c r="I101" s="1">
+      <c r="I116" s="1">
         <v>9</v>
       </c>
-      <c r="J101" s="1">
+      <c r="J116" s="1">
         <f t="shared" si="6"/>
         <v>740000</v>
       </c>
-      <c r="K101" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="L101" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="102" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C102" s="1">
+      <c r="K116" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="117" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C117" s="1">
         <v>419</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D117" s="1">
         <v>4</v>
       </c>
-      <c r="E102" s="1">
+      <c r="E117" s="1">
         <v>19</v>
       </c>
-      <c r="F102" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G102" s="6" t="s">
+      <c r="F117" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G117" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H102" s="1">
+      <c r="H117" s="1">
         <v>4</v>
       </c>
-      <c r="I102" s="1">
+      <c r="I117" s="1">
         <v>10</v>
       </c>
-      <c r="J102" s="1">
+      <c r="J117" s="1">
         <f t="shared" si="6"/>
         <v>820000</v>
       </c>
-      <c r="K102" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L102" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="103" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C103" s="1">
+      <c r="K117" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="118" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C118" s="1">
         <v>420</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D118" s="1">
         <v>4</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E118" s="1">
         <v>20</v>
       </c>
-      <c r="F103" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G103" s="6" t="s">
+      <c r="F118" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G118" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H103" s="1">
+      <c r="H118" s="1">
         <v>4</v>
       </c>
-      <c r="I103" s="1">
+      <c r="I118" s="1">
         <v>11</v>
       </c>
-      <c r="J103" s="1">
-        <f t="shared" ref="J103:J108" si="7">J102+150000</f>
+      <c r="J118" s="1">
+        <f t="shared" ref="J118:J128" si="7">J117+150000</f>
         <v>970000</v>
       </c>
-      <c r="K103" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="104" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C104" s="1">
+      <c r="K118" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="119" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C119" s="1">
         <v>421</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D119" s="1">
         <v>4</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E119" s="1">
         <v>21</v>
       </c>
-      <c r="F104" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G104" s="6" t="s">
+      <c r="F119" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G119" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H104" s="1">
+      <c r="H119" s="1">
         <v>4</v>
       </c>
-      <c r="I104" s="1">
+      <c r="I119" s="1">
         <v>12</v>
       </c>
-      <c r="J104" s="1">
+      <c r="J119" s="1">
         <f t="shared" si="7"/>
         <v>1120000</v>
       </c>
-      <c r="K104" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="105" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C105" s="1">
+      <c r="K119" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="120" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C120" s="1">
         <v>422</v>
       </c>
-      <c r="D105" s="1">
+      <c r="D120" s="1">
         <v>4</v>
       </c>
-      <c r="E105" s="1">
+      <c r="E120" s="1">
         <v>22</v>
       </c>
-      <c r="F105" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G105" s="6" t="s">
+      <c r="F120" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G120" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H105" s="1">
+      <c r="H120" s="1">
         <v>4</v>
       </c>
-      <c r="I105" s="1">
+      <c r="I120" s="1">
         <v>13</v>
       </c>
-      <c r="J105" s="1">
+      <c r="J120" s="1">
         <f t="shared" si="7"/>
         <v>1270000</v>
       </c>
-      <c r="K105" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="L105" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="106" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C106" s="1">
+      <c r="K120" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="121" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C121" s="1">
         <v>423</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D121" s="1">
         <v>4</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E121" s="1">
         <v>23</v>
       </c>
-      <c r="F106" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G106" s="6" t="s">
+      <c r="F121" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G121" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H106" s="1">
+      <c r="H121" s="1">
         <v>4</v>
       </c>
-      <c r="I106" s="1">
+      <c r="I121" s="1">
         <v>14</v>
       </c>
-      <c r="J106" s="1">
+      <c r="J121" s="1">
         <f t="shared" si="7"/>
         <v>1420000</v>
       </c>
-      <c r="K106" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="L106" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="107" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C107" s="1">
+      <c r="K121" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="122" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C122" s="1">
         <v>424</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D122" s="1">
         <v>4</v>
       </c>
-      <c r="E107" s="1">
+      <c r="E122" s="1">
         <v>24</v>
       </c>
-      <c r="F107" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G107" s="6" t="s">
+      <c r="F122" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G122" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H107" s="1">
+      <c r="H122" s="1">
         <v>4</v>
       </c>
-      <c r="I107" s="1">
+      <c r="I122" s="1">
         <v>15</v>
       </c>
-      <c r="J107" s="1">
+      <c r="J122" s="1">
         <f t="shared" si="7"/>
         <v>1570000</v>
       </c>
-      <c r="K107" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="108" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C108" s="1">
+      <c r="K122" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="123" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C123" s="1">
         <v>425</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D123" s="1">
         <v>4</v>
       </c>
-      <c r="E108" s="1">
+      <c r="E123" s="1">
         <v>25</v>
       </c>
-      <c r="F108" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G108" s="6" t="s">
+      <c r="F123" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G123" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H108" s="1">
+      <c r="H123" s="1">
         <v>4</v>
       </c>
-      <c r="I108" s="1">
+      <c r="I123" s="1">
         <v>16</v>
       </c>
-      <c r="J108" s="1">
+      <c r="J123" s="1">
         <f t="shared" si="7"/>
         <v>1720000</v>
       </c>
-      <c r="K108" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="L108" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="109" s="1" customFormat="1" customHeight="1"/>
-    <row r="110" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C110" s="1">
+      <c r="K123" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="124" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C124" s="1">
+        <v>426</v>
+      </c>
+      <c r="D124" s="1">
+        <v>4</v>
+      </c>
+      <c r="E124" s="1">
+        <v>26</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H124" s="1">
+        <v>4</v>
+      </c>
+      <c r="I124" s="1">
+        <v>17</v>
+      </c>
+      <c r="J124" s="1">
+        <f t="shared" si="7"/>
+        <v>1870000</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="125" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C125" s="1">
+        <v>427</v>
+      </c>
+      <c r="D125" s="1">
+        <v>4</v>
+      </c>
+      <c r="E125" s="1">
+        <v>27</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H125" s="1">
+        <v>4</v>
+      </c>
+      <c r="I125" s="1">
+        <v>18</v>
+      </c>
+      <c r="J125" s="1">
+        <f t="shared" si="7"/>
+        <v>2020000</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="126" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C126" s="1">
+        <v>428</v>
+      </c>
+      <c r="D126" s="1">
+        <v>4</v>
+      </c>
+      <c r="E126" s="1">
+        <v>28</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H126" s="1">
+        <v>4</v>
+      </c>
+      <c r="I126" s="1">
+        <v>19</v>
+      </c>
+      <c r="J126" s="1">
+        <f t="shared" si="7"/>
+        <v>2170000</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="127" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C127" s="1">
+        <v>429</v>
+      </c>
+      <c r="D127" s="1">
+        <v>4</v>
+      </c>
+      <c r="E127" s="1">
+        <v>29</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H127" s="1">
+        <v>4</v>
+      </c>
+      <c r="I127" s="1">
+        <v>20</v>
+      </c>
+      <c r="J127" s="1">
+        <f t="shared" si="7"/>
+        <v>2320000</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="128" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C128" s="1">
+        <v>430</v>
+      </c>
+      <c r="D128" s="1">
+        <v>4</v>
+      </c>
+      <c r="E128" s="1">
+        <v>30</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H128" s="1">
+        <v>4</v>
+      </c>
+      <c r="I128" s="1">
+        <v>21</v>
+      </c>
+      <c r="J128" s="1">
+        <f>J127+300000</f>
+        <v>2620000</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="129" s="1" customFormat="1" customHeight="1"/>
+    <row r="130" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C130" s="1">
         <v>501</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D130" s="1">
         <v>5</v>
       </c>
-      <c r="E110" s="1">
+      <c r="E130" s="1">
         <v>1</v>
       </c>
-      <c r="F110" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G110" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="H110" s="1">
-        <v>0</v>
-      </c>
-      <c r="I110" s="1">
-        <v>0</v>
-      </c>
-      <c r="J110" s="1">
+      <c r="F130" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H130" s="1">
+        <v>0</v>
+      </c>
+      <c r="I130" s="1">
+        <v>0</v>
+      </c>
+      <c r="J130" s="1">
         <v>20000</v>
       </c>
-      <c r="K110" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="111" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C111" s="1">
+      <c r="K130" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="131" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C131" s="1">
         <v>502</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D131" s="1">
         <v>5</v>
       </c>
-      <c r="E111" s="1">
+      <c r="E131" s="1">
         <v>2</v>
       </c>
-      <c r="F111" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="H111" s="1">
-        <v>0</v>
-      </c>
-      <c r="I111" s="1">
-        <v>0</v>
-      </c>
-      <c r="J111" s="1">
-        <f>J110*2</f>
+      <c r="F131" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H131" s="1">
+        <v>0</v>
+      </c>
+      <c r="I131" s="1">
+        <v>0</v>
+      </c>
+      <c r="J131" s="1">
+        <f>J130*2</f>
         <v>40000</v>
       </c>
-      <c r="K111" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="112" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C112" s="1">
+      <c r="K131" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="132" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C132" s="1">
         <v>503</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D132" s="1">
         <v>5</v>
       </c>
-      <c r="E112" s="1">
+      <c r="E132" s="1">
         <v>3</v>
       </c>
-      <c r="F112" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G112" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="H112" s="1">
-        <v>0</v>
-      </c>
-      <c r="I112" s="1">
-        <v>0</v>
-      </c>
-      <c r="J112" s="1">
-        <f>J110*3</f>
+      <c r="F132" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H132" s="1">
+        <v>0</v>
+      </c>
+      <c r="I132" s="1">
+        <v>0</v>
+      </c>
+      <c r="J132" s="1">
+        <f>J130*3</f>
         <v>60000</v>
       </c>
-      <c r="K112" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="113" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C113" s="1">
+      <c r="K132" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="133" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C133" s="1">
         <v>504</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D133" s="1">
         <v>5</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E133" s="1">
         <v>4</v>
       </c>
-      <c r="F113" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G113" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="H113" s="1">
-        <v>0</v>
-      </c>
-      <c r="I113" s="1">
-        <v>0</v>
-      </c>
-      <c r="J113" s="1">
-        <f>J110*4</f>
+      <c r="F133" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H133" s="1">
+        <v>0</v>
+      </c>
+      <c r="I133" s="1">
+        <v>0</v>
+      </c>
+      <c r="J133" s="1">
+        <f>J130*4</f>
         <v>80000</v>
       </c>
-      <c r="K113" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="114" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C114" s="1">
+      <c r="K133" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="134" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C134" s="1">
         <v>505</v>
       </c>
-      <c r="D114" s="1">
+      <c r="D134" s="1">
         <v>5</v>
       </c>
-      <c r="E114" s="1">
+      <c r="E134" s="1">
         <v>5</v>
       </c>
-      <c r="F114" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G114" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="H114" s="1">
-        <v>0</v>
-      </c>
-      <c r="I114" s="1">
-        <v>0</v>
-      </c>
-      <c r="J114" s="1">
-        <f>J110*5</f>
+      <c r="F134" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="H134" s="1">
+        <v>0</v>
+      </c>
+      <c r="I134" s="1">
+        <v>0</v>
+      </c>
+      <c r="J134" s="1">
+        <f>J130*5</f>
         <v>100000</v>
       </c>
-      <c r="K114" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="115" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C115" s="1">
+      <c r="K134" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="135" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C135" s="1">
         <v>506</v>
       </c>
-      <c r="D115" s="1">
+      <c r="D135" s="1">
         <v>5</v>
       </c>
-      <c r="E115" s="1">
+      <c r="E135" s="1">
         <v>6</v>
       </c>
-      <c r="F115" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G115" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="H115" s="1">
-        <v>0</v>
-      </c>
-      <c r="I115" s="1">
-        <v>0</v>
-      </c>
-      <c r="J115" s="1">
-        <f>J110*6</f>
+      <c r="F135" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H135" s="1">
+        <v>0</v>
+      </c>
+      <c r="I135" s="1">
+        <v>0</v>
+      </c>
+      <c r="J135" s="1">
+        <f>J130*6</f>
         <v>120000</v>
       </c>
-      <c r="K115" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="116" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C116" s="1">
+      <c r="K135" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="136" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C136" s="1">
         <v>507</v>
       </c>
-      <c r="D116" s="1">
+      <c r="D136" s="1">
         <v>5</v>
       </c>
-      <c r="E116" s="1">
+      <c r="E136" s="1">
         <v>7</v>
       </c>
-      <c r="F116" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G116" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="H116" s="1">
-        <v>0</v>
-      </c>
-      <c r="I116" s="1">
-        <v>0</v>
-      </c>
-      <c r="J116" s="1">
-        <f>J110*7</f>
+      <c r="F136" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H136" s="1">
+        <v>0</v>
+      </c>
+      <c r="I136" s="1">
+        <v>0</v>
+      </c>
+      <c r="J136" s="1">
+        <f>J130*7</f>
         <v>140000</v>
       </c>
-      <c r="K116" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="117" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C117" s="1">
+      <c r="K136" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="137" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C137" s="1">
         <v>508</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D137" s="1">
         <v>5</v>
       </c>
-      <c r="E117" s="1">
+      <c r="E137" s="1">
         <v>8</v>
       </c>
-      <c r="F117" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G117" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="H117" s="1">
-        <v>0</v>
-      </c>
-      <c r="I117" s="1">
-        <v>0</v>
-      </c>
-      <c r="J117" s="1">
-        <f>J110*8</f>
+      <c r="F137" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H137" s="1">
+        <v>0</v>
+      </c>
+      <c r="I137" s="1">
+        <v>0</v>
+      </c>
+      <c r="J137" s="1">
+        <f>J130*8</f>
         <v>160000</v>
       </c>
-      <c r="K117" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="118" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C118" s="1">
+      <c r="K137" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="138" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C138" s="1">
         <v>509</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D138" s="1">
         <v>5</v>
       </c>
-      <c r="E118" s="1">
+      <c r="E138" s="1">
         <v>9</v>
       </c>
-      <c r="F118" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G118" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="H118" s="1">
-        <v>0</v>
-      </c>
-      <c r="I118" s="1">
-        <v>0</v>
-      </c>
-      <c r="J118" s="1">
-        <f>J110*9</f>
+      <c r="F138" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H138" s="1">
+        <v>0</v>
+      </c>
+      <c r="I138" s="1">
+        <v>0</v>
+      </c>
+      <c r="J138" s="1">
+        <f>J130*9</f>
         <v>180000</v>
       </c>
-      <c r="K118" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="119" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C119" s="1">
+      <c r="K138" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="139" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C139" s="1">
         <v>510</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D139" s="1">
         <v>5</v>
       </c>
-      <c r="E119" s="1">
+      <c r="E139" s="1">
         <v>10</v>
       </c>
-      <c r="F119" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G119" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="H119" s="1">
+      <c r="F139" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="H139" s="1">
         <v>5</v>
       </c>
-      <c r="I119" s="1">
+      <c r="I139" s="1">
         <v>1</v>
       </c>
-      <c r="J119" s="1">
-        <f>J110*10</f>
+      <c r="J139" s="1">
+        <f>J130*10</f>
         <v>200000</v>
       </c>
-      <c r="K119" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L119" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="120" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C120" s="1">
+      <c r="K139" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="140" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C140" s="1">
         <v>511</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D140" s="1">
         <v>5</v>
       </c>
-      <c r="E120" s="1">
+      <c r="E140" s="1">
         <v>11</v>
       </c>
-      <c r="F120" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G120" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="H120" s="1">
+      <c r="F140" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H140" s="1">
         <v>5</v>
       </c>
-      <c r="I120" s="1">
+      <c r="I140" s="1">
         <v>2</v>
       </c>
-      <c r="J120" s="1">
-        <f t="shared" ref="J120:J129" si="8">J119+150000</f>
+      <c r="J140" s="1">
+        <f t="shared" ref="J140:J149" si="8">J139+150000</f>
         <v>350000</v>
       </c>
-      <c r="K120" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="L120" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="121" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C121" s="1">
+      <c r="K140" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="141" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C141" s="1">
         <v>512</v>
       </c>
-      <c r="D121" s="1">
+      <c r="D141" s="1">
         <v>5</v>
       </c>
-      <c r="E121" s="1">
+      <c r="E141" s="1">
         <v>12</v>
       </c>
-      <c r="F121" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G121" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H121" s="1">
+      <c r="F141" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="H141" s="1">
         <v>5</v>
       </c>
-      <c r="I121" s="1">
+      <c r="I141" s="1">
         <v>3</v>
       </c>
-      <c r="J121" s="1">
+      <c r="J141" s="1">
         <f t="shared" si="8"/>
         <v>500000</v>
       </c>
-      <c r="K121" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="L121" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="122" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C122" s="1">
+      <c r="K141" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="142" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C142" s="1">
         <v>513</v>
       </c>
-      <c r="D122" s="1">
+      <c r="D142" s="1">
         <v>5</v>
       </c>
-      <c r="E122" s="1">
+      <c r="E142" s="1">
         <v>13</v>
       </c>
-      <c r="F122" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G122" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="H122" s="1">
+      <c r="F142" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="H142" s="1">
         <v>5</v>
       </c>
-      <c r="I122" s="1">
+      <c r="I142" s="1">
         <v>4</v>
       </c>
-      <c r="J122" s="1">
+      <c r="J142" s="1">
         <f t="shared" si="8"/>
         <v>650000</v>
       </c>
-      <c r="K122" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L122" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="123" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C123" s="1">
+      <c r="K142" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="143" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C143" s="1">
         <v>514</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D143" s="1">
         <v>5</v>
       </c>
-      <c r="E123" s="1">
+      <c r="E143" s="1">
         <v>14</v>
       </c>
-      <c r="F123" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G123" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="H123" s="1">
+      <c r="F143" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="H143" s="1">
         <v>5</v>
       </c>
-      <c r="I123" s="1">
+      <c r="I143" s="1">
         <v>5</v>
       </c>
-      <c r="J123" s="1">
+      <c r="J143" s="1">
         <f t="shared" si="8"/>
         <v>800000</v>
       </c>
-      <c r="K123" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="L123" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="124" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C124" s="1">
+      <c r="K143" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="144" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C144" s="1">
         <v>515</v>
       </c>
-      <c r="D124" s="1">
+      <c r="D144" s="1">
         <v>5</v>
       </c>
-      <c r="E124" s="1">
+      <c r="E144" s="1">
         <v>15</v>
       </c>
-      <c r="F124" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G124" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="H124" s="1">
+      <c r="F144" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="H144" s="1">
         <v>5</v>
       </c>
-      <c r="I124" s="1">
+      <c r="I144" s="1">
         <v>6</v>
       </c>
-      <c r="J124" s="1">
+      <c r="J144" s="1">
         <f t="shared" si="8"/>
         <v>950000</v>
       </c>
-      <c r="K124" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="L124" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="125" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C125" s="1">
+      <c r="K144" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="145" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C145" s="1">
         <v>516</v>
       </c>
-      <c r="D125" s="1">
+      <c r="D145" s="1">
         <v>5</v>
       </c>
-      <c r="E125" s="1">
+      <c r="E145" s="1">
         <v>16</v>
       </c>
-      <c r="F125" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G125" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="H125" s="1">
+      <c r="F145" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H145" s="1">
         <v>5</v>
       </c>
-      <c r="I125" s="1">
+      <c r="I145" s="1">
         <v>7</v>
       </c>
-      <c r="J125" s="1">
+      <c r="J145" s="1">
         <f t="shared" si="8"/>
         <v>1100000</v>
       </c>
-      <c r="K125" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="L125" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="126" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C126" s="1">
+      <c r="K145" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="146" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C146" s="1">
         <v>517</v>
       </c>
-      <c r="D126" s="1">
+      <c r="D146" s="1">
         <v>5</v>
       </c>
-      <c r="E126" s="1">
+      <c r="E146" s="1">
         <v>17</v>
       </c>
-      <c r="F126" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="H126" s="1">
+      <c r="F146" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="H146" s="1">
         <v>5</v>
       </c>
-      <c r="I126" s="1">
+      <c r="I146" s="1">
         <v>8</v>
       </c>
-      <c r="J126" s="1">
+      <c r="J146" s="1">
         <f t="shared" si="8"/>
         <v>1250000</v>
       </c>
-      <c r="K126" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="L126" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="127" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C127" s="1">
+      <c r="K146" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="147" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C147" s="1">
         <v>518</v>
       </c>
-      <c r="D127" s="1">
+      <c r="D147" s="1">
         <v>5</v>
       </c>
-      <c r="E127" s="1">
+      <c r="E147" s="1">
         <v>18</v>
       </c>
-      <c r="F127" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G127" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="H127" s="1">
+      <c r="F147" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="H147" s="1">
         <v>5</v>
       </c>
-      <c r="I127" s="1">
+      <c r="I147" s="1">
         <v>9</v>
       </c>
-      <c r="J127" s="1">
+      <c r="J147" s="1">
         <f t="shared" si="8"/>
         <v>1400000</v>
       </c>
-      <c r="K127" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="L127" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="128" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C128" s="1">
+      <c r="K147" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="148" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C148" s="1">
         <v>519</v>
       </c>
-      <c r="D128" s="1">
+      <c r="D148" s="1">
         <v>5</v>
       </c>
-      <c r="E128" s="1">
+      <c r="E148" s="1">
         <v>19</v>
       </c>
-      <c r="F128" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G128" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="H128" s="1">
+      <c r="F148" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="H148" s="1">
         <v>5</v>
       </c>
-      <c r="I128" s="1">
+      <c r="I148" s="1">
         <v>10</v>
       </c>
-      <c r="J128" s="1">
+      <c r="J148" s="1">
         <f t="shared" si="8"/>
         <v>1550000</v>
       </c>
-      <c r="K128" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="L128" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="129" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C129" s="1">
+      <c r="K148" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="149" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C149" s="1">
         <v>520</v>
       </c>
-      <c r="D129" s="1">
+      <c r="D149" s="1">
         <v>5</v>
       </c>
-      <c r="E129" s="1">
+      <c r="E149" s="1">
         <v>20</v>
       </c>
-      <c r="F129" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G129" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="H129" s="1">
+      <c r="F149" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="H149" s="1">
         <v>5</v>
       </c>
-      <c r="I129" s="1">
+      <c r="I149" s="1">
         <v>11</v>
       </c>
-      <c r="J129" s="1">
-        <f t="shared" ref="J129:J134" si="9">J128+250000</f>
+      <c r="J149" s="1">
+        <f t="shared" ref="J149:J160" si="9">J148+250000</f>
         <v>1800000</v>
       </c>
-      <c r="K129" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="L129" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="130" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C130" s="1">
+      <c r="K149" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="150" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C150" s="1">
         <v>521</v>
       </c>
-      <c r="D130" s="1">
+      <c r="D150" s="1">
         <v>5</v>
       </c>
-      <c r="E130" s="1">
+      <c r="E150" s="1">
         <v>21</v>
       </c>
-      <c r="F130" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G130" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="H130" s="1">
+      <c r="F150" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H150" s="1">
         <v>5</v>
       </c>
-      <c r="I130" s="1">
+      <c r="I150" s="1">
         <v>12</v>
       </c>
-      <c r="J130" s="1">
+      <c r="J150" s="1">
         <f t="shared" si="9"/>
         <v>2050000</v>
       </c>
-      <c r="K130" s="1" t="s">
+      <c r="K150" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="151" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C151" s="1">
+        <v>522</v>
+      </c>
+      <c r="D151" s="1">
+        <v>5</v>
+      </c>
+      <c r="E151" s="1">
+        <v>22</v>
+      </c>
+      <c r="F151" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L130" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="131" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C131" s="1">
-        <v>522</v>
-      </c>
-      <c r="D131" s="1">
+      <c r="G151" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="H151" s="1">
         <v>5</v>
       </c>
-      <c r="E131" s="1">
-        <v>22</v>
-      </c>
-      <c r="F131" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G131" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="H131" s="1">
-        <v>5</v>
-      </c>
-      <c r="I131" s="1">
+      <c r="I151" s="1">
         <v>13</v>
       </c>
-      <c r="J131" s="1">
+      <c r="J151" s="1">
         <f t="shared" si="9"/>
         <v>2300000</v>
       </c>
-      <c r="K131" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="L131" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="132" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C132" s="1">
+      <c r="K151" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="152" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C152" s="1">
         <v>523</v>
       </c>
-      <c r="D132" s="1">
+      <c r="D152" s="1">
         <v>5</v>
       </c>
-      <c r="E132" s="1">
+      <c r="E152" s="1">
         <v>23</v>
       </c>
-      <c r="F132" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G132" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="H132" s="1">
+      <c r="F152" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="H152" s="1">
         <v>5</v>
       </c>
-      <c r="I132" s="1">
+      <c r="I152" s="1">
         <v>14</v>
       </c>
-      <c r="J132" s="1">
+      <c r="J152" s="1">
         <f t="shared" si="9"/>
         <v>2550000</v>
       </c>
-      <c r="K132" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="L132" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="133" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C133" s="1">
+      <c r="K152" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="153" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C153" s="1">
         <v>524</v>
       </c>
-      <c r="D133" s="1">
+      <c r="D153" s="1">
         <v>5</v>
       </c>
-      <c r="E133" s="1">
+      <c r="E153" s="1">
         <v>24</v>
       </c>
-      <c r="F133" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G133" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="H133" s="1">
+      <c r="F153" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H153" s="1">
         <v>5</v>
       </c>
-      <c r="I133" s="1">
+      <c r="I153" s="1">
         <v>15</v>
       </c>
-      <c r="J133" s="1">
+      <c r="J153" s="1">
         <f t="shared" si="9"/>
         <v>2800000</v>
       </c>
-      <c r="K133" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="L133" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="134" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C134" s="1">
+      <c r="K153" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="154" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C154" s="1">
         <v>525</v>
       </c>
-      <c r="D134" s="1">
+      <c r="D154" s="1">
         <v>5</v>
       </c>
-      <c r="E134" s="1">
+      <c r="E154" s="1">
         <v>25</v>
       </c>
-      <c r="F134" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G134" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="H134" s="1">
+      <c r="F154" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H154" s="1">
         <v>5</v>
       </c>
-      <c r="I134" s="1">
+      <c r="I154" s="1">
         <v>16</v>
       </c>
-      <c r="J134" s="1">
+      <c r="J154" s="1">
         <f t="shared" si="9"/>
         <v>3050000</v>
       </c>
-      <c r="K134" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="L134" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="135" s="1" customFormat="1" customHeight="1"/>
-    <row r="136" s="1" customFormat="1" customHeight="1"/>
-    <row r="137" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C137" s="1">
+      <c r="K154" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="L154" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="155" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C155" s="1">
+        <v>526</v>
+      </c>
+      <c r="D155" s="1">
+        <v>5</v>
+      </c>
+      <c r="E155" s="1">
+        <v>26</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="H155" s="1">
+        <v>5</v>
+      </c>
+      <c r="I155" s="1">
+        <v>17</v>
+      </c>
+      <c r="J155" s="1">
+        <f t="shared" si="9"/>
+        <v>3300000</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L155" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="156" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C156" s="1">
+        <v>527</v>
+      </c>
+      <c r="D156" s="1">
+        <v>5</v>
+      </c>
+      <c r="E156" s="1">
+        <v>27</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="H156" s="1">
+        <v>5</v>
+      </c>
+      <c r="I156" s="1">
+        <v>18</v>
+      </c>
+      <c r="J156" s="1">
+        <f t="shared" si="9"/>
+        <v>3550000</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="157" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C157" s="1">
+        <v>528</v>
+      </c>
+      <c r="D157" s="1">
+        <v>5</v>
+      </c>
+      <c r="E157" s="1">
+        <v>28</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G157" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H157" s="1">
+        <v>5</v>
+      </c>
+      <c r="I157" s="1">
+        <v>19</v>
+      </c>
+      <c r="J157" s="1">
+        <f t="shared" si="9"/>
+        <v>3800000</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="158" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C158" s="1">
+        <v>529</v>
+      </c>
+      <c r="D158" s="1">
+        <v>5</v>
+      </c>
+      <c r="E158" s="1">
+        <v>29</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="H158" s="1">
+        <v>5</v>
+      </c>
+      <c r="I158" s="1">
+        <v>20</v>
+      </c>
+      <c r="J158" s="1">
+        <f t="shared" si="9"/>
+        <v>4050000</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="159" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C159" s="1">
+        <v>530</v>
+      </c>
+      <c r="D159" s="1">
+        <v>5</v>
+      </c>
+      <c r="E159" s="1">
+        <v>30</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G159" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="H159" s="1">
+        <v>5</v>
+      </c>
+      <c r="I159" s="1">
+        <v>21</v>
+      </c>
+      <c r="J159" s="1">
+        <f>J158+500000</f>
+        <v>4550000</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="160" s="1" customFormat="1" customHeight="1"/>
+    <row r="161" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C161" s="1">
         <v>601</v>
       </c>
-      <c r="D137" s="1">
+      <c r="D161" s="1">
         <v>6</v>
       </c>
-      <c r="E137" s="1">
+      <c r="E161" s="1">
         <v>1</v>
       </c>
-      <c r="F137" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="G137" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="H137" s="1">
-        <v>0</v>
-      </c>
-      <c r="I137" s="1">
-        <v>0</v>
-      </c>
-      <c r="J137" s="1">
+      <c r="F161" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H161" s="1">
+        <v>0</v>
+      </c>
+      <c r="I161" s="1">
+        <v>0</v>
+      </c>
+      <c r="J161" s="1">
         <v>40000</v>
       </c>
-      <c r="K137" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="138" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C138" s="1">
+      <c r="K161" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="162" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C162" s="1">
         <v>602</v>
       </c>
-      <c r="D138" s="1">
+      <c r="D162" s="1">
         <v>6</v>
       </c>
-      <c r="E138" s="1">
+      <c r="E162" s="1">
         <v>2</v>
       </c>
-      <c r="F138" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="G138" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="H138" s="1">
-        <v>0</v>
-      </c>
-      <c r="I138" s="1">
-        <v>0</v>
-      </c>
-      <c r="J138" s="1">
-        <f>J137*2</f>
+      <c r="F162" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="H162" s="1">
+        <v>0</v>
+      </c>
+      <c r="I162" s="1">
+        <v>0</v>
+      </c>
+      <c r="J162" s="1">
+        <f>J161*2</f>
         <v>80000</v>
       </c>
-      <c r="K138" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="139" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C139" s="1">
+      <c r="K162" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="163" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C163" s="1">
         <v>603</v>
       </c>
-      <c r="D139" s="1">
+      <c r="D163" s="1">
         <v>6</v>
       </c>
-      <c r="E139" s="1">
+      <c r="E163" s="1">
         <v>3</v>
       </c>
-      <c r="F139" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="G139" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="H139" s="1">
-        <v>0</v>
-      </c>
-      <c r="I139" s="1">
-        <v>0</v>
-      </c>
-      <c r="J139" s="1">
-        <f>J137*3</f>
+      <c r="F163" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G163" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H163" s="1">
+        <v>0</v>
+      </c>
+      <c r="I163" s="1">
+        <v>0</v>
+      </c>
+      <c r="J163" s="1">
+        <f>J161*3</f>
         <v>120000</v>
       </c>
-      <c r="K139" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="140" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C140" s="1">
+      <c r="K163" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="164" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C164" s="1">
         <v>604</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D164" s="1">
         <v>6</v>
       </c>
-      <c r="E140" s="1">
+      <c r="E164" s="1">
         <v>4</v>
       </c>
-      <c r="F140" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="G140" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="H140" s="1">
-        <v>0</v>
-      </c>
-      <c r="I140" s="1">
-        <v>0</v>
-      </c>
-      <c r="J140" s="1">
-        <f>J137*4</f>
+      <c r="F164" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="H164" s="1">
+        <v>0</v>
+      </c>
+      <c r="I164" s="1">
+        <v>0</v>
+      </c>
+      <c r="J164" s="1">
+        <f>J161*4</f>
         <v>160000</v>
       </c>
-      <c r="K140" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="141" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C141" s="1">
+      <c r="K164" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="165" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C165" s="1">
         <v>605</v>
       </c>
-      <c r="D141" s="1">
+      <c r="D165" s="1">
         <v>6</v>
       </c>
-      <c r="E141" s="1">
+      <c r="E165" s="1">
         <v>5</v>
       </c>
-      <c r="F141" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="G141" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="H141" s="1">
-        <v>0</v>
-      </c>
-      <c r="I141" s="1">
-        <v>0</v>
-      </c>
-      <c r="J141" s="1">
-        <f>J137*5</f>
+      <c r="F165" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G165" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H165" s="1">
+        <v>0</v>
+      </c>
+      <c r="I165" s="1">
+        <v>0</v>
+      </c>
+      <c r="J165" s="1">
+        <f>J161*5</f>
         <v>200000</v>
       </c>
-      <c r="K141" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="142" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C142" s="1">
+      <c r="K165" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="166" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C166" s="1">
         <v>606</v>
       </c>
-      <c r="D142" s="1">
+      <c r="D166" s="1">
         <v>6</v>
       </c>
-      <c r="E142" s="1">
+      <c r="E166" s="1">
         <v>6</v>
       </c>
-      <c r="F142" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="G142" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="H142" s="1">
-        <v>0</v>
-      </c>
-      <c r="I142" s="1">
-        <v>0</v>
-      </c>
-      <c r="J142" s="1">
-        <f>J137*6</f>
+      <c r="F166" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H166" s="1">
+        <v>0</v>
+      </c>
+      <c r="I166" s="1">
+        <v>0</v>
+      </c>
+      <c r="J166" s="1">
+        <f>J161*6</f>
         <v>240000</v>
       </c>
-      <c r="K142" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="143" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C143" s="1">
+      <c r="K166" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="167" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C167" s="1">
         <v>607</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D167" s="1">
         <v>6</v>
       </c>
-      <c r="E143" s="1">
+      <c r="E167" s="1">
         <v>7</v>
       </c>
-      <c r="F143" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="G143" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="H143" s="1">
-        <v>0</v>
-      </c>
-      <c r="I143" s="1">
-        <v>0</v>
-      </c>
-      <c r="J143" s="1">
-        <f>J137*7</f>
+      <c r="F167" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G167" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="H167" s="1">
+        <v>0</v>
+      </c>
+      <c r="I167" s="1">
+        <v>0</v>
+      </c>
+      <c r="J167" s="1">
+        <f>J161*7</f>
         <v>280000</v>
       </c>
-      <c r="K143" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="144" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C144" s="1">
+      <c r="K167" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="168" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C168" s="1">
         <v>608</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D168" s="1">
         <v>6</v>
       </c>
-      <c r="E144" s="1">
+      <c r="E168" s="1">
         <v>8</v>
       </c>
-      <c r="F144" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="G144" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="H144" s="1">
-        <v>0</v>
-      </c>
-      <c r="I144" s="1">
-        <v>0</v>
-      </c>
-      <c r="J144" s="1">
-        <f>J137*8</f>
+      <c r="F168" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="H168" s="1">
+        <v>0</v>
+      </c>
+      <c r="I168" s="1">
+        <v>0</v>
+      </c>
+      <c r="J168" s="1">
+        <f>J161*8</f>
         <v>320000</v>
       </c>
-      <c r="K144" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="145" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C145" s="1">
+      <c r="K168" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="169" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C169" s="1">
         <v>609</v>
       </c>
-      <c r="D145" s="1">
+      <c r="D169" s="1">
         <v>6</v>
       </c>
-      <c r="E145" s="1">
+      <c r="E169" s="1">
         <v>9</v>
       </c>
-      <c r="F145" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="G145" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="H145" s="1">
-        <v>0</v>
-      </c>
-      <c r="I145" s="1">
-        <v>0</v>
-      </c>
-      <c r="J145" s="1">
-        <f>J137*9</f>
+      <c r="F169" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G169" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="H169" s="1">
+        <v>0</v>
+      </c>
+      <c r="I169" s="1">
+        <v>0</v>
+      </c>
+      <c r="J169" s="1">
+        <f>J161*9</f>
         <v>360000</v>
       </c>
-      <c r="K145" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="146" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C146" s="1">
+      <c r="K169" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="170" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C170" s="1">
         <v>610</v>
       </c>
-      <c r="D146" s="1">
+      <c r="D170" s="1">
         <v>6</v>
       </c>
-      <c r="E146" s="1">
+      <c r="E170" s="1">
         <v>10</v>
       </c>
-      <c r="F146" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="G146" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="H146" s="1">
+      <c r="F170" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G170" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="H170" s="1">
         <v>6</v>
       </c>
-      <c r="I146" s="1">
+      <c r="I170" s="1">
         <v>1</v>
       </c>
-      <c r="J146" s="1">
-        <f>J137*10</f>
+      <c r="J170" s="1">
+        <f>J161*10</f>
         <v>400000</v>
       </c>
-      <c r="K146" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L146" s="1" t="s">
-        <v>248</v>
+      <c r="K170" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="L170" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="171" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C171" s="1">
+        <v>611</v>
+      </c>
+      <c r="D171" s="1">
+        <v>6</v>
+      </c>
+      <c r="E171" s="1">
+        <v>11</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G171" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H171" s="1">
+        <v>6</v>
+      </c>
+      <c r="I171" s="1">
+        <v>2</v>
+      </c>
+      <c r="J171" s="1">
+        <f t="shared" ref="J171:J180" si="10">J170+200000</f>
+        <v>600000</v>
+      </c>
+      <c r="K171" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="L171" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="172" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C172" s="1">
+        <v>612</v>
+      </c>
+      <c r="D172" s="1">
+        <v>6</v>
+      </c>
+      <c r="E172" s="1">
+        <v>12</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G172" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="H172" s="1">
+        <v>6</v>
+      </c>
+      <c r="I172" s="1">
+        <v>3</v>
+      </c>
+      <c r="J172" s="1">
+        <f t="shared" si="10"/>
+        <v>800000</v>
+      </c>
+      <c r="K172" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L172" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="173" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C173" s="1">
+        <v>613</v>
+      </c>
+      <c r="D173" s="1">
+        <v>6</v>
+      </c>
+      <c r="E173" s="1">
+        <v>13</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G173" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="H173" s="1">
+        <v>6</v>
+      </c>
+      <c r="I173" s="1">
+        <v>4</v>
+      </c>
+      <c r="J173" s="1">
+        <f t="shared" si="10"/>
+        <v>1000000</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="L173" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="174" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C174" s="1">
+        <v>614</v>
+      </c>
+      <c r="D174" s="1">
+        <v>6</v>
+      </c>
+      <c r="E174" s="1">
+        <v>14</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G174" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="H174" s="1">
+        <v>6</v>
+      </c>
+      <c r="I174" s="1">
+        <v>5</v>
+      </c>
+      <c r="J174" s="1">
+        <f t="shared" si="10"/>
+        <v>1200000</v>
+      </c>
+      <c r="K174" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="L174" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="175" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C175" s="1">
+        <v>615</v>
+      </c>
+      <c r="D175" s="1">
+        <v>6</v>
+      </c>
+      <c r="E175" s="1">
+        <v>15</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G175" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="H175" s="1">
+        <v>6</v>
+      </c>
+      <c r="I175" s="1">
+        <v>6</v>
+      </c>
+      <c r="J175" s="1">
+        <f t="shared" si="10"/>
+        <v>1400000</v>
+      </c>
+      <c r="K175" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="L175" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="176" s="1" customFormat="1" customHeight="1" spans="2:12">
+      <c r="B176" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C176" s="1">
+        <v>616</v>
+      </c>
+      <c r="D176" s="1">
+        <v>6</v>
+      </c>
+      <c r="E176" s="1">
+        <v>16</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G176" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H176" s="1">
+        <v>6</v>
+      </c>
+      <c r="I176" s="1">
+        <v>7</v>
+      </c>
+      <c r="J176" s="1">
+        <f t="shared" si="10"/>
+        <v>1600000</v>
+      </c>
+      <c r="K176" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="L176" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="177" s="1" customFormat="1" customHeight="1" spans="2:12">
+      <c r="B177" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C177" s="1">
+        <v>617</v>
+      </c>
+      <c r="D177" s="1">
+        <v>6</v>
+      </c>
+      <c r="E177" s="1">
+        <v>17</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G177" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H177" s="1">
+        <v>6</v>
+      </c>
+      <c r="I177" s="1">
+        <v>8</v>
+      </c>
+      <c r="J177" s="1">
+        <f t="shared" si="10"/>
+        <v>1800000</v>
+      </c>
+      <c r="K177" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L177" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="178" s="1" customFormat="1" customHeight="1" spans="2:12">
+      <c r="B178" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C178" s="1">
+        <v>618</v>
+      </c>
+      <c r="D178" s="1">
+        <v>6</v>
+      </c>
+      <c r="E178" s="1">
+        <v>18</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G178" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="H178" s="1">
+        <v>6</v>
+      </c>
+      <c r="I178" s="1">
+        <v>9</v>
+      </c>
+      <c r="J178" s="1">
+        <f t="shared" si="10"/>
+        <v>2000000</v>
+      </c>
+      <c r="K178" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="L178" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="179" s="1" customFormat="1" customHeight="1" spans="2:12">
+      <c r="B179" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C179" s="1">
+        <v>619</v>
+      </c>
+      <c r="D179" s="1">
+        <v>6</v>
+      </c>
+      <c r="E179" s="1">
+        <v>19</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G179" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="H179" s="1">
+        <v>6</v>
+      </c>
+      <c r="I179" s="1">
+        <v>10</v>
+      </c>
+      <c r="J179" s="1">
+        <f t="shared" si="10"/>
+        <v>2200000</v>
+      </c>
+      <c r="K179" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L179" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="180" s="1" customFormat="1" customHeight="1" spans="2:12">
+      <c r="B180" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C180" s="1">
+        <v>620</v>
+      </c>
+      <c r="D180" s="1">
+        <v>6</v>
+      </c>
+      <c r="E180" s="1">
+        <v>20</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G180" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="H180" s="1">
+        <v>6</v>
+      </c>
+      <c r="I180" s="1">
+        <v>11</v>
+      </c>
+      <c r="J180" s="1">
+        <f>J179+400000</f>
+        <v>2600000</v>
+      </c>
+      <c r="K180" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="L180" s="1" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -6448,495 +7844,495 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>324</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>249</v>
+        <v>324</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D1" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D2" s="2"/>
+      <c r="B2" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="C13" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="C14" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="C15" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="C17" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="D19" s="2"/>
+      <c r="C19" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="D20" s="2"/>
+      <c r="B20" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="D21" s="2"/>
+      <c r="B21" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="D22" s="2"/>
+      <c r="B22" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="D23" s="2"/>
+      <c r="B23" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="D24" s="2"/>
+      <c r="B24" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="D25" s="2"/>
+      <c r="B25" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="D26" s="2"/>
+      <c r="B26" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="D27" s="2"/>
+      <c r="A27" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="D28" s="2"/>
+      <c r="A28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D29" s="2"/>
+      <c r="A29" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="D30" s="2"/>
+      <c r="A30" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="D31" s="2"/>
+      <c r="A31" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="A32" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="A33" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="A34" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="A35" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="A36" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="A37" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="A38" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="A39" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="A40" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+      <c r="A41" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="A42" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="A43" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel/SoulRingAttrConfig.xlsx
+++ b/Excel/SoulRingAttrConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="74">
   <si>
     <t>ID</t>
   </si>
@@ -110,10 +110,13 @@
     <t>39,39,39,24,68</t>
   </si>
   <si>
-    <t>60,60,60,45,110</t>
-  </si>
-  <si>
-    <t>3,3,3,3,6</t>
+    <t>14,15,16,8,9,33</t>
+  </si>
+  <si>
+    <t>60,60,60,45,110,1</t>
+  </si>
+  <si>
+    <t>3,3,3,3,6,1</t>
   </si>
   <si>
     <t>14,15,16,10,11</t>
@@ -128,10 +131,7 @@
     <t>友方最终伤害增加{0}%</t>
   </si>
   <si>
-    <t>友方最终伤害增加20%</t>
-  </si>
-  <si>
-    <t>友方最终伤害增加30%</t>
+    <t>14,15,16,10,11,34</t>
   </si>
   <si>
     <t>14,15,16,12,19</t>
@@ -146,28 +146,22 @@
     <t>友方暴击概率增加{0}%</t>
   </si>
   <si>
+    <t>14,15,16,12,19,35</t>
+  </si>
+  <si>
     <t>14,15,16,13,24</t>
   </si>
   <si>
     <t>10级解锁爆伤光环</t>
   </si>
   <si>
-    <t>爆伤光环Lv1</t>
-  </si>
-  <si>
-    <t>友方暴击伤害增加30%</t>
-  </si>
-  <si>
-    <t>爆伤光环Lv11</t>
-  </si>
-  <si>
-    <t>友方暴击伤害增加60%</t>
-  </si>
-  <si>
-    <t>爆伤光环Lv21</t>
-  </si>
-  <si>
-    <t>友方暴击伤害增加90%</t>
+    <t>爆伤光环Lv{0}</t>
+  </si>
+  <si>
+    <t>友方暴击伤害增加{0}%</t>
+  </si>
+  <si>
+    <t>14,15,16,13,24,2003</t>
   </si>
   <si>
     <t>14,15,16,7,26</t>
@@ -185,10 +179,10 @@
     <t>33,33,33,10,33</t>
   </si>
   <si>
-    <t>祝福光环Lv1</t>
-  </si>
-  <si>
-    <t>友方最终攻击增加10%</t>
+    <t>祝福光环Lv{0}</t>
+  </si>
+  <si>
+    <t>友方最终攻击增加{0}%</t>
   </si>
   <si>
     <t>53,53,53,20,53</t>
@@ -197,19 +191,13 @@
     <t>3,3,3,1,3</t>
   </si>
   <si>
-    <t>祝福光环Lv2</t>
-  </si>
-  <si>
-    <t>友方最终攻击增加11%</t>
-  </si>
-  <si>
-    <t>78,78,78,30,78</t>
-  </si>
-  <si>
-    <t>祝福光环Lv{0}</t>
-  </si>
-  <si>
-    <t>友方最终攻击增加{0}%</t>
+    <t>14,15,16,7,26,2002</t>
+  </si>
+  <si>
+    <t>78,78,78,30,78,1</t>
+  </si>
+  <si>
+    <t>3,3,3,1,3,1</t>
   </si>
   <si>
     <t>14,15,16,27,28</t>
@@ -227,10 +215,10 @@
     <t>33,33,33,33,33</t>
   </si>
   <si>
-    <t>闪避光环Lv1</t>
-  </si>
-  <si>
-    <t>友方闪避概率增加10%</t>
+    <t>闪避光环Lv{0}</t>
+  </si>
+  <si>
+    <t>友方闪避概率增加{0}%</t>
   </si>
   <si>
     <t>53,53,53,53,53</t>
@@ -239,28 +227,28 @@
     <t>3,3,3,3,3</t>
   </si>
   <si>
-    <t>闪避光环Lv{0}</t>
-  </si>
-  <si>
-    <t>友方闪避概率增加{0}%</t>
-  </si>
-  <si>
-    <t>84,84,84,84,84</t>
+    <t>14,15,16,27,28,2004</t>
+  </si>
+  <si>
+    <t>84,84,84,84,84,1</t>
+  </si>
+  <si>
+    <t>3,3,3,3,3,1</t>
+  </si>
+  <si>
+    <t>14,15,16,18,20</t>
   </si>
   <si>
     <t>10级解锁减伤光环</t>
   </si>
   <si>
-    <t>减伤光环Lv1</t>
-  </si>
-  <si>
-    <t>友方减伤倍率增加10%</t>
-  </si>
-  <si>
     <t>减伤光环Lv{0}</t>
   </si>
   <si>
-    <t>友方减伤倍率增加{1}%</t>
+    <t>友方减伤倍率增加{0}%</t>
+  </si>
+  <si>
+    <t>14,15,16,18,20,2005</t>
   </si>
 </sst>
 </file>
@@ -1232,8 +1220,8 @@
   <sheetPr/>
   <dimension ref="A1:Q147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1549,13 +1537,13 @@
         <v>49</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -1592,7 +1580,7 @@
         <v>9</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>19</v>
@@ -1613,7 +1601,7 @@
         <v>3000</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -1630,7 +1618,7 @@
         <v>19</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>22</v>
@@ -1651,10 +1639,10 @@
         <v>30000</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -1671,7 +1659,7 @@
         <v>29</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>26</v>
@@ -1692,7 +1680,7 @@
         <v>50000</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>33</v>
@@ -1712,13 +1700,13 @@
         <v>49</v>
       </c>
       <c r="G15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="J15" s="1">
         <v>2</v>
@@ -1733,10 +1721,10 @@
         <v>100000</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1"/>
@@ -1875,13 +1863,13 @@
         <v>49</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J21" s="1">
         <v>3</v>
@@ -1918,7 +1906,7 @@
         <v>9</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>19</v>
@@ -1939,7 +1927,7 @@
         <v>10000</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -1956,7 +1944,7 @@
         <v>19</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>22</v>
@@ -1977,10 +1965,10 @@
         <v>80000</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -1997,7 +1985,7 @@
         <v>29</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>26</v>
@@ -2018,10 +2006,10 @@
         <v>150000</v>
       </c>
       <c r="N26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -2038,13 +2026,13 @@
         <v>49</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J27" s="1">
         <v>4</v>
@@ -2059,10 +2047,10 @@
         <v>300000</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1"/>
@@ -2080,13 +2068,13 @@
         <v>9</v>
       </c>
       <c r="G29" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
@@ -2101,7 +2089,7 @@
         <v>20000</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -2118,13 +2106,13 @@
         <v>19</v>
       </c>
       <c r="G30" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="J30" s="1">
         <v>5</v>
@@ -2139,10 +2127,10 @@
         <v>150000</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -2159,13 +2147,13 @@
         <v>29</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J31" s="1">
         <v>5</v>
@@ -2180,10 +2168,10 @@
         <v>250000</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -2200,13 +2188,13 @@
         <v>49</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J32" s="1">
         <v>5</v>
@@ -2221,10 +2209,10 @@
         <v>500000</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" customHeight="1"/>
@@ -2243,13 +2231,13 @@
         <v>9</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J35" s="1">
         <v>0</v>
@@ -2264,7 +2252,7 @@
         <v>40000</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -2281,13 +2269,13 @@
         <v>19</v>
       </c>
       <c r="G36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="I36" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J36" s="1">
         <v>6</v>
@@ -2302,10 +2290,10 @@
         <v>200000</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -2322,13 +2310,13 @@
         <v>29</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J37" s="1">
         <v>6</v>
@@ -2343,10 +2331,10 @@
         <v>400000</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -2363,13 +2351,13 @@
         <v>49</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J38" s="1">
         <v>6</v>
@@ -2384,10 +2372,10 @@
         <v>800000</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" customHeight="1" spans="7:13">
@@ -2422,13 +2410,13 @@
         <v>9</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J41" s="1">
         <v>0</v>
@@ -2443,7 +2431,7 @@
         <v>80000</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -2460,13 +2448,13 @@
         <v>19</v>
       </c>
       <c r="G42" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H42" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H42" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="I42" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J42" s="1">
         <v>7</v>
@@ -2481,10 +2469,10 @@
         <v>300000</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -2501,13 +2489,13 @@
         <v>29</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J43" s="1">
         <v>7</v>
@@ -2522,10 +2510,10 @@
         <v>600000</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -2542,13 +2530,13 @@
         <v>49</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J44" s="1">
         <v>7</v>
@@ -2563,10 +2551,10 @@
         <v>1000000</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" customHeight="1"/>

--- a/Excel/SoulRingAttrConfig.xlsx
+++ b/Excel/SoulRingAttrConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -107,7 +107,7 @@
     <t>友方所受伤害减少{0}%</t>
   </si>
   <si>
-    <t>39,39,39,24,68</t>
+    <t>39,39,39,34,68</t>
   </si>
   <si>
     <t>14,15,16,8,9,33</t>
@@ -1220,8 +1220,8 @@
   <sheetPr/>
   <dimension ref="A1:Q147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>

--- a/Excel/SoulRingAttrConfig.xlsx
+++ b/Excel/SoulRingAttrConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="81">
   <si>
     <t>ID</t>
   </si>
@@ -113,12 +113,21 @@
     <t>14,15,16,8,9,33</t>
   </si>
   <si>
-    <t>60,60,60,45,110,1</t>
+    <t>59,59,59,54,108,1</t>
   </si>
   <si>
     <t>3,3,3,3,6,1</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>119,119,119,114,228,21</t>
+  </si>
+  <si>
+    <t>4,4,4,4,8,1</t>
+  </si>
+  <si>
     <t>14,15,16,10,11</t>
   </si>
   <si>
@@ -194,12 +203,18 @@
     <t>14,15,16,7,26,2002</t>
   </si>
   <si>
-    <t>78,78,78,30,78,1</t>
+    <t>83,83,83,30,83,1</t>
   </si>
   <si>
     <t>3,3,3,1,3,1</t>
   </si>
   <si>
+    <t>143,143,143,50,143,21</t>
+  </si>
+  <si>
+    <t>4,4,4,1,4,1</t>
+  </si>
+  <si>
     <t>14,15,16,27,28</t>
   </si>
   <si>
@@ -230,10 +245,16 @@
     <t>14,15,16,27,28,2004</t>
   </si>
   <si>
-    <t>84,84,84,84,84,1</t>
+    <t>83,83,83,83,83,1</t>
   </si>
   <si>
     <t>3,3,3,3,3,1</t>
+  </si>
+  <si>
+    <t>143,143,143,143,143,21</t>
+  </si>
+  <si>
+    <t>4,4,4,4,4,1</t>
   </si>
   <si>
     <t>14,15,16,18,20</t>
@@ -1218,10 +1239,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q147"/>
+  <dimension ref="A1:Q148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1231,7 +1252,8 @@
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="6" width="12.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="13.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.25" style="2" customWidth="1"/>
     <col min="10" max="10" width="14.375" style="2" customWidth="1"/>
     <col min="11" max="13" width="11.375" style="2" customWidth="1"/>
     <col min="14" max="15" width="30.125" style="1" customWidth="1"/>
@@ -1564,7 +1586,53 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" customHeight="1"/>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1">
+        <v>105</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1">
+        <v>79</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>41</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1180000</v>
+      </c>
+      <c r="M10" s="1">
+        <v>80000</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="11" s="1" customFormat="1" customHeight="1"/>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="3:14">
       <c r="C12" s="1">
@@ -1580,7 +1648,7 @@
         <v>9</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>19</v>
@@ -1601,7 +1669,7 @@
         <v>3000</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -1618,7 +1686,7 @@
         <v>19</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>22</v>
@@ -1639,10 +1707,10 @@
         <v>30000</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -1659,7 +1727,7 @@
         <v>29</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>26</v>
@@ -1680,10 +1748,10 @@
         <v>50000</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -1700,7 +1768,7 @@
         <v>49</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>28</v>
@@ -1721,13 +1789,59 @@
         <v>100000</v>
       </c>
       <c r="N15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1">
+        <v>205</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>50</v>
+      </c>
+      <c r="F16" s="1">
+        <v>79</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" customHeight="1"/>
+      <c r="J16" s="1">
+        <v>2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>41</v>
+      </c>
+      <c r="L16" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="M16" s="1">
+        <v>200000</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="17" s="1" customFormat="1" customHeight="1"/>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="3:14">
       <c r="C18" s="1">
@@ -1743,7 +1857,7 @@
         <v>9</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>19</v>
@@ -1764,7 +1878,7 @@
         <v>6000</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -1781,7 +1895,7 @@
         <v>19</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>22</v>
@@ -1802,10 +1916,10 @@
         <v>50000</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -1822,7 +1936,7 @@
         <v>29</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>26</v>
@@ -1843,10 +1957,10 @@
         <v>80000</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -1863,7 +1977,7 @@
         <v>49</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>28</v>
@@ -1884,13 +1998,59 @@
         <v>160000</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" customHeight="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="1">
+        <v>305</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>50</v>
+      </c>
+      <c r="F22" s="1">
+        <v>79</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="1">
+        <v>3</v>
+      </c>
+      <c r="K22" s="1">
+        <v>41</v>
+      </c>
+      <c r="L22" s="1">
+        <v>4830000</v>
+      </c>
+      <c r="M22" s="1">
+        <v>320000</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="23" s="1" customFormat="1" customHeight="1"/>
     <row r="24" s="1" customFormat="1" customHeight="1" spans="3:14">
       <c r="C24" s="1">
@@ -1906,7 +2066,7 @@
         <v>9</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>19</v>
@@ -1927,7 +2087,7 @@
         <v>10000</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -1944,7 +2104,7 @@
         <v>19</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>22</v>
@@ -1965,10 +2125,10 @@
         <v>80000</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -1985,7 +2145,7 @@
         <v>29</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>26</v>
@@ -2006,10 +2166,10 @@
         <v>150000</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -2026,7 +2186,7 @@
         <v>49</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>28</v>
@@ -2047,148 +2207,154 @@
         <v>300000</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" customHeight="1"/>
-    <row r="29" s="1" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C29" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="1">
+        <v>405</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1">
+        <v>50</v>
+      </c>
+      <c r="F28" s="1">
+        <v>79</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="1">
+        <v>4</v>
+      </c>
+      <c r="K28" s="1">
+        <v>41</v>
+      </c>
+      <c r="L28" s="1">
+        <v>8920000</v>
+      </c>
+      <c r="M28" s="1">
+        <v>600000</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" customHeight="1"/>
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C30" s="1">
         <v>501</v>
-      </c>
-      <c r="D29" s="1">
-        <v>5</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>9</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0</v>
-      </c>
-      <c r="L29" s="1">
-        <v>20000</v>
-      </c>
-      <c r="M29" s="1">
-        <v>20000</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C30" s="1">
-        <v>502</v>
       </c>
       <c r="D30" s="1">
         <v>5</v>
       </c>
       <c r="E30" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F30" s="1">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>49</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J30" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="1">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="M30" s="1">
-        <v>150000</v>
+        <v>20000</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O30" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C31" s="1">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D31" s="1">
         <v>5</v>
       </c>
       <c r="E31" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F31" s="1">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J31" s="1">
         <v>5</v>
       </c>
       <c r="K31" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L31" s="1">
-        <v>1800000</v>
+        <v>200000</v>
       </c>
       <c r="M31" s="1">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C32" s="1">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D32" s="1">
         <v>5</v>
       </c>
       <c r="E32" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F32" s="1">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>55</v>
@@ -2200,401 +2366,563 @@
         <v>5</v>
       </c>
       <c r="K32" s="1">
+        <v>11</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1800000</v>
+      </c>
+      <c r="M32" s="1">
+        <v>250000</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C33" s="1">
+        <v>504</v>
+      </c>
+      <c r="D33" s="1">
+        <v>5</v>
+      </c>
+      <c r="E33" s="1">
+        <v>30</v>
+      </c>
+      <c r="F33" s="1">
+        <v>49</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J33" s="1">
+        <v>5</v>
+      </c>
+      <c r="K33" s="1">
         <v>21</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L33" s="1">
         <v>4550000</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M33" s="1">
         <v>500000</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="N33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="1">
+        <v>505</v>
+      </c>
+      <c r="D34" s="1">
+        <v>5</v>
+      </c>
+      <c r="E34" s="1">
         <v>50</v>
       </c>
-      <c r="O32" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" customHeight="1"/>
-    <row r="34" s="1" customFormat="1" customHeight="1"/>
-    <row r="35" s="1" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C35" s="1">
+      <c r="F34" s="1">
+        <v>79</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J34" s="1">
+        <v>5</v>
+      </c>
+      <c r="K34" s="1">
+        <v>41</v>
+      </c>
+      <c r="L34" s="1">
+        <v>15550000</v>
+      </c>
+      <c r="M34" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" customHeight="1"/>
+    <row r="36" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C36" s="1">
         <v>601</v>
-      </c>
-      <c r="D35" s="1">
-        <v>6</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1">
-        <v>9</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0</v>
-      </c>
-      <c r="L35" s="1">
-        <v>40000</v>
-      </c>
-      <c r="M35" s="1">
-        <v>40000</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C36" s="1">
-        <v>602</v>
       </c>
       <c r="D36" s="1">
         <v>6</v>
       </c>
       <c r="E36" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F36" s="1">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J36" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="1">
-        <v>400000</v>
+        <v>40000</v>
       </c>
       <c r="M36" s="1">
-        <v>200000</v>
+        <v>40000</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C37" s="1">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D37" s="1">
         <v>6</v>
       </c>
       <c r="E37" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F37" s="1">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H37" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I37" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="J37" s="1">
         <v>6</v>
       </c>
       <c r="K37" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L37" s="1">
-        <v>2400000</v>
+        <v>400000</v>
       </c>
       <c r="M37" s="1">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C38" s="1">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D38" s="1">
         <v>6</v>
       </c>
       <c r="E38" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F38" s="1">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J38" s="1">
         <v>6</v>
       </c>
       <c r="K38" s="1">
+        <v>11</v>
+      </c>
+      <c r="L38" s="1">
+        <v>2600000</v>
+      </c>
+      <c r="M38" s="1">
+        <v>400000</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C39" s="1">
+        <v>604</v>
+      </c>
+      <c r="D39" s="1">
+        <v>6</v>
+      </c>
+      <c r="E39" s="1">
+        <v>30</v>
+      </c>
+      <c r="F39" s="1">
+        <v>49</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J39" s="1">
+        <v>6</v>
+      </c>
+      <c r="K39" s="1">
         <v>21</v>
       </c>
-      <c r="L38" s="1">
-        <v>7200000</v>
-      </c>
-      <c r="M38" s="1">
+      <c r="L39" s="1">
+        <v>7000000</v>
+      </c>
+      <c r="M39" s="1">
         <v>800000</v>
       </c>
-      <c r="N38" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" customHeight="1" spans="7:13">
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-    </row>
-    <row r="40" s="1" customFormat="1" customHeight="1" spans="7:13">
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-    </row>
-    <row r="41" s="1" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C41" s="1">
+      <c r="N39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="1">
+        <v>605</v>
+      </c>
+      <c r="D40" s="1">
+        <v>6</v>
+      </c>
+      <c r="E40" s="1">
+        <v>50</v>
+      </c>
+      <c r="F40" s="1">
+        <v>79</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J40" s="1">
+        <v>6</v>
+      </c>
+      <c r="K40" s="1">
+        <v>41</v>
+      </c>
+      <c r="L40" s="2">
+        <v>23800000</v>
+      </c>
+      <c r="M40" s="2">
+        <v>1600000</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" customHeight="1" spans="7:13">
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C42" s="1">
         <v>701</v>
-      </c>
-      <c r="D41" s="1">
-        <v>7</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1">
-        <v>9</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J41" s="1">
-        <v>0</v>
-      </c>
-      <c r="K41" s="1">
-        <v>0</v>
-      </c>
-      <c r="L41" s="1">
-        <v>80000</v>
-      </c>
-      <c r="M41" s="1">
-        <v>80000</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C42" s="1">
-        <v>702</v>
       </c>
       <c r="D42" s="1">
         <v>7</v>
       </c>
       <c r="E42" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F42" s="1">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>61</v>
+        <v>76</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J42" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="1">
-        <v>800000</v>
+        <v>80000</v>
       </c>
       <c r="M42" s="1">
-        <v>300000</v>
+        <v>80000</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C43" s="1">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D43" s="1">
         <v>7</v>
       </c>
       <c r="E43" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F43" s="1">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H43" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I43" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="J43" s="1">
         <v>7</v>
       </c>
       <c r="K43" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L43" s="1">
-        <v>3800000</v>
+        <v>800000</v>
       </c>
       <c r="M43" s="1">
-        <v>600000</v>
+        <v>300000</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C44" s="1">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D44" s="1">
         <v>7</v>
       </c>
       <c r="E44" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F44" s="1">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J44" s="1">
         <v>7</v>
       </c>
       <c r="K44" s="1">
+        <v>11</v>
+      </c>
+      <c r="L44" s="1">
+        <v>4100000</v>
+      </c>
+      <c r="M44" s="1">
+        <v>600000</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C45" s="1">
+        <v>704</v>
+      </c>
+      <c r="D45" s="1">
+        <v>7</v>
+      </c>
+      <c r="E45" s="1">
+        <v>30</v>
+      </c>
+      <c r="F45" s="1">
+        <v>49</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J45" s="1">
+        <v>7</v>
+      </c>
+      <c r="K45" s="1">
         <v>21</v>
       </c>
-      <c r="L44" s="1">
-        <v>9800000</v>
-      </c>
-      <c r="M44" s="1">
+      <c r="L45" s="1">
+        <v>10500000</v>
+      </c>
+      <c r="M45" s="1">
         <v>1000000</v>
       </c>
-      <c r="N44" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="1" customHeight="1"/>
-    <row r="46" s="1" customFormat="1" customHeight="1"/>
+      <c r="N45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="1">
+        <v>705</v>
+      </c>
+      <c r="D46" s="1">
+        <v>7</v>
+      </c>
+      <c r="E46" s="1">
+        <v>50</v>
+      </c>
+      <c r="F46" s="1">
+        <v>79</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J46" s="1">
+        <v>7</v>
+      </c>
+      <c r="K46" s="1">
+        <v>41</v>
+      </c>
+      <c r="L46" s="1">
+        <v>31500000</v>
+      </c>
+      <c r="M46" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="47" s="1" customFormat="1" customHeight="1"/>
-    <row r="48" s="1" customFormat="1" customHeight="1" spans="2:2">
-      <c r="B48" s="2"/>
-    </row>
+    <row r="48" s="1" customFormat="1" customHeight="1"/>
     <row r="49" s="1" customFormat="1" customHeight="1" spans="2:2">
       <c r="B49" s="2"/>
     </row>
     <row r="50" s="1" customFormat="1" customHeight="1" spans="2:2">
       <c r="B50" s="2"/>
     </row>
-    <row r="51" s="1" customFormat="1" customHeight="1"/>
+    <row r="51" s="1" customFormat="1" customHeight="1" spans="2:2">
+      <c r="B51" s="2"/>
+    </row>
     <row r="52" s="1" customFormat="1" customHeight="1"/>
     <row r="53" s="1" customFormat="1" customHeight="1"/>
     <row r="54" s="1" customFormat="1" customHeight="1"/>
     <row r="55" s="1" customFormat="1" customHeight="1"/>
     <row r="56" s="1" customFormat="1" customHeight="1"/>
-    <row r="57" s="1" customFormat="1" customHeight="1" spans="1:1">
-      <c r="A57" s="2"/>
-    </row>
+    <row r="57" s="1" customFormat="1" customHeight="1"/>
     <row r="58" s="1" customFormat="1" customHeight="1" spans="1:1">
       <c r="A58" s="2"/>
     </row>
     <row r="59" s="1" customFormat="1" customHeight="1" spans="1:1">
       <c r="A59" s="2"/>
     </row>
-    <row r="60" s="1" customFormat="1" customHeight="1"/>
+    <row r="60" s="1" customFormat="1" customHeight="1" spans="1:1">
+      <c r="A60" s="2"/>
+    </row>
     <row r="61" s="1" customFormat="1" customHeight="1"/>
-    <row r="62" s="1" customFormat="1" customHeight="1" spans="7:13">
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-    </row>
+    <row r="62" s="1" customFormat="1" customHeight="1"/>
     <row r="63" s="1" customFormat="1" customHeight="1" spans="7:13">
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -2667,8 +2995,7 @@
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
     </row>
-    <row r="71" s="1" customFormat="1" customHeight="1" spans="2:13">
-      <c r="B71" s="2"/>
+    <row r="71" s="1" customFormat="1" customHeight="1" spans="7:13">
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
@@ -2757,8 +3084,7 @@
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
     </row>
-    <row r="80" s="1" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A80" s="2"/>
+    <row r="80" s="1" customFormat="1" customHeight="1" spans="2:13">
       <c r="B80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -3252,16 +3578,16 @@
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
     </row>
-    <row r="128" s="1" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
-      <c r="K128" s="2"/>
-      <c r="L128" s="2"/>
-      <c r="M128" s="2"/>
+    <row r="125" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
     </row>
     <row r="129" s="1" customFormat="1" customHeight="1" spans="1:13">
       <c r="A129" s="2"/>
@@ -3472,6 +3798,17 @@
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
     </row>
+    <row r="148" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 J3 K3 L3 M3 D4 E4 F4 G4 H4 I4 J4 K4 L4 M4 D5 E5 F5 G5 H5 I5 J5 K5 L5 M5 C3:C5" errorStyle="warning">

--- a/Excel/SoulRingAttrConfig.xlsx
+++ b/Excel/SoulRingAttrConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="80">
   <si>
     <t>ID</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>3,3,3,3,6,1</t>
-  </si>
-  <si>
-    <t>#</t>
   </si>
   <si>
     <t>119,119,119,114,228,21</t>
@@ -1241,8 +1238,8 @@
   <sheetPr/>
   <dimension ref="A1:Q148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1586,13 +1583,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C10" s="1">
         <v>105</v>
       </c>
@@ -1609,10 +1600,10 @@
         <v>27</v>
       </c>
       <c r="H10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -1648,7 +1639,7 @@
         <v>9</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>19</v>
@@ -1669,7 +1660,7 @@
         <v>3000</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -1686,7 +1677,7 @@
         <v>19</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>22</v>
@@ -1707,10 +1698,10 @@
         <v>30000</v>
       </c>
       <c r="N13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -1727,7 +1718,7 @@
         <v>29</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>26</v>
@@ -1748,10 +1739,10 @@
         <v>50000</v>
       </c>
       <c r="N14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -1768,7 +1759,7 @@
         <v>49</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>28</v>
@@ -1789,19 +1780,13 @@
         <v>100000</v>
       </c>
       <c r="N15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C16" s="1">
         <v>205</v>
       </c>
@@ -1815,13 +1800,13 @@
         <v>79</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="J16" s="1">
         <v>2</v>
@@ -1836,10 +1821,10 @@
         <v>200000</v>
       </c>
       <c r="N16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1"/>
@@ -1857,7 +1842,7 @@
         <v>9</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>19</v>
@@ -1878,7 +1863,7 @@
         <v>6000</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -1895,7 +1880,7 @@
         <v>19</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>22</v>
@@ -1916,10 +1901,10 @@
         <v>50000</v>
       </c>
       <c r="N19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -1936,7 +1921,7 @@
         <v>29</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>26</v>
@@ -1957,10 +1942,10 @@
         <v>80000</v>
       </c>
       <c r="N20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -1977,7 +1962,7 @@
         <v>49</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>28</v>
@@ -1998,19 +1983,13 @@
         <v>160000</v>
       </c>
       <c r="N21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>30</v>
-      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C22" s="1">
         <v>305</v>
       </c>
@@ -2024,13 +2003,13 @@
         <v>79</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="J22" s="1">
         <v>3</v>
@@ -2045,10 +2024,10 @@
         <v>320000</v>
       </c>
       <c r="N22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" customHeight="1"/>
@@ -2066,7 +2045,7 @@
         <v>9</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>19</v>
@@ -2087,7 +2066,7 @@
         <v>10000</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -2104,7 +2083,7 @@
         <v>19</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>22</v>
@@ -2125,10 +2104,10 @@
         <v>80000</v>
       </c>
       <c r="N25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O25" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -2145,7 +2124,7 @@
         <v>29</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>26</v>
@@ -2166,10 +2145,10 @@
         <v>150000</v>
       </c>
       <c r="N26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -2186,7 +2165,7 @@
         <v>49</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>28</v>
@@ -2207,19 +2186,13 @@
         <v>300000</v>
       </c>
       <c r="N27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O27" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>30</v>
-      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C28" s="1">
         <v>405</v>
       </c>
@@ -2233,13 +2206,13 @@
         <v>79</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="J28" s="1">
         <v>4</v>
@@ -2254,10 +2227,10 @@
         <v>600000</v>
       </c>
       <c r="N28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" customHeight="1"/>
@@ -2275,13 +2248,13 @@
         <v>9</v>
       </c>
       <c r="G30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="I30" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
@@ -2296,7 +2269,7 @@
         <v>20000</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -2313,13 +2286,13 @@
         <v>19</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J31" s="1">
         <v>5</v>
@@ -2334,10 +2307,10 @@
         <v>150000</v>
       </c>
       <c r="N31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O31" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -2354,13 +2327,13 @@
         <v>29</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I32" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="J32" s="1">
         <v>5</v>
@@ -2375,10 +2348,10 @@
         <v>250000</v>
       </c>
       <c r="N32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O32" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -2395,13 +2368,13 @@
         <v>49</v>
       </c>
       <c r="G33" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="I33" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="J33" s="1">
         <v>5</v>
@@ -2416,19 +2389,13 @@
         <v>500000</v>
       </c>
       <c r="N33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O33" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O33" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>30</v>
-      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C34" s="1">
         <v>505</v>
       </c>
@@ -2442,13 +2409,13 @@
         <v>79</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I34" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="J34" s="1">
         <v>5</v>
@@ -2463,10 +2430,10 @@
         <v>1000000</v>
       </c>
       <c r="N34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O34" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1"/>
@@ -2484,13 +2451,13 @@
         <v>9</v>
       </c>
       <c r="G36" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="I36" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="J36" s="1">
         <v>0</v>
@@ -2505,7 +2472,7 @@
         <v>40000</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -2522,13 +2489,13 @@
         <v>19</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J37" s="1">
         <v>6</v>
@@ -2543,10 +2510,10 @@
         <v>200000</v>
       </c>
       <c r="N37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O37" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -2563,13 +2530,13 @@
         <v>29</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H38" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I38" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="J38" s="1">
         <v>6</v>
@@ -2584,10 +2551,10 @@
         <v>400000</v>
       </c>
       <c r="N38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O38" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -2604,13 +2571,13 @@
         <v>49</v>
       </c>
       <c r="G39" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="I39" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="J39" s="1">
         <v>6</v>
@@ -2625,19 +2592,13 @@
         <v>800000</v>
       </c>
       <c r="N39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O39" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="O39" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" s="1" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>30</v>
-      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C40" s="1">
         <v>605</v>
       </c>
@@ -2651,13 +2612,13 @@
         <v>79</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H40" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I40" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="J40" s="1">
         <v>6</v>
@@ -2672,10 +2633,10 @@
         <v>1600000</v>
       </c>
       <c r="N40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O40" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" customHeight="1" spans="7:13">
@@ -2701,13 +2662,13 @@
         <v>9</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H42" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I42" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="J42" s="1">
         <v>0</v>
@@ -2722,7 +2683,7 @@
         <v>80000</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -2739,13 +2700,13 @@
         <v>19</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J43" s="1">
         <v>7</v>
@@ -2760,10 +2721,10 @@
         <v>300000</v>
       </c>
       <c r="N43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -2780,13 +2741,13 @@
         <v>29</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H44" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I44" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="J44" s="1">
         <v>7</v>
@@ -2801,10 +2762,10 @@
         <v>600000</v>
       </c>
       <c r="N44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O44" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -2821,13 +2782,13 @@
         <v>49</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H45" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I45" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="J45" s="1">
         <v>7</v>
@@ -2842,19 +2803,13 @@
         <v>1000000</v>
       </c>
       <c r="N45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O45" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="O45" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>30</v>
-      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C46" s="1">
         <v>705</v>
       </c>
@@ -2868,13 +2823,13 @@
         <v>79</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H46" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I46" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="J46" s="1">
         <v>7</v>
@@ -2889,10 +2844,10 @@
         <v>2000000</v>
       </c>
       <c r="N46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O46" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" customHeight="1"/>

--- a/Excel/SoulRingAttrConfig.xlsx
+++ b/Excel/SoulRingAttrConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="95">
   <si>
     <t>ID</t>
   </si>
@@ -56,6 +56,9 @@
     <t>AurasLevel</t>
   </si>
   <si>
+    <t>AurasRise</t>
+  </si>
+  <si>
     <t>Fee</t>
   </si>
   <si>
@@ -125,6 +128,21 @@
     <t>4,4,4,4,8,1</t>
   </si>
   <si>
+    <t>275,275,275,234,468,52</t>
+  </si>
+  <si>
+    <t>40,40,40,4,8,2</t>
+  </si>
+  <si>
+    <t>915,915,915,298,596,84</t>
+  </si>
+  <si>
+    <t>守护光环(满级)</t>
+  </si>
+  <si>
+    <t>友方所受伤害减少95%</t>
+  </si>
+  <si>
     <t>14,15,16,10,11</t>
   </si>
   <si>
@@ -212,6 +230,12 @@
     <t>4,4,4,1,4,1</t>
   </si>
   <si>
+    <t>299,299,299,81,299,52</t>
+  </si>
+  <si>
+    <t>40,40,40,2,8,2</t>
+  </si>
+  <si>
     <t>14,15,16,27,28</t>
   </si>
   <si>
@@ -254,6 +278,21 @@
     <t>4,4,4,4,4,1</t>
   </si>
   <si>
+    <t>299,299,299,299,299,52</t>
+  </si>
+  <si>
+    <t>40,40,40,40,40,2</t>
+  </si>
+  <si>
+    <t>939,939,939,939,939,84</t>
+  </si>
+  <si>
+    <t>闪避光环(满级)</t>
+  </si>
+  <si>
+    <t>友方闪避概率增加95%</t>
+  </si>
+  <si>
     <t>14,15,16,18,20</t>
   </si>
   <si>
@@ -267,6 +306,12 @@
   </si>
   <si>
     <t>14,15,16,18,20,2005</t>
+  </si>
+  <si>
+    <t>减伤光环(满级)</t>
+  </si>
+  <si>
+    <t>友方减伤倍率增加70%</t>
   </si>
 </sst>
 </file>
@@ -1236,10 +1281,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q148"/>
+  <dimension ref="A1:R156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1247,20 +1292,21 @@
     <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
-    <col min="4" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.75" style="2" customWidth="1"/>
+    <col min="4" max="5" width="12.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.375" style="2" customWidth="1"/>
-    <col min="11" max="13" width="11.375" style="2" customWidth="1"/>
-    <col min="14" max="15" width="30.125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.625" style="2" customWidth="1"/>
-    <col min="18" max="16379" width="9" style="2"/>
-    <col min="16380" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="11.5" style="2" customWidth="1"/>
+    <col min="11" max="14" width="11.375" style="2" customWidth="1"/>
+    <col min="15" max="16" width="30.125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.625" style="2" customWidth="1"/>
+    <col min="19" max="16380" width="9" style="2"/>
+    <col min="16381" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:17">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="G1" s="2"/>
@@ -1270,10 +1316,11 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="N1" s="2"/>
       <c r="Q1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:17">
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="G2" s="2"/>
@@ -1283,10 +1330,11 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="N2" s="2"/>
       <c r="Q2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:17">
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1322,20 +1370,23 @@
       <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="2"/>
+      <c r="P3" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="Q3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:17">
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -1367,61 +1418,67 @@
       <c r="M4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="2"/>
+      <c r="P4" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="Q4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:17">
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="K5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="Q5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C6" s="1">
         <v>101</v>
       </c>
@@ -1435,13 +1492,13 @@
         <v>9</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -1450,16 +1507,19 @@
         <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M6" s="1">
         <v>1000</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="N6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:16">
       <c r="C7" s="1">
         <v>102</v>
       </c>
@@ -1473,13 +1533,13 @@
         <v>19</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -1488,20 +1548,23 @@
         <v>1</v>
       </c>
       <c r="L7" s="1">
-        <f>L6*10</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <f>M6*10</f>
         <v>10000</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>10000</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="P7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:16">
       <c r="C8" s="1">
         <v>103</v>
       </c>
@@ -1515,13 +1578,13 @@
         <v>29</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -1530,19 +1593,22 @@
         <v>11</v>
       </c>
       <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
         <v>120000</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <v>20000</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="P8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:16">
       <c r="C9" s="1">
         <v>104</v>
       </c>
@@ -1556,13 +1622,13 @@
         <v>49</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -1571,19 +1637,22 @@
         <v>21</v>
       </c>
       <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
         <v>340000</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>40000</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="P9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:16">
       <c r="C10" s="1">
         <v>105</v>
       </c>
@@ -1597,13 +1666,13 @@
         <v>79</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -1612,1048 +1681,1164 @@
         <v>41</v>
       </c>
       <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
         <v>1180000</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>80000</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" s="1" customFormat="1" customHeight="1"/>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="P10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C11" s="1">
+        <v>106</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>80</v>
+      </c>
+      <c r="F11" s="1">
+        <v>95</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>70</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>3500000</v>
+      </c>
+      <c r="N11" s="1">
+        <v>160000</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:16">
       <c r="C12" s="1">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="D12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="F12" s="1">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>86</v>
+      </c>
+      <c r="L12" s="1">
         <v>0</v>
       </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <v>3000</v>
-      </c>
       <c r="M12" s="1">
-        <v>3000</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C13" s="1">
-        <v>202</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1">
-        <v>10</v>
-      </c>
-      <c r="F13" s="1">
-        <v>19</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="1">
-        <v>2</v>
-      </c>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1">
-        <v>30000</v>
-      </c>
-      <c r="M13" s="1">
-        <v>30000</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
+        <v>5900000</v>
+      </c>
+      <c r="N12" s="1">
+        <v>160000</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1"/>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C14" s="1">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
       </c>
       <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>9</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="1">
-        <v>29</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="I14" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1">
-        <v>350000</v>
+        <v>0</v>
       </c>
       <c r="M14" s="1">
-        <v>50000</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>34</v>
+        <v>3000</v>
+      </c>
+      <c r="N14" s="1">
+        <v>3000</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="3:16">
       <c r="C15" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
       </c>
       <c r="E15" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F15" s="1">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J15" s="1">
         <v>2</v>
       </c>
       <c r="K15" s="1">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1">
-        <v>900000</v>
+        <v>1</v>
       </c>
       <c r="M15" s="1">
-        <v>100000</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>34</v>
+        <v>30000</v>
+      </c>
+      <c r="N15" s="1">
+        <v>30000</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>40</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:16">
       <c r="C16" s="1">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
       </c>
       <c r="E16" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F16" s="1">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J16" s="1">
         <v>2</v>
       </c>
       <c r="K16" s="1">
+        <v>11</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>350000</v>
+      </c>
+      <c r="N16" s="1">
+        <v>50000</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L16" s="1">
+    </row>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C17" s="1">
+        <v>204</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>30</v>
+      </c>
+      <c r="F17" s="1">
+        <v>49</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>21</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>900000</v>
+      </c>
+      <c r="N17" s="1">
+        <v>100000</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C18" s="1">
+        <v>205</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>50</v>
+      </c>
+      <c r="F18" s="1">
+        <v>79</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2</v>
+      </c>
+      <c r="K18" s="1">
+        <v>41</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
         <v>3000000</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N18" s="1">
         <v>200000</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="O18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C19" s="1">
+        <v>206</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>80</v>
+      </c>
+      <c r="F19" s="1">
+        <v>120</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" customHeight="1"/>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C18" s="1">
-        <v>301</v>
-      </c>
-      <c r="D18" s="1">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>9</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
-        <v>6000</v>
-      </c>
-      <c r="M18" s="1">
-        <v>6000</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C19" s="1">
-        <v>302</v>
-      </c>
-      <c r="D19" s="1">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1">
-        <v>10</v>
-      </c>
-      <c r="F19" s="1">
-        <v>19</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="J19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="L19" s="1">
-        <v>60000</v>
+        <v>1</v>
       </c>
       <c r="M19" s="1">
-        <v>50000</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>39</v>
+        <v>8800000</v>
+      </c>
+      <c r="N19" s="1">
+        <v>400000</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C20" s="1">
-        <v>303</v>
-      </c>
-      <c r="D20" s="1">
-        <v>3</v>
-      </c>
-      <c r="E20" s="1">
-        <v>20</v>
-      </c>
-      <c r="F20" s="1">
-        <v>29</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="1">
-        <v>3</v>
-      </c>
-      <c r="K20" s="1">
-        <v>11</v>
-      </c>
-      <c r="L20" s="1">
-        <v>590000</v>
-      </c>
-      <c r="M20" s="1">
-        <v>80000</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
+      <c r="P19" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1"/>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C21" s="1">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
       </c>
       <c r="E21" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F21" s="1">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J21" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1">
-        <v>1470000</v>
+        <v>0</v>
       </c>
       <c r="M21" s="1">
-        <v>160000</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>39</v>
+        <v>6000</v>
+      </c>
+      <c r="N21" s="1">
+        <v>6000</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="3:16">
       <c r="C22" s="1">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
       </c>
       <c r="E22" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F22" s="1">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J22" s="1">
         <v>3</v>
       </c>
       <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>60000</v>
+      </c>
+      <c r="N22" s="1">
+        <v>50000</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C23" s="1">
+        <v>303</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>20</v>
+      </c>
+      <c r="F23" s="1">
+        <v>29</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="1">
+        <v>3</v>
+      </c>
+      <c r="K23" s="1">
+        <v>11</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1">
+        <v>590000</v>
+      </c>
+      <c r="N23" s="1">
+        <v>80000</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C24" s="1">
+        <v>304</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>30</v>
+      </c>
+      <c r="F24" s="1">
+        <v>49</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="1">
+        <v>3</v>
+      </c>
+      <c r="K24" s="1">
+        <v>21</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1470000</v>
+      </c>
+      <c r="N24" s="1">
+        <v>160000</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C25" s="1">
+        <v>305</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>50</v>
+      </c>
+      <c r="F25" s="1">
+        <v>79</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="1">
+        <v>3</v>
+      </c>
+      <c r="K25" s="1">
         <v>41</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1">
         <v>4830000</v>
       </c>
-      <c r="M22" s="1">
+      <c r="N25" s="1">
         <v>320000</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" customHeight="1"/>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C24" s="1">
-        <v>401</v>
-      </c>
-      <c r="D24" s="1">
-        <v>4</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>9</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1">
-        <v>10000</v>
-      </c>
-      <c r="M24" s="1">
-        <v>10000</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C25" s="1">
-        <v>402</v>
-      </c>
-      <c r="D25" s="1">
-        <v>4</v>
-      </c>
-      <c r="E25" s="1">
-        <v>10</v>
-      </c>
-      <c r="F25" s="1">
-        <v>19</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="1">
-        <v>4</v>
-      </c>
-      <c r="K25" s="1">
-        <v>1</v>
-      </c>
-      <c r="L25" s="1">
-        <v>100000</v>
-      </c>
-      <c r="M25" s="1">
-        <v>80000</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="P25" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="3:16">
       <c r="C26" s="1">
-        <v>403</v>
+        <v>306</v>
       </c>
       <c r="D26" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26" s="1">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F26" s="1">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="J26" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K26" s="1">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="L26" s="1">
-        <v>970000</v>
+        <v>1</v>
       </c>
       <c r="M26" s="1">
-        <v>150000</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>44</v>
+        <v>14110000</v>
+      </c>
+      <c r="N26" s="1">
+        <v>640000</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="27" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C27" s="1">
-        <v>404</v>
-      </c>
-      <c r="D27" s="1">
-        <v>4</v>
-      </c>
-      <c r="E27" s="1">
-        <v>30</v>
-      </c>
-      <c r="F27" s="1">
-        <v>49</v>
-      </c>
-      <c r="G27" s="6" t="s">
+      <c r="P26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27" s="1">
-        <v>4</v>
-      </c>
-      <c r="K27" s="1">
-        <v>21</v>
-      </c>
-      <c r="L27" s="1">
-        <v>2620000</v>
-      </c>
-      <c r="M27" s="1">
-        <v>300000</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1"/>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C28" s="1">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D28" s="1">
         <v>4</v>
       </c>
       <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>9</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>10000</v>
+      </c>
+      <c r="N28" s="1">
+        <v>10000</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C29" s="1">
+        <v>402</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1">
+        <v>19</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="1">
+        <v>4</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1">
+        <v>100000</v>
+      </c>
+      <c r="N29" s="1">
+        <v>80000</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="1">
+      <c r="P29" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C30" s="1">
+        <v>403</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4</v>
+      </c>
+      <c r="E30" s="1">
+        <v>20</v>
+      </c>
+      <c r="F30" s="1">
+        <v>29</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="1">
+        <v>4</v>
+      </c>
+      <c r="K30" s="1">
+        <v>11</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1">
+        <v>970000</v>
+      </c>
+      <c r="N30" s="1">
+        <v>150000</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C31" s="1">
+        <v>404</v>
+      </c>
+      <c r="D31" s="1">
+        <v>4</v>
+      </c>
+      <c r="E31" s="1">
+        <v>30</v>
+      </c>
+      <c r="F31" s="1">
+        <v>49</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" s="1">
+        <v>4</v>
+      </c>
+      <c r="K31" s="1">
+        <v>21</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1">
+        <v>2620000</v>
+      </c>
+      <c r="N31" s="1">
+        <v>300000</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C32" s="1">
+        <v>405</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4</v>
+      </c>
+      <c r="E32" s="1">
+        <v>50</v>
+      </c>
+      <c r="F32" s="1">
         <v>79</v>
       </c>
-      <c r="G28" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" s="6" t="s">
+      <c r="G32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="1">
+        <v>4</v>
+      </c>
+      <c r="K32" s="1">
+        <v>41</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1">
+        <v>8920000</v>
+      </c>
+      <c r="N32" s="1">
+        <v>600000</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C33" s="1">
+        <v>406</v>
+      </c>
+      <c r="D33" s="1">
+        <v>4</v>
+      </c>
+      <c r="E33" s="1">
+        <v>80</v>
+      </c>
+      <c r="F33" s="1">
+        <v>120</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J33" s="1">
+        <v>4</v>
+      </c>
+      <c r="K33" s="1">
+        <v>70</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1">
+        <v>26320000</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" customHeight="1"/>
+    <row r="35" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C35" s="1">
+        <v>501</v>
+      </c>
+      <c r="D35" s="1">
+        <v>5</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>9</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>20000</v>
+      </c>
+      <c r="N35" s="1">
+        <v>20000</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C36" s="1">
+        <v>502</v>
+      </c>
+      <c r="D36" s="1">
+        <v>5</v>
+      </c>
+      <c r="E36" s="1">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1">
+        <v>19</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J36" s="1">
+        <v>5</v>
+      </c>
+      <c r="K36" s="1">
+        <v>1</v>
+      </c>
+      <c r="L36" s="1">
+        <v>1</v>
+      </c>
+      <c r="M36" s="1">
+        <v>200000</v>
+      </c>
+      <c r="N36" s="1">
+        <v>150000</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C37" s="1">
+        <v>503</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5</v>
+      </c>
+      <c r="E37" s="1">
+        <v>20</v>
+      </c>
+      <c r="F37" s="1">
+        <v>29</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J37" s="1">
+        <v>5</v>
+      </c>
+      <c r="K37" s="1">
+        <v>11</v>
+      </c>
+      <c r="L37" s="1">
+        <v>1</v>
+      </c>
+      <c r="M37" s="1">
+        <v>1800000</v>
+      </c>
+      <c r="N37" s="1">
+        <v>250000</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C38" s="1">
+        <v>504</v>
+      </c>
+      <c r="D38" s="1">
+        <v>5</v>
+      </c>
+      <c r="E38" s="1">
         <v>30</v>
       </c>
-      <c r="I28" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J28" s="1">
-        <v>4</v>
-      </c>
-      <c r="K28" s="1">
+      <c r="F38" s="1">
+        <v>49</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J38" s="1">
+        <v>5</v>
+      </c>
+      <c r="K38" s="1">
+        <v>21</v>
+      </c>
+      <c r="L38" s="1">
+        <v>1</v>
+      </c>
+      <c r="M38" s="1">
+        <v>4550000</v>
+      </c>
+      <c r="N38" s="1">
+        <v>500000</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C39" s="1">
+        <v>505</v>
+      </c>
+      <c r="D39" s="1">
+        <v>5</v>
+      </c>
+      <c r="E39" s="1">
+        <v>50</v>
+      </c>
+      <c r="F39" s="1">
+        <v>79</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J39" s="1">
+        <v>5</v>
+      </c>
+      <c r="K39" s="1">
         <v>41</v>
       </c>
-      <c r="L28" s="1">
-        <v>8920000</v>
-      </c>
-      <c r="M28" s="1">
-        <v>600000</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" customHeight="1"/>
-    <row r="30" s="1" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C30" s="1">
-        <v>501</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="L39" s="1">
+        <v>1</v>
+      </c>
+      <c r="M39" s="1">
+        <v>15550000</v>
+      </c>
+      <c r="N39" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C40" s="1">
+        <v>506</v>
+      </c>
+      <c r="D40" s="1">
         <v>5</v>
       </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1">
-        <v>9</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0</v>
-      </c>
-      <c r="K30" s="1">
-        <v>0</v>
-      </c>
-      <c r="L30" s="1">
-        <v>20000</v>
-      </c>
-      <c r="M30" s="1">
-        <v>20000</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C31" s="1">
-        <v>502</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="E40" s="1">
+        <v>80</v>
+      </c>
+      <c r="F40" s="1">
+        <v>120</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J40" s="1">
         <v>5</v>
       </c>
-      <c r="E31" s="1">
-        <v>10</v>
-      </c>
-      <c r="F31" s="1">
-        <v>19</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J31" s="1">
-        <v>5</v>
-      </c>
-      <c r="K31" s="1">
-        <v>1</v>
-      </c>
-      <c r="L31" s="1">
-        <v>200000</v>
-      </c>
-      <c r="M31" s="1">
-        <v>150000</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C32" s="1">
-        <v>503</v>
-      </c>
-      <c r="D32" s="1">
-        <v>5</v>
-      </c>
-      <c r="E32" s="1">
-        <v>20</v>
-      </c>
-      <c r="F32" s="1">
-        <v>29</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J32" s="1">
-        <v>5</v>
-      </c>
-      <c r="K32" s="1">
-        <v>11</v>
-      </c>
-      <c r="L32" s="1">
-        <v>1800000</v>
-      </c>
-      <c r="M32" s="1">
-        <v>250000</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C33" s="1">
-        <v>504</v>
-      </c>
-      <c r="D33" s="1">
-        <v>5</v>
-      </c>
-      <c r="E33" s="1">
-        <v>30</v>
-      </c>
-      <c r="F33" s="1">
-        <v>49</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I33" s="6" t="s">
+      <c r="K40" s="1">
+        <v>70</v>
+      </c>
+      <c r="L40" s="1">
+        <v>1</v>
+      </c>
+      <c r="M40" s="1">
+        <v>44550000</v>
+      </c>
+      <c r="N40" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="O40" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J33" s="1">
-        <v>5</v>
-      </c>
-      <c r="K33" s="1">
-        <v>21</v>
-      </c>
-      <c r="L33" s="1">
-        <v>4550000</v>
-      </c>
-      <c r="M33" s="1">
-        <v>500000</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C34" s="1">
-        <v>505</v>
-      </c>
-      <c r="D34" s="1">
-        <v>5</v>
-      </c>
-      <c r="E34" s="1">
-        <v>50</v>
-      </c>
-      <c r="F34" s="1">
-        <v>79</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H34" s="7" t="s">
+      <c r="P40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I34" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J34" s="1">
-        <v>5</v>
-      </c>
-      <c r="K34" s="1">
-        <v>41</v>
-      </c>
-      <c r="L34" s="1">
-        <v>15550000</v>
-      </c>
-      <c r="M34" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" customHeight="1"/>
-    <row r="36" s="1" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C36" s="1">
+    </row>
+    <row r="41" s="1" customFormat="1" customHeight="1"/>
+    <row r="42" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C42" s="1">
         <v>601</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D42" s="1">
         <v>6</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1">
-        <v>9</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0</v>
-      </c>
-      <c r="L36" s="1">
-        <v>40000</v>
-      </c>
-      <c r="M36" s="1">
-        <v>40000</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C37" s="1">
-        <v>602</v>
-      </c>
-      <c r="D37" s="1">
-        <v>6</v>
-      </c>
-      <c r="E37" s="1">
-        <v>10</v>
-      </c>
-      <c r="F37" s="1">
-        <v>19</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J37" s="1">
-        <v>6</v>
-      </c>
-      <c r="K37" s="1">
-        <v>1</v>
-      </c>
-      <c r="L37" s="1">
-        <v>400000</v>
-      </c>
-      <c r="M37" s="1">
-        <v>200000</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C38" s="1">
-        <v>603</v>
-      </c>
-      <c r="D38" s="1">
-        <v>6</v>
-      </c>
-      <c r="E38" s="1">
-        <v>20</v>
-      </c>
-      <c r="F38" s="1">
-        <v>29</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J38" s="1">
-        <v>6</v>
-      </c>
-      <c r="K38" s="1">
-        <v>11</v>
-      </c>
-      <c r="L38" s="1">
-        <v>2600000</v>
-      </c>
-      <c r="M38" s="1">
-        <v>400000</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C39" s="1">
-        <v>604</v>
-      </c>
-      <c r="D39" s="1">
-        <v>6</v>
-      </c>
-      <c r="E39" s="1">
-        <v>30</v>
-      </c>
-      <c r="F39" s="1">
-        <v>49</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="J39" s="1">
-        <v>6</v>
-      </c>
-      <c r="K39" s="1">
-        <v>21</v>
-      </c>
-      <c r="L39" s="1">
-        <v>7000000</v>
-      </c>
-      <c r="M39" s="1">
-        <v>800000</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C40" s="1">
-        <v>605</v>
-      </c>
-      <c r="D40" s="1">
-        <v>6</v>
-      </c>
-      <c r="E40" s="1">
-        <v>50</v>
-      </c>
-      <c r="F40" s="1">
-        <v>79</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J40" s="1">
-        <v>6</v>
-      </c>
-      <c r="K40" s="1">
-        <v>41</v>
-      </c>
-      <c r="L40" s="2">
-        <v>23800000</v>
-      </c>
-      <c r="M40" s="2">
-        <v>1600000</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" customHeight="1" spans="7:13">
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-    </row>
-    <row r="42" s="1" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C42" s="1">
-        <v>701</v>
-      </c>
-      <c r="D42" s="1">
-        <v>7</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -2662,13 +2847,13 @@
         <v>9</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="J42" s="1">
         <v>0</v>
@@ -2677,21 +2862,24 @@
         <v>0</v>
       </c>
       <c r="L42" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="M42" s="1">
-        <v>80000</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>40000</v>
+      </c>
+      <c r="N42" s="1">
+        <v>40000</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" customHeight="1" spans="3:16">
       <c r="C43" s="1">
-        <v>702</v>
+        <v>602</v>
       </c>
       <c r="D43" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E43" s="1">
         <v>10</v>
@@ -2700,39 +2888,42 @@
         <v>19</v>
       </c>
       <c r="G43" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J43" s="1">
+        <v>6</v>
+      </c>
+      <c r="K43" s="1">
+        <v>1</v>
+      </c>
+      <c r="L43" s="1">
+        <v>1</v>
+      </c>
+      <c r="M43" s="1">
+        <v>400000</v>
+      </c>
+      <c r="N43" s="1">
+        <v>200000</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P43" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H43" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J43" s="1">
-        <v>7</v>
-      </c>
-      <c r="K43" s="1">
-        <v>1</v>
-      </c>
-      <c r="L43" s="1">
-        <v>800000</v>
-      </c>
-      <c r="M43" s="1">
-        <v>300000</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1" customHeight="1" spans="3:15">
+    </row>
+    <row r="44" s="1" customFormat="1" customHeight="1" spans="3:16">
       <c r="C44" s="1">
-        <v>703</v>
+        <v>603</v>
       </c>
       <c r="D44" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E44" s="1">
         <v>20</v>
@@ -2741,39 +2932,42 @@
         <v>29</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="J44" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K44" s="1">
         <v>11</v>
       </c>
       <c r="L44" s="1">
-        <v>4100000</v>
+        <v>1</v>
       </c>
       <c r="M44" s="1">
-        <v>600000</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>77</v>
+        <v>2600000</v>
+      </c>
+      <c r="N44" s="1">
+        <v>400000</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>74</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" customHeight="1" spans="3:16">
       <c r="C45" s="1">
-        <v>704</v>
+        <v>604</v>
       </c>
       <c r="D45" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E45" s="1">
         <v>30</v>
@@ -2782,39 +2976,42 @@
         <v>49</v>
       </c>
       <c r="G45" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H45" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H45" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="I45" s="6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="J45" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K45" s="1">
         <v>21</v>
       </c>
       <c r="L45" s="1">
-        <v>10500000</v>
+        <v>1</v>
       </c>
       <c r="M45" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>77</v>
+        <v>7000000</v>
+      </c>
+      <c r="N45" s="1">
+        <v>800000</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>74</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" customHeight="1" spans="3:16">
       <c r="C46" s="1">
-        <v>705</v>
+        <v>605</v>
       </c>
       <c r="D46" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E46" s="1">
         <v>50</v>
@@ -2823,134 +3020,423 @@
         <v>79</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J46" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K46" s="1">
         <v>41</v>
       </c>
       <c r="L46" s="1">
+        <v>1</v>
+      </c>
+      <c r="M46" s="2">
+        <v>23800000</v>
+      </c>
+      <c r="N46" s="2">
+        <v>1600000</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C47" s="1">
+        <v>606</v>
+      </c>
+      <c r="D47" s="1">
+        <v>6</v>
+      </c>
+      <c r="E47" s="1">
+        <v>80</v>
+      </c>
+      <c r="F47" s="1">
+        <v>95</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J47" s="1">
+        <v>6</v>
+      </c>
+      <c r="K47" s="1">
+        <v>70</v>
+      </c>
+      <c r="L47" s="1">
+        <v>1</v>
+      </c>
+      <c r="M47" s="2">
+        <v>70200000</v>
+      </c>
+      <c r="N47" s="2">
+        <v>3200000</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C48" s="1">
+        <v>607</v>
+      </c>
+      <c r="D48" s="1">
+        <v>6</v>
+      </c>
+      <c r="E48" s="1">
+        <v>96</v>
+      </c>
+      <c r="F48" s="1">
+        <v>120</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J48" s="1">
+        <v>6</v>
+      </c>
+      <c r="K48" s="1">
+        <v>86</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+      <c r="M48" s="2">
+        <v>118200000</v>
+      </c>
+      <c r="N48" s="2">
+        <v>3200000</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" customHeight="1" spans="7:14">
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+    </row>
+    <row r="50" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C50" s="1">
+        <v>701</v>
+      </c>
+      <c r="D50" s="1">
+        <v>7</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>9</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1">
+        <v>80000</v>
+      </c>
+      <c r="N50" s="1">
+        <v>80000</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C51" s="1">
+        <v>702</v>
+      </c>
+      <c r="D51" s="1">
+        <v>7</v>
+      </c>
+      <c r="E51" s="1">
+        <v>10</v>
+      </c>
+      <c r="F51" s="1">
+        <v>19</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J51" s="1">
+        <v>7</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1</v>
+      </c>
+      <c r="L51" s="1">
+        <v>1</v>
+      </c>
+      <c r="M51" s="1">
+        <v>800000</v>
+      </c>
+      <c r="N51" s="1">
+        <v>300000</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C52" s="1">
+        <v>703</v>
+      </c>
+      <c r="D52" s="1">
+        <v>7</v>
+      </c>
+      <c r="E52" s="1">
+        <v>20</v>
+      </c>
+      <c r="F52" s="1">
+        <v>29</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J52" s="1">
+        <v>7</v>
+      </c>
+      <c r="K52" s="1">
+        <v>11</v>
+      </c>
+      <c r="L52" s="1">
+        <v>1</v>
+      </c>
+      <c r="M52" s="1">
+        <v>4100000</v>
+      </c>
+      <c r="N52" s="1">
+        <v>600000</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C53" s="1">
+        <v>704</v>
+      </c>
+      <c r="D53" s="1">
+        <v>7</v>
+      </c>
+      <c r="E53" s="1">
+        <v>30</v>
+      </c>
+      <c r="F53" s="1">
+        <v>49</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J53" s="1">
+        <v>7</v>
+      </c>
+      <c r="K53" s="1">
+        <v>21</v>
+      </c>
+      <c r="L53" s="1">
+        <v>1</v>
+      </c>
+      <c r="M53" s="1">
+        <v>10500000</v>
+      </c>
+      <c r="N53" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C54" s="1">
+        <v>705</v>
+      </c>
+      <c r="D54" s="1">
+        <v>7</v>
+      </c>
+      <c r="E54" s="1">
+        <v>50</v>
+      </c>
+      <c r="F54" s="1">
+        <v>79</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J54" s="1">
+        <v>7</v>
+      </c>
+      <c r="K54" s="1">
+        <v>41</v>
+      </c>
+      <c r="L54" s="1">
+        <v>1</v>
+      </c>
+      <c r="M54" s="1">
         <v>31500000</v>
       </c>
-      <c r="M46" s="1">
+      <c r="N54" s="1">
         <v>2000000</v>
       </c>
-      <c r="N46" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="1" customHeight="1"/>
-    <row r="48" s="1" customFormat="1" customHeight="1"/>
-    <row r="49" s="1" customFormat="1" customHeight="1" spans="2:2">
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" s="1" customFormat="1" customHeight="1" spans="2:2">
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" s="1" customFormat="1" customHeight="1" spans="2:2">
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" s="1" customFormat="1" customHeight="1"/>
-    <row r="53" s="1" customFormat="1" customHeight="1"/>
-    <row r="54" s="1" customFormat="1" customHeight="1"/>
-    <row r="55" s="1" customFormat="1" customHeight="1"/>
+      <c r="O54" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C55" s="1">
+        <v>706</v>
+      </c>
+      <c r="D55" s="1">
+        <v>7</v>
+      </c>
+      <c r="E55" s="1">
+        <v>80</v>
+      </c>
+      <c r="F55" s="1">
+        <v>120</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J55" s="1">
+        <v>7</v>
+      </c>
+      <c r="K55" s="1">
+        <v>70</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0</v>
+      </c>
+      <c r="M55" s="1">
+        <v>89500000</v>
+      </c>
+      <c r="N55" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
     <row r="56" s="1" customFormat="1" customHeight="1"/>
-    <row r="57" s="1" customFormat="1" customHeight="1"/>
-    <row r="58" s="1" customFormat="1" customHeight="1" spans="1:1">
-      <c r="A58" s="2"/>
-    </row>
-    <row r="59" s="1" customFormat="1" customHeight="1" spans="1:1">
-      <c r="A59" s="2"/>
-    </row>
-    <row r="60" s="1" customFormat="1" customHeight="1" spans="1:1">
-      <c r="A60" s="2"/>
-    </row>
+    <row r="57" s="1" customFormat="1" customHeight="1" spans="2:2">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" s="1" customFormat="1" customHeight="1" spans="2:2">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" s="1" customFormat="1" customHeight="1" spans="2:2">
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" s="1" customFormat="1" customHeight="1"/>
     <row r="61" s="1" customFormat="1" customHeight="1"/>
     <row r="62" s="1" customFormat="1" customHeight="1"/>
-    <row r="63" s="1" customFormat="1" customHeight="1" spans="7:13">
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-    </row>
-    <row r="64" s="1" customFormat="1" customHeight="1" spans="7:13">
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-    </row>
-    <row r="65" s="1" customFormat="1" customHeight="1" spans="7:13">
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-    </row>
-    <row r="66" s="1" customFormat="1" customHeight="1" spans="7:13">
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-    </row>
-    <row r="67" s="1" customFormat="1" customHeight="1" spans="7:13">
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-    </row>
-    <row r="68" s="1" customFormat="1" customHeight="1" spans="7:13">
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-    </row>
-    <row r="69" s="1" customFormat="1" customHeight="1" spans="7:13">
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-    </row>
-    <row r="70" s="1" customFormat="1" customHeight="1" spans="7:13">
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-    </row>
-    <row r="71" s="1" customFormat="1" customHeight="1" spans="7:13">
+    <row r="63" s="1" customFormat="1" customHeight="1"/>
+    <row r="64" s="1" customFormat="1" customHeight="1"/>
+    <row r="65" s="1" customFormat="1" customHeight="1"/>
+    <row r="66" s="1" customFormat="1" customHeight="1" spans="1:1">
+      <c r="A66" s="2"/>
+    </row>
+    <row r="67" s="1" customFormat="1" customHeight="1" spans="1:1">
+      <c r="A67" s="2"/>
+    </row>
+    <row r="68" s="1" customFormat="1" customHeight="1" spans="1:1">
+      <c r="A68" s="2"/>
+    </row>
+    <row r="69" s="1" customFormat="1" customHeight="1"/>
+    <row r="70" s="1" customFormat="1" customHeight="1"/>
+    <row r="71" s="1" customFormat="1" customHeight="1" spans="7:14">
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
@@ -2958,9 +3444,9 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
-    </row>
-    <row r="72" s="1" customFormat="1" customHeight="1" spans="2:13">
-      <c r="B72" s="2"/>
+      <c r="N71" s="2"/>
+    </row>
+    <row r="72" s="1" customFormat="1" customHeight="1" spans="7:14">
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -2968,9 +3454,9 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
-    </row>
-    <row r="73" s="1" customFormat="1" customHeight="1" spans="2:13">
-      <c r="B73" s="2"/>
+      <c r="N72" s="2"/>
+    </row>
+    <row r="73" s="1" customFormat="1" customHeight="1" spans="7:14">
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -2978,9 +3464,9 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
-    </row>
-    <row r="74" s="1" customFormat="1" customHeight="1" spans="2:13">
-      <c r="B74" s="2"/>
+      <c r="N73" s="2"/>
+    </row>
+    <row r="74" s="1" customFormat="1" customHeight="1" spans="7:14">
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
@@ -2988,9 +3474,9 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
-    </row>
-    <row r="75" s="1" customFormat="1" customHeight="1" spans="2:13">
-      <c r="B75" s="2"/>
+      <c r="N74" s="2"/>
+    </row>
+    <row r="75" s="1" customFormat="1" customHeight="1" spans="7:14">
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
@@ -2998,9 +3484,9 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
-    </row>
-    <row r="76" s="1" customFormat="1" customHeight="1" spans="2:13">
-      <c r="B76" s="2"/>
+      <c r="N75" s="2"/>
+    </row>
+    <row r="76" s="1" customFormat="1" customHeight="1" spans="7:14">
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -3008,9 +3494,9 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
-    </row>
-    <row r="77" s="1" customFormat="1" customHeight="1" spans="2:13">
-      <c r="B77" s="2"/>
+      <c r="N76" s="2"/>
+    </row>
+    <row r="77" s="1" customFormat="1" customHeight="1" spans="7:14">
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -3018,9 +3504,9 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
-    </row>
-    <row r="78" s="1" customFormat="1" customHeight="1" spans="2:13">
-      <c r="B78" s="2"/>
+      <c r="N77" s="2"/>
+    </row>
+    <row r="78" s="1" customFormat="1" customHeight="1" spans="7:14">
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -3028,9 +3514,9 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
-    </row>
-    <row r="79" s="1" customFormat="1" customHeight="1" spans="2:13">
-      <c r="B79" s="2"/>
+      <c r="N78" s="2"/>
+    </row>
+    <row r="79" s="1" customFormat="1" customHeight="1" spans="7:14">
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
@@ -3038,8 +3524,9 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
-    </row>
-    <row r="80" s="1" customFormat="1" customHeight="1" spans="2:13">
+      <c r="N79" s="2"/>
+    </row>
+    <row r="80" s="1" customFormat="1" customHeight="1" spans="2:14">
       <c r="B80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -3048,9 +3535,9 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
-    </row>
-    <row r="81" s="1" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A81" s="2"/>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" s="1" customFormat="1" customHeight="1" spans="2:14">
       <c r="B81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -3059,9 +3546,9 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
-    </row>
-    <row r="82" s="1" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A82" s="2"/>
+      <c r="N81" s="2"/>
+    </row>
+    <row r="82" s="1" customFormat="1" customHeight="1" spans="2:14">
       <c r="B82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -3070,9 +3557,9 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
-    </row>
-    <row r="83" s="1" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A83" s="2"/>
+      <c r="N82" s="2"/>
+    </row>
+    <row r="83" s="1" customFormat="1" customHeight="1" spans="2:14">
       <c r="B83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -3081,9 +3568,9 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
-    </row>
-    <row r="84" s="1" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A84" s="2"/>
+      <c r="N83" s="2"/>
+    </row>
+    <row r="84" s="1" customFormat="1" customHeight="1" spans="2:14">
       <c r="B84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
@@ -3092,9 +3579,9 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
-    </row>
-    <row r="85" s="1" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A85" s="2"/>
+      <c r="N84" s="2"/>
+    </row>
+    <row r="85" s="1" customFormat="1" customHeight="1" spans="2:14">
       <c r="B85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
@@ -3103,9 +3590,9 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
-    </row>
-    <row r="86" s="1" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A86" s="2"/>
+      <c r="N85" s="2"/>
+    </row>
+    <row r="86" s="1" customFormat="1" customHeight="1" spans="2:14">
       <c r="B86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
@@ -3114,9 +3601,9 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
-    </row>
-    <row r="87" s="1" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A87" s="2"/>
+      <c r="N86" s="2"/>
+    </row>
+    <row r="87" s="1" customFormat="1" customHeight="1" spans="2:14">
       <c r="B87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
@@ -3125,9 +3612,9 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
-    </row>
-    <row r="88" s="1" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A88" s="2"/>
+      <c r="N87" s="2"/>
+    </row>
+    <row r="88" s="1" customFormat="1" customHeight="1" spans="2:14">
       <c r="B88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
@@ -3136,8 +3623,9 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
-    </row>
-    <row r="89" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N88" s="2"/>
+    </row>
+    <row r="89" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="G89" s="2"/>
@@ -3147,8 +3635,9 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
-    </row>
-    <row r="90" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N89" s="2"/>
+    </row>
+    <row r="90" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="G90" s="2"/>
@@ -3158,8 +3647,9 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
-    </row>
-    <row r="91" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N90" s="2"/>
+    </row>
+    <row r="91" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="G91" s="2"/>
@@ -3169,8 +3659,9 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
-    </row>
-    <row r="92" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N91" s="2"/>
+    </row>
+    <row r="92" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="G92" s="2"/>
@@ -3180,8 +3671,9 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
-    </row>
-    <row r="93" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N92" s="2"/>
+    </row>
+    <row r="93" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="G93" s="2"/>
@@ -3191,8 +3683,9 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
-    </row>
-    <row r="94" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N93" s="2"/>
+    </row>
+    <row r="94" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="G94" s="2"/>
@@ -3202,8 +3695,9 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
-    </row>
-    <row r="95" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N94" s="2"/>
+    </row>
+    <row r="95" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="G95" s="2"/>
@@ -3213,8 +3707,9 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
-    </row>
-    <row r="96" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N95" s="2"/>
+    </row>
+    <row r="96" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="G96" s="2"/>
@@ -3224,8 +3719,9 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
-    </row>
-    <row r="97" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N96" s="2"/>
+    </row>
+    <row r="97" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="G97" s="2"/>
@@ -3235,8 +3731,9 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
-    </row>
-    <row r="98" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N97" s="2"/>
+    </row>
+    <row r="98" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="G98" s="2"/>
@@ -3246,8 +3743,9 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
-    </row>
-    <row r="99" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N98" s="2"/>
+    </row>
+    <row r="99" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="G99" s="2"/>
@@ -3257,8 +3755,9 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
-    </row>
-    <row r="100" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N99" s="2"/>
+    </row>
+    <row r="100" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="G100" s="2"/>
@@ -3268,8 +3767,9 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
-    </row>
-    <row r="101" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N100" s="2"/>
+    </row>
+    <row r="101" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="G101" s="2"/>
@@ -3279,8 +3779,9 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
-    </row>
-    <row r="102" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N101" s="2"/>
+    </row>
+    <row r="102" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="G102" s="2"/>
@@ -3290,8 +3791,9 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
-    </row>
-    <row r="103" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N102" s="2"/>
+    </row>
+    <row r="103" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="G103" s="2"/>
@@ -3301,8 +3803,9 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
-    </row>
-    <row r="104" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N103" s="2"/>
+    </row>
+    <row r="104" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="G104" s="2"/>
@@ -3312,8 +3815,9 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
-    </row>
-    <row r="105" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N104" s="2"/>
+    </row>
+    <row r="105" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="G105" s="2"/>
@@ -3323,8 +3827,9 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
-    </row>
-    <row r="106" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N105" s="2"/>
+    </row>
+    <row r="106" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="G106" s="2"/>
@@ -3334,8 +3839,9 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
-    </row>
-    <row r="107" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N106" s="2"/>
+    </row>
+    <row r="107" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="G107" s="2"/>
@@ -3345,8 +3851,9 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
-    </row>
-    <row r="108" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N107" s="2"/>
+    </row>
+    <row r="108" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="G108" s="2"/>
@@ -3356,8 +3863,9 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
-    </row>
-    <row r="109" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N108" s="2"/>
+    </row>
+    <row r="109" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="G109" s="2"/>
@@ -3367,8 +3875,9 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
-    </row>
-    <row r="110" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N109" s="2"/>
+    </row>
+    <row r="110" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="G110" s="2"/>
@@ -3378,8 +3887,9 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
-    </row>
-    <row r="111" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N110" s="2"/>
+    </row>
+    <row r="111" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="G111" s="2"/>
@@ -3389,8 +3899,9 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
-    </row>
-    <row r="112" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N111" s="2"/>
+    </row>
+    <row r="112" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="G112" s="2"/>
@@ -3400,8 +3911,9 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
-    </row>
-    <row r="113" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N112" s="2"/>
+    </row>
+    <row r="113" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="G113" s="2"/>
@@ -3411,8 +3923,9 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
-    </row>
-    <row r="114" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N113" s="2"/>
+    </row>
+    <row r="114" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="G114" s="2"/>
@@ -3422,8 +3935,9 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
-    </row>
-    <row r="115" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N114" s="2"/>
+    </row>
+    <row r="115" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="G115" s="2"/>
@@ -3433,8 +3947,9 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
-    </row>
-    <row r="116" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N115" s="2"/>
+    </row>
+    <row r="116" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="G116" s="2"/>
@@ -3444,8 +3959,9 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
-    </row>
-    <row r="117" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N116" s="2"/>
+    </row>
+    <row r="117" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="G117" s="2"/>
@@ -3455,8 +3971,9 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
-    </row>
-    <row r="118" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N117" s="2"/>
+    </row>
+    <row r="118" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="G118" s="2"/>
@@ -3466,8 +3983,9 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
-    </row>
-    <row r="119" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N118" s="2"/>
+    </row>
+    <row r="119" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="G119" s="2"/>
@@ -3477,8 +3995,9 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
-    </row>
-    <row r="120" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N119" s="2"/>
+    </row>
+    <row r="120" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="G120" s="2"/>
@@ -3488,8 +4007,9 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
-    </row>
-    <row r="121" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N120" s="2"/>
+    </row>
+    <row r="121" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="G121" s="2"/>
@@ -3499,8 +4019,9 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
-    </row>
-    <row r="122" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N121" s="2"/>
+    </row>
+    <row r="122" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="G122" s="2"/>
@@ -3510,8 +4031,9 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
-    </row>
-    <row r="123" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N122" s="2"/>
+    </row>
+    <row r="123" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="G123" s="2"/>
@@ -3521,8 +4043,9 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
-    </row>
-    <row r="124" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N123" s="2"/>
+    </row>
+    <row r="124" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="G124" s="2"/>
@@ -3532,8 +4055,9 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
-    </row>
-    <row r="125" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N124" s="2"/>
+    </row>
+    <row r="125" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="G125" s="2"/>
@@ -3543,8 +4067,45 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
-    </row>
-    <row r="129" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N125" s="2"/>
+    </row>
+    <row r="126" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
+    </row>
+    <row r="127" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
+      <c r="N127" s="2"/>
+    </row>
+    <row r="128" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
+    </row>
+    <row r="129" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="G129" s="2"/>
@@ -3554,8 +4115,9 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
-    </row>
-    <row r="130" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N129" s="2"/>
+    </row>
+    <row r="130" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="G130" s="2"/>
@@ -3565,8 +4127,9 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
-    </row>
-    <row r="131" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N130" s="2"/>
+    </row>
+    <row r="131" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="G131" s="2"/>
@@ -3576,8 +4139,9 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
-    </row>
-    <row r="132" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N131" s="2"/>
+    </row>
+    <row r="132" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="G132" s="2"/>
@@ -3587,8 +4151,9 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
-    </row>
-    <row r="133" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N132" s="2"/>
+    </row>
+    <row r="133" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="G133" s="2"/>
@@ -3598,41 +4163,9 @@
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
-    </row>
-    <row r="134" s="1" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="2"/>
-      <c r="J134" s="2"/>
-      <c r="K134" s="2"/>
-      <c r="L134" s="2"/>
-      <c r="M134" s="2"/>
-    </row>
-    <row r="135" s="1" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
-      <c r="I135" s="2"/>
-      <c r="J135" s="2"/>
-      <c r="K135" s="2"/>
-      <c r="L135" s="2"/>
-      <c r="M135" s="2"/>
-    </row>
-    <row r="136" s="1" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
-      <c r="J136" s="2"/>
-      <c r="K136" s="2"/>
-      <c r="L136" s="2"/>
-      <c r="M136" s="2"/>
-    </row>
-    <row r="137" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N133" s="2"/>
+    </row>
+    <row r="137" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="G137" s="2"/>
@@ -3642,8 +4175,9 @@
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
-    </row>
-    <row r="138" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N137" s="2"/>
+    </row>
+    <row r="138" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="G138" s="2"/>
@@ -3653,8 +4187,9 @@
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
-    </row>
-    <row r="139" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N138" s="2"/>
+    </row>
+    <row r="139" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="G139" s="2"/>
@@ -3664,8 +4199,9 @@
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
-    </row>
-    <row r="140" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N139" s="2"/>
+    </row>
+    <row r="140" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="G140" s="2"/>
@@ -3675,8 +4211,9 @@
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
-    </row>
-    <row r="141" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N140" s="2"/>
+    </row>
+    <row r="141" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="G141" s="2"/>
@@ -3686,8 +4223,9 @@
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
-    </row>
-    <row r="142" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N141" s="2"/>
+    </row>
+    <row r="142" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="G142" s="2"/>
@@ -3697,8 +4235,9 @@
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
-    </row>
-    <row r="143" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N142" s="2"/>
+    </row>
+    <row r="143" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="G143" s="2"/>
@@ -3708,8 +4247,9 @@
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
-    </row>
-    <row r="144" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N143" s="2"/>
+    </row>
+    <row r="144" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="G144" s="2"/>
@@ -3719,8 +4259,9 @@
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
-    </row>
-    <row r="145" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N144" s="2"/>
+    </row>
+    <row r="145" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="G145" s="2"/>
@@ -3730,8 +4271,9 @@
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
-    </row>
-    <row r="146" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N145" s="2"/>
+    </row>
+    <row r="146" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="G146" s="2"/>
@@ -3741,8 +4283,9 @@
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
-    </row>
-    <row r="147" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N146" s="2"/>
+    </row>
+    <row r="147" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="G147" s="2"/>
@@ -3752,8 +4295,9 @@
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
-    </row>
-    <row r="148" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="N147" s="2"/>
+    </row>
+    <row r="148" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="G148" s="2"/>
@@ -3763,10 +4307,107 @@
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
+      <c r="N148" s="2"/>
+    </row>
+    <row r="149" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2"/>
+      <c r="K149" s="2"/>
+      <c r="L149" s="2"/>
+      <c r="M149" s="2"/>
+      <c r="N149" s="2"/>
+    </row>
+    <row r="150" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
+      <c r="L150" s="2"/>
+      <c r="M150" s="2"/>
+      <c r="N150" s="2"/>
+    </row>
+    <row r="151" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
+      <c r="L151" s="2"/>
+      <c r="M151" s="2"/>
+      <c r="N151" s="2"/>
+    </row>
+    <row r="152" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2"/>
+      <c r="K152" s="2"/>
+      <c r="L152" s="2"/>
+      <c r="M152" s="2"/>
+      <c r="N152" s="2"/>
+    </row>
+    <row r="153" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2"/>
+      <c r="K153" s="2"/>
+      <c r="L153" s="2"/>
+      <c r="M153" s="2"/>
+      <c r="N153" s="2"/>
+    </row>
+    <row r="154" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2"/>
+      <c r="K154" s="2"/>
+      <c r="L154" s="2"/>
+      <c r="M154" s="2"/>
+      <c r="N154" s="2"/>
+    </row>
+    <row r="155" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2"/>
+      <c r="K155" s="2"/>
+      <c r="L155" s="2"/>
+      <c r="M155" s="2"/>
+      <c r="N155" s="2"/>
+    </row>
+    <row r="156" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2"/>
+      <c r="K156" s="2"/>
+      <c r="L156" s="2"/>
+      <c r="M156" s="2"/>
+      <c r="N156" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 J3 K3 L3 M3 D4 E4 F4 G4 H4 I4 J4 K4 L4 M4 D5 E5 F5 G5 H5 I5 J5 K5 L5 M5 C3:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:N5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/SoulRingAttrConfig.xlsx
+++ b/Excel/SoulRingAttrConfig.xlsx
@@ -27,7 +27,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="96">
+  <si>
+    <t>#</t>
+  </si>
   <si>
     <t>ID</t>
   </si>
@@ -98,7 +101,7 @@
     <t>10级解锁守护光环</t>
   </si>
   <si>
-    <t>19,19,19,14,28</t>
+    <t>20,20,20,15,30</t>
   </si>
   <si>
     <t>2,2,2,2,4</t>
@@ -110,31 +113,31 @@
     <t>友方所受伤害减少{0}%</t>
   </si>
   <si>
-    <t>39,39,39,34,68</t>
+    <t>40,40,40,35,70</t>
   </si>
   <si>
     <t>14,15,16,8,9,33</t>
   </si>
   <si>
-    <t>59,59,59,54,108,1</t>
+    <t>61,61,61,56,112,1</t>
   </si>
   <si>
     <t>3,3,3,3,6,1</t>
   </si>
   <si>
-    <t>119,119,119,114,228,21</t>
+    <t>122,122,122,117,234,21</t>
   </si>
   <si>
     <t>4,4,4,4,8,1</t>
   </si>
   <si>
-    <t>275,275,275,234,468,52</t>
+    <t>278,278,278,237,474,52</t>
   </si>
   <si>
     <t>40,40,40,4,8,2</t>
   </si>
   <si>
-    <t>915,915,915,298,596,84</t>
+    <t>918,918,918,301,602,84</t>
   </si>
   <si>
     <t>守护光环(满级)</t>
@@ -209,7 +212,7 @@
     <t>友方最终攻击增加{0}%</t>
   </si>
   <si>
-    <t>53,53,53,20,53</t>
+    <t>54,54,54,20,54</t>
   </si>
   <si>
     <t>3,3,3,1,3</t>
@@ -218,19 +221,19 @@
     <t>14,15,16,7,26,2002</t>
   </si>
   <si>
-    <t>83,83,83,30,83,1</t>
+    <t>84,84,84,30,84,1</t>
   </si>
   <si>
     <t>3,3,3,1,3,1</t>
   </si>
   <si>
-    <t>143,143,143,50,143,21</t>
+    <t>145,145,145,50,145,21</t>
   </si>
   <si>
     <t>4,4,4,1,4,1</t>
   </si>
   <si>
-    <t>299,299,299,81,299,52</t>
+    <t>301,301,301,81,269,52</t>
   </si>
   <si>
     <t>40,40,40,2,8,2</t>
@@ -257,7 +260,7 @@
     <t>友方闪避概率增加{0}%</t>
   </si>
   <si>
-    <t>53,53,53,53,53</t>
+    <t>54,54,54,54,54</t>
   </si>
   <si>
     <t>3,3,3,3,3</t>
@@ -266,25 +269,25 @@
     <t>14,15,16,27,28,2004</t>
   </si>
   <si>
-    <t>83,83,83,83,83,1</t>
+    <t>84,84,84,84,84,1</t>
   </si>
   <si>
     <t>3,3,3,3,3,1</t>
   </si>
   <si>
-    <t>143,143,143,143,143,21</t>
+    <t>145,145,145,145,145,21</t>
   </si>
   <si>
     <t>4,4,4,4,4,1</t>
   </si>
   <si>
-    <t>299,299,299,299,299,52</t>
+    <t>301,301,301,301,301,52</t>
   </si>
   <si>
     <t>40,40,40,40,40,2</t>
   </si>
   <si>
-    <t>939,939,939,939,939,84</t>
+    <t>941,941,941,941,941,84</t>
   </si>
   <si>
     <t>闪避光环(满级)</t>
@@ -324,7 +327,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,6 +338,12 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -497,12 +506,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -821,16 +836,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -839,37 +851,37 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -884,84 +896,89 @@
     <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1281,10 +1298,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R156"/>
+  <dimension ref="A1:AC156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1293,20 +1310,31 @@
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="5" width="12.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="2" customWidth="1"/>
     <col min="8" max="8" width="19" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="2" customWidth="1"/>
-    <col min="11" max="14" width="11.375" style="2" customWidth="1"/>
-    <col min="15" max="16" width="30.125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="9.625" style="2" customWidth="1"/>
-    <col min="19" max="16380" width="9" style="2"/>
-    <col min="16381" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="8.625" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="7.75" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.375" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="13.25" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="5.25" style="2" customWidth="1"/>
+    <col min="18" max="18" width="5.125" style="2" customWidth="1"/>
+    <col min="19" max="22" width="4.375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="4.375" style="3" customWidth="1"/>
+    <col min="24" max="24" width="5.125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="4.375" style="2" customWidth="1"/>
+    <col min="26" max="26" width="5.25" style="2" customWidth="1"/>
+    <col min="27" max="27" width="5" style="2" customWidth="1"/>
+    <col min="28" max="28" width="5.625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="6.125" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:18">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="G1" s="2"/>
@@ -1317,10 +1345,45 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="Q1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="3"/>
+      <c r="X1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="G2" s="2"/>
@@ -1331,154 +1394,192 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="Q2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="3"/>
+      <c r="X2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="O3" s="6" t="s">
         <v>13</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="W3" s="7"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="W4" s="7"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="W5" s="7"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:29">
       <c r="C6" s="1">
         <v>101</v>
       </c>
@@ -1491,14 +1592,14 @@
       <c r="F6" s="1">
         <v>9</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="H6" s="8" t="s">
         <v>21</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -1516,10 +1617,47 @@
         <v>1000</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>10</v>
+      </c>
+      <c r="R6" s="1">
+        <v>10</v>
+      </c>
+      <c r="S6" s="1">
+        <v>10</v>
+      </c>
+      <c r="T6" s="1">
+        <v>5</v>
+      </c>
+      <c r="U6" s="1">
+        <v>10</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="7"/>
+      <c r="X6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:29">
       <c r="C7" s="1">
         <v>102</v>
       </c>
@@ -1532,14 +1670,14 @@
       <c r="F7" s="1">
         <v>19</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="G7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>24</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -1558,13 +1696,56 @@
         <v>10000</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" ref="Q7:Q12" si="0">Q6+(F6-E6)*X6+X7</f>
+        <v>20</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" ref="R7:R12" si="1">R6+(F6-E6)*Y6+Y7</f>
+        <v>20</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" ref="S7:S12" si="2">S6+(F6-E6)*Z6+Z7</f>
+        <v>20</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" ref="T7:T12" si="3">T6+(F6-E6)*AA6+AA7</f>
+        <v>15</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" ref="U7:U12" si="4">U6+(F6-E6)*AB6+AB7</f>
+        <v>30</v>
+      </c>
+      <c r="V7" s="1">
+        <f t="shared" ref="V7:V12" si="5">V6+(F6-E6)*AC6+AC7</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="7"/>
+      <c r="X7" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:29">
       <c r="C8" s="1">
         <v>103</v>
       </c>
@@ -1577,14 +1758,14 @@
       <c r="F8" s="1">
         <v>29</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>24</v>
+      <c r="G8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -1596,19 +1777,63 @@
         <v>1</v>
       </c>
       <c r="M8" s="1">
+        <f t="shared" ref="M8:M12" si="6">M7+(F7-E7)*N7+N8</f>
         <v>120000</v>
       </c>
       <c r="N8" s="1">
         <v>20000</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="V8" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="7"/>
+      <c r="X8" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:29">
       <c r="C9" s="1">
         <v>104</v>
       </c>
@@ -1621,14 +1846,14 @@
       <c r="F9" s="1">
         <v>49</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="G9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="H9" s="8" t="s">
         <v>30</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -1640,19 +1865,63 @@
         <v>1</v>
       </c>
       <c r="M9" s="1">
+        <f t="shared" si="6"/>
         <v>340000</v>
       </c>
       <c r="N9" s="1">
         <v>40000</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
+      <c r="V9" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W9" s="7"/>
+      <c r="X9" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:29">
       <c r="C10" s="1">
         <v>105</v>
       </c>
@@ -1665,14 +1934,14 @@
       <c r="F10" s="1">
         <v>79</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="6" t="s">
+      <c r="G10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>32</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -1684,19 +1953,63 @@
         <v>1</v>
       </c>
       <c r="M10" s="1">
+        <f t="shared" si="6"/>
         <v>1180000</v>
       </c>
       <c r="N10" s="1">
         <v>80000</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="U10" s="1">
+        <f t="shared" si="4"/>
+        <v>234</v>
+      </c>
+      <c r="V10" s="1">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="W10" s="7"/>
+      <c r="X10" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:29">
       <c r="C11" s="1">
         <v>106</v>
       </c>
@@ -1709,14 +2022,14 @@
       <c r="F11" s="1">
         <v>95</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="6" t="s">
+      <c r="G11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>34</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -1728,19 +2041,63 @@
         <v>1</v>
       </c>
       <c r="M11" s="1">
-        <v>3500000</v>
+        <f t="shared" si="6"/>
+        <v>3660000</v>
       </c>
       <c r="N11" s="1">
         <v>160000</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="0"/>
+        <v>278</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="1"/>
+        <v>278</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="2"/>
+        <v>278</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="3"/>
+        <v>237</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" si="4"/>
+        <v>474</v>
+      </c>
+      <c r="V11" s="1">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="W11" s="7"/>
+      <c r="X11" s="1">
+        <v>40</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>40</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>40</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:29">
       <c r="C12" s="1">
         <v>107</v>
       </c>
@@ -1753,14 +2110,14 @@
       <c r="F12" s="1">
         <v>120</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="6" t="s">
+      <c r="G12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -1772,20 +2129,66 @@
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>5900000</v>
+        <f t="shared" si="6"/>
+        <v>6220000</v>
       </c>
       <c r="N12" s="1">
         <v>160000</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" customHeight="1"/>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>38</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="0"/>
+        <v>918</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="1"/>
+        <v>918</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="2"/>
+        <v>918</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="3"/>
+        <v>301</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" si="4"/>
+        <v>602</v>
+      </c>
+      <c r="V12" s="1">
+        <f t="shared" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="W12" s="7"/>
+      <c r="X12" s="1">
+        <v>40</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>40</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>40</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="23:23">
+      <c r="W13" s="7"/>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="3:29">
       <c r="C14" s="1">
         <v>201</v>
       </c>
@@ -1798,14 +2201,14 @@
       <c r="F14" s="1">
         <v>9</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="6" t="s">
+      <c r="G14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>21</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -1823,10 +2226,47 @@
         <v>3000</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>40</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>10</v>
+      </c>
+      <c r="R14" s="1">
+        <v>10</v>
+      </c>
+      <c r="S14" s="1">
+        <v>10</v>
+      </c>
+      <c r="T14" s="1">
+        <v>5</v>
+      </c>
+      <c r="U14" s="1">
+        <v>10</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14" s="7"/>
+      <c r="X14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="3:23">
       <c r="C15" s="1">
         <v>202</v>
       </c>
@@ -1839,14 +2279,14 @@
       <c r="F15" s="1">
         <v>19</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="6" t="s">
+      <c r="G15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>24</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="J15" s="1">
         <v>2</v>
@@ -1864,13 +2304,14 @@
         <v>30000</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>42</v>
+      </c>
+      <c r="W15" s="7"/>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:23">
       <c r="C16" s="1">
         <v>203</v>
       </c>
@@ -1883,14 +2324,14 @@
       <c r="F16" s="1">
         <v>29</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>24</v>
+      <c r="G16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="J16" s="1">
         <v>2</v>
@@ -1902,19 +2343,21 @@
         <v>1</v>
       </c>
       <c r="M16" s="1">
+        <f t="shared" ref="M16:M19" si="7">M15+(F15-E15)*N15+N16</f>
         <v>350000</v>
       </c>
       <c r="N16" s="1">
         <v>50000</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>42</v>
+      </c>
+      <c r="W16" s="7"/>
+    </row>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="3:23">
       <c r="C17" s="1">
         <v>204</v>
       </c>
@@ -1927,14 +2370,14 @@
       <c r="F17" s="1">
         <v>49</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="6" t="s">
+      <c r="G17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>30</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="J17" s="1">
         <v>2</v>
@@ -1946,19 +2389,21 @@
         <v>1</v>
       </c>
       <c r="M17" s="1">
+        <f t="shared" si="7"/>
         <v>900000</v>
       </c>
       <c r="N17" s="1">
         <v>100000</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>42</v>
+      </c>
+      <c r="W17" s="7"/>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="3:23">
       <c r="C18" s="1">
         <v>205</v>
       </c>
@@ -1971,14 +2416,14 @@
       <c r="F18" s="1">
         <v>79</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="6" t="s">
+      <c r="G18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>32</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="J18" s="1">
         <v>2</v>
@@ -1990,19 +2435,21 @@
         <v>1</v>
       </c>
       <c r="M18" s="1">
+        <f t="shared" si="7"/>
         <v>3000000</v>
       </c>
       <c r="N18" s="1">
         <v>200000</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>42</v>
+      </c>
+      <c r="W18" s="7"/>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="3:23">
       <c r="C19" s="1">
         <v>206</v>
       </c>
@@ -2015,14 +2462,14 @@
       <c r="F19" s="1">
         <v>120</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="6" t="s">
+      <c r="G19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>34</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="J19" s="1">
         <v>2</v>
@@ -2034,20 +2481,24 @@
         <v>1</v>
       </c>
       <c r="M19" s="1">
-        <v>8800000</v>
+        <f t="shared" si="7"/>
+        <v>9200000</v>
       </c>
       <c r="N19" s="1">
         <v>400000</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" customHeight="1"/>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>42</v>
+      </c>
+      <c r="W19" s="7"/>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="23:23">
+      <c r="W20" s="7"/>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="3:23">
       <c r="C21" s="1">
         <v>301</v>
       </c>
@@ -2060,14 +2511,14 @@
       <c r="F21" s="1">
         <v>9</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="6" t="s">
+      <c r="G21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>21</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -2085,10 +2536,11 @@
         <v>6000</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>45</v>
+      </c>
+      <c r="W21" s="7"/>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="3:23">
       <c r="C22" s="1">
         <v>302</v>
       </c>
@@ -2101,14 +2553,14 @@
       <c r="F22" s="1">
         <v>19</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="6" t="s">
+      <c r="G22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="8" t="s">
         <v>24</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="J22" s="1">
         <v>3</v>
@@ -2126,13 +2578,14 @@
         <v>50000</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>47</v>
+      </c>
+      <c r="W22" s="7"/>
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="3:23">
       <c r="C23" s="1">
         <v>303</v>
       </c>
@@ -2145,14 +2598,14 @@
       <c r="F23" s="1">
         <v>29</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>24</v>
+      <c r="G23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="J23" s="1">
         <v>3</v>
@@ -2164,19 +2617,21 @@
         <v>1</v>
       </c>
       <c r="M23" s="1">
+        <f t="shared" ref="M23:M26" si="8">M22+(F22-E22)*N22+N23</f>
         <v>590000</v>
       </c>
       <c r="N23" s="1">
         <v>80000</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>47</v>
+      </c>
+      <c r="W23" s="7"/>
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="3:23">
       <c r="C24" s="1">
         <v>304</v>
       </c>
@@ -2189,14 +2644,14 @@
       <c r="F24" s="1">
         <v>49</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="6" t="s">
+      <c r="G24" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>30</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="J24" s="1">
         <v>3</v>
@@ -2208,19 +2663,21 @@
         <v>1</v>
       </c>
       <c r="M24" s="1">
+        <f t="shared" si="8"/>
         <v>1470000</v>
       </c>
       <c r="N24" s="1">
         <v>160000</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>47</v>
+      </c>
+      <c r="W24" s="7"/>
+    </row>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="3:23">
       <c r="C25" s="1">
         <v>305</v>
       </c>
@@ -2233,14 +2690,14 @@
       <c r="F25" s="1">
         <v>79</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="6" t="s">
+      <c r="G25" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>32</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="J25" s="1">
         <v>3</v>
@@ -2252,19 +2709,21 @@
         <v>1</v>
       </c>
       <c r="M25" s="1">
+        <f t="shared" si="8"/>
         <v>4830000</v>
       </c>
       <c r="N25" s="1">
         <v>320000</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>47</v>
+      </c>
+      <c r="W25" s="7"/>
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="3:23">
       <c r="C26" s="1">
         <v>306</v>
       </c>
@@ -2277,14 +2736,14 @@
       <c r="F26" s="1">
         <v>120</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" s="6" t="s">
+      <c r="G26" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="8" t="s">
         <v>34</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="J26" s="1">
         <v>3</v>
@@ -2296,20 +2755,24 @@
         <v>1</v>
       </c>
       <c r="M26" s="1">
-        <v>14110000</v>
+        <f t="shared" si="8"/>
+        <v>14750000</v>
       </c>
       <c r="N26" s="1">
         <v>640000</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" customHeight="1"/>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>47</v>
+      </c>
+      <c r="W26" s="7"/>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="23:23">
+      <c r="W27" s="7"/>
+    </row>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="3:23">
       <c r="C28" s="1">
         <v>401</v>
       </c>
@@ -2322,14 +2785,14 @@
       <c r="F28" s="1">
         <v>9</v>
       </c>
-      <c r="G28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="6" t="s">
+      <c r="G28" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="8" t="s">
         <v>21</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
@@ -2347,10 +2810,11 @@
         <v>10000</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>50</v>
+      </c>
+      <c r="W28" s="7"/>
+    </row>
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="3:23">
       <c r="C29" s="1">
         <v>402</v>
       </c>
@@ -2363,14 +2827,14 @@
       <c r="F29" s="1">
         <v>19</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" s="6" t="s">
+      <c r="G29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="8" t="s">
         <v>24</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="J29" s="1">
         <v>4</v>
@@ -2388,13 +2852,14 @@
         <v>80000</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>52</v>
+      </c>
+      <c r="W29" s="7"/>
+    </row>
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="3:23">
       <c r="C30" s="1">
         <v>403</v>
       </c>
@@ -2407,14 +2872,14 @@
       <c r="F30" s="1">
         <v>29</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>24</v>
+      <c r="G30" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="J30" s="1">
         <v>4</v>
@@ -2426,19 +2891,21 @@
         <v>1</v>
       </c>
       <c r="M30" s="1">
+        <f t="shared" ref="M30:M33" si="9">M29+(F29-E29)*N29+N30</f>
         <v>970000</v>
       </c>
       <c r="N30" s="1">
         <v>150000</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>52</v>
+      </c>
+      <c r="W30" s="7"/>
+    </row>
+    <row r="31" s="1" customFormat="1" customHeight="1" spans="3:23">
       <c r="C31" s="1">
         <v>404</v>
       </c>
@@ -2451,14 +2918,14 @@
       <c r="F31" s="1">
         <v>49</v>
       </c>
-      <c r="G31" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I31" s="6" t="s">
+      <c r="G31" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="8" t="s">
         <v>30</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="J31" s="1">
         <v>4</v>
@@ -2470,19 +2937,21 @@
         <v>1</v>
       </c>
       <c r="M31" s="1">
+        <f t="shared" si="9"/>
         <v>2620000</v>
       </c>
       <c r="N31" s="1">
         <v>300000</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>52</v>
+      </c>
+      <c r="W31" s="7"/>
+    </row>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="3:23">
       <c r="C32" s="1">
         <v>405</v>
       </c>
@@ -2495,14 +2964,14 @@
       <c r="F32" s="1">
         <v>79</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I32" s="6" t="s">
+      <c r="G32" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="8" t="s">
         <v>32</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="J32" s="1">
         <v>4</v>
@@ -2514,19 +2983,21 @@
         <v>1</v>
       </c>
       <c r="M32" s="1">
+        <f t="shared" si="9"/>
         <v>8920000</v>
       </c>
       <c r="N32" s="1">
         <v>600000</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>52</v>
+      </c>
+      <c r="W32" s="7"/>
+    </row>
+    <row r="33" s="1" customFormat="1" customHeight="1" spans="3:23">
       <c r="C33" s="1">
         <v>406</v>
       </c>
@@ -2539,14 +3010,14 @@
       <c r="F33" s="1">
         <v>120</v>
       </c>
-      <c r="G33" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I33" s="6" t="s">
+      <c r="G33" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="8" t="s">
         <v>34</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="J33" s="1">
         <v>4</v>
@@ -2558,20 +3029,24 @@
         <v>1</v>
       </c>
       <c r="M33" s="1">
-        <v>26320000</v>
+        <f t="shared" si="9"/>
+        <v>27520000</v>
       </c>
       <c r="N33" s="1">
         <v>1200000</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" customHeight="1"/>
-    <row r="35" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>52</v>
+      </c>
+      <c r="W33" s="7"/>
+    </row>
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="23:23">
+      <c r="W34" s="7"/>
+    </row>
+    <row r="35" s="1" customFormat="1" customHeight="1" spans="3:29">
       <c r="C35" s="1">
         <v>501</v>
       </c>
@@ -2584,14 +3059,14 @@
       <c r="F35" s="1">
         <v>9</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H35" s="6" t="s">
+      <c r="G35" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="H35" s="8" t="s">
         <v>55</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="J35" s="1">
         <v>0</v>
@@ -2609,10 +3084,47 @@
         <v>20000</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>57</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>15</v>
+      </c>
+      <c r="R35" s="1">
+        <v>15</v>
+      </c>
+      <c r="S35" s="1">
+        <v>15</v>
+      </c>
+      <c r="T35" s="1">
+        <v>1</v>
+      </c>
+      <c r="U35" s="1">
+        <v>15</v>
+      </c>
+      <c r="V35" s="1">
+        <v>0</v>
+      </c>
+      <c r="W35" s="7"/>
+      <c r="X35" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" customHeight="1" spans="3:29">
       <c r="C36" s="1">
         <v>502</v>
       </c>
@@ -2625,14 +3137,14 @@
       <c r="F36" s="1">
         <v>19</v>
       </c>
-      <c r="G36" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>55</v>
+      <c r="G36" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="J36" s="1">
         <v>5</v>
@@ -2650,13 +3162,56 @@
         <v>150000</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>60</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" ref="Q36:Q40" si="10">Q35+(F35-E35)*X35+X36</f>
+        <v>33</v>
+      </c>
+      <c r="R36" s="1">
+        <f t="shared" ref="R36:R40" si="11">R35+(F35-E35)*Y35+Y36</f>
+        <v>33</v>
+      </c>
+      <c r="S36" s="1">
+        <f t="shared" ref="S36:S40" si="12">S35+(F35-E35)*Z35+Z36</f>
+        <v>33</v>
+      </c>
+      <c r="T36" s="1">
+        <f t="shared" ref="T36:T40" si="13">T35+(F35-E35)*AA35+AA36</f>
+        <v>10</v>
+      </c>
+      <c r="U36" s="1">
+        <f t="shared" ref="U36:U40" si="14">U35+(F35-E35)*AB35+AB36</f>
+        <v>33</v>
+      </c>
+      <c r="V36" s="1">
+        <f t="shared" ref="V36:V40" si="15">V35+(F35-E35)*AC35+AC36</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="7"/>
+      <c r="X36" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" customHeight="1" spans="3:29">
       <c r="C37" s="1">
         <v>503</v>
       </c>
@@ -2669,14 +3224,14 @@
       <c r="F37" s="1">
         <v>29</v>
       </c>
-      <c r="G37" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I37" s="6" t="s">
+      <c r="G37" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" s="9" t="s">
         <v>61</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="J37" s="1">
         <v>5</v>
@@ -2688,19 +3243,63 @@
         <v>1</v>
       </c>
       <c r="M37" s="1">
+        <f t="shared" ref="M37:M40" si="16">M36+(F36-E36)*N36+N37</f>
         <v>1800000</v>
       </c>
       <c r="N37" s="1">
         <v>250000</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>60</v>
+      </c>
+      <c r="Q37" s="1">
+        <f t="shared" si="10"/>
+        <v>54</v>
+      </c>
+      <c r="R37" s="1">
+        <f t="shared" si="11"/>
+        <v>54</v>
+      </c>
+      <c r="S37" s="1">
+        <f t="shared" si="12"/>
+        <v>54</v>
+      </c>
+      <c r="T37" s="1">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="U37" s="1">
+        <f t="shared" si="14"/>
+        <v>54</v>
+      </c>
+      <c r="V37" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="7"/>
+      <c r="X37" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" customHeight="1" spans="3:29">
       <c r="C38" s="1">
         <v>504</v>
       </c>
@@ -2713,14 +3312,14 @@
       <c r="F38" s="1">
         <v>49</v>
       </c>
-      <c r="G38" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H38" s="7" t="s">
+      <c r="G38" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="H38" s="9" t="s">
         <v>64</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="J38" s="1">
         <v>5</v>
@@ -2732,19 +3331,63 @@
         <v>1</v>
       </c>
       <c r="M38" s="1">
+        <f t="shared" si="16"/>
         <v>4550000</v>
       </c>
       <c r="N38" s="1">
         <v>500000</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>60</v>
+      </c>
+      <c r="Q38" s="1">
+        <f t="shared" si="10"/>
+        <v>84</v>
+      </c>
+      <c r="R38" s="1">
+        <f t="shared" si="11"/>
+        <v>84</v>
+      </c>
+      <c r="S38" s="1">
+        <f t="shared" si="12"/>
+        <v>84</v>
+      </c>
+      <c r="T38" s="1">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="U38" s="1">
+        <f t="shared" si="14"/>
+        <v>84</v>
+      </c>
+      <c r="V38" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="W38" s="7"/>
+      <c r="X38" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" customHeight="1" spans="3:29">
       <c r="C39" s="1">
         <v>505</v>
       </c>
@@ -2757,14 +3400,14 @@
       <c r="F39" s="1">
         <v>79</v>
       </c>
-      <c r="G39" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I39" s="6" t="s">
+      <c r="G39" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" s="9" t="s">
         <v>66</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="J39" s="1">
         <v>5</v>
@@ -2776,19 +3419,63 @@
         <v>1</v>
       </c>
       <c r="M39" s="1">
-        <v>15550000</v>
+        <f t="shared" si="16"/>
+        <v>15050000</v>
       </c>
       <c r="N39" s="1">
         <v>1000000</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>60</v>
+      </c>
+      <c r="Q39" s="1">
+        <f t="shared" si="10"/>
+        <v>145</v>
+      </c>
+      <c r="R39" s="1">
+        <f t="shared" si="11"/>
+        <v>145</v>
+      </c>
+      <c r="S39" s="1">
+        <f t="shared" si="12"/>
+        <v>145</v>
+      </c>
+      <c r="T39" s="1">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="U39" s="1">
+        <f t="shared" si="14"/>
+        <v>145</v>
+      </c>
+      <c r="V39" s="1">
+        <f t="shared" si="15"/>
+        <v>21</v>
+      </c>
+      <c r="W39" s="7"/>
+      <c r="X39" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" customHeight="1" spans="3:29">
       <c r="C40" s="1">
         <v>506</v>
       </c>
@@ -2801,14 +3488,14 @@
       <c r="F40" s="1">
         <v>120</v>
       </c>
-      <c r="G40" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I40" s="6" t="s">
+      <c r="G40" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40" s="9" t="s">
         <v>68</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="J40" s="1">
         <v>5</v>
@@ -2820,20 +3507,66 @@
         <v>1</v>
       </c>
       <c r="M40" s="1">
-        <v>44550000</v>
+        <f t="shared" si="16"/>
+        <v>45050000</v>
       </c>
       <c r="N40" s="1">
         <v>1000000</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" customHeight="1"/>
-    <row r="42" s="1" customFormat="1" customHeight="1" spans="3:15">
+        <v>60</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="10"/>
+        <v>301</v>
+      </c>
+      <c r="R40" s="1">
+        <f t="shared" si="11"/>
+        <v>301</v>
+      </c>
+      <c r="S40" s="1">
+        <f t="shared" si="12"/>
+        <v>301</v>
+      </c>
+      <c r="T40" s="1">
+        <f t="shared" si="13"/>
+        <v>81</v>
+      </c>
+      <c r="U40" s="1">
+        <f t="shared" si="14"/>
+        <v>269</v>
+      </c>
+      <c r="V40" s="1">
+        <f t="shared" si="15"/>
+        <v>52</v>
+      </c>
+      <c r="W40" s="7"/>
+      <c r="X40" s="1">
+        <v>40</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>40</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>40</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" customHeight="1" spans="23:23">
+      <c r="W41" s="7"/>
+    </row>
+    <row r="42" s="1" customFormat="1" customHeight="1" spans="3:29">
       <c r="C42" s="1">
         <v>601</v>
       </c>
@@ -2846,14 +3579,14 @@
       <c r="F42" s="1">
         <v>9</v>
       </c>
-      <c r="G42" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H42" s="6" t="s">
+      <c r="G42" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="I42" s="6" t="s">
+      <c r="H42" s="8" t="s">
         <v>71</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="J42" s="1">
         <v>0</v>
@@ -2871,10 +3604,47 @@
         <v>40000</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>73</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>15</v>
+      </c>
+      <c r="R42" s="1">
+        <v>15</v>
+      </c>
+      <c r="S42" s="1">
+        <v>15</v>
+      </c>
+      <c r="T42" s="1">
+        <v>15</v>
+      </c>
+      <c r="U42" s="1">
+        <v>15</v>
+      </c>
+      <c r="V42" s="1">
+        <v>0</v>
+      </c>
+      <c r="W42" s="7"/>
+      <c r="X42" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" customHeight="1" spans="3:29">
       <c r="C43" s="1">
         <v>602</v>
       </c>
@@ -2887,14 +3657,14 @@
       <c r="F43" s="1">
         <v>19</v>
       </c>
-      <c r="G43" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>71</v>
+      <c r="G43" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="J43" s="1">
         <v>6</v>
@@ -2912,13 +3682,56 @@
         <v>200000</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>76</v>
+      </c>
+      <c r="Q43" s="1">
+        <f t="shared" ref="Q43:Q48" si="17">Q42+(F42-E42)*X42+X43</f>
+        <v>33</v>
+      </c>
+      <c r="R43" s="1">
+        <f t="shared" ref="R43:R48" si="18">R42+(F42-E42)*Y42+Y43</f>
+        <v>33</v>
+      </c>
+      <c r="S43" s="1">
+        <f t="shared" ref="S43:S48" si="19">S42+(F42-E42)*Z42+Z43</f>
+        <v>33</v>
+      </c>
+      <c r="T43" s="1">
+        <f t="shared" ref="T43:T48" si="20">T42+(F42-E42)*AA42+AA43</f>
+        <v>33</v>
+      </c>
+      <c r="U43" s="1">
+        <f t="shared" ref="U43:U48" si="21">U42+(F42-E42)*AB42+AB43</f>
+        <v>33</v>
+      </c>
+      <c r="V43" s="1">
+        <f t="shared" ref="V43:V48" si="22">V42+(F42-E42)*AC42+AC43</f>
+        <v>0</v>
+      </c>
+      <c r="W43" s="7"/>
+      <c r="X43" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" customHeight="1" spans="3:29">
       <c r="C44" s="1">
         <v>603</v>
       </c>
@@ -2931,14 +3744,14 @@
       <c r="F44" s="1">
         <v>29</v>
       </c>
-      <c r="G44" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I44" s="6" t="s">
+      <c r="G44" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H44" s="9" t="s">
         <v>77</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="J44" s="1">
         <v>6</v>
@@ -2950,19 +3763,63 @@
         <v>1</v>
       </c>
       <c r="M44" s="1">
+        <f t="shared" ref="M44:M48" si="23">M43+(F43-E43)*N43+N44</f>
         <v>2600000</v>
       </c>
       <c r="N44" s="1">
         <v>400000</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>76</v>
+      </c>
+      <c r="Q44" s="1">
+        <f t="shared" si="17"/>
+        <v>54</v>
+      </c>
+      <c r="R44" s="1">
+        <f t="shared" si="18"/>
+        <v>54</v>
+      </c>
+      <c r="S44" s="1">
+        <f t="shared" si="19"/>
+        <v>54</v>
+      </c>
+      <c r="T44" s="1">
+        <f t="shared" si="20"/>
+        <v>54</v>
+      </c>
+      <c r="U44" s="1">
+        <f t="shared" si="21"/>
+        <v>54</v>
+      </c>
+      <c r="V44" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="W44" s="7"/>
+      <c r="X44" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z44" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" customHeight="1" spans="3:29">
       <c r="C45" s="1">
         <v>604</v>
       </c>
@@ -2975,14 +3832,14 @@
       <c r="F45" s="1">
         <v>49</v>
       </c>
-      <c r="G45" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H45" s="6" t="s">
+      <c r="G45" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="I45" s="6" t="s">
+      <c r="H45" s="8" t="s">
         <v>80</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="J45" s="1">
         <v>6</v>
@@ -2994,19 +3851,63 @@
         <v>1</v>
       </c>
       <c r="M45" s="1">
+        <f t="shared" si="23"/>
         <v>7000000</v>
       </c>
       <c r="N45" s="1">
         <v>800000</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>76</v>
+      </c>
+      <c r="Q45" s="1">
+        <f t="shared" si="17"/>
+        <v>84</v>
+      </c>
+      <c r="R45" s="1">
+        <f t="shared" si="18"/>
+        <v>84</v>
+      </c>
+      <c r="S45" s="1">
+        <f t="shared" si="19"/>
+        <v>84</v>
+      </c>
+      <c r="T45" s="1">
+        <f t="shared" si="20"/>
+        <v>84</v>
+      </c>
+      <c r="U45" s="1">
+        <f t="shared" si="21"/>
+        <v>84</v>
+      </c>
+      <c r="V45" s="1">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="W45" s="7"/>
+      <c r="X45" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" customHeight="1" spans="3:29">
       <c r="C46" s="1">
         <v>605</v>
       </c>
@@ -3019,14 +3920,14 @@
       <c r="F46" s="1">
         <v>79</v>
       </c>
-      <c r="G46" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I46" s="6" t="s">
+      <c r="G46" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H46" s="9" t="s">
         <v>82</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="J46" s="1">
         <v>6</v>
@@ -3037,20 +3938,64 @@
       <c r="L46" s="1">
         <v>1</v>
       </c>
-      <c r="M46" s="2">
+      <c r="M46" s="1">
+        <f t="shared" si="23"/>
         <v>23800000</v>
       </c>
       <c r="N46" s="2">
         <v>1600000</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>76</v>
+      </c>
+      <c r="Q46" s="1">
+        <f t="shared" si="17"/>
+        <v>145</v>
+      </c>
+      <c r="R46" s="1">
+        <f t="shared" si="18"/>
+        <v>145</v>
+      </c>
+      <c r="S46" s="1">
+        <f t="shared" si="19"/>
+        <v>145</v>
+      </c>
+      <c r="T46" s="1">
+        <f t="shared" si="20"/>
+        <v>145</v>
+      </c>
+      <c r="U46" s="1">
+        <f t="shared" si="21"/>
+        <v>145</v>
+      </c>
+      <c r="V46" s="1">
+        <f t="shared" si="22"/>
+        <v>21</v>
+      </c>
+      <c r="W46" s="7"/>
+      <c r="X46" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" customHeight="1" spans="3:29">
       <c r="C47" s="1">
         <v>606</v>
       </c>
@@ -3063,14 +4008,14 @@
       <c r="F47" s="1">
         <v>95</v>
       </c>
-      <c r="G47" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I47" s="6" t="s">
+      <c r="G47" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H47" s="9" t="s">
         <v>84</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="J47" s="1">
         <v>6</v>
@@ -3081,20 +4026,64 @@
       <c r="L47" s="1">
         <v>1</v>
       </c>
-      <c r="M47" s="2">
-        <v>70200000</v>
+      <c r="M47" s="1">
+        <f t="shared" si="23"/>
+        <v>73400000</v>
       </c>
       <c r="N47" s="2">
         <v>3200000</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>76</v>
+      </c>
+      <c r="Q47" s="1">
+        <f t="shared" si="17"/>
+        <v>301</v>
+      </c>
+      <c r="R47" s="1">
+        <f t="shared" si="18"/>
+        <v>301</v>
+      </c>
+      <c r="S47" s="1">
+        <f t="shared" si="19"/>
+        <v>301</v>
+      </c>
+      <c r="T47" s="1">
+        <f t="shared" si="20"/>
+        <v>301</v>
+      </c>
+      <c r="U47" s="1">
+        <f t="shared" si="21"/>
+        <v>301</v>
+      </c>
+      <c r="V47" s="1">
+        <f t="shared" si="22"/>
+        <v>52</v>
+      </c>
+      <c r="W47" s="7"/>
+      <c r="X47" s="1">
+        <v>40</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>40</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>40</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>40</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>40</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" customHeight="1" spans="3:29">
       <c r="C48" s="1">
         <v>607</v>
       </c>
@@ -3107,14 +4096,14 @@
       <c r="F48" s="1">
         <v>120</v>
       </c>
-      <c r="G48" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H48" s="7" t="s">
+      <c r="G48" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I48" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="J48" s="1">
         <v>6</v>
@@ -3125,20 +4114,64 @@
       <c r="L48" s="1">
         <v>0</v>
       </c>
-      <c r="M48" s="2">
-        <v>118200000</v>
+      <c r="M48" s="1">
+        <f t="shared" si="23"/>
+        <v>124600000</v>
       </c>
       <c r="N48" s="2">
         <v>3200000</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" customHeight="1" spans="7:14">
+        <v>88</v>
+      </c>
+      <c r="Q48" s="1">
+        <f t="shared" si="17"/>
+        <v>941</v>
+      </c>
+      <c r="R48" s="1">
+        <f t="shared" si="18"/>
+        <v>941</v>
+      </c>
+      <c r="S48" s="1">
+        <f t="shared" si="19"/>
+        <v>941</v>
+      </c>
+      <c r="T48" s="1">
+        <f t="shared" si="20"/>
+        <v>941</v>
+      </c>
+      <c r="U48" s="1">
+        <f t="shared" si="21"/>
+        <v>941</v>
+      </c>
+      <c r="V48" s="1">
+        <f t="shared" si="22"/>
+        <v>84</v>
+      </c>
+      <c r="W48" s="7"/>
+      <c r="X48" s="1">
+        <v>40</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>40</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>40</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>40</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>40</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" customHeight="1" spans="7:23">
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -3147,8 +4180,9 @@
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
-    </row>
-    <row r="50" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="W49" s="7"/>
+    </row>
+    <row r="50" s="1" customFormat="1" customHeight="1" spans="3:23">
       <c r="C50" s="1">
         <v>701</v>
       </c>
@@ -3161,14 +4195,14 @@
       <c r="F50" s="1">
         <v>9</v>
       </c>
-      <c r="G50" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I50" s="6" t="s">
+      <c r="G50" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H50" s="8" t="s">
         <v>71</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="J50" s="1">
         <v>0</v>
@@ -3186,10 +4220,11 @@
         <v>80000</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>90</v>
+      </c>
+      <c r="W50" s="7"/>
+    </row>
+    <row r="51" s="1" customFormat="1" customHeight="1" spans="3:23">
       <c r="C51" s="1">
         <v>702</v>
       </c>
@@ -3202,14 +4237,14 @@
       <c r="F51" s="1">
         <v>19</v>
       </c>
-      <c r="G51" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>71</v>
+      <c r="G51" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="J51" s="1">
         <v>7</v>
@@ -3227,13 +4262,14 @@
         <v>300000</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>92</v>
+      </c>
+      <c r="W51" s="7"/>
+    </row>
+    <row r="52" s="1" customFormat="1" customHeight="1" spans="3:23">
       <c r="C52" s="1">
         <v>703</v>
       </c>
@@ -3246,14 +4282,14 @@
       <c r="F52" s="1">
         <v>29</v>
       </c>
-      <c r="G52" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I52" s="6" t="s">
+      <c r="G52" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H52" s="9" t="s">
         <v>77</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="J52" s="1">
         <v>7</v>
@@ -3265,19 +4301,21 @@
         <v>1</v>
       </c>
       <c r="M52" s="1">
+        <f t="shared" ref="M52:M55" si="24">M51+(F51-E51)*N51+N52</f>
         <v>4100000</v>
       </c>
       <c r="N52" s="1">
         <v>600000</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>92</v>
+      </c>
+      <c r="W52" s="7"/>
+    </row>
+    <row r="53" s="1" customFormat="1" customHeight="1" spans="3:23">
       <c r="C53" s="1">
         <v>704</v>
       </c>
@@ -3290,14 +4328,14 @@
       <c r="F53" s="1">
         <v>49</v>
       </c>
-      <c r="G53" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I53" s="6" t="s">
+      <c r="G53" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H53" s="8" t="s">
         <v>80</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="J53" s="1">
         <v>7</v>
@@ -3309,19 +4347,21 @@
         <v>1</v>
       </c>
       <c r="M53" s="1">
+        <f t="shared" si="24"/>
         <v>10500000</v>
       </c>
       <c r="N53" s="1">
         <v>1000000</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="54" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>92</v>
+      </c>
+      <c r="W53" s="7"/>
+    </row>
+    <row r="54" s="1" customFormat="1" customHeight="1" spans="3:23">
       <c r="C54" s="1">
         <v>705</v>
       </c>
@@ -3334,14 +4374,14 @@
       <c r="F54" s="1">
         <v>79</v>
       </c>
-      <c r="G54" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I54" s="6" t="s">
+      <c r="G54" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H54" s="9" t="s">
         <v>82</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="J54" s="1">
         <v>7</v>
@@ -3353,19 +4393,21 @@
         <v>1</v>
       </c>
       <c r="M54" s="1">
+        <f t="shared" si="24"/>
         <v>31500000</v>
       </c>
       <c r="N54" s="1">
         <v>2000000</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" s="1" customFormat="1" customHeight="1" spans="3:16">
+        <v>92</v>
+      </c>
+      <c r="W54" s="7"/>
+    </row>
+    <row r="55" s="1" customFormat="1" customHeight="1" spans="3:23">
       <c r="C55" s="1">
         <v>706</v>
       </c>
@@ -3378,14 +4420,14 @@
       <c r="F55" s="1">
         <v>120</v>
       </c>
-      <c r="G55" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I55" s="6" t="s">
+      <c r="G55" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H55" s="9" t="s">
         <v>84</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="J55" s="1">
         <v>7</v>
@@ -3397,46 +4439,73 @@
         <v>0</v>
       </c>
       <c r="M55" s="1">
-        <v>89500000</v>
+        <f t="shared" si="24"/>
+        <v>91500000</v>
       </c>
       <c r="N55" s="1">
         <v>2000000</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="56" s="1" customFormat="1" customHeight="1"/>
-    <row r="57" s="1" customFormat="1" customHeight="1" spans="2:2">
+        <v>95</v>
+      </c>
+      <c r="W55" s="7"/>
+    </row>
+    <row r="56" s="1" customFormat="1" customHeight="1" spans="8:23">
+      <c r="H56" s="5"/>
+      <c r="W56" s="7"/>
+    </row>
+    <row r="57" s="1" customFormat="1" customHeight="1" spans="2:23">
       <c r="B57" s="2"/>
-    </row>
-    <row r="58" s="1" customFormat="1" customHeight="1" spans="2:2">
+      <c r="W57" s="7"/>
+    </row>
+    <row r="58" s="1" customFormat="1" customHeight="1" spans="2:23">
       <c r="B58" s="2"/>
-    </row>
-    <row r="59" s="1" customFormat="1" customHeight="1" spans="2:2">
+      <c r="W58" s="7"/>
+    </row>
+    <row r="59" s="1" customFormat="1" customHeight="1" spans="2:23">
       <c r="B59" s="2"/>
-    </row>
-    <row r="60" s="1" customFormat="1" customHeight="1"/>
-    <row r="61" s="1" customFormat="1" customHeight="1"/>
-    <row r="62" s="1" customFormat="1" customHeight="1"/>
-    <row r="63" s="1" customFormat="1" customHeight="1"/>
-    <row r="64" s="1" customFormat="1" customHeight="1"/>
-    <row r="65" s="1" customFormat="1" customHeight="1"/>
-    <row r="66" s="1" customFormat="1" customHeight="1" spans="1:1">
+      <c r="W59" s="7"/>
+    </row>
+    <row r="60" s="1" customFormat="1" customHeight="1" spans="23:23">
+      <c r="W60" s="7"/>
+    </row>
+    <row r="61" s="1" customFormat="1" customHeight="1" spans="23:23">
+      <c r="W61" s="7"/>
+    </row>
+    <row r="62" s="1" customFormat="1" customHeight="1" spans="23:23">
+      <c r="W62" s="7"/>
+    </row>
+    <row r="63" s="1" customFormat="1" customHeight="1" spans="23:23">
+      <c r="W63" s="7"/>
+    </row>
+    <row r="64" s="1" customFormat="1" customHeight="1" spans="23:23">
+      <c r="W64" s="7"/>
+    </row>
+    <row r="65" s="1" customFormat="1" customHeight="1" spans="23:23">
+      <c r="W65" s="7"/>
+    </row>
+    <row r="66" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A66" s="2"/>
-    </row>
-    <row r="67" s="1" customFormat="1" customHeight="1" spans="1:1">
+      <c r="W66" s="7"/>
+    </row>
+    <row r="67" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A67" s="2"/>
-    </row>
-    <row r="68" s="1" customFormat="1" customHeight="1" spans="1:1">
+      <c r="W67" s="7"/>
+    </row>
+    <row r="68" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A68" s="2"/>
-    </row>
-    <row r="69" s="1" customFormat="1" customHeight="1"/>
-    <row r="70" s="1" customFormat="1" customHeight="1"/>
-    <row r="71" s="1" customFormat="1" customHeight="1" spans="7:14">
+      <c r="W68" s="7"/>
+    </row>
+    <row r="69" s="1" customFormat="1" customHeight="1" spans="23:23">
+      <c r="W69" s="7"/>
+    </row>
+    <row r="70" s="1" customFormat="1" customHeight="1" spans="23:23">
+      <c r="W70" s="7"/>
+    </row>
+    <row r="71" s="1" customFormat="1" customHeight="1" spans="7:23">
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
@@ -3445,8 +4514,9 @@
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
-    </row>
-    <row r="72" s="1" customFormat="1" customHeight="1" spans="7:14">
+      <c r="W71" s="7"/>
+    </row>
+    <row r="72" s="1" customFormat="1" customHeight="1" spans="7:23">
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -3455,8 +4525,9 @@
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
-    </row>
-    <row r="73" s="1" customFormat="1" customHeight="1" spans="7:14">
+      <c r="W72" s="7"/>
+    </row>
+    <row r="73" s="1" customFormat="1" customHeight="1" spans="7:23">
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -3465,8 +4536,9 @@
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
-    </row>
-    <row r="74" s="1" customFormat="1" customHeight="1" spans="7:14">
+      <c r="W73" s="7"/>
+    </row>
+    <row r="74" s="1" customFormat="1" customHeight="1" spans="7:23">
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
@@ -3475,8 +4547,9 @@
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
-    </row>
-    <row r="75" s="1" customFormat="1" customHeight="1" spans="7:14">
+      <c r="W74" s="7"/>
+    </row>
+    <row r="75" s="1" customFormat="1" customHeight="1" spans="7:23">
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
@@ -3485,8 +4558,9 @@
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
-    </row>
-    <row r="76" s="1" customFormat="1" customHeight="1" spans="7:14">
+      <c r="W75" s="7"/>
+    </row>
+    <row r="76" s="1" customFormat="1" customHeight="1" spans="7:23">
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -3495,8 +4569,9 @@
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
-    </row>
-    <row r="77" s="1" customFormat="1" customHeight="1" spans="7:14">
+      <c r="W76" s="7"/>
+    </row>
+    <row r="77" s="1" customFormat="1" customHeight="1" spans="7:23">
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -3505,8 +4580,9 @@
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
-    </row>
-    <row r="78" s="1" customFormat="1" customHeight="1" spans="7:14">
+      <c r="W77" s="7"/>
+    </row>
+    <row r="78" s="1" customFormat="1" customHeight="1" spans="7:23">
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -3515,8 +4591,9 @@
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
-    </row>
-    <row r="79" s="1" customFormat="1" customHeight="1" spans="7:14">
+      <c r="W78" s="7"/>
+    </row>
+    <row r="79" s="1" customFormat="1" customHeight="1" spans="7:23">
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
@@ -3525,8 +4602,9 @@
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
-    </row>
-    <row r="80" s="1" customFormat="1" customHeight="1" spans="2:14">
+      <c r="W79" s="7"/>
+    </row>
+    <row r="80" s="1" customFormat="1" customHeight="1" spans="2:23">
       <c r="B80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -3536,8 +4614,9 @@
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
-    </row>
-    <row r="81" s="1" customFormat="1" customHeight="1" spans="2:14">
+      <c r="W80" s="7"/>
+    </row>
+    <row r="81" s="1" customFormat="1" customHeight="1" spans="2:23">
       <c r="B81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -3547,8 +4626,9 @@
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
-    </row>
-    <row r="82" s="1" customFormat="1" customHeight="1" spans="2:14">
+      <c r="W81" s="7"/>
+    </row>
+    <row r="82" s="1" customFormat="1" customHeight="1" spans="2:23">
       <c r="B82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -3558,8 +4638,9 @@
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
-    </row>
-    <row r="83" s="1" customFormat="1" customHeight="1" spans="2:14">
+      <c r="W82" s="7"/>
+    </row>
+    <row r="83" s="1" customFormat="1" customHeight="1" spans="2:23">
       <c r="B83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -3569,8 +4650,9 @@
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
-    </row>
-    <row r="84" s="1" customFormat="1" customHeight="1" spans="2:14">
+      <c r="W83" s="7"/>
+    </row>
+    <row r="84" s="1" customFormat="1" customHeight="1" spans="2:23">
       <c r="B84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
@@ -3580,8 +4662,9 @@
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
-    </row>
-    <row r="85" s="1" customFormat="1" customHeight="1" spans="2:14">
+      <c r="W84" s="7"/>
+    </row>
+    <row r="85" s="1" customFormat="1" customHeight="1" spans="2:23">
       <c r="B85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
@@ -3591,8 +4674,9 @@
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
-    </row>
-    <row r="86" s="1" customFormat="1" customHeight="1" spans="2:14">
+      <c r="W85" s="7"/>
+    </row>
+    <row r="86" s="1" customFormat="1" customHeight="1" spans="2:23">
       <c r="B86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
@@ -3602,8 +4686,9 @@
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
-    </row>
-    <row r="87" s="1" customFormat="1" customHeight="1" spans="2:14">
+      <c r="W86" s="7"/>
+    </row>
+    <row r="87" s="1" customFormat="1" customHeight="1" spans="2:23">
       <c r="B87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
@@ -3613,8 +4698,9 @@
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
-    </row>
-    <row r="88" s="1" customFormat="1" customHeight="1" spans="2:14">
+      <c r="W87" s="7"/>
+    </row>
+    <row r="88" s="1" customFormat="1" customHeight="1" spans="2:23">
       <c r="B88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
@@ -3624,8 +4710,9 @@
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
-    </row>
-    <row r="89" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W88" s="7"/>
+    </row>
+    <row r="89" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="G89" s="2"/>
@@ -3636,8 +4723,9 @@
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
-    </row>
-    <row r="90" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W89" s="7"/>
+    </row>
+    <row r="90" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="G90" s="2"/>
@@ -3648,8 +4736,9 @@
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
-    </row>
-    <row r="91" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W90" s="7"/>
+    </row>
+    <row r="91" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="G91" s="2"/>
@@ -3660,8 +4749,9 @@
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
-    </row>
-    <row r="92" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W91" s="7"/>
+    </row>
+    <row r="92" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="G92" s="2"/>
@@ -3672,8 +4762,9 @@
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
-    </row>
-    <row r="93" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W92" s="7"/>
+    </row>
+    <row r="93" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="G93" s="2"/>
@@ -3684,8 +4775,9 @@
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
-    </row>
-    <row r="94" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W93" s="7"/>
+    </row>
+    <row r="94" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="G94" s="2"/>
@@ -3696,8 +4788,9 @@
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
-    </row>
-    <row r="95" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W94" s="7"/>
+    </row>
+    <row r="95" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="G95" s="2"/>
@@ -3708,8 +4801,9 @@
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
-    </row>
-    <row r="96" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W95" s="7"/>
+    </row>
+    <row r="96" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="G96" s="2"/>
@@ -3720,8 +4814,9 @@
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
-    </row>
-    <row r="97" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W96" s="7"/>
+    </row>
+    <row r="97" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="G97" s="2"/>
@@ -3732,8 +4827,9 @@
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
-    </row>
-    <row r="98" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W97" s="7"/>
+    </row>
+    <row r="98" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="G98" s="2"/>
@@ -3744,8 +4840,9 @@
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
-    </row>
-    <row r="99" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W98" s="7"/>
+    </row>
+    <row r="99" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="G99" s="2"/>
@@ -3756,8 +4853,9 @@
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
-    </row>
-    <row r="100" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W99" s="7"/>
+    </row>
+    <row r="100" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="G100" s="2"/>
@@ -3768,8 +4866,9 @@
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
-    </row>
-    <row r="101" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W100" s="7"/>
+    </row>
+    <row r="101" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="G101" s="2"/>
@@ -3780,8 +4879,9 @@
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
-    </row>
-    <row r="102" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W101" s="7"/>
+    </row>
+    <row r="102" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="G102" s="2"/>
@@ -3792,8 +4892,9 @@
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
-    </row>
-    <row r="103" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W102" s="7"/>
+    </row>
+    <row r="103" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="G103" s="2"/>
@@ -3804,8 +4905,9 @@
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
-    </row>
-    <row r="104" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W103" s="7"/>
+    </row>
+    <row r="104" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="G104" s="2"/>
@@ -3816,8 +4918,9 @@
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
-    </row>
-    <row r="105" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W104" s="7"/>
+    </row>
+    <row r="105" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="G105" s="2"/>
@@ -3828,8 +4931,9 @@
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
-    </row>
-    <row r="106" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W105" s="7"/>
+    </row>
+    <row r="106" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="G106" s="2"/>
@@ -3840,8 +4944,9 @@
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
-    </row>
-    <row r="107" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W106" s="7"/>
+    </row>
+    <row r="107" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="G107" s="2"/>
@@ -3852,8 +4957,9 @@
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
-    </row>
-    <row r="108" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W107" s="7"/>
+    </row>
+    <row r="108" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="G108" s="2"/>
@@ -3864,8 +4970,9 @@
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
-    </row>
-    <row r="109" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W108" s="7"/>
+    </row>
+    <row r="109" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="G109" s="2"/>
@@ -3876,8 +4983,9 @@
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
-    </row>
-    <row r="110" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W109" s="7"/>
+    </row>
+    <row r="110" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="G110" s="2"/>
@@ -3888,8 +4996,9 @@
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
-    </row>
-    <row r="111" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W110" s="7"/>
+    </row>
+    <row r="111" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="G111" s="2"/>
@@ -3900,8 +5009,9 @@
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
-    </row>
-    <row r="112" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W111" s="7"/>
+    </row>
+    <row r="112" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="G112" s="2"/>
@@ -3912,8 +5022,9 @@
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
-    </row>
-    <row r="113" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W112" s="7"/>
+    </row>
+    <row r="113" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="G113" s="2"/>
@@ -3924,8 +5035,9 @@
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
-    </row>
-    <row r="114" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W113" s="7"/>
+    </row>
+    <row r="114" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="G114" s="2"/>
@@ -3936,8 +5048,9 @@
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
-    </row>
-    <row r="115" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W114" s="7"/>
+    </row>
+    <row r="115" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="G115" s="2"/>
@@ -3948,8 +5061,9 @@
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
-    </row>
-    <row r="116" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W115" s="7"/>
+    </row>
+    <row r="116" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="G116" s="2"/>
@@ -3960,8 +5074,9 @@
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
-    </row>
-    <row r="117" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W116" s="7"/>
+    </row>
+    <row r="117" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="G117" s="2"/>
@@ -3972,8 +5087,9 @@
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
-    </row>
-    <row r="118" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W117" s="7"/>
+    </row>
+    <row r="118" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="G118" s="2"/>
@@ -3984,8 +5100,9 @@
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
-    </row>
-    <row r="119" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W118" s="7"/>
+    </row>
+    <row r="119" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="G119" s="2"/>
@@ -3996,8 +5113,9 @@
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
-    </row>
-    <row r="120" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W119" s="7"/>
+    </row>
+    <row r="120" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="G120" s="2"/>
@@ -4008,8 +5126,9 @@
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
-    </row>
-    <row r="121" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W120" s="7"/>
+    </row>
+    <row r="121" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="G121" s="2"/>
@@ -4020,8 +5139,9 @@
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
-    </row>
-    <row r="122" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W121" s="7"/>
+    </row>
+    <row r="122" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="G122" s="2"/>
@@ -4032,8 +5152,9 @@
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
-    </row>
-    <row r="123" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W122" s="7"/>
+    </row>
+    <row r="123" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="G123" s="2"/>
@@ -4044,8 +5165,9 @@
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
-    </row>
-    <row r="124" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W123" s="7"/>
+    </row>
+    <row r="124" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="G124" s="2"/>
@@ -4056,8 +5178,9 @@
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
-    </row>
-    <row r="125" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W124" s="7"/>
+    </row>
+    <row r="125" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="G125" s="2"/>
@@ -4068,8 +5191,9 @@
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
-    </row>
-    <row r="126" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W125" s="7"/>
+    </row>
+    <row r="126" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="G126" s="2"/>
@@ -4080,8 +5204,9 @@
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
-    </row>
-    <row r="127" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W126" s="7"/>
+    </row>
+    <row r="127" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="G127" s="2"/>
@@ -4092,8 +5217,9 @@
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
-    </row>
-    <row r="128" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W127" s="7"/>
+    </row>
+    <row r="128" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="G128" s="2"/>
@@ -4104,8 +5230,9 @@
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
-    </row>
-    <row r="129" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W128" s="7"/>
+    </row>
+    <row r="129" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="G129" s="2"/>
@@ -4116,8 +5243,9 @@
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
-    </row>
-    <row r="130" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W129" s="7"/>
+    </row>
+    <row r="130" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="G130" s="2"/>
@@ -4128,8 +5256,9 @@
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
-    </row>
-    <row r="131" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W130" s="7"/>
+    </row>
+    <row r="131" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="G131" s="2"/>
@@ -4140,8 +5269,9 @@
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
-    </row>
-    <row r="132" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W131" s="7"/>
+    </row>
+    <row r="132" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="G132" s="2"/>
@@ -4152,8 +5282,9 @@
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
-    </row>
-    <row r="133" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W132" s="7"/>
+    </row>
+    <row r="133" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="G133" s="2"/>
@@ -4164,8 +5295,9 @@
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
-    </row>
-    <row r="137" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W133" s="7"/>
+    </row>
+    <row r="137" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="G137" s="2"/>
@@ -4176,8 +5308,9 @@
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
-    </row>
-    <row r="138" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W137" s="7"/>
+    </row>
+    <row r="138" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="G138" s="2"/>
@@ -4188,8 +5321,9 @@
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
-    </row>
-    <row r="139" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W138" s="7"/>
+    </row>
+    <row r="139" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="G139" s="2"/>
@@ -4200,8 +5334,9 @@
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
-    </row>
-    <row r="140" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W139" s="7"/>
+    </row>
+    <row r="140" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="G140" s="2"/>
@@ -4212,8 +5347,9 @@
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
-    </row>
-    <row r="141" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W140" s="7"/>
+    </row>
+    <row r="141" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="G141" s="2"/>
@@ -4224,8 +5360,9 @@
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
-    </row>
-    <row r="142" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W141" s="7"/>
+    </row>
+    <row r="142" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="G142" s="2"/>
@@ -4236,8 +5373,9 @@
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
-    </row>
-    <row r="143" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W142" s="7"/>
+    </row>
+    <row r="143" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="G143" s="2"/>
@@ -4248,8 +5386,9 @@
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
-    </row>
-    <row r="144" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W143" s="7"/>
+    </row>
+    <row r="144" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="G144" s="2"/>
@@ -4260,8 +5399,9 @@
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
-    </row>
-    <row r="145" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W144" s="7"/>
+    </row>
+    <row r="145" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="G145" s="2"/>
@@ -4272,8 +5412,9 @@
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
-    </row>
-    <row r="146" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W145" s="7"/>
+    </row>
+    <row r="146" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="G146" s="2"/>
@@ -4284,8 +5425,9 @@
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
-    </row>
-    <row r="147" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W146" s="7"/>
+    </row>
+    <row r="147" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="G147" s="2"/>
@@ -4296,8 +5438,9 @@
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
-    </row>
-    <row r="148" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W147" s="7"/>
+    </row>
+    <row r="148" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="G148" s="2"/>
@@ -4308,8 +5451,9 @@
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
-    </row>
-    <row r="149" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W148" s="7"/>
+    </row>
+    <row r="149" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="G149" s="2"/>
@@ -4320,8 +5464,9 @@
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
-    </row>
-    <row r="150" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W149" s="7"/>
+    </row>
+    <row r="150" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="G150" s="2"/>
@@ -4332,8 +5477,9 @@
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
-    </row>
-    <row r="151" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W150" s="7"/>
+    </row>
+    <row r="151" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="G151" s="2"/>
@@ -4344,8 +5490,9 @@
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
-    </row>
-    <row r="152" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W151" s="7"/>
+    </row>
+    <row r="152" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="G152" s="2"/>
@@ -4356,8 +5503,9 @@
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
-    </row>
-    <row r="153" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W152" s="7"/>
+    </row>
+    <row r="153" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="G153" s="2"/>
@@ -4368,8 +5516,9 @@
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
-    </row>
-    <row r="154" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W153" s="7"/>
+    </row>
+    <row r="154" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="G154" s="2"/>
@@ -4380,8 +5529,9 @@
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
-    </row>
-    <row r="155" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W154" s="7"/>
+    </row>
+    <row r="155" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="G155" s="2"/>
@@ -4392,8 +5542,9 @@
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
-    </row>
-    <row r="156" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="W155" s="7"/>
+    </row>
+    <row r="156" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="G156" s="2"/>
@@ -4404,6 +5555,7 @@
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
+      <c r="W156" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/SoulRingAttrConfig.xlsx
+++ b/Excel/SoulRingAttrConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="100">
   <si>
     <t>#</t>
   </si>
@@ -315,6 +315,18 @@
   </si>
   <si>
     <t>友方减伤倍率增加70%</t>
+  </si>
+  <si>
+    <t>10级解锁命中光环</t>
+  </si>
+  <si>
+    <t>命中光环Lv{0}</t>
+  </si>
+  <si>
+    <t>友方命中概率增加{0}%</t>
+  </si>
+  <si>
+    <t>14,15,16,18,20,2006</t>
   </si>
 </sst>
 </file>
@@ -1300,8 +1312,8 @@
   <sheetPr/>
   <dimension ref="A1:AC156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1314,13 +1326,13 @@
     <col min="7" max="7" width="17" style="2" customWidth="1"/>
     <col min="8" max="8" width="19" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="2" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="7.75" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" style="2" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="8.375" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="2" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="13.25" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5" style="1" customWidth="1"/>
     <col min="17" max="17" width="5.25" style="2" customWidth="1"/>
     <col min="18" max="18" width="5.125" style="2" customWidth="1"/>
     <col min="19" max="22" width="4.375" style="2" customWidth="1"/>
@@ -4457,28 +4469,526 @@
       <c r="H56" s="5"/>
       <c r="W56" s="7"/>
     </row>
-    <row r="57" s="1" customFormat="1" customHeight="1" spans="2:23">
-      <c r="B57" s="2"/>
+    <row r="57" s="1" customFormat="1" customHeight="1" spans="3:29">
+      <c r="C57" s="1">
+        <v>801</v>
+      </c>
+      <c r="D57" s="1">
+        <v>8</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>9</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0</v>
+      </c>
+      <c r="M57" s="1">
+        <v>200000</v>
+      </c>
+      <c r="N57" s="1">
+        <v>200000</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>15</v>
+      </c>
+      <c r="R57" s="1">
+        <v>15</v>
+      </c>
+      <c r="S57" s="1">
+        <v>15</v>
+      </c>
+      <c r="T57" s="1">
+        <v>15</v>
+      </c>
+      <c r="U57" s="1">
+        <v>15</v>
+      </c>
+      <c r="V57" s="1">
+        <v>0</v>
+      </c>
       <c r="W57" s="7"/>
-    </row>
-    <row r="58" s="1" customFormat="1" customHeight="1" spans="2:23">
-      <c r="B58" s="2"/>
+      <c r="X57" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y57" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z57" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA57" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB57" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" customHeight="1" spans="3:29">
+      <c r="C58" s="1">
+        <v>802</v>
+      </c>
+      <c r="D58" s="1">
+        <v>8</v>
+      </c>
+      <c r="E58" s="1">
+        <v>10</v>
+      </c>
+      <c r="F58" s="1">
+        <v>19</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J58" s="1">
+        <v>8</v>
+      </c>
+      <c r="K58" s="1">
+        <v>1</v>
+      </c>
+      <c r="L58" s="1">
+        <v>1</v>
+      </c>
+      <c r="M58" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="N58" s="1">
+        <v>500000</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q58" s="1">
+        <f t="shared" ref="Q58:Q63" si="25">Q57+(F57-E57)*X57+X58</f>
+        <v>33</v>
+      </c>
+      <c r="R58" s="1">
+        <f t="shared" ref="R58:R63" si="26">R57+(F57-E57)*Y57+Y58</f>
+        <v>33</v>
+      </c>
+      <c r="S58" s="1">
+        <f t="shared" ref="S58:S63" si="27">S57+(F57-E57)*Z57+Z58</f>
+        <v>33</v>
+      </c>
+      <c r="T58" s="1">
+        <f t="shared" ref="T58:T63" si="28">T57+(F57-E57)*AA57+AA58</f>
+        <v>33</v>
+      </c>
+      <c r="U58" s="1">
+        <f t="shared" ref="U58:U63" si="29">U57+(F57-E57)*AB57+AB58</f>
+        <v>33</v>
+      </c>
+      <c r="V58" s="1">
+        <f t="shared" ref="V58:V63" si="30">V57+(F57-E57)*AC57+AC58</f>
+        <v>0</v>
+      </c>
       <c r="W58" s="7"/>
-    </row>
-    <row r="59" s="1" customFormat="1" customHeight="1" spans="2:23">
-      <c r="B59" s="2"/>
+      <c r="X58" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y58" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z58" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA58" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB58" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" customHeight="1" spans="3:29">
+      <c r="C59" s="1">
+        <v>803</v>
+      </c>
+      <c r="D59" s="1">
+        <v>8</v>
+      </c>
+      <c r="E59" s="1">
+        <v>20</v>
+      </c>
+      <c r="F59" s="1">
+        <v>29</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J59" s="1">
+        <v>8</v>
+      </c>
+      <c r="K59" s="1">
+        <v>11</v>
+      </c>
+      <c r="L59" s="1">
+        <v>1</v>
+      </c>
+      <c r="M59" s="1">
+        <f t="shared" ref="M59:M62" si="31">M58+(F58-E58)*N58+N59</f>
+        <v>7500000</v>
+      </c>
+      <c r="N59" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q59" s="1">
+        <f t="shared" si="25"/>
+        <v>54</v>
+      </c>
+      <c r="R59" s="1">
+        <f t="shared" si="26"/>
+        <v>54</v>
+      </c>
+      <c r="S59" s="1">
+        <f t="shared" si="27"/>
+        <v>54</v>
+      </c>
+      <c r="T59" s="1">
+        <f t="shared" si="28"/>
+        <v>54</v>
+      </c>
+      <c r="U59" s="1">
+        <f t="shared" si="29"/>
+        <v>54</v>
+      </c>
+      <c r="V59" s="1">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
       <c r="W59" s="7"/>
-    </row>
-    <row r="60" s="1" customFormat="1" customHeight="1" spans="23:23">
+      <c r="X59" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y59" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z59" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA59" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB59" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" customHeight="1" spans="3:29">
+      <c r="C60" s="1">
+        <v>804</v>
+      </c>
+      <c r="D60" s="1">
+        <v>8</v>
+      </c>
+      <c r="E60" s="1">
+        <v>30</v>
+      </c>
+      <c r="F60" s="1">
+        <v>49</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J60" s="1">
+        <v>8</v>
+      </c>
+      <c r="K60" s="1">
+        <v>21</v>
+      </c>
+      <c r="L60" s="1">
+        <v>1</v>
+      </c>
+      <c r="M60" s="1">
+        <f t="shared" si="31"/>
+        <v>18500000</v>
+      </c>
+      <c r="N60" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q60" s="1">
+        <f t="shared" si="25"/>
+        <v>84</v>
+      </c>
+      <c r="R60" s="1">
+        <f t="shared" si="26"/>
+        <v>84</v>
+      </c>
+      <c r="S60" s="1">
+        <f t="shared" si="27"/>
+        <v>84</v>
+      </c>
+      <c r="T60" s="1">
+        <f t="shared" si="28"/>
+        <v>84</v>
+      </c>
+      <c r="U60" s="1">
+        <f t="shared" si="29"/>
+        <v>84</v>
+      </c>
+      <c r="V60" s="1">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
       <c r="W60" s="7"/>
-    </row>
-    <row r="61" s="1" customFormat="1" customHeight="1" spans="23:23">
+      <c r="X60" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y60" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z60" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA60" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB60" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" customHeight="1" spans="3:29">
+      <c r="C61" s="1">
+        <v>805</v>
+      </c>
+      <c r="D61" s="1">
+        <v>8</v>
+      </c>
+      <c r="E61" s="1">
+        <v>50</v>
+      </c>
+      <c r="F61" s="1">
+        <v>79</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J61" s="1">
+        <v>8</v>
+      </c>
+      <c r="K61" s="1">
+        <v>41</v>
+      </c>
+      <c r="L61" s="1">
+        <v>1</v>
+      </c>
+      <c r="M61" s="1">
+        <f t="shared" si="31"/>
+        <v>60500000</v>
+      </c>
+      <c r="N61" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q61" s="1">
+        <f t="shared" si="25"/>
+        <v>145</v>
+      </c>
+      <c r="R61" s="1">
+        <f t="shared" si="26"/>
+        <v>145</v>
+      </c>
+      <c r="S61" s="1">
+        <f t="shared" si="27"/>
+        <v>145</v>
+      </c>
+      <c r="T61" s="1">
+        <f t="shared" si="28"/>
+        <v>145</v>
+      </c>
+      <c r="U61" s="1">
+        <f t="shared" si="29"/>
+        <v>145</v>
+      </c>
+      <c r="V61" s="1">
+        <f t="shared" si="30"/>
+        <v>21</v>
+      </c>
       <c r="W61" s="7"/>
-    </row>
-    <row r="62" s="1" customFormat="1" customHeight="1" spans="23:23">
+      <c r="X61" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y61" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z61" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA61" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB61" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" customHeight="1" spans="3:29">
+      <c r="C62" s="1">
+        <v>806</v>
+      </c>
+      <c r="D62" s="1">
+        <v>8</v>
+      </c>
+      <c r="E62" s="1">
+        <v>80</v>
+      </c>
+      <c r="F62" s="1">
+        <v>120</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J62" s="1">
+        <v>8</v>
+      </c>
+      <c r="K62" s="1">
+        <v>70</v>
+      </c>
+      <c r="L62" s="1">
+        <v>1</v>
+      </c>
+      <c r="M62" s="1">
+        <f t="shared" si="31"/>
+        <v>178500000</v>
+      </c>
+      <c r="N62" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q62" s="1">
+        <f t="shared" si="25"/>
+        <v>301</v>
+      </c>
+      <c r="R62" s="1">
+        <f t="shared" si="26"/>
+        <v>301</v>
+      </c>
+      <c r="S62" s="1">
+        <f t="shared" si="27"/>
+        <v>301</v>
+      </c>
+      <c r="T62" s="1">
+        <f t="shared" si="28"/>
+        <v>301</v>
+      </c>
+      <c r="U62" s="1">
+        <f t="shared" si="29"/>
+        <v>301</v>
+      </c>
+      <c r="V62" s="1">
+        <f t="shared" si="30"/>
+        <v>52</v>
+      </c>
       <c r="W62" s="7"/>
-    </row>
-    <row r="63" s="1" customFormat="1" customHeight="1" spans="23:23">
+      <c r="X62" s="1">
+        <v>40</v>
+      </c>
+      <c r="Y62" s="1">
+        <v>40</v>
+      </c>
+      <c r="Z62" s="1">
+        <v>40</v>
+      </c>
+      <c r="AA62" s="1">
+        <v>40</v>
+      </c>
+      <c r="AB62" s="1">
+        <v>40</v>
+      </c>
+      <c r="AC62" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" customHeight="1" spans="8:23">
+      <c r="H63" s="5"/>
+      <c r="N63" s="2"/>
       <c r="W63" s="7"/>
     </row>
     <row r="64" s="1" customFormat="1" customHeight="1" spans="23:23">

--- a/Excel/SoulRingAttrConfig.xlsx
+++ b/Excel/SoulRingAttrConfig.xlsx
@@ -1313,7 +1313,7 @@
   <dimension ref="A1:AC156"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+      <selection activeCell="L66" sqref="L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
